--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayleigh\Documents\HVI share\HVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D856325F-F19C-4D73-BD07-7BEC7CE87FFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C793B0C-EFB0-4441-BA1A-BC71F3DE740A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="8790" activeTab="1" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="8790" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Al 7005</t>
   </si>
@@ -156,19 +157,25 @@
     <t>Percentage of conversion to particles due to temperature (%)</t>
   </si>
   <si>
-    <t>number deleted by temp</t>
+    <t>GRAPHICAL RESULTS</t>
   </si>
   <si>
-    <t>number deleted</t>
+    <t>DENSITY RESULTS</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>NOTES PAGE</t>
   </si>
   <si>
-    <t>File number</t>
+    <t>Material Options:</t>
   </si>
   <si>
-    <t>Total % deleted by temperature</t>
+    <t>Impact Velocity</t>
+  </si>
+  <si>
+    <t>Wc parameter</t>
+  </si>
+  <si>
+    <t>Friction coefficient</t>
   </si>
 </sst>
 </file>
@@ -176,9 +183,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="175" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +225,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -251,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -311,36 +323,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -358,6 +387,5785 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Target hole diameter as a function of density</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23627627627627629"/>
+          <c:y val="3.0888018367426356E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AA6061-T6 </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7000000000000002E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8966-4EA6-9045-C9ED2DD694A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1593113264"/>
+        <c:axId val="1767837104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1593113264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000"/>
+                  <a:t>Density (tonne/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>mm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1767837104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1767837104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Target hole diameter (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1593113264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Debris cloud diameter as a function of density</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23627627627627629"/>
+          <c:y val="3.0888018367426356E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AA6061-T6 </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7000000000000002E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>62.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-717B-417A-BE16-DE5855DB8D02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1593113264"/>
+        <c:axId val="1767837104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1593113264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000"/>
+                  <a:t>Density (tonne/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>mm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1767837104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1767837104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Debris cloud diameter (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1593113264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Percentage of solid material in debris cloud </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>as a function of density</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12456456456456456"/>
+          <c:y val="3.4320020408251509E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AA6061-T6 </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7000000000000002E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25.9016393442623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9501-4AD1-B30E-0884540977CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1593113264"/>
+        <c:axId val="1767837104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1593113264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000"/>
+                  <a:t>Density (tonne/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>mm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1767837104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1767837104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Percentage of solid material in debris cloud (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1593113264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Residual velocity as a function of density</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23627627627627629"/>
+          <c:y val="3.0888018367426356E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AA6061-T6 </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7000000000000002E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6470000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-234D-4D7B-8EBA-1CBF7BC82128}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1593113264"/>
+        <c:axId val="1767837104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1593113264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000"/>
+                  <a:t>Density (tonne/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>mm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1767837104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1767837104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Residual</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> velocity </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>(m/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1593113264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Percentage of conversion to particles due to temperature </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>as a function of density</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17021021021021018"/>
+          <c:y val="4.4616026530726959E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AA6061-T6 </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7000000000000002E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBB7-4C7B-9713-D86DDBF95EFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1593113264"/>
+        <c:axId val="1767837104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1593113264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000"/>
+                  <a:t>Density (tonne/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>mm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1767837104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1767837104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Percentage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of conversion to particles due to temperature </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>(%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1593113264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>109539</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAB616AD-E1A5-463B-8C95-B4C1A9497E26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F410B25-E597-4EDA-99BD-4ACEFAD03512}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C209186C-2614-446F-950B-4C51566BA41C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>138114</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC82E2C1-5E03-41E1-9AFE-D55B9FF90FEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DEF1D19-DA55-40AF-AEAD-E0111FD56B9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -657,10 +6465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3128EFC3-025D-4161-805A-04D4F0B566A5}">
-  <dimension ref="C4:E32"/>
+  <dimension ref="C2:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,148 +6478,184 @@
     <col min="5" max="5" width="78.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="7" t="s">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="8"/>
-      <c r="D5" s="4"/>
-    </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="8"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="8"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="9"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="12"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="28"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="14"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="15"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="2"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="25"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="2" t="s">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="2" t="s">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="2" t="s">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="2" t="s">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E25" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="2" t="s">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E26" s="2" t="s">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E29" s="2" t="s">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E30" s="2" t="s">
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E31" s="2" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E32" s="2" t="s">
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="21" t="s">
         <v>11</v>
       </c>
     </row>
@@ -823,10 +6667,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F425B10-5B6F-4D38-8EC8-85892A4FDDD6}">
-  <dimension ref="B4:I40"/>
+  <dimension ref="B4:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,324 +6686,381 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="21"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="D5" s="6">
+        <v>2.7000000000000002E-9</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="C6" s="16"/>
-      <c r="G6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="C7" s="16"/>
-      <c r="G7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
-      <c r="C8" s="16"/>
-      <c r="G8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="4"/>
+      <c r="G10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="I9" s="21"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
-      <c r="C10" s="16" t="s">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <v>5.86</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="16" t="s">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D11">
-        <f>D10*2</f>
+      <c r="D13">
+        <f>D12*2</f>
         <v>11.72</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="16" t="s">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <v>62.2</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
-      <c r="C13" s="16" t="s">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="C15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D15" s="6">
         <v>1.22E-6</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-      <c r="C14" s="16" t="s">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D16" s="6">
         <v>3.1600000000000002E-7</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
-      <c r="C15" s="16" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="19">
-        <f>(D14/D13)*100</f>
+      <c r="D17" s="7">
+        <f>(D16/D15)*100</f>
         <v>25.9016393442623</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
-      <c r="C16" s="16" t="s">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="C18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D18" s="6">
         <v>6470000</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="I16" s="21"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="I18" s="9"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
-      <c r="C17" s="16" t="s">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="I17" s="21"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="I18" s="21"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="D19" s="6" t="e">
+        <f>D42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="I20" s="21"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
-      <c r="C22" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="21"/>
-      <c r="C23" s="16">
-        <v>0</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
-      <c r="C24" s="16">
-        <v>1</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
-      <c r="C25" s="16">
-        <v>2</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="21"/>
-      <c r="C26" s="16">
-        <v>3</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
-      <c r="C27" s="16">
-        <v>4</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="16">
-        <v>5</v>
-      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="16">
-        <v>6</v>
-      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="16">
-        <v>7</v>
-      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="16">
-        <v>8</v>
-      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="16">
-        <v>9</v>
-      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="16">
-        <v>10</v>
-      </c>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="10"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="16">
-        <v>11</v>
-      </c>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="10"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="16">
-        <v>12</v>
-      </c>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="10"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="16">
-        <v>13</v>
-      </c>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="10"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="16">
-        <v>14</v>
-      </c>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="10"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="16">
-        <v>15</v>
-      </c>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="10"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="24" t="s">
-        <v>38</v>
-      </c>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="10"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="24" t="s">
-        <v>40</v>
-      </c>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="10"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="30"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="30"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20CB03-FDC1-47B9-AF99-E205AFF1D2E2}">
+  <dimension ref="C3:M3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AB30" sqref="AB30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="L3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayleigh\Documents\HVI share\HVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C793B0C-EFB0-4441-BA1A-BC71F3DE740A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF49FEC-202C-475B-A620-431D215D9218}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="8790" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="8790" activeTab="2" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>Al 7005</t>
   </si>
@@ -176,6 +176,33 @@
   </si>
   <si>
     <t>Friction coefficient</t>
+  </si>
+  <si>
+    <t>Mesh size</t>
+  </si>
+  <si>
+    <t>t/D ratio</t>
+  </si>
+  <si>
+    <t>Target thickness (t)</t>
+  </si>
+  <si>
+    <t>Diameter of debris particle (D)</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Kinetic Energy of the projectile (% of initial projectile kinetic energy)</t>
+  </si>
+  <si>
+    <t>Global kinetic energy (% of initial global kinetic energy)</t>
+  </si>
+  <si>
+    <t>Ballistic limit curve - 'critical diameter' against velocity</t>
+  </si>
+  <si>
+    <t>//</t>
   </si>
 </sst>
 </file>
@@ -336,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -370,6 +397,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -514,7 +544,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$13</c:f>
+              <c:f>Sheet2!$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1058,7 +1088,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$14</c:f>
+              <c:f>Sheet2!$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1636,7 +1666,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$17</c:f>
+              <c:f>Sheet2!$D$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2180,7 +2210,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$18</c:f>
+              <c:f>Sheet2!$D$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2766,13 +2796,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$19</c:f>
+              <c:f>Sheet2!$D$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6467,7 +6494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3128EFC3-025D-4161-805A-04D4F0B566A5}">
   <dimension ref="C2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -6667,16 +6694,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F425B10-5B6F-4D38-8EC8-85892A4FDDD6}">
-  <dimension ref="B4:I42"/>
+  <dimension ref="B4:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="57.5703125" customWidth="1"/>
+    <col min="3" max="3" width="63.7109375" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
@@ -6696,7 +6723,9 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
+      <c r="B5" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
@@ -6707,7 +6736,9 @@
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
+      <c r="B6" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
@@ -6733,60 +6764,55 @@
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G9" s="9"/>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G10" s="9"/>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="5" t="s">
-        <v>34</v>
+      <c r="C11" s="4" t="s">
+        <v>46</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
       <c r="G11" s="9"/>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
+      <c r="B12" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="C12" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
-      <c r="D12">
-        <v>5.86</v>
-      </c>
-      <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="4" t="s">
-        <v>26</v>
+      <c r="C13" s="5" t="s">
+        <v>34</v>
       </c>
-      <c r="D13">
-        <f>D12*2</f>
-        <v>11.72</v>
-      </c>
-      <c r="F13" s="9"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="9"/>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>62.2</v>
+        <v>5.86</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -6795,10 +6821,11 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
-      <c r="D15" s="6">
-        <v>1.22E-6</v>
+      <c r="D15">
+        <f>D14*2</f>
+        <v>11.72</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -6807,10 +6834,10 @@
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
-      <c r="D16" s="6">
-        <v>3.1600000000000002E-7</v>
+      <c r="D16">
+        <v>62.2</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -6819,11 +6846,10 @@
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
-      <c r="D17" s="7">
-        <f>(D16/D15)*100</f>
-        <v>25.9016393442623</v>
+      <c r="D17" s="6">
+        <v>1.22E-6</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -6832,10 +6858,10 @@
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D18" s="6">
-        <v>6470000</v>
+        <v>3.1600000000000002E-7</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -6844,11 +6870,11 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
-      <c r="D19" s="6" t="e">
-        <f>D42</f>
-        <v>#DIV/0!</v>
+      <c r="D19" s="7">
+        <f>(D18/D17)*100</f>
+        <v>25.9016393442623</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -6856,54 +6882,66 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="9"/>
+      <c r="C20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="6">
+        <v>6470000</v>
+      </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="6"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="11"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
+      <c r="C25" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -6914,8 +6952,8 @@
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -6952,16 +6990,24 @@
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="9"/>
       <c r="C30" s="10"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="9"/>
       <c r="C31" s="10"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C32" s="10"/>
@@ -7018,16 +7064,28 @@
       <c r="F40" s="9"/>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="30"/>
+      <c r="C41" s="10"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="30"/>
+      <c r="C42" s="10"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="30"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="30"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7038,8 +7096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20CB03-FDC1-47B9-AF99-E205AFF1D2E2}">
   <dimension ref="C3:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AB30" sqref="AB30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V52" sqref="V52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayleigh\Documents\HVI share\HVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF49FEC-202C-475B-A620-431D215D9218}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51BB782-522F-4F23-84AE-2887AB515414}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="8790" activeTab="2" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>Al 7005</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>//</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -544,10 +547,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$15</c:f>
+              <c:f>Sheet2!$D$15:$AL$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>11.72</c:v>
                 </c:pt>
@@ -1088,10 +1091,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$16</c:f>
+              <c:f>Sheet2!$D$16:$AK$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>62.2</c:v>
                 </c:pt>
@@ -2800,6 +2803,9 @@
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.35</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6696,8 +6702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F425B10-5B6F-4D38-8EC8-85892A4FDDD6}">
   <dimension ref="B4:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6897,7 +6903,9 @@
       <c r="C21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="6">
+        <v>1.35</v>
+      </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="I21" s="9"/>
@@ -7094,10 +7102,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20CB03-FDC1-47B9-AF99-E205AFF1D2E2}">
-  <dimension ref="C3:M3"/>
+  <dimension ref="C3:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V52" sqref="V52"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7117,6 +7125,11 @@
       </c>
       <c r="M3" s="15"/>
     </row>
+    <row r="20" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z20" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayleigh\Documents\HVI share\HVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51BB782-522F-4F23-84AE-2887AB515414}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5003B7C7-3C0F-4DA4-B4A7-CA252AC04FBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="8790" activeTab="2" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>Al 7005</t>
   </si>
@@ -203,9 +203,6 @@
   </si>
   <si>
     <t>//</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -535,11 +532,11 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$5</c:f>
+              <c:f>Sheet2!$D$5:$BA$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0" formatCode="0.00E+00">
                   <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
@@ -645,7 +642,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB" sz="1000"/>
-                  <a:t>Density (tonne/</a:t>
+                  <a:t>Density (ton/</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" sz="1000">
@@ -1079,11 +1076,11 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$5</c:f>
+              <c:f>Sheet2!$D$5:$BE$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0" formatCode="0.00E+00">
                   <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
@@ -1189,7 +1186,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB" sz="1000"/>
-                  <a:t>Density (tonne/</a:t>
+                  <a:t>Density (ton/</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" sz="1000">
@@ -1657,11 +1654,11 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$5</c:f>
+              <c:f>Sheet2!$D$5:$AY$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0" formatCode="0.00E+00">
                   <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
@@ -1669,11 +1666,11 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$19</c:f>
+              <c:f>Sheet2!$D$19:$AT$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0" formatCode="0.0">
                   <c:v>25.9016393442623</c:v>
                 </c:pt>
               </c:numCache>
@@ -1767,7 +1764,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB" sz="1000"/>
-                  <a:t>Density (tonne/</a:t>
+                  <a:t>Density (ton/</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" sz="1000">
@@ -2201,11 +2198,11 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$5</c:f>
+              <c:f>Sheet2!$D$5:$AY$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0" formatCode="0.00E+00">
                   <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
@@ -2213,11 +2210,11 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$20</c:f>
+              <c:f>Sheet2!$D$20:$AX$20</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0" formatCode="0.00E+00">
                   <c:v>6470000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2311,7 +2308,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB" sz="1000"/>
-                  <a:t>Density (tonne/</a:t>
+                  <a:t>Density (ton/</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" sz="1000">
@@ -2787,11 +2784,11 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$5</c:f>
+              <c:f>Sheet2!$D$5:$BH$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0" formatCode="0.00E+00">
                   <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
@@ -2799,11 +2796,11 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$21</c:f>
+              <c:f>Sheet2!$D$21:$BM$21</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0" formatCode="0.00E+00">
                   <c:v>1.35</c:v>
                 </c:pt>
               </c:numCache>
@@ -2897,7 +2894,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB" sz="1000"/>
-                  <a:t>Density (tonne/</a:t>
+                  <a:t>Density (ton/</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" sz="1000">
@@ -6702,8 +6699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F425B10-5B6F-4D38-8EC8-85892A4FDDD6}">
   <dimension ref="B4:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6825,7 +6822,9 @@
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
+      <c r="B15" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
@@ -6838,7 +6837,9 @@
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
+      <c r="B16" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="C16" s="4" t="s">
         <v>27</v>
       </c>
@@ -6850,7 +6851,7 @@
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="4" t="s">
         <v>30</v>
       </c>
@@ -6862,7 +6863,7 @@
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="4" t="s">
         <v>31</v>
       </c>
@@ -6874,7 +6875,9 @@
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
+      <c r="B19" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
       </c>
@@ -6887,7 +6890,9 @@
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
+      <c r="B20" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="C20" s="4" t="s">
         <v>28</v>
       </c>
@@ -6899,7 +6904,9 @@
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
+      <c r="B21" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="C21" s="4" t="s">
         <v>35</v>
       </c>
@@ -7102,10 +7109,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20CB03-FDC1-47B9-AF99-E205AFF1D2E2}">
-  <dimension ref="C3:Z20"/>
+  <dimension ref="C3:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA37" sqref="AA37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7125,11 +7132,6 @@
       </c>
       <c r="M3" s="15"/>
     </row>
-    <row r="20" spans="26:26" x14ac:dyDescent="0.25">
-      <c r="Z20" t="s">
-        <v>52</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayleigh\Documents\HVI share\HVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5003B7C7-3C0F-4DA4-B4A7-CA252AC04FBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E068479-8B99-4F05-A744-75B5ABF190D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="8790" activeTab="2" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="8790" activeTab="1" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>Al 7005</t>
   </si>
@@ -127,16 +128,7 @@
     <t>AA6061-T6 (Rannveig Model)</t>
   </si>
   <si>
-    <t>Target hole diameter (mm)</t>
-  </si>
-  <si>
-    <t>Debris cloud diameter (mm)</t>
-  </si>
-  <si>
     <t>Residual velocity</t>
-  </si>
-  <si>
-    <t>Percentage of solid material in debris cloud (%)</t>
   </si>
   <si>
     <t>Original Mass</t>
@@ -145,16 +137,10 @@
     <t>Final mass of particle</t>
   </si>
   <si>
-    <t>Target hole radius (mm)</t>
-  </si>
-  <si>
     <t>Material Properties</t>
   </si>
   <si>
     <t>Results</t>
-  </si>
-  <si>
-    <t>Percentage of conversion to particles due to temperature (%)</t>
   </si>
   <si>
     <t>GRAPHICAL RESULTS</t>
@@ -193,16 +179,49 @@
     <t>*</t>
   </si>
   <si>
-    <t>Kinetic Energy of the projectile (% of initial projectile kinetic energy)</t>
-  </si>
-  <si>
-    <t>Global kinetic energy (% of initial global kinetic energy)</t>
-  </si>
-  <si>
     <t>Ballistic limit curve - 'critical diameter' against velocity</t>
   </si>
   <si>
     <t>//</t>
+  </si>
+  <si>
+    <t>mm/s</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of solid material in debris cloud </t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Percentage of conversion to particles due to temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinetic Energy of the projectile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global kinetic energy </t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debris cloud diameter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target hole diameter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target hole radius </t>
+  </si>
+  <si>
+    <t>% of initial projectile ke</t>
+  </si>
+  <si>
+    <t>% of initial global ke</t>
   </si>
 </sst>
 </file>
@@ -532,7 +551,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$5:$BA$5</c:f>
+              <c:f>Sheet2!$E$5:$BB$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -544,7 +563,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$15:$AL$15</c:f>
+              <c:f>Sheet2!$E$15:$AM$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -1076,7 +1095,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$5:$BE$5</c:f>
+              <c:f>Sheet2!$E$5:$BF$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
@@ -1088,7 +1107,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$16:$AK$16</c:f>
+              <c:f>Sheet2!$E$16:$AL$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
@@ -1654,7 +1673,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$5:$AY$5</c:f>
+              <c:f>Sheet2!$E$5:$AZ$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -1666,7 +1685,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$19:$AT$19</c:f>
+              <c:f>Sheet2!$E$19:$AU$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
@@ -2198,7 +2217,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$5:$AY$5</c:f>
+              <c:f>Sheet2!$E$5:$AZ$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -2210,7 +2229,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$20:$AX$20</c:f>
+              <c:f>Sheet2!$E$20:$AY$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
@@ -2784,7 +2803,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$5:$BH$5</c:f>
+              <c:f>Sheet2!$E$5:$BI$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="57"/>
@@ -2796,7 +2815,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$21:$BM$21</c:f>
+              <c:f>Sheet2!$E$21:$BN$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
@@ -6498,7 +6517,7 @@
   <dimension ref="C2:E32"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6510,12 +6529,12 @@
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" s="17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="29" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="3:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6697,410 +6716,475 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F425B10-5B6F-4D38-8EC8-85892A4FDDD6}">
-  <dimension ref="B4:I44"/>
+  <dimension ref="B4:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="63.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="52" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="5"/>
       <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="10"/>
+      <c r="E5" s="6">
         <v>2.7000000000000002E-9</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="31" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="I6" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="6">
+        <v>6700000</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="I7" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="H7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="I8" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="I9" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="H9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="I10" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="H10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="I11" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="H11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="I12" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="H12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="15"/>
+        <v>30</v>
+      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14">
+        <v>55</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14">
         <v>5.86</v>
       </c>
-      <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15">
-        <f>D14*2</f>
+        <v>54</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15">
+        <f>E14*2</f>
         <v>11.72</v>
       </c>
-      <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="31" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16">
+        <v>53</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16">
         <v>62.2</v>
       </c>
-      <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
       <c r="C17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="6">
+        <v>27</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="6">
         <v>1.22E-6</v>
       </c>
-      <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
       <c r="C18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="6">
+        <v>28</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="6">
         <v>3.1600000000000002E-7</v>
       </c>
-      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="7">
-        <f>(D18/D17)*100</f>
+      <c r="D19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="7">
+        <f>(E18/E17)*100</f>
         <v>25.9016393442623</v>
       </c>
-      <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="31" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="6">
+        <v>26</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="6">
         <v>6470000</v>
       </c>
-      <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="6">
+        <v>49</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="6">
         <v>1.35</v>
       </c>
-      <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="11"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D25" s="4"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="9"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="9"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="9"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="9"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="9"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C32" s="10"/>
-      <c r="D32" s="9"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="10"/>
-      <c r="D33" s="9"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" s="10"/>
-      <c r="D34" s="9"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="10"/>
-      <c r="D35" s="9"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" s="10"/>
-      <c r="D36" s="9"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" s="10"/>
-      <c r="D37" s="9"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" s="10"/>
-      <c r="D38" s="9"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" s="10"/>
-      <c r="D39" s="9"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40" s="10"/>
-      <c r="D40" s="9"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C41" s="10"/>
-      <c r="D41" s="9"/>
+      <c r="D41" s="10"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" s="10"/>
-      <c r="D42" s="9"/>
+      <c r="D42" s="10"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43" s="30"/>
-      <c r="D43" s="9"/>
+      <c r="D43" s="30"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44" s="30"/>
-      <c r="D44" s="9"/>
+      <c r="D44" s="30"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7111,8 +7195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20CB03-FDC1-47B9-AF99-E205AFF1D2E2}">
   <dimension ref="C3:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA37" sqref="AA37"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7124,11 +7208,11 @@
   <sheetData>
     <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D3" s="16"/>
       <c r="L3" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M3" s="15"/>
     </row>
@@ -7136,4 +7220,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20077FD7-1EC0-41E4-96B7-2075AF4FD95D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayleigh\Documents\HVI share\HVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E068479-8B99-4F05-A744-75B5ABF190D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BC0600-CBAB-4B35-B43A-24C011B4615F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="8790" activeTab="1" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="147">
   <si>
     <t>Al 7005</t>
   </si>
@@ -223,6 +224,273 @@
   <si>
     <t>% of initial global ke</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ton/mm3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Density    x10-9   </t>
+  </si>
+  <si>
+    <t>Docol 600 DL</t>
+  </si>
+  <si>
+    <t>AA6061-T6</t>
+  </si>
+  <si>
+    <t>ALUMINIUM</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>STEEL</t>
+  </si>
+  <si>
+    <t>AA6070-O</t>
+  </si>
+  <si>
+    <t>AA6070-T4</t>
+  </si>
+  <si>
+    <t>AA6070-T6</t>
+  </si>
+  <si>
+    <t>AA6070-T7</t>
+  </si>
+  <si>
+    <t>Material Parameters</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>UNITS</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>bulk modulus</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>MPa</t>
+  </si>
+  <si>
+    <t>shear modulus</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>user mat type</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Young's modulus</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Poisson's ratio</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>Taylor-Quinney coefficient</t>
+  </si>
+  <si>
+    <t>xsi</t>
+  </si>
+  <si>
+    <t>specific heat capacity</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>Nmm/tonK</t>
+  </si>
+  <si>
+    <t>thermal expansion coefficient</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>K-1</t>
+  </si>
+  <si>
+    <t>E dot</t>
+  </si>
+  <si>
+    <t>s-1</t>
+  </si>
+  <si>
+    <t>cp*rho</t>
+  </si>
+  <si>
+    <t>melting temperature</t>
+  </si>
+  <si>
+    <t>tm</t>
+  </si>
+  <si>
+    <t>initial temperature</t>
+  </si>
+  <si>
+    <t>t0</t>
+  </si>
+  <si>
+    <t>room temperature</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>critical temperature</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>JC Yield stress</t>
+  </si>
+  <si>
+    <t>A / sigma0</t>
+  </si>
+  <si>
+    <t>JC hardening parameter</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>JC hardening param</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>JC softening param</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Voice hardening parameter</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Critical Cockcroft-Latham parameter</t>
+  </si>
+  <si>
+    <t>Wc</t>
+  </si>
+  <si>
+    <t>Mpa</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>sigma0</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Annealed</t>
+  </si>
+  <si>
+    <t>Naturally aged</t>
+  </si>
+  <si>
+    <t>Peak strength</t>
+  </si>
+  <si>
+    <t>Overaged</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>running</t>
+  </si>
+  <si>
+    <t>* Effects of heat treatment on the ballistic properties of AA6070 aluminium alloy J.K. Holmen a , J. Johnsen a , S. Jupp b , O.S. Hopperstad a , T. Børvik</t>
+  </si>
+  <si>
+    <t>Rannveig</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>** On the dynamic response of blast-loaded steel plates with andwithout pre-formed holesTaggedPD1XXV. AuneD2XXa,b,*,D3XXG. ValsamosD4XXc,D5XXF. CasadeiD6XXc,1,D7XXM. LangsethD8XXa,b,D9XXT. BørvikD10XXa</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>DP800</t>
+  </si>
 </sst>
 </file>
 
@@ -231,7 +499,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,8 +544,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,8 +595,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E1CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -378,23 +683,234 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -421,6 +937,203 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,22 +1264,22 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$5:$BB$5</c:f>
+              <c:f>Sheet2!$E$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>2.7000000000000002E-9</c:v>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$15:$AM$15</c:f>
+              <c:f>Sheet2!$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>11.72</c:v>
                 </c:pt>
@@ -577,6 +1290,65 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8966-4EA6-9045-C9ED2DD694A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Docol 600 DL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C819-47D6-82FF-C0257CCC2204}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -647,7 +1419,7 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -660,30 +1432,54 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000"/>
-                  <a:t>Density (ton/</a:t>
+                  <a:rPr lang="en-GB" sz="1100"/>
+                  <a:t>Density  </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000">
+                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>x10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>-9   </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100"/>
+                  <a:t>(ton/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>mm</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000" baseline="30000">
+                  <a:rPr lang="en-GB" sz="1100" baseline="30000">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>3</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000">
+                  <a:rPr lang="en-GB" sz="1100">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>)</a:t>
+                  <a:t>) </a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.34108515124134076"/>
+              <c:y val="0.90929218606099127"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -711,7 +1507,7 @@
                 <a:buFontTx/>
                 <a:buNone/>
                 <a:tabLst/>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -727,7 +1523,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1095,22 +1891,22 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$5:$BF$5</c:f>
+              <c:f>Sheet2!$E$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>2.7000000000000002E-9</c:v>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$16:$AL$16</c:f>
+              <c:f>Sheet2!$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>62.2</c:v>
                 </c:pt>
@@ -1121,6 +1917,65 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-717B-417A-BE16-DE5855DB8D02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Docol 600 DL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9DC-493F-A1BB-A7D857CD2930}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1191,7 +2046,7 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -1204,30 +2059,49 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000"/>
-                  <a:t>Density (ton/</a:t>
+                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Density  x10</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000">
+                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="30000">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>mm</a:t>
+                  <a:t>-9   </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000" baseline="30000">
+                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(ton/mm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="30000">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>3</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000">
+                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>)</a:t>
+                  <a:t>) </a:t>
                 </a:r>
+                <a:endParaRPr lang="en-GB" sz="1100">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.36564785257698645"/>
+              <c:y val="0.91272418810181644"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1255,7 +2129,7 @@
                 <a:buFontTx/>
                 <a:buNone/>
                 <a:tabLst/>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -1271,7 +2145,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1673,23 +2547,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$5:$AZ$5</c:f>
+              <c:f>Sheet2!$E$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>2.7000000000000002E-9</c:v>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$19:$AU$19</c:f>
+              <c:f>Sheet2!$E$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="0" formatCode="0.0">
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>25.9016393442623</c:v>
                 </c:pt>
               </c:numCache>
@@ -1699,6 +2573,65 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9501-4AD1-B30E-0884540977CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Docol 600 DL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.7377049180327875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C6CA-459E-90C3-C273EBE581AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1769,7 +2702,7 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -1782,30 +2715,49 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000"/>
-                  <a:t>Density (ton/</a:t>
+                  <a:rPr lang="en-GB" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Density  x10</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000">
+                  <a:rPr lang="en-GB" sz="1200" b="0" i="0" baseline="30000">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>mm</a:t>
+                  <a:t>-9   </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000" baseline="30000">
+                  <a:rPr lang="en-GB" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(ton/mm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="0" i="0" baseline="30000">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>3</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000">
+                  <a:rPr lang="en-GB" sz="1200" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>)</a:t>
+                  <a:t>) </a:t>
                 </a:r>
+                <a:endParaRPr lang="en-GB" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.32146027201145305"/>
+              <c:y val="0.89620261384852662"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1833,7 +2785,7 @@
                 <a:buFontTx/>
                 <a:buNone/>
                 <a:tabLst/>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -1849,7 +2801,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2217,23 +3169,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$5:$AZ$5</c:f>
+              <c:f>Sheet2!$E$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>2.7000000000000002E-9</c:v>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$20:$AY$20</c:f>
+              <c:f>Sheet2!$E$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
-                <c:pt idx="0" formatCode="0.00E+00">
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>6470000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2243,6 +3195,65 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-234D-4D7B-8EBA-1CBF7BC82128}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Docol 600 DL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6070000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-746B-4F13-8C4E-382187767210}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2313,7 +3324,7 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -2326,27 +3337,38 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000"/>
-                  <a:t>Density (ton/</a:t>
+                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Density  x10</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000">
+                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="30000">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>mm</a:t>
+                  <a:t>-9   </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000" baseline="30000">
+                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(ton/mm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="30000">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>3</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000">
+                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>)</a:t>
+                  <a:t>) </a:t>
                 </a:r>
+                <a:endParaRPr lang="en-GB" sz="1100">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2377,7 +3399,7 @@
                 <a:buFontTx/>
                 <a:buNone/>
                 <a:tabLst/>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -2393,7 +3415,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2411,7 +3433,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2532,7 +3554,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2720,8 +3742,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17021021021021018"/>
-          <c:y val="4.4616026530726959E-2"/>
+          <c:x val="0.16822821797443924"/>
+          <c:y val="3.4279978568570409E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2803,23 +3825,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$5:$BI$5</c:f>
+              <c:f>Sheet2!$E$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
-                <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>2.7000000000000002E-9</c:v>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$21:$BN$21</c:f>
+              <c:f>Sheet2!$E$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
-                <c:pt idx="0" formatCode="0.00E+00">
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>1.35</c:v>
                 </c:pt>
               </c:numCache>
@@ -2829,6 +3851,65 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CBB7-4C7B-9713-D86DDBF95EFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Docol 600 DL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F21A-4C2F-AF24-51ED110F963C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2899,7 +3980,7 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -2912,27 +3993,38 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000"/>
-                  <a:t>Density (ton/</a:t>
+                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Density  x10</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000">
+                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="30000">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>mm</a:t>
+                  <a:t>-9   </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000" baseline="30000">
+                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(ton/mm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="30000">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>3</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000">
+                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>)</a:t>
+                  <a:t>) </a:t>
                 </a:r>
+                <a:endParaRPr lang="en-GB" sz="1100">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2963,7 +4055,7 @@
                 <a:buFontTx/>
                 <a:buNone/>
                 <a:tabLst/>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -2979,7 +4071,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3089,6 +4181,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.8678373956930104E-3"/>
+              <c:y val="0.20193235535480544"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6178,16 +7278,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>54769</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>121444</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6520,191 +7620,191 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="78.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="17" t="s">
+    <row r="2" spans="3:4">
+      <c r="C2" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="29" t="s">
+    <row r="4" spans="3:4" ht="17.25" customHeight="1">
+      <c r="C4" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="22" t="s">
+    <row r="5" spans="3:4" ht="21" customHeight="1">
+      <c r="C5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="23"/>
-      <c r="D6" s="14" t="s">
+    <row r="6" spans="3:4">
+      <c r="C6" s="18"/>
+      <c r="D6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="24"/>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="24"/>
+    <row r="7" spans="3:4">
+      <c r="C7" s="19"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="19"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="25"/>
+    <row r="9" spans="3:4">
+      <c r="C9" s="20"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="26" t="s">
+    <row r="10" spans="3:4">
+      <c r="C10" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="27"/>
+    <row r="11" spans="3:4">
+      <c r="C11" s="22"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="28"/>
+    <row r="12" spans="3:4">
+      <c r="C12" s="23"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="22" t="s">
+    <row r="13" spans="3:4">
+      <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="24"/>
+    <row r="14" spans="3:4">
+      <c r="C14" s="19"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="25"/>
+    <row r="15" spans="3:4">
+      <c r="C15" s="20"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="5" t="s">
+    <row r="18" spans="3:5">
+      <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5">
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="15"/>
-      <c r="D22" s="15" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="21" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="21" t="s">
+    <row r="24" spans="3:5">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5">
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="5" t="s">
+    <row r="28" spans="3:5">
+      <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="18" t="s">
+      <c r="D28" s="10"/>
+      <c r="E28" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="21" t="s">
+    <row r="29" spans="3:5">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="21" t="s">
+    <row r="30" spans="3:5">
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="21" t="s">
+    <row r="31" spans="3:5">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="21" t="s">
+    <row r="32" spans="3:5">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6715,506 +7815,2027 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F425B10-5B6F-4D38-8EC8-85892A4FDDD6}">
-  <dimension ref="B4:J44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20077FD7-1EC0-41E4-96B7-2075AF4FD95D}">
+  <dimension ref="B3:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="52" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+    <row r="3" spans="2:17">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="28"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="28"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="28"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="M7" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="O7" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="2:17" ht="34.5" customHeight="1" thickBot="1">
+      <c r="B8" s="28"/>
+      <c r="C8" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="28"/>
+      <c r="C9" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="92">
+        <v>2.7000000000000002E-9</v>
+      </c>
+      <c r="G9" s="71">
+        <v>2.7000000000000002E-9</v>
+      </c>
+      <c r="H9" s="71">
+        <v>2.7000000000000002E-9</v>
+      </c>
+      <c r="I9" s="71">
+        <v>2.7000000000000002E-9</v>
+      </c>
+      <c r="J9" s="85">
+        <v>2.7000000000000002E-9</v>
+      </c>
+      <c r="K9" s="32">
+        <v>7.8500000000000008E-9</v>
+      </c>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="109"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="28"/>
+      <c r="C10" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="94">
+        <v>58333.33</v>
+      </c>
+      <c r="G10" s="40">
+        <v>58333.33</v>
+      </c>
+      <c r="H10" s="40">
+        <v>58333.33</v>
+      </c>
+      <c r="I10" s="40">
+        <v>58333.33</v>
+      </c>
+      <c r="J10" s="86">
+        <v>58333.33</v>
+      </c>
+      <c r="K10" s="32">
+        <v>205880</v>
+      </c>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="109"/>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="28"/>
+      <c r="C11" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="94">
+        <v>26923.08</v>
+      </c>
+      <c r="G11" s="40">
+        <v>26923.08</v>
+      </c>
+      <c r="H11" s="40">
+        <v>26923.08</v>
+      </c>
+      <c r="I11" s="40">
+        <v>26923.08</v>
+      </c>
+      <c r="J11" s="86">
+        <v>26923.08</v>
+      </c>
+      <c r="K11" s="32">
+        <v>78947</v>
+      </c>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="109"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="28"/>
+      <c r="C12" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="94">
+        <v>47</v>
+      </c>
+      <c r="G12" s="40">
+        <v>47</v>
+      </c>
+      <c r="H12" s="40">
+        <v>47</v>
+      </c>
+      <c r="I12" s="40">
+        <v>47</v>
+      </c>
+      <c r="J12" s="86">
+        <v>47</v>
+      </c>
+      <c r="K12" s="33">
+        <v>47</v>
+      </c>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="109"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="28"/>
+      <c r="C13" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="94">
+        <v>70000</v>
+      </c>
+      <c r="G13" s="40">
+        <v>70000</v>
+      </c>
+      <c r="H13" s="40">
+        <v>70000</v>
+      </c>
+      <c r="I13" s="40">
+        <v>70000</v>
+      </c>
+      <c r="J13" s="86">
+        <v>70000</v>
+      </c>
+      <c r="K13" s="32">
+        <v>210000</v>
+      </c>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="109"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="28"/>
+      <c r="C14" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="94">
+        <v>0.3</v>
+      </c>
+      <c r="G14" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="J14" s="86">
+        <v>0.3</v>
+      </c>
+      <c r="K14" s="33">
+        <v>0.33</v>
+      </c>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="109"/>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="28"/>
+      <c r="C15" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="94">
+        <v>0.9</v>
+      </c>
+      <c r="G15" s="40">
+        <v>0.9</v>
+      </c>
+      <c r="H15" s="40">
+        <v>0.9</v>
+      </c>
+      <c r="I15" s="40">
+        <v>0.9</v>
+      </c>
+      <c r="J15" s="86">
+        <v>0.9</v>
+      </c>
+      <c r="K15" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="109"/>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="28"/>
+      <c r="C16" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="93">
+        <v>910000000</v>
+      </c>
+      <c r="G16" s="38">
+        <v>910000000</v>
+      </c>
+      <c r="H16" s="38">
+        <v>910000000</v>
+      </c>
+      <c r="I16" s="38">
+        <v>910000000</v>
+      </c>
+      <c r="J16" s="87">
+        <v>910000000</v>
+      </c>
+      <c r="K16" s="32">
+        <v>452000000</v>
+      </c>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="109"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="28"/>
+      <c r="C17" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="93">
+        <v>2.3200000000000001E-5</v>
+      </c>
+      <c r="G17" s="38">
+        <v>2.3200000000000001E-5</v>
+      </c>
+      <c r="H17" s="41">
+        <v>2.3200000000000001E-5</v>
+      </c>
+      <c r="I17" s="41">
+        <v>2.3200000000000001E-5</v>
+      </c>
+      <c r="J17" s="88">
+        <v>2.3200000000000001E-5</v>
+      </c>
+      <c r="K17" s="32">
+        <v>2.3200000000000001E-5</v>
+      </c>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="109"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="28"/>
+      <c r="C18" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="99"/>
+      <c r="F18" s="93">
+        <v>1E-4</v>
+      </c>
+      <c r="G18" s="38">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H18" s="38">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I18" s="38">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J18" s="87">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K18" s="32">
+        <v>1E-4</v>
+      </c>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="109"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="28"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="99"/>
+      <c r="F19" s="93">
+        <v>2.4569999999999999</v>
+      </c>
+      <c r="G19" s="38">
+        <v>2.4569999999999999</v>
+      </c>
+      <c r="H19" s="38">
+        <v>2.4569999999999999</v>
+      </c>
+      <c r="I19" s="38">
+        <v>2.4569999999999999</v>
+      </c>
+      <c r="J19" s="87">
+        <v>2.4569999999999999</v>
+      </c>
+      <c r="K19" s="32">
+        <v>3.548</v>
+      </c>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="109"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="28"/>
+      <c r="C20" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="94">
+        <v>893</v>
+      </c>
+      <c r="G20" s="40">
+        <v>893</v>
+      </c>
+      <c r="H20" s="40">
+        <v>893</v>
+      </c>
+      <c r="I20" s="40">
+        <v>893</v>
+      </c>
+      <c r="J20" s="86">
+        <v>893</v>
+      </c>
+      <c r="K20" s="33">
+        <v>1800</v>
+      </c>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="109"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="28"/>
+      <c r="C21" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="94">
+        <v>293</v>
+      </c>
+      <c r="G21" s="40">
+        <v>293</v>
+      </c>
+      <c r="H21" s="40">
+        <v>293</v>
+      </c>
+      <c r="I21" s="40">
+        <v>293</v>
+      </c>
+      <c r="J21" s="86">
+        <v>293</v>
+      </c>
+      <c r="K21" s="33">
+        <v>293</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="109"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="28"/>
+      <c r="C22" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="94">
+        <v>293</v>
+      </c>
+      <c r="G22" s="40">
+        <v>293</v>
+      </c>
+      <c r="H22" s="40">
+        <v>293</v>
+      </c>
+      <c r="I22" s="40">
+        <v>293</v>
+      </c>
+      <c r="J22" s="86">
+        <v>293</v>
+      </c>
+      <c r="K22" s="33">
+        <v>293</v>
+      </c>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="109"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="28"/>
+      <c r="C23" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="94">
+        <v>893</v>
+      </c>
+      <c r="G23" s="40">
+        <v>893</v>
+      </c>
+      <c r="H23" s="40">
+        <v>893</v>
+      </c>
+      <c r="I23" s="40">
+        <v>893</v>
+      </c>
+      <c r="J23" s="86">
+        <v>893</v>
+      </c>
+      <c r="K23" s="33">
+        <v>893</v>
+      </c>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="109"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="28"/>
+      <c r="C24" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="94">
+        <v>292.60000000000002</v>
+      </c>
+      <c r="G24" s="40">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="H24" s="40">
+        <v>172.7</v>
+      </c>
+      <c r="I24" s="40">
+        <v>350</v>
+      </c>
+      <c r="J24" s="86">
+        <v>292.5</v>
+      </c>
+      <c r="K24" s="33">
+        <v>325.70001000000002</v>
+      </c>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="109"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="28"/>
+      <c r="C25" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="94">
+        <v>0</v>
+      </c>
+      <c r="G25" s="40">
+        <v>3.63</v>
+      </c>
+      <c r="H25" s="40">
+        <v>2.99</v>
+      </c>
+      <c r="I25" s="40">
+        <v>2.64</v>
+      </c>
+      <c r="J25" s="86">
+        <v>2.69</v>
+      </c>
+      <c r="K25" s="33">
+        <v>0</v>
+      </c>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="109"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="28"/>
+      <c r="C26" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="94">
+        <v>0</v>
+      </c>
+      <c r="G26" s="40">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="H26" s="40">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="I26" s="40">
+        <v>0.05</v>
+      </c>
+      <c r="J26" s="86">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K26" s="33">
+        <v>0</v>
+      </c>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="109"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="28"/>
+      <c r="C27" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="94">
+        <v>0.02</v>
+      </c>
+      <c r="G27" s="40">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="H27" s="40">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="I27" s="40">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="J27" s="86">
+        <v>0.105</v>
+      </c>
+      <c r="K27" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="109"/>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="28"/>
+      <c r="C28" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="94">
+        <v>1</v>
+      </c>
+      <c r="G28" s="40">
+        <v>1</v>
+      </c>
+      <c r="H28" s="40">
+        <v>1</v>
+      </c>
+      <c r="I28" s="40">
+        <v>1</v>
+      </c>
+      <c r="J28" s="86">
+        <v>1</v>
+      </c>
+      <c r="K28" s="33">
+        <v>1</v>
+      </c>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="109"/>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="28"/>
+      <c r="C29" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="94">
+        <v>2.7</v>
+      </c>
+      <c r="G29" s="40">
+        <v>79.5</v>
+      </c>
+      <c r="H29" s="40">
+        <v>35.6</v>
+      </c>
+      <c r="I29" s="40">
+        <v>30.1</v>
+      </c>
+      <c r="J29" s="86">
+        <v>55.3</v>
+      </c>
+      <c r="K29" s="33">
+        <v>234.8</v>
+      </c>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="109"/>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="28"/>
+      <c r="C30" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="94">
+        <v>2160.6999999999998</v>
+      </c>
+      <c r="G30" s="40">
+        <v>56.9</v>
+      </c>
+      <c r="H30" s="40">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="I30" s="40">
+        <v>185.9</v>
+      </c>
+      <c r="J30" s="86">
+        <v>317.2</v>
+      </c>
+      <c r="K30" s="33">
+        <v>56.200001</v>
+      </c>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="109"/>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="28"/>
+      <c r="C31" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="94">
+        <v>707.6</v>
+      </c>
+      <c r="G31" s="40">
+        <v>88.2</v>
+      </c>
+      <c r="H31" s="40">
+        <v>247.7</v>
+      </c>
+      <c r="I31" s="40">
+        <v>72.8</v>
+      </c>
+      <c r="J31" s="86">
+        <v>31.1</v>
+      </c>
+      <c r="K31" s="33">
+        <v>445.70001000000002</v>
+      </c>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="109"/>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="28"/>
+      <c r="C32" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="94">
+        <v>8.94</v>
+      </c>
+      <c r="G32" s="40">
+        <v>4</v>
+      </c>
+      <c r="H32" s="40">
+        <v>6.5</v>
+      </c>
+      <c r="I32" s="40">
+        <v>7.7</v>
+      </c>
+      <c r="J32" s="86">
+        <v>10</v>
+      </c>
+      <c r="K32" s="33">
+        <v>4.6999997999999996</v>
+      </c>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="109"/>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33" s="28"/>
+      <c r="C33" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="100" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="94">
+        <v>278</v>
+      </c>
+      <c r="G33" s="40">
+        <v>151</v>
+      </c>
+      <c r="H33" s="40">
+        <v>211</v>
+      </c>
+      <c r="I33" s="40">
+        <v>115</v>
+      </c>
+      <c r="J33" s="86">
+        <v>128</v>
+      </c>
+      <c r="K33" s="33">
+        <v>555</v>
+      </c>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="109"/>
+    </row>
+    <row r="34" spans="2:16">
+      <c r="B34" s="28"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="94">
+        <v>1E-3</v>
+      </c>
+      <c r="G34" s="40">
+        <v>1E-3</v>
+      </c>
+      <c r="H34" s="40">
+        <v>1E-3</v>
+      </c>
+      <c r="I34" s="40">
+        <v>1E-3</v>
+      </c>
+      <c r="J34" s="86">
+        <v>1E-3</v>
+      </c>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="109"/>
+    </row>
+    <row r="35" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B35" s="28"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="104">
+        <v>292.60000000000002</v>
+      </c>
+      <c r="G35" s="76">
+        <v>51</v>
+      </c>
+      <c r="H35" s="76">
+        <v>187</v>
+      </c>
+      <c r="I35" s="76">
+        <v>373</v>
+      </c>
+      <c r="J35" s="89">
+        <v>341</v>
+      </c>
+      <c r="K35" s="110"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="110"/>
+      <c r="N35" s="110"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="109"/>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="B36" s="28"/>
+      <c r="C36" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="73"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="I36" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="J36" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="K36" s="74"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="B37" s="28"/>
+      <c r="C37" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="36"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="6">
-        <v>2.7000000000000002E-9</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="6">
-        <v>6700000</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="H7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="H8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="H9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="H10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="H11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="H12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14">
-        <v>5.86</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15">
-        <f>E14*2</f>
-        <v>11.72</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16">
-        <v>62.2</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="6">
-        <v>1.22E-6</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
-      <c r="C18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="6">
-        <v>3.1600000000000002E-7</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="7">
-        <f>(E18/E17)*100</f>
-        <v>25.9016393442623</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="6">
-        <v>6470000</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1.35</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+    </row>
+    <row r="38" spans="2:16">
+      <c r="B38" s="28"/>
+      <c r="C38" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="36"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="106" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="I38" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="J38" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="K38" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+    </row>
+    <row r="39" spans="2:16">
+      <c r="B39" s="28"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+    </row>
+    <row r="40" spans="2:16">
+      <c r="B40" s="28"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+    </row>
+    <row r="41" spans="2:16">
+      <c r="B41" s="28"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+    </row>
+    <row r="42" spans="2:16">
+      <c r="B42" s="28"/>
+      <c r="C42" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+    </row>
+    <row r="43" spans="2:16">
+      <c r="B43" s="28"/>
+      <c r="C43" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+    </row>
+    <row r="44" spans="2:16">
+      <c r="B44" s="28"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+    </row>
+    <row r="45" spans="2:16">
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+    </row>
+    <row r="46" spans="2:16">
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+    </row>
+    <row r="47" spans="2:16">
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="K6:O6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20CB03-FDC1-47B9-AF99-E205AFF1D2E2}">
-  <dimension ref="C3:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F425B10-5B6F-4D38-8EC8-85892A4FDDD6}">
+  <dimension ref="B2:K44"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11">
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="28"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+      <c r="C4" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="57">
+        <v>2.7</v>
+      </c>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="60">
+        <v>7.85</v>
+      </c>
+      <c r="K5" s="28"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="26"/>
+      <c r="C6" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="50">
+        <v>6700000</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="50">
+        <v>6700000</v>
+      </c>
+      <c r="K6" s="28"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="5"/>
+      <c r="C7" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="51">
+        <v>278</v>
+      </c>
+      <c r="F7" s="51">
+        <v>151</v>
+      </c>
+      <c r="G7" s="51">
+        <v>211</v>
+      </c>
+      <c r="H7" s="52">
+        <v>115</v>
+      </c>
+      <c r="I7" s="52">
+        <v>128</v>
+      </c>
+      <c r="J7" s="51">
+        <v>555</v>
+      </c>
+      <c r="K7" s="28"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="5"/>
+      <c r="C8" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="28"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="5"/>
+      <c r="C9" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="28"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="5"/>
+      <c r="C10" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="28"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="5"/>
+      <c r="C11" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="28"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="26"/>
+      <c r="C12" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="28"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="5"/>
+      <c r="C13" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="28"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="5"/>
+      <c r="C14" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="58">
+        <v>5.86</v>
+      </c>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58">
+        <v>6.96</v>
+      </c>
+      <c r="K14" s="28"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="51">
+        <f>E14*2</f>
+        <v>11.72</v>
+      </c>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51">
+        <f>J14*2</f>
+        <v>13.92</v>
+      </c>
+      <c r="K15" s="28"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="51">
+        <v>62.2</v>
+      </c>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51">
+        <v>90</v>
+      </c>
+      <c r="K16" s="28"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="26"/>
+      <c r="C17" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50">
+        <v>1.22E-6</v>
+      </c>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="50">
+        <v>1.22E-6</v>
+      </c>
+      <c r="K17" s="28"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="26"/>
+      <c r="C18" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="50">
+        <v>7.0000000000000005E-8</v>
+      </c>
+      <c r="K18" s="28"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="53">
+        <f>(E18/E17)*100</f>
+        <v>25.9016393442623</v>
+      </c>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="53">
+        <f>(J18/J17)*100</f>
+        <v>5.7377049180327875</v>
+      </c>
+      <c r="K19" s="28"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="50">
+        <v>6470000</v>
+      </c>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="50">
+        <v>6070000</v>
+      </c>
+      <c r="K20" s="28"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="50">
+        <v>1.35</v>
+      </c>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="50">
+        <v>4.96</v>
+      </c>
+      <c r="K21" s="28"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="54"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="28"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="52"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="28"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="5"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="5"/>
+      <c r="C25" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="48"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="5"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="5"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="5"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="3:7">
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20CB03-FDC1-47B9-AF99-E205AFF1D2E2}">
+  <dimension ref="C3:BF46"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="12" max="12" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C3" s="16" t="s">
+    <row r="3" spans="3:13">
+      <c r="C3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="L3" s="5" t="s">
+      <c r="D3" s="11"/>
+      <c r="L3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="15"/>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="46" spans="58:58">
+      <c r="BF46" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7222,15 +9843,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20077FD7-1EC0-41E4-96B7-2075AF4FD95D}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58EAD1F-0AE4-48FA-822A-069021B6C158}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayleigh\Documents\HVI share\HVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BC0600-CBAB-4B35-B43A-24C011B4615F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D271ACAF-FB1B-4886-9FB3-0EC59A4C17E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="8790" activeTab="1" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="8790" activeTab="3" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="148">
   <si>
     <t>Al 7005</t>
   </si>
@@ -490,6 +490,9 @@
   </si>
   <si>
     <t>DP800</t>
+  </si>
+  <si>
+    <t>Wc RESULTS - Aluminium</t>
   </si>
 </sst>
 </file>
@@ -955,9 +958,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -981,15 +981,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1041,17 +1032,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1088,12 +1070,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1134,6 +1110,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1349,6 +1352,65 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C819-47D6-82FF-C0257CCC2204}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>AA6070-T7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F28C-4D4D-9408-6478174441E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1778,6 +1840,814 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Percentage of conversion to particles due to temperature </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>as a function of Wc</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16822821797443924"/>
+          <c:y val="3.4279978568570409E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AA6061-T6 </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F577-42D2-B623-D1E17E79D22A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>AA6070-TO</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F577-42D2-B623-D1E17E79D22A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>AA6070-T4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F577-42D2-B623-D1E17E79D22A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>AA6070-T6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F577-42D2-B623-D1E17E79D22A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>AA6070-T7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F577-42D2-B623-D1E17E79D22A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1593113264"/>
+        <c:axId val="1767837104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1593113264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Cockcroft-Latham parameter, Wc (MPa) </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1100">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1767837104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1767837104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Percentage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of conversion to particles due to temperature </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>(%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.8678373956930104E-3"/>
+              <c:y val="0.20193235535480544"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1593113264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1976,6 +2846,65 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A9DC-493F-A1BB-A7D857CD2930}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>AA6070-T7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04C1-4C83-8A08-6B3CB26DE841}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2635,6 +3564,65 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>AA6070-T7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>28.442622950819676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A87D-4695-B2A7-FDDA5D541EDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3254,6 +4242,65 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-746B-4F13-8C4E-382187767210}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>AA6070-T7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6450000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-89E8-411C-9FBE-7AB27E7BA359}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3913,6 +4960,65 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>AA6070-T7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB77-4739-BCDC-B38831E58566}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4342,7 +5448,3164 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Target hole diameter as a function of Wc</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23627627627627629"/>
+          <c:y val="3.0888018367426356E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AA6061-T6 </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0692-4545-B313-B7A23DDB4EF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>AA6070-O</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0692-4545-B313-B7A23DDB4EF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>AA6070-T4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0692-4545-B313-B7A23DDB4EF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>AA6070-T6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0692-4545-B313-B7A23DDB4EF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>AA6070-T7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0692-4545-B313-B7A23DDB4EF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1593113264"/>
+        <c:axId val="1767837104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1593113264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100"/>
+                  <a:t>Cockcroft-Latham parameter, Wc (MPa</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>) </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.32518847960696418"/>
+              <c:y val="0.90929218606099127"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1767837104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1767837104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Target hole diameter (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1593113264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Debris cloud diameter as a function of Wc</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23627627627627629"/>
+          <c:y val="3.0888018367426356E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AA6061-T6 </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>62.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C782-4731-A8B8-BBA391678DEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>AA6070-TO</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C782-4731-A8B8-BBA391678DEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>AA6070-T4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C782-4731-A8B8-BBA391678DEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>AA6070-T6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C782-4731-A8B8-BBA391678DEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>AA6070-T7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C782-4731-A8B8-BBA391678DEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1593113264"/>
+        <c:axId val="1767837104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1593113264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Cockcroft-Latham parameter, Wc (MPa) </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1100">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.33161381854295241"/>
+              <c:y val="0.91272418810181644"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1767837104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1767837104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Debris cloud diameter (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1593113264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Percentage of solid material in debris cloud </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>as a function of Wc</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12456456456456456"/>
+          <c:y val="3.4320020408251509E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AA6061-T6 </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25.9016393442623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7476-46E7-858B-C35FFF4CD727}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>AA6070-TO</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7476-46E7-858B-C35FFF4CD727}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>AA6070-T4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7476-46E7-858B-C35FFF4CD727}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>AA6070-T6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7476-46E7-858B-C35FFF4CD727}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>AA6070-T7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>28.442622950819676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7476-46E7-858B-C35FFF4CD727}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1593113264"/>
+        <c:axId val="1767837104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1593113264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Cockcroft-Latham parameter, Wc (MPa) </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1100">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.3154990201485619"/>
+              <c:y val="0.89963903996536521"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1767837104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1767837104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Percentage of solid material in debris cloud (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1593113264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Residual velocity as a function of Wc</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23627627627627629"/>
+          <c:y val="3.0888018367426356E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AA6061-T6 </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6470000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF52-4618-AA56-376AC878D045}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>AA6070-TO</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF52-4618-AA56-376AC878D045}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>AA6070-T4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AF52-4618-AA56-376AC878D045}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>AA6070-T6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AF52-4618-AA56-376AC878D045}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>AA6070-T7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6450000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AF52-4618-AA56-376AC878D045}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1593113264"/>
+        <c:axId val="1767837104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1593113264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Cockcroft-Latham parameter, Wc (MPa) </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1100">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1767837104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1767837104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Residual</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> velocity </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>(m/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1593113264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4542,6 +8805,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5058,7 +9481,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5574,7 +9997,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6090,7 +10513,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6606,7 +11029,2587 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7314,6 +14317,196 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85FFEDB-4BB2-4EBB-8CC4-D9442BC9408C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>128589</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE8CF3F-3746-43C2-914E-210E182AA04B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE2F49C-A7F5-4311-8DAE-05916E061361}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>147639</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C6B6AC-B057-4411-82F3-2D17F3E4B064}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>64294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D150CA8-9116-4D22-8052-786C4DC5134A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7617,7 +14810,7 @@
   <dimension ref="C2:E32"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7818,8 +15011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20077FD7-1EC0-41E4-96B7-2075AF4FD95D}">
   <dimension ref="B3:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7892,126 +15085,126 @@
     </row>
     <row r="6" spans="2:17">
       <c r="B6" s="28"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="95" t="s">
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="78" t="s">
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="108"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="99"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="2:17">
       <c r="B7" s="28"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="90" t="s">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="80" t="s">
+      <c r="G7" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="80" t="s">
+      <c r="H7" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="80" t="s">
+      <c r="I7" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="83" t="s">
+      <c r="J7" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="80" t="s">
+      <c r="K7" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="80" t="s">
+      <c r="L7" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="M7" s="80" t="s">
+      <c r="M7" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="N7" s="80" t="s">
+      <c r="N7" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="O7" s="107" t="s">
+      <c r="O7" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="P7" s="108"/>
+      <c r="P7" s="99"/>
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="2:17" ht="34.5" customHeight="1" thickBot="1">
       <c r="B8" s="28"/>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="91" t="s">
+      <c r="F8" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="81" t="s">
+      <c r="H8" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="81" t="s">
+      <c r="I8" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="84" t="s">
+      <c r="J8" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="81" t="s">
+      <c r="K8" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="81" t="s">
+      <c r="L8" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="108"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="99"/>
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="2:17">
       <c r="B9" s="28"/>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="92">
+      <c r="F9" s="85">
         <v>2.7000000000000002E-9</v>
       </c>
-      <c r="G9" s="71">
+      <c r="G9" s="67">
         <v>2.7000000000000002E-9</v>
       </c>
-      <c r="H9" s="71">
+      <c r="H9" s="67">
         <v>2.7000000000000002E-9</v>
       </c>
-      <c r="I9" s="71">
+      <c r="I9" s="67">
         <v>2.7000000000000002E-9</v>
       </c>
-      <c r="J9" s="85">
+      <c r="J9" s="78">
         <v>2.7000000000000002E-9</v>
       </c>
       <c r="K9" s="32">
@@ -8021,32 +15214,32 @@
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
-      <c r="P9" s="109"/>
+      <c r="P9" s="100"/>
     </row>
     <row r="10" spans="2:17">
       <c r="B10" s="28"/>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="99" t="s">
+      <c r="E10" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="94">
+      <c r="F10" s="87">
         <v>58333.33</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="39">
         <v>58333.33</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="39">
         <v>58333.33</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="39">
         <v>58333.33</v>
       </c>
-      <c r="J10" s="86">
+      <c r="J10" s="79">
         <v>58333.33</v>
       </c>
       <c r="K10" s="32">
@@ -8056,32 +15249,32 @@
       <c r="M10" s="32"/>
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
-      <c r="P10" s="109"/>
+      <c r="P10" s="100"/>
     </row>
     <row r="11" spans="2:17">
       <c r="B11" s="28"/>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="99" t="s">
+      <c r="E11" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="94">
+      <c r="F11" s="87">
         <v>26923.08</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="39">
         <v>26923.08</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="39">
         <v>26923.08</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="39">
         <v>26923.08</v>
       </c>
-      <c r="J11" s="86">
+      <c r="J11" s="79">
         <v>26923.08</v>
       </c>
       <c r="K11" s="32">
@@ -8091,32 +15284,32 @@
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
       <c r="O11" s="32"/>
-      <c r="P11" s="109"/>
+      <c r="P11" s="100"/>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" s="28"/>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="99" t="s">
+      <c r="E12" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="94">
+      <c r="F12" s="87">
         <v>47</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="39">
         <v>47</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="39">
         <v>47</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="39">
         <v>47</v>
       </c>
-      <c r="J12" s="86">
+      <c r="J12" s="79">
         <v>47</v>
       </c>
       <c r="K12" s="33">
@@ -8126,32 +15319,32 @@
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
       <c r="O12" s="33"/>
-      <c r="P12" s="109"/>
+      <c r="P12" s="100"/>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" s="28"/>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="99" t="s">
+      <c r="E13" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="94">
+      <c r="F13" s="87">
         <v>70000</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="39">
         <v>70000</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="39">
         <v>70000</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="39">
         <v>70000</v>
       </c>
-      <c r="J13" s="86">
+      <c r="J13" s="79">
         <v>70000</v>
       </c>
       <c r="K13" s="32">
@@ -8161,32 +15354,32 @@
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
       <c r="O13" s="32"/>
-      <c r="P13" s="109"/>
+      <c r="P13" s="100"/>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="28"/>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="99" t="s">
+      <c r="E14" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="94">
+      <c r="F14" s="87">
         <v>0.3</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="39">
         <v>0.3</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="39">
         <v>0.3</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="39">
         <v>0.3</v>
       </c>
-      <c r="J14" s="86">
+      <c r="J14" s="79">
         <v>0.3</v>
       </c>
       <c r="K14" s="33">
@@ -8196,32 +15389,32 @@
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
       <c r="O14" s="33"/>
-      <c r="P14" s="109"/>
+      <c r="P14" s="100"/>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" s="28"/>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="99" t="s">
+      <c r="E15" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="94">
+      <c r="F15" s="87">
         <v>0.9</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="39">
         <v>0.9</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="39">
         <v>0.9</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="39">
         <v>0.9</v>
       </c>
-      <c r="J15" s="86">
+      <c r="J15" s="79">
         <v>0.9</v>
       </c>
       <c r="K15" s="33">
@@ -8231,32 +15424,32 @@
       <c r="M15" s="33"/>
       <c r="N15" s="33"/>
       <c r="O15" s="33"/>
-      <c r="P15" s="109"/>
+      <c r="P15" s="100"/>
     </row>
     <row r="16" spans="2:17">
       <c r="B16" s="28"/>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="99" t="s">
+      <c r="E16" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="93">
+      <c r="F16" s="86">
         <v>910000000</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="37">
         <v>910000000</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="37">
         <v>910000000</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="37">
         <v>910000000</v>
       </c>
-      <c r="J16" s="87">
+      <c r="J16" s="80">
         <v>910000000</v>
       </c>
       <c r="K16" s="32">
@@ -8266,32 +15459,32 @@
       <c r="M16" s="32"/>
       <c r="N16" s="32"/>
       <c r="O16" s="32"/>
-      <c r="P16" s="109"/>
+      <c r="P16" s="100"/>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="28"/>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="99" t="s">
+      <c r="E17" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="93">
+      <c r="F17" s="86">
         <v>2.3200000000000001E-5</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="37">
         <v>2.3200000000000001E-5</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="40">
         <v>2.3200000000000001E-5</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="40">
         <v>2.3200000000000001E-5</v>
       </c>
-      <c r="J17" s="88">
+      <c r="J17" s="81">
         <v>2.3200000000000001E-5</v>
       </c>
       <c r="K17" s="32">
@@ -8301,30 +15494,30 @@
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
-      <c r="P17" s="109"/>
+      <c r="P17" s="100"/>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="28"/>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="99"/>
-      <c r="F18" s="93">
+      <c r="E18" s="90"/>
+      <c r="F18" s="86">
         <v>1E-4</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="37">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="37">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="37">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J18" s="87">
+      <c r="J18" s="80">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K18" s="32">
@@ -8334,28 +15527,28 @@
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
       <c r="O18" s="28"/>
-      <c r="P18" s="109"/>
+      <c r="P18" s="100"/>
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="28"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="99"/>
-      <c r="F19" s="93">
+      <c r="E19" s="90"/>
+      <c r="F19" s="86">
         <v>2.4569999999999999</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="37">
         <v>2.4569999999999999</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="37">
         <v>2.4569999999999999</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="37">
         <v>2.4569999999999999</v>
       </c>
-      <c r="J19" s="87">
+      <c r="J19" s="80">
         <v>2.4569999999999999</v>
       </c>
       <c r="K19" s="32">
@@ -8365,32 +15558,32 @@
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
       <c r="O19" s="28"/>
-      <c r="P19" s="109"/>
+      <c r="P19" s="100"/>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="28"/>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="100" t="s">
+      <c r="E20" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="94">
+      <c r="F20" s="87">
         <v>893</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="39">
         <v>893</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="39">
         <v>893</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="39">
         <v>893</v>
       </c>
-      <c r="J20" s="86">
+      <c r="J20" s="79">
         <v>893</v>
       </c>
       <c r="K20" s="33">
@@ -8400,32 +15593,32 @@
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
       <c r="O20" s="28"/>
-      <c r="P20" s="109"/>
+      <c r="P20" s="100"/>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="28"/>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="100" t="s">
+      <c r="E21" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="94">
+      <c r="F21" s="87">
         <v>293</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="39">
         <v>293</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H21" s="39">
         <v>293</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21" s="39">
         <v>293</v>
       </c>
-      <c r="J21" s="86">
+      <c r="J21" s="79">
         <v>293</v>
       </c>
       <c r="K21" s="33">
@@ -8435,32 +15628,32 @@
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
       <c r="O21" s="28"/>
-      <c r="P21" s="109"/>
+      <c r="P21" s="100"/>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="28"/>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="100" t="s">
+      <c r="E22" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="94">
+      <c r="F22" s="87">
         <v>293</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="39">
         <v>293</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22" s="39">
         <v>293</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="39">
         <v>293</v>
       </c>
-      <c r="J22" s="86">
+      <c r="J22" s="79">
         <v>293</v>
       </c>
       <c r="K22" s="33">
@@ -8470,32 +15663,32 @@
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
       <c r="O22" s="28"/>
-      <c r="P22" s="109"/>
+      <c r="P22" s="100"/>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="28"/>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="100" t="s">
+      <c r="E23" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="94">
+      <c r="F23" s="87">
         <v>893</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="39">
         <v>893</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="39">
         <v>893</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23" s="39">
         <v>893</v>
       </c>
-      <c r="J23" s="86">
+      <c r="J23" s="79">
         <v>893</v>
       </c>
       <c r="K23" s="33">
@@ -8505,32 +15698,32 @@
       <c r="M23" s="31"/>
       <c r="N23" s="31"/>
       <c r="O23" s="28"/>
-      <c r="P23" s="109"/>
+      <c r="P23" s="100"/>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="28"/>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="99" t="s">
+      <c r="E24" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="94">
+      <c r="F24" s="87">
         <v>292.60000000000002</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="39">
         <v>38.799999999999997</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="39">
         <v>172.7</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="39">
         <v>350</v>
       </c>
-      <c r="J24" s="86">
+      <c r="J24" s="79">
         <v>292.5</v>
       </c>
       <c r="K24" s="33">
@@ -8540,32 +15733,32 @@
       <c r="M24" s="31"/>
       <c r="N24" s="31"/>
       <c r="O24" s="28"/>
-      <c r="P24" s="109"/>
+      <c r="P24" s="100"/>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" s="28"/>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="99" t="s">
+      <c r="E25" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="94">
+      <c r="F25" s="87">
         <v>0</v>
       </c>
-      <c r="G25" s="40">
+      <c r="G25" s="39">
         <v>3.63</v>
       </c>
-      <c r="H25" s="40">
+      <c r="H25" s="39">
         <v>2.99</v>
       </c>
-      <c r="I25" s="40">
+      <c r="I25" s="39">
         <v>2.64</v>
       </c>
-      <c r="J25" s="86">
+      <c r="J25" s="79">
         <v>2.69</v>
       </c>
       <c r="K25" s="33">
@@ -8575,32 +15768,32 @@
       <c r="M25" s="31"/>
       <c r="N25" s="31"/>
       <c r="O25" s="28"/>
-      <c r="P25" s="109"/>
+      <c r="P25" s="100"/>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="28"/>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="E26" s="99" t="s">
+      <c r="E26" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="94">
+      <c r="F26" s="87">
         <v>0</v>
       </c>
-      <c r="G26" s="40">
+      <c r="G26" s="39">
         <v>0.21299999999999999</v>
       </c>
-      <c r="H26" s="40">
+      <c r="H26" s="39">
         <v>0.16600000000000001</v>
       </c>
-      <c r="I26" s="40">
+      <c r="I26" s="39">
         <v>0.05</v>
       </c>
-      <c r="J26" s="86">
+      <c r="J26" s="79">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="K26" s="33">
@@ -8610,32 +15803,32 @@
       <c r="M26" s="31"/>
       <c r="N26" s="31"/>
       <c r="O26" s="28"/>
-      <c r="P26" s="109"/>
+      <c r="P26" s="100"/>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="28"/>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="99" t="s">
+      <c r="E27" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="94">
+      <c r="F27" s="87">
         <v>0.02</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27" s="39">
         <v>0.14199999999999999</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27" s="39">
         <v>0.11700000000000001</v>
       </c>
-      <c r="I27" s="40">
+      <c r="I27" s="39">
         <v>0.10299999999999999</v>
       </c>
-      <c r="J27" s="86">
+      <c r="J27" s="79">
         <v>0.105</v>
       </c>
       <c r="K27" s="33">
@@ -8645,32 +15838,32 @@
       <c r="M27" s="31"/>
       <c r="N27" s="31"/>
       <c r="O27" s="28"/>
-      <c r="P27" s="109"/>
+      <c r="P27" s="100"/>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="28"/>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="99" t="s">
+      <c r="E28" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="94">
+      <c r="F28" s="87">
         <v>1</v>
       </c>
-      <c r="G28" s="40">
+      <c r="G28" s="39">
         <v>1</v>
       </c>
-      <c r="H28" s="40">
+      <c r="H28" s="39">
         <v>1</v>
       </c>
-      <c r="I28" s="40">
+      <c r="I28" s="39">
         <v>1</v>
       </c>
-      <c r="J28" s="86">
+      <c r="J28" s="79">
         <v>1</v>
       </c>
       <c r="K28" s="33">
@@ -8680,32 +15873,32 @@
       <c r="M28" s="31"/>
       <c r="N28" s="31"/>
       <c r="O28" s="28"/>
-      <c r="P28" s="109"/>
+      <c r="P28" s="100"/>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="28"/>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="E29" s="100" t="s">
+      <c r="E29" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="94">
+      <c r="F29" s="87">
         <v>2.7</v>
       </c>
-      <c r="G29" s="40">
+      <c r="G29" s="39">
         <v>79.5</v>
       </c>
-      <c r="H29" s="40">
+      <c r="H29" s="39">
         <v>35.6</v>
       </c>
-      <c r="I29" s="40">
+      <c r="I29" s="39">
         <v>30.1</v>
       </c>
-      <c r="J29" s="86">
+      <c r="J29" s="79">
         <v>55.3</v>
       </c>
       <c r="K29" s="33">
@@ -8715,32 +15908,32 @@
       <c r="M29" s="31"/>
       <c r="N29" s="31"/>
       <c r="O29" s="28"/>
-      <c r="P29" s="109"/>
+      <c r="P29" s="100"/>
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="28"/>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="E30" s="100" t="s">
+      <c r="E30" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="94">
+      <c r="F30" s="87">
         <v>2160.6999999999998</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="39">
         <v>56.9</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="39">
         <v>80.599999999999994</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="39">
         <v>185.9</v>
       </c>
-      <c r="J30" s="86">
+      <c r="J30" s="79">
         <v>317.2</v>
       </c>
       <c r="K30" s="33">
@@ -8750,32 +15943,32 @@
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
       <c r="O30" s="28"/>
-      <c r="P30" s="109"/>
+      <c r="P30" s="100"/>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="28"/>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="100" t="s">
+      <c r="E31" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="94">
+      <c r="F31" s="87">
         <v>707.6</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="39">
         <v>88.2</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="39">
         <v>247.7</v>
       </c>
-      <c r="I31" s="40">
+      <c r="I31" s="39">
         <v>72.8</v>
       </c>
-      <c r="J31" s="86">
+      <c r="J31" s="79">
         <v>31.1</v>
       </c>
       <c r="K31" s="33">
@@ -8785,32 +15978,32 @@
       <c r="M31" s="31"/>
       <c r="N31" s="31"/>
       <c r="O31" s="28"/>
-      <c r="P31" s="109"/>
+      <c r="P31" s="100"/>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="28"/>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="E32" s="100" t="s">
+      <c r="E32" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="F32" s="94">
+      <c r="F32" s="87">
         <v>8.94</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="39">
         <v>4</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H32" s="39">
         <v>6.5</v>
       </c>
-      <c r="I32" s="40">
+      <c r="I32" s="39">
         <v>7.7</v>
       </c>
-      <c r="J32" s="86">
+      <c r="J32" s="79">
         <v>10</v>
       </c>
       <c r="K32" s="33">
@@ -8820,32 +16013,32 @@
       <c r="M32" s="31"/>
       <c r="N32" s="31"/>
       <c r="O32" s="28"/>
-      <c r="P32" s="109"/>
+      <c r="P32" s="100"/>
     </row>
     <row r="33" spans="2:16">
       <c r="B33" s="28"/>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="100" t="s">
+      <c r="E33" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="94">
+      <c r="F33" s="87">
         <v>278</v>
       </c>
-      <c r="G33" s="40">
+      <c r="G33" s="39">
         <v>151</v>
       </c>
-      <c r="H33" s="40">
+      <c r="H33" s="39">
         <v>211</v>
       </c>
-      <c r="I33" s="40">
+      <c r="I33" s="39">
         <v>115</v>
       </c>
-      <c r="J33" s="86">
+      <c r="J33" s="79">
         <v>128</v>
       </c>
       <c r="K33" s="33">
@@ -8855,30 +16048,30 @@
       <c r="M33" s="31"/>
       <c r="N33" s="31"/>
       <c r="O33" s="28"/>
-      <c r="P33" s="109"/>
+      <c r="P33" s="100"/>
     </row>
     <row r="34" spans="2:16">
       <c r="B34" s="28"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37" t="s">
+      <c r="C34" s="36"/>
+      <c r="D34" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="99" t="s">
+      <c r="E34" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="94">
+      <c r="F34" s="87">
         <v>1E-3</v>
       </c>
-      <c r="G34" s="40">
+      <c r="G34" s="39">
         <v>1E-3</v>
       </c>
-      <c r="H34" s="40">
+      <c r="H34" s="39">
         <v>1E-3</v>
       </c>
-      <c r="I34" s="40">
+      <c r="I34" s="39">
         <v>1E-3</v>
       </c>
-      <c r="J34" s="86">
+      <c r="J34" s="79">
         <v>1E-3</v>
       </c>
       <c r="K34" s="31"/>
@@ -8886,118 +16079,118 @@
       <c r="M34" s="31"/>
       <c r="N34" s="31"/>
       <c r="O34" s="28"/>
-      <c r="P34" s="109"/>
+      <c r="P34" s="100"/>
     </row>
     <row r="35" spans="2:16" ht="15.75" thickBot="1">
       <c r="B35" s="28"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75" t="s">
+      <c r="C35" s="71"/>
+      <c r="D35" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="101" t="s">
+      <c r="E35" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="104">
+      <c r="F35" s="95">
         <v>292.60000000000002</v>
       </c>
-      <c r="G35" s="76">
+      <c r="G35" s="72">
         <v>51</v>
       </c>
-      <c r="H35" s="76">
+      <c r="H35" s="72">
         <v>187</v>
       </c>
-      <c r="I35" s="76">
+      <c r="I35" s="72">
         <v>373</v>
       </c>
-      <c r="J35" s="89">
+      <c r="J35" s="82">
         <v>341</v>
       </c>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="110"/>
-      <c r="N35" s="110"/>
-      <c r="O35" s="111"/>
-      <c r="P35" s="109"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="101"/>
+      <c r="N35" s="101"/>
+      <c r="O35" s="102"/>
+      <c r="P35" s="100"/>
     </row>
     <row r="36" spans="2:16">
       <c r="B36" s="28"/>
-      <c r="C36" s="73" t="s">
+      <c r="C36" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="105" t="s">
+      <c r="D36" s="69"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="G36" s="74" t="s">
+      <c r="G36" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="H36" s="74" t="s">
+      <c r="H36" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="I36" s="74" t="s">
+      <c r="I36" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="J36" s="74" t="s">
+      <c r="J36" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="K36" s="74"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
       <c r="N36" s="31"/>
       <c r="O36" s="28"/>
       <c r="P36" s="28"/>
     </row>
     <row r="37" spans="2:16">
       <c r="B37" s="28"/>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="44" t="s">
+      <c r="D37" s="35"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="43" t="s">
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
       <c r="N37" s="31"/>
       <c r="O37" s="28"/>
       <c r="P37" s="28"/>
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="28"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="36"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="106" t="s">
+      <c r="D38" s="35"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="G38" s="43" t="s">
+      <c r="G38" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="H38" s="43" t="s">
+      <c r="H38" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="I38" s="43" t="s">
+      <c r="I38" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="J38" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="K38" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
+      <c r="J38" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="K38" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
       <c r="N38" s="31"/>
       <c r="O38" s="28"/>
       <c r="P38" s="28"/>
@@ -9074,17 +16267,17 @@
     </row>
     <row r="43" spans="2:16">
       <c r="B43" s="28"/>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="109"/>
+      <c r="K43" s="109"/>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
       <c r="N43" s="31"/>
@@ -9176,7 +16369,7 @@
   <dimension ref="B2:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9193,66 +16386,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46" t="s">
+      <c r="C2" s="111"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47" t="s">
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="43" t="s">
         <v>70</v>
       </c>
       <c r="K2" s="28"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47" t="s">
+      <c r="C3" s="111"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="43" t="s">
         <v>69</v>
       </c>
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1">
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="63" t="s">
+      <c r="H4" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="59" t="s">
         <v>61</v>
       </c>
       <c r="K4" s="28"/>
@@ -9261,170 +16454,188 @@
       <c r="B5" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="53">
         <v>2.7</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="60">
+      <c r="F5" s="53">
+        <v>2.7</v>
+      </c>
+      <c r="G5" s="53">
+        <v>2.7</v>
+      </c>
+      <c r="H5" s="53">
+        <v>2.7</v>
+      </c>
+      <c r="I5" s="53">
+        <v>2.7</v>
+      </c>
+      <c r="J5" s="56">
         <v>7.85</v>
       </c>
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="26"/>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="46">
         <v>6700000</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="50">
+      <c r="F6" s="46">
+        <v>6700000</v>
+      </c>
+      <c r="G6" s="46">
+        <v>6700000</v>
+      </c>
+      <c r="H6" s="46">
+        <v>6700000</v>
+      </c>
+      <c r="I6" s="46">
+        <v>6700000</v>
+      </c>
+      <c r="J6" s="46">
         <v>6700000</v>
       </c>
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="5"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="51">
+      <c r="D7" s="45"/>
+      <c r="E7" s="47">
         <v>278</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="47">
         <v>151</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="47">
         <v>211</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="48">
         <v>115</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="48">
         <v>128</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="47">
         <v>555</v>
       </c>
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="5"/>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="5"/>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="5"/>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="28"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="5"/>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
       <c r="K11" s="28"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="26"/>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
       <c r="K12" s="28"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="5"/>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
       <c r="K13" s="28"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="5"/>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="54">
         <v>5.86</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58">
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="54">
+        <v>5.42</v>
+      </c>
+      <c r="J14" s="54">
         <v>6.96</v>
       </c>
       <c r="K14" s="28"/>
@@ -9433,22 +16644,34 @@
       <c r="B15" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="47">
         <f>E14*2</f>
         <v>11.72</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51">
-        <f>J14*2</f>
+      <c r="F15" s="47">
+        <f t="shared" ref="F15:J15" si="0">F14*2</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="47">
+        <f t="shared" si="0"/>
+        <v>10.84</v>
+      </c>
+      <c r="J15" s="47">
+        <f t="shared" si="0"/>
         <v>13.92</v>
       </c>
       <c r="K15" s="28"/>
@@ -9457,56 +16680,68 @@
       <c r="B16" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="47">
         <v>62.2</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51">
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="47">
+        <v>52</v>
+      </c>
+      <c r="J16" s="47">
         <v>90</v>
       </c>
       <c r="K16" s="28"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="26"/>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50">
+      <c r="D17" s="45"/>
+      <c r="E17" s="46">
         <v>1.22E-6</v>
       </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="50">
+      <c r="F17" s="46">
+        <v>1.22E-6</v>
+      </c>
+      <c r="G17" s="46">
+        <v>1.22E-6</v>
+      </c>
+      <c r="H17" s="46">
+        <v>1.22E-6</v>
+      </c>
+      <c r="I17" s="46">
+        <v>1.22E-6</v>
+      </c>
+      <c r="J17" s="46">
         <v>1.22E-6</v>
       </c>
       <c r="K17" s="28"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="26"/>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50">
+      <c r="D18" s="45"/>
+      <c r="E18" s="46">
         <v>3.1600000000000002E-7</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="50">
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="46">
+        <v>3.4700000000000002E-7</v>
+      </c>
+      <c r="J18" s="46">
         <v>7.0000000000000005E-8</v>
       </c>
       <c r="K18" s="28"/>
@@ -9515,22 +16750,34 @@
       <c r="B19" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="49">
         <f>(E18/E17)*100</f>
         <v>25.9016393442623</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="53">
-        <f>(J18/J17)*100</f>
+      <c r="F19" s="49">
+        <f t="shared" ref="F19:J19" si="1">(F18/F17)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="49">
+        <f t="shared" si="1"/>
+        <v>28.442622950819676</v>
+      </c>
+      <c r="J19" s="49">
+        <f t="shared" si="1"/>
         <v>5.7377049180327875</v>
       </c>
       <c r="K19" s="28"/>
@@ -9539,20 +16786,22 @@
       <c r="B20" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="50">
+      <c r="E20" s="46">
         <v>6470000</v>
       </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="50">
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="46">
+        <v>6450000</v>
+      </c>
+      <c r="J20" s="46">
         <v>6070000</v>
       </c>
       <c r="K20" s="28"/>
@@ -9561,20 +16810,22 @@
       <c r="B21" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="50">
+      <c r="E21" s="46">
         <v>1.35</v>
       </c>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="50">
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="47">
+        <v>3.08</v>
+      </c>
+      <c r="J21" s="46">
         <v>4.96</v>
       </c>
       <c r="K21" s="28"/>
@@ -9583,72 +16834,72 @@
       <c r="B22" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
       <c r="K22" s="28"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="48"/>
       <c r="K23" s="28"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="5"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="52"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="48"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="5"/>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="5"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="5"/>
@@ -9811,8 +17062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20CB03-FDC1-47B9-AF99-E205AFF1D2E2}">
   <dimension ref="C3:BF46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9822,7 +17073,7 @@
     <col min="12" max="12" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:13">
+    <row r="3" spans="3:40">
       <c r="C3" s="11" t="s">
         <v>31</v>
       </c>
@@ -9831,6 +17082,16 @@
         <v>32</v>
       </c>
       <c r="M3" s="10"/>
+      <c r="AL3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+    </row>
+    <row r="24" spans="52:52">
+      <c r="AZ24" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="46" spans="58:58">
       <c r="BF46" t="s">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayleigh\Documents\HVI share\HVI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c4e1f6e80555f8e/Documenten/Internship/Project/Shared folder/HVI/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D271ACAF-FB1B-4886-9FB3-0EC59A4C17E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{D271ACAF-FB1B-4886-9FB3-0EC59A4C17E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C581C04-3C98-4CE2-AAE3-F07701EB97D6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="8790" activeTab="3" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -502,7 +511,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -994,7 +1003,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1137,6 +1145,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1227,7 +1239,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1414,6 +1426,207 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AA6070-T6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11.23072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FA9F-494A-8F40-4B080BA8B3D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AA6070-T4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11.062585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FA9F-494A-8F40-4B080BA8B3D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AA6070-O</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11.46923</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FA9F-494A-8F40-4B080BA8B3D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1581,7 +1794,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1619,7 +1832,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -1712,7 +1925,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1750,7 +1963,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -1792,7 +2005,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1829,7 +2042,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1947,7 +2160,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2062,6 +2275,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.9400000000000004</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2118,6 +2334,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.64</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2174,6 +2393,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.03</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2373,7 +2595,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2411,7 +2633,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -2520,7 +2742,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2558,7 +2780,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -2600,7 +2822,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2637,7 +2859,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2721,7 +2943,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2908,6 +3130,207 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AA6070-T6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>52.011650000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4C00-4863-8E2F-0FF3E0CEB256}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AA6070-T4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>54.277700000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4C00-4863-8E2F-0FF3E0CEB256}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AA6070-O</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50.792424999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4C00-4863-8E2F-0FF3E0CEB256}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3070,7 +3493,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3108,7 +3531,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -3201,7 +3624,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3239,7 +3662,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -3281,7 +3704,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3318,7 +3741,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3436,7 +3859,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3623,6 +4046,207 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AA6070-T6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15.163934426229508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-51C0-4F7F-848C-21860B96F3A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AA6070-T4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9.3442622950819683</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-51C0-4F7F-848C-21860B96F3A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AA6070-O</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14.262295081967213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-51C0-4F7F-848C-21860B96F3A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3785,7 +4409,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3823,7 +4447,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -3916,7 +4540,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3954,7 +4578,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -3996,7 +4620,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4033,7 +4657,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4117,7 +4741,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4304,6 +4928,207 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AA6070-T6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6280000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D5BA-480B-8B30-7B8A699C189D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AA6070-T4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D5BA-480B-8B30-7B8A699C189D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AA6070-O</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6270000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D5BA-480B-8B30-7B8A699C189D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4458,7 +5283,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4496,7 +5321,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -4597,7 +5422,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4635,7 +5460,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -4677,7 +5502,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4714,7 +5539,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4832,7 +5657,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5019,6 +5844,207 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AA6070-T6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D71-4917-AEBD-1AFA19C4CBDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AA6070-T4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4D71-4917-AEBD-1AFA19C4CBDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AA6070-O</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.9400000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4D71-4917-AEBD-1AFA19C4CBDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -5173,7 +6199,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5211,7 +6237,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -5320,7 +6346,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5358,7 +6384,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -5400,7 +6426,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5437,7 +6463,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5521,7 +6547,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5634,10 +6660,10 @@
             <c:numRef>
               <c:f>Sheet2!$F$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>11.46923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5693,10 +6719,10 @@
             <c:numRef>
               <c:f>Sheet2!$G$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>11.062585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5752,10 +6778,10 @@
             <c:numRef>
               <c:f>Sheet2!$H$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>11.23072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5965,7 +6991,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6003,7 +7029,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -6096,7 +7122,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6134,7 +7160,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -6176,7 +7202,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6213,7 +7239,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6297,7 +7323,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6410,8 +7436,11 @@
             <c:numRef>
               <c:f>Sheet2!$F$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50.792424999999994</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6466,8 +7495,11 @@
             <c:numRef>
               <c:f>Sheet2!$G$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>54.277700000000003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6522,8 +7554,11 @@
             <c:numRef>
               <c:f>Sheet2!$H$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>52.011650000000003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6731,7 +7766,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6769,7 +7804,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -6862,7 +7897,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6900,7 +7935,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -6942,7 +7977,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6979,7 +8014,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7097,7 +8132,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7213,7 +8248,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>14.262295081967213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7272,7 +8307,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.3442622950819683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7331,7 +8366,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>15.163934426229508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7540,7 +8575,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7578,7 +8613,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -7671,7 +8706,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7709,7 +8744,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -7751,7 +8786,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7788,7 +8823,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7872,7 +8907,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7985,8 +9020,11 @@
             <c:numRef>
               <c:f>Sheet2!$F$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6270000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8041,8 +9079,11 @@
             <c:numRef>
               <c:f>Sheet2!$G$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6250000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8097,8 +9138,11 @@
             <c:numRef>
               <c:f>Sheet2!$H$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6280000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8298,7 +9342,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8336,7 +9380,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -8437,7 +9481,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8475,7 +9519,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -8517,7 +9561,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8554,7 +9598,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14813,24 +15857,24 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="78.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="17.25" customHeight="1">
+    <row r="4" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="21" customHeight="1">
+    <row r="5" spans="3:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="17" t="s">
         <v>23</v>
       </c>
@@ -14838,53 +15882,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" s="18"/>
       <c r="D6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="3:4">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="19"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="3:4">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" s="20"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="3:4">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="3:4">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" s="22"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="3:4">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" s="23"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="3:4">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="3:4">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" s="19"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="3:4">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" s="20"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
@@ -14895,7 +15939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>18</v>
@@ -14904,21 +15948,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
         <v>15</v>
@@ -14927,21 +15971,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -14950,21 +15994,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="3:5">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:5">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="3:5">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
@@ -14973,28 +16017,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:5">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:5">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="3:5">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:5">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="16" t="s">
@@ -15015,7 +16059,7 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="33.140625" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
@@ -15032,7 +16076,7 @@
     <col min="15" max="15" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -15049,7 +16093,7 @@
       <c r="O3" s="28"/>
       <c r="P3" s="28"/>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -15066,7 +16110,7 @@
       <c r="O4" s="28"/>
       <c r="P4" s="28"/>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="28"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
@@ -15083,128 +16127,128 @@
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="28"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="105" t="s">
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="106" t="s">
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="99"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="98"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="28"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="83" t="s">
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="74" t="s">
+      <c r="G7" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="74" t="s">
+      <c r="I7" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="76" t="s">
+      <c r="J7" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="74" t="s">
+      <c r="K7" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="74" t="s">
+      <c r="L7" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="M7" s="74" t="s">
+      <c r="M7" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="N7" s="74" t="s">
+      <c r="N7" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="O7" s="98" t="s">
+      <c r="O7" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="P7" s="99"/>
+      <c r="P7" s="98"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="2:17" ht="34.5" customHeight="1" thickBot="1">
+    <row r="8" spans="2:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="28"/>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="77" t="s">
+      <c r="E8" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="75" t="s">
+      <c r="G8" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="75" t="s">
+      <c r="H8" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="75" t="s">
+      <c r="I8" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="77" t="s">
+      <c r="J8" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="75" t="s">
+      <c r="K8" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="75" t="s">
+      <c r="L8" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="99"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="98"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="28"/>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="84">
         <v>2.7000000000000002E-9</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="66">
         <v>2.7000000000000002E-9</v>
       </c>
-      <c r="H9" s="67">
+      <c r="H9" s="66">
         <v>2.7000000000000002E-9</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="66">
         <v>2.7000000000000002E-9</v>
       </c>
-      <c r="J9" s="78">
+      <c r="J9" s="77">
         <v>2.7000000000000002E-9</v>
       </c>
       <c r="K9" s="32">
@@ -15214,9 +16258,9 @@
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
-      <c r="P9" s="100"/>
+      <c r="P9" s="99"/>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="28"/>
       <c r="C10" s="36" t="s">
         <v>80</v>
@@ -15224,10 +16268,10 @@
       <c r="D10" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="90" t="s">
+      <c r="E10" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="87">
+      <c r="F10" s="86">
         <v>58333.33</v>
       </c>
       <c r="G10" s="39">
@@ -15239,7 +16283,7 @@
       <c r="I10" s="39">
         <v>58333.33</v>
       </c>
-      <c r="J10" s="79">
+      <c r="J10" s="78">
         <v>58333.33</v>
       </c>
       <c r="K10" s="32">
@@ -15249,9 +16293,9 @@
       <c r="M10" s="32"/>
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
-      <c r="P10" s="100"/>
+      <c r="P10" s="99"/>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="28"/>
       <c r="C11" s="36" t="s">
         <v>83</v>
@@ -15259,10 +16303,10 @@
       <c r="D11" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="90" t="s">
+      <c r="E11" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="87">
+      <c r="F11" s="86">
         <v>26923.08</v>
       </c>
       <c r="G11" s="39">
@@ -15274,7 +16318,7 @@
       <c r="I11" s="39">
         <v>26923.08</v>
       </c>
-      <c r="J11" s="79">
+      <c r="J11" s="78">
         <v>26923.08</v>
       </c>
       <c r="K11" s="32">
@@ -15284,9 +16328,9 @@
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
       <c r="O11" s="32"/>
-      <c r="P11" s="100"/>
+      <c r="P11" s="99"/>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="28"/>
       <c r="C12" s="36" t="s">
         <v>85</v>
@@ -15294,10 +16338,10 @@
       <c r="D12" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="90" t="s">
+      <c r="E12" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="87">
+      <c r="F12" s="86">
         <v>47</v>
       </c>
       <c r="G12" s="39">
@@ -15309,7 +16353,7 @@
       <c r="I12" s="39">
         <v>47</v>
       </c>
-      <c r="J12" s="79">
+      <c r="J12" s="78">
         <v>47</v>
       </c>
       <c r="K12" s="33">
@@ -15319,9 +16363,9 @@
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
       <c r="O12" s="33"/>
-      <c r="P12" s="100"/>
+      <c r="P12" s="99"/>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="28"/>
       <c r="C13" s="36" t="s">
         <v>87</v>
@@ -15329,10 +16373,10 @@
       <c r="D13" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="90" t="s">
+      <c r="E13" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="87">
+      <c r="F13" s="86">
         <v>70000</v>
       </c>
       <c r="G13" s="39">
@@ -15344,7 +16388,7 @@
       <c r="I13" s="39">
         <v>70000</v>
       </c>
-      <c r="J13" s="79">
+      <c r="J13" s="78">
         <v>70000</v>
       </c>
       <c r="K13" s="32">
@@ -15354,9 +16398,9 @@
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
       <c r="O13" s="32"/>
-      <c r="P13" s="100"/>
+      <c r="P13" s="99"/>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="28"/>
       <c r="C14" s="36" t="s">
         <v>89</v>
@@ -15364,10 +16408,10 @@
       <c r="D14" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="90" t="s">
+      <c r="E14" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="87">
+      <c r="F14" s="86">
         <v>0.3</v>
       </c>
       <c r="G14" s="39">
@@ -15379,7 +16423,7 @@
       <c r="I14" s="39">
         <v>0.3</v>
       </c>
-      <c r="J14" s="79">
+      <c r="J14" s="78">
         <v>0.3</v>
       </c>
       <c r="K14" s="33">
@@ -15389,9 +16433,9 @@
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
       <c r="O14" s="33"/>
-      <c r="P14" s="100"/>
+      <c r="P14" s="99"/>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="28"/>
       <c r="C15" s="36" t="s">
         <v>91</v>
@@ -15399,10 +16443,10 @@
       <c r="D15" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="90" t="s">
+      <c r="E15" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="87">
+      <c r="F15" s="86">
         <v>0.9</v>
       </c>
       <c r="G15" s="39">
@@ -15414,7 +16458,7 @@
       <c r="I15" s="39">
         <v>0.9</v>
       </c>
-      <c r="J15" s="79">
+      <c r="J15" s="78">
         <v>0.9</v>
       </c>
       <c r="K15" s="33">
@@ -15424,9 +16468,9 @@
       <c r="M15" s="33"/>
       <c r="N15" s="33"/>
       <c r="O15" s="33"/>
-      <c r="P15" s="100"/>
+      <c r="P15" s="99"/>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
       <c r="C16" s="36" t="s">
         <v>93</v>
@@ -15434,10 +16478,10 @@
       <c r="D16" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="90" t="s">
+      <c r="E16" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="86">
+      <c r="F16" s="85">
         <v>910000000</v>
       </c>
       <c r="G16" s="37">
@@ -15449,7 +16493,7 @@
       <c r="I16" s="37">
         <v>910000000</v>
       </c>
-      <c r="J16" s="80">
+      <c r="J16" s="79">
         <v>910000000</v>
       </c>
       <c r="K16" s="32">
@@ -15459,9 +16503,9 @@
       <c r="M16" s="32"/>
       <c r="N16" s="32"/>
       <c r="O16" s="32"/>
-      <c r="P16" s="100"/>
+      <c r="P16" s="99"/>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="28"/>
       <c r="C17" s="36" t="s">
         <v>96</v>
@@ -15469,10 +16513,10 @@
       <c r="D17" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="90" t="s">
+      <c r="E17" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="86">
+      <c r="F17" s="85">
         <v>2.3200000000000001E-5</v>
       </c>
       <c r="G17" s="37">
@@ -15484,7 +16528,7 @@
       <c r="I17" s="40">
         <v>2.3200000000000001E-5</v>
       </c>
-      <c r="J17" s="81">
+      <c r="J17" s="80">
         <v>2.3200000000000001E-5</v>
       </c>
       <c r="K17" s="32">
@@ -15494,9 +16538,9 @@
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
-      <c r="P17" s="100"/>
+      <c r="P17" s="99"/>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="28"/>
       <c r="C18" s="36" t="s">
         <v>99</v>
@@ -15504,8 +16548,8 @@
       <c r="D18" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="86">
+      <c r="E18" s="89"/>
+      <c r="F18" s="85">
         <v>1E-4</v>
       </c>
       <c r="G18" s="37">
@@ -15517,7 +16561,7 @@
       <c r="I18" s="37">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J18" s="80">
+      <c r="J18" s="79">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K18" s="32">
@@ -15527,16 +16571,16 @@
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
       <c r="O18" s="28"/>
-      <c r="P18" s="100"/>
+      <c r="P18" s="99"/>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="28"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="86">
+      <c r="E19" s="89"/>
+      <c r="F19" s="85">
         <v>2.4569999999999999</v>
       </c>
       <c r="G19" s="37">
@@ -15548,7 +16592,7 @@
       <c r="I19" s="37">
         <v>2.4569999999999999</v>
       </c>
-      <c r="J19" s="80">
+      <c r="J19" s="79">
         <v>2.4569999999999999</v>
       </c>
       <c r="K19" s="32">
@@ -15558,9 +16602,9 @@
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
       <c r="O19" s="28"/>
-      <c r="P19" s="100"/>
+      <c r="P19" s="99"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
       <c r="C20" s="41" t="s">
         <v>102</v>
@@ -15568,10 +16612,10 @@
       <c r="D20" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="91" t="s">
+      <c r="E20" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="87">
+      <c r="F20" s="86">
         <v>893</v>
       </c>
       <c r="G20" s="39">
@@ -15583,7 +16627,7 @@
       <c r="I20" s="39">
         <v>893</v>
       </c>
-      <c r="J20" s="79">
+      <c r="J20" s="78">
         <v>893</v>
       </c>
       <c r="K20" s="33">
@@ -15593,9 +16637,9 @@
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
       <c r="O20" s="28"/>
-      <c r="P20" s="100"/>
+      <c r="P20" s="99"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>
       <c r="C21" s="41" t="s">
         <v>104</v>
@@ -15603,10 +16647,10 @@
       <c r="D21" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="91" t="s">
+      <c r="E21" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="87">
+      <c r="F21" s="86">
         <v>293</v>
       </c>
       <c r="G21" s="39">
@@ -15618,7 +16662,7 @@
       <c r="I21" s="39">
         <v>293</v>
       </c>
-      <c r="J21" s="79">
+      <c r="J21" s="78">
         <v>293</v>
       </c>
       <c r="K21" s="33">
@@ -15628,9 +16672,9 @@
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
       <c r="O21" s="28"/>
-      <c r="P21" s="100"/>
+      <c r="P21" s="99"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="28"/>
       <c r="C22" s="41" t="s">
         <v>106</v>
@@ -15638,10 +16682,10 @@
       <c r="D22" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="91" t="s">
+      <c r="E22" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="87">
+      <c r="F22" s="86">
         <v>293</v>
       </c>
       <c r="G22" s="39">
@@ -15653,7 +16697,7 @@
       <c r="I22" s="39">
         <v>293</v>
       </c>
-      <c r="J22" s="79">
+      <c r="J22" s="78">
         <v>293</v>
       </c>
       <c r="K22" s="33">
@@ -15663,9 +16707,9 @@
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
       <c r="O22" s="28"/>
-      <c r="P22" s="100"/>
+      <c r="P22" s="99"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="28"/>
       <c r="C23" s="41" t="s">
         <v>108</v>
@@ -15673,10 +16717,10 @@
       <c r="D23" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="91" t="s">
+      <c r="E23" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="87">
+      <c r="F23" s="86">
         <v>893</v>
       </c>
       <c r="G23" s="39">
@@ -15688,7 +16732,7 @@
       <c r="I23" s="39">
         <v>893</v>
       </c>
-      <c r="J23" s="79">
+      <c r="J23" s="78">
         <v>893</v>
       </c>
       <c r="K23" s="33">
@@ -15698,9 +16742,9 @@
       <c r="M23" s="31"/>
       <c r="N23" s="31"/>
       <c r="O23" s="28"/>
-      <c r="P23" s="100"/>
+      <c r="P23" s="99"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="28"/>
       <c r="C24" s="36" t="s">
         <v>110</v>
@@ -15708,10 +16752,10 @@
       <c r="D24" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="90" t="s">
+      <c r="E24" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="87">
+      <c r="F24" s="86">
         <v>292.60000000000002</v>
       </c>
       <c r="G24" s="39">
@@ -15723,7 +16767,7 @@
       <c r="I24" s="39">
         <v>350</v>
       </c>
-      <c r="J24" s="79">
+      <c r="J24" s="78">
         <v>292.5</v>
       </c>
       <c r="K24" s="33">
@@ -15733,9 +16777,9 @@
       <c r="M24" s="31"/>
       <c r="N24" s="31"/>
       <c r="O24" s="28"/>
-      <c r="P24" s="100"/>
+      <c r="P24" s="99"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="28"/>
       <c r="C25" s="36" t="s">
         <v>112</v>
@@ -15743,10 +16787,10 @@
       <c r="D25" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="90" t="s">
+      <c r="E25" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="87">
+      <c r="F25" s="86">
         <v>0</v>
       </c>
       <c r="G25" s="39">
@@ -15758,7 +16802,7 @@
       <c r="I25" s="39">
         <v>2.64</v>
       </c>
-      <c r="J25" s="79">
+      <c r="J25" s="78">
         <v>2.69</v>
       </c>
       <c r="K25" s="33">
@@ -15768,9 +16812,9 @@
       <c r="M25" s="31"/>
       <c r="N25" s="31"/>
       <c r="O25" s="28"/>
-      <c r="P25" s="100"/>
+      <c r="P25" s="99"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="28"/>
       <c r="C26" s="36" t="s">
         <v>114</v>
@@ -15778,10 +16822,10 @@
       <c r="D26" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="E26" s="90" t="s">
+      <c r="E26" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="87">
+      <c r="F26" s="86">
         <v>0</v>
       </c>
       <c r="G26" s="39">
@@ -15793,7 +16837,7 @@
       <c r="I26" s="39">
         <v>0.05</v>
       </c>
-      <c r="J26" s="79">
+      <c r="J26" s="78">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="K26" s="33">
@@ -15803,9 +16847,9 @@
       <c r="M26" s="31"/>
       <c r="N26" s="31"/>
       <c r="O26" s="28"/>
-      <c r="P26" s="100"/>
+      <c r="P26" s="99"/>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="28"/>
       <c r="C27" s="36" t="s">
         <v>114</v>
@@ -15813,10 +16857,10 @@
       <c r="D27" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="90" t="s">
+      <c r="E27" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="87">
+      <c r="F27" s="86">
         <v>0.02</v>
       </c>
       <c r="G27" s="39">
@@ -15828,7 +16872,7 @@
       <c r="I27" s="39">
         <v>0.10299999999999999</v>
       </c>
-      <c r="J27" s="79">
+      <c r="J27" s="78">
         <v>0.105</v>
       </c>
       <c r="K27" s="33">
@@ -15838,9 +16882,9 @@
       <c r="M27" s="31"/>
       <c r="N27" s="31"/>
       <c r="O27" s="28"/>
-      <c r="P27" s="100"/>
+      <c r="P27" s="99"/>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="28"/>
       <c r="C28" s="36" t="s">
         <v>117</v>
@@ -15848,10 +16892,10 @@
       <c r="D28" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="90" t="s">
+      <c r="E28" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="87">
+      <c r="F28" s="86">
         <v>1</v>
       </c>
       <c r="G28" s="39">
@@ -15863,7 +16907,7 @@
       <c r="I28" s="39">
         <v>1</v>
       </c>
-      <c r="J28" s="79">
+      <c r="J28" s="78">
         <v>1</v>
       </c>
       <c r="K28" s="33">
@@ -15873,9 +16917,9 @@
       <c r="M28" s="31"/>
       <c r="N28" s="31"/>
       <c r="O28" s="28"/>
-      <c r="P28" s="100"/>
+      <c r="P28" s="99"/>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="28"/>
       <c r="C29" s="41" t="s">
         <v>119</v>
@@ -15883,10 +16927,10 @@
       <c r="D29" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="E29" s="91" t="s">
+      <c r="E29" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="87">
+      <c r="F29" s="86">
         <v>2.7</v>
       </c>
       <c r="G29" s="39">
@@ -15898,7 +16942,7 @@
       <c r="I29" s="39">
         <v>30.1</v>
       </c>
-      <c r="J29" s="79">
+      <c r="J29" s="78">
         <v>55.3</v>
       </c>
       <c r="K29" s="33">
@@ -15908,9 +16952,9 @@
       <c r="M29" s="31"/>
       <c r="N29" s="31"/>
       <c r="O29" s="28"/>
-      <c r="P29" s="100"/>
+      <c r="P29" s="99"/>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="28"/>
       <c r="C30" s="41" t="s">
         <v>119</v>
@@ -15918,10 +16962,10 @@
       <c r="D30" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="E30" s="91" t="s">
+      <c r="E30" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="87">
+      <c r="F30" s="86">
         <v>2160.6999999999998</v>
       </c>
       <c r="G30" s="39">
@@ -15933,7 +16977,7 @@
       <c r="I30" s="39">
         <v>185.9</v>
       </c>
-      <c r="J30" s="79">
+      <c r="J30" s="78">
         <v>317.2</v>
       </c>
       <c r="K30" s="33">
@@ -15943,9 +16987,9 @@
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
       <c r="O30" s="28"/>
-      <c r="P30" s="100"/>
+      <c r="P30" s="99"/>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="28"/>
       <c r="C31" s="41" t="s">
         <v>119</v>
@@ -15953,10 +16997,10 @@
       <c r="D31" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="91" t="s">
+      <c r="E31" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="87">
+      <c r="F31" s="86">
         <v>707.6</v>
       </c>
       <c r="G31" s="39">
@@ -15968,7 +17012,7 @@
       <c r="I31" s="39">
         <v>72.8</v>
       </c>
-      <c r="J31" s="79">
+      <c r="J31" s="78">
         <v>31.1</v>
       </c>
       <c r="K31" s="33">
@@ -15978,9 +17022,9 @@
       <c r="M31" s="31"/>
       <c r="N31" s="31"/>
       <c r="O31" s="28"/>
-      <c r="P31" s="100"/>
+      <c r="P31" s="99"/>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="28"/>
       <c r="C32" s="41" t="s">
         <v>119</v>
@@ -15988,10 +17032,10 @@
       <c r="D32" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="E32" s="91" t="s">
+      <c r="E32" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="F32" s="87">
+      <c r="F32" s="86">
         <v>8.94</v>
       </c>
       <c r="G32" s="39">
@@ -16003,7 +17047,7 @@
       <c r="I32" s="39">
         <v>7.7</v>
       </c>
-      <c r="J32" s="79">
+      <c r="J32" s="78">
         <v>10</v>
       </c>
       <c r="K32" s="33">
@@ -16013,9 +17057,9 @@
       <c r="M32" s="31"/>
       <c r="N32" s="31"/>
       <c r="O32" s="28"/>
-      <c r="P32" s="100"/>
+      <c r="P32" s="99"/>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="28"/>
       <c r="C33" s="41" t="s">
         <v>124</v>
@@ -16023,10 +17067,10 @@
       <c r="D33" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="91" t="s">
+      <c r="E33" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="87">
+      <c r="F33" s="86">
         <v>278</v>
       </c>
       <c r="G33" s="39">
@@ -16038,7 +17082,7 @@
       <c r="I33" s="39">
         <v>115</v>
       </c>
-      <c r="J33" s="79">
+      <c r="J33" s="78">
         <v>128</v>
       </c>
       <c r="K33" s="33">
@@ -16048,18 +17092,18 @@
       <c r="M33" s="31"/>
       <c r="N33" s="31"/>
       <c r="O33" s="28"/>
-      <c r="P33" s="100"/>
+      <c r="P33" s="99"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="28"/>
       <c r="C34" s="36"/>
       <c r="D34" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="90" t="s">
+      <c r="E34" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="87">
+      <c r="F34" s="86">
         <v>1E-3</v>
       </c>
       <c r="G34" s="39">
@@ -16071,7 +17115,7 @@
       <c r="I34" s="39">
         <v>1E-3</v>
       </c>
-      <c r="J34" s="79">
+      <c r="J34" s="78">
         <v>1E-3</v>
       </c>
       <c r="K34" s="31"/>
@@ -16079,82 +17123,82 @@
       <c r="M34" s="31"/>
       <c r="N34" s="31"/>
       <c r="O34" s="28"/>
-      <c r="P34" s="100"/>
+      <c r="P34" s="99"/>
     </row>
-    <row r="35" spans="2:16" ht="15.75" thickBot="1">
+    <row r="35" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="28"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71" t="s">
+      <c r="C35" s="70"/>
+      <c r="D35" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="92" t="s">
+      <c r="E35" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="95">
+      <c r="F35" s="94">
         <v>292.60000000000002</v>
       </c>
-      <c r="G35" s="72">
+      <c r="G35" s="71">
         <v>51</v>
       </c>
-      <c r="H35" s="72">
+      <c r="H35" s="71">
         <v>187</v>
       </c>
-      <c r="I35" s="72">
+      <c r="I35" s="71">
         <v>373</v>
       </c>
-      <c r="J35" s="82">
+      <c r="J35" s="81">
         <v>341</v>
       </c>
-      <c r="K35" s="101"/>
-      <c r="L35" s="101"/>
-      <c r="M35" s="101"/>
-      <c r="N35" s="101"/>
-      <c r="O35" s="102"/>
-      <c r="P35" s="100"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="101"/>
+      <c r="P35" s="99"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="28"/>
-      <c r="C36" s="69" t="s">
+      <c r="C36" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="96" t="s">
+      <c r="D36" s="68"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="G36" s="70" t="s">
+      <c r="G36" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="H36" s="70" t="s">
+      <c r="H36" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="I36" s="70" t="s">
+      <c r="I36" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="J36" s="70" t="s">
+      <c r="J36" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="K36" s="70"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
       <c r="N36" s="31"/>
       <c r="O36" s="28"/>
       <c r="P36" s="28"/>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="28"/>
       <c r="C37" s="35" t="s">
         <v>134</v>
       </c>
       <c r="D37" s="35"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="108" t="s">
+      <c r="E37" s="93"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="108"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="108"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
       <c r="K37" s="42" t="s">
         <v>140</v>
       </c>
@@ -16164,14 +17208,14 @@
       <c r="O37" s="28"/>
       <c r="P37" s="28"/>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="28"/>
       <c r="C38" s="35" t="s">
         <v>135</v>
       </c>
       <c r="D38" s="35"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="97" t="s">
+      <c r="E38" s="93"/>
+      <c r="F38" s="96" t="s">
         <v>136</v>
       </c>
       <c r="G38" s="42" t="s">
@@ -16195,7 +17239,7 @@
       <c r="O38" s="28"/>
       <c r="P38" s="28"/>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="28"/>
       <c r="C39" s="31"/>
       <c r="D39" s="31"/>
@@ -16212,7 +17256,7 @@
       <c r="O39" s="28"/>
       <c r="P39" s="28"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="28"/>
       <c r="C40" s="31"/>
       <c r="D40" s="31"/>
@@ -16229,7 +17273,7 @@
       <c r="O40" s="28"/>
       <c r="P40" s="28"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="28"/>
       <c r="C41" s="31"/>
       <c r="D41" s="31"/>
@@ -16246,7 +17290,7 @@
       <c r="O41" s="28"/>
       <c r="P41" s="28"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="28"/>
       <c r="C42" s="34" t="s">
         <v>138</v>
@@ -16265,26 +17309,26 @@
       <c r="O42" s="28"/>
       <c r="P42" s="28"/>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="28"/>
-      <c r="C43" s="109" t="s">
+      <c r="C43" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="D43" s="109"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="109"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="109"/>
-      <c r="J43" s="109"/>
-      <c r="K43" s="109"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="108"/>
+      <c r="K43" s="108"/>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
       <c r="N43" s="31"/>
       <c r="O43" s="28"/>
       <c r="P43" s="28"/>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="28"/>
       <c r="C44" s="31"/>
       <c r="D44" s="31"/>
@@ -16301,7 +17345,7 @@
       <c r="O44" s="28"/>
       <c r="P44" s="28"/>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
@@ -16318,7 +17362,7 @@
       <c r="O45" s="28"/>
       <c r="P45" s="28"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
@@ -16335,7 +17379,7 @@
       <c r="O46" s="28"/>
       <c r="P46" s="28"/>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
@@ -16369,10 +17413,10 @@
   <dimension ref="B2:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="52.140625" customWidth="1"/>
@@ -16385,24 +17429,24 @@
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
-      <c r="C2" s="111"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="110"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
       <c r="J2" s="43" t="s">
         <v>70</v>
       </c>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="2:11">
-      <c r="C3" s="111"/>
-      <c r="D3" s="110"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C3" s="110"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="43" t="s">
         <v>64</v>
       </c>
@@ -16423,34 +17467,34 @@
       </c>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1">
-      <c r="C4" s="57" t="s">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="58" t="s">
         <v>61</v>
       </c>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
         <v>42</v>
       </c>
@@ -16475,12 +17519,12 @@
       <c r="I5" s="53">
         <v>2.7</v>
       </c>
-      <c r="J5" s="56">
+      <c r="J5" s="55">
         <v>7.85</v>
       </c>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
       <c r="C6" s="44" t="s">
         <v>35</v>
@@ -16508,7 +17552,7 @@
       </c>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="44" t="s">
         <v>36</v>
@@ -16534,7 +17578,7 @@
       </c>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="44" t="s">
         <v>37</v>
@@ -16548,7 +17592,7 @@
       <c r="J8" s="47"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="44" t="s">
         <v>38</v>
@@ -16562,7 +17606,7 @@
       <c r="J9" s="47"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="44" t="s">
         <v>40</v>
@@ -16576,7 +17620,7 @@
       <c r="J10" s="47"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="44" t="s">
         <v>41</v>
@@ -16590,35 +17634,35 @@
       <c r="J11" s="47"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="26"/>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
       <c r="K12" s="28"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="51" t="s">
         <v>55</v>
@@ -16629,9 +17673,18 @@
       <c r="E14" s="54">
         <v>5.86</v>
       </c>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
+      <c r="F14" s="111">
+        <f>AVERAGE(5.70739,5.75573,5.71911,5.75623)</f>
+        <v>5.7346149999999998</v>
+      </c>
+      <c r="G14" s="112">
+        <f>AVERAGE(5.5333,5.53117,5.50411,5.55659)</f>
+        <v>5.5312925000000002</v>
+      </c>
+      <c r="H14" s="112">
+        <f>AVERAGE(5.66583,5.60073,5.61915,5.59391,5.59718)</f>
+        <v>5.6153599999999999</v>
+      </c>
       <c r="I14" s="54">
         <v>5.42</v>
       </c>
@@ -16640,7 +17693,7 @@
       </c>
       <c r="K14" s="28"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="26" t="s">
         <v>42</v>
       </c>
@@ -16654,17 +17707,17 @@
         <f>E14*2</f>
         <v>11.72</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="113">
         <f t="shared" ref="F15:J15" si="0">F14*2</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="47">
+        <v>11.46923</v>
+      </c>
+      <c r="G15" s="113">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="47">
+        <v>11.062585</v>
+      </c>
+      <c r="H15" s="113">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.23072</v>
       </c>
       <c r="I15" s="47">
         <f t="shared" si="0"/>
@@ -16676,7 +17729,7 @@
       </c>
       <c r="K15" s="28"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
         <v>42</v>
       </c>
@@ -16689,9 +17742,17 @@
       <c r="E16" s="47">
         <v>62.2</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
+      <c r="F16" s="113">
+        <f>AVERAGE(51.78,51.7122,49.6736,50.0039)</f>
+        <v>50.792424999999994</v>
+      </c>
+      <c r="G16" s="114">
+        <v>54.277700000000003</v>
+      </c>
+      <c r="H16" s="114">
+        <f>AVERAGE(52.2685,51.7548)</f>
+        <v>52.011650000000003</v>
+      </c>
       <c r="I16" s="47">
         <v>52</v>
       </c>
@@ -16700,7 +17761,7 @@
       </c>
       <c r="K16" s="28"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
       <c r="C17" s="44" t="s">
         <v>27</v>
@@ -16726,7 +17787,7 @@
       </c>
       <c r="K17" s="28"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
       <c r="C18" s="44" t="s">
         <v>28</v>
@@ -16735,9 +17796,15 @@
       <c r="E18" s="46">
         <v>3.1600000000000002E-7</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
+      <c r="F18" s="46">
+        <v>1.74E-7</v>
+      </c>
+      <c r="G18" s="50">
+        <v>1.14E-7</v>
+      </c>
+      <c r="H18" s="50">
+        <v>1.85E-7</v>
+      </c>
       <c r="I18" s="46">
         <v>3.4700000000000002E-7</v>
       </c>
@@ -16746,7 +17813,7 @@
       </c>
       <c r="K18" s="28"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="26" t="s">
         <v>42</v>
       </c>
@@ -16762,15 +17829,15 @@
       </c>
       <c r="F19" s="49">
         <f t="shared" ref="F19:J19" si="1">(F18/F17)*100</f>
-        <v>0</v>
+        <v>14.262295081967213</v>
       </c>
       <c r="G19" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.3442622950819683</v>
       </c>
       <c r="H19" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.163934426229508</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" si="1"/>
@@ -16782,7 +17849,7 @@
       </c>
       <c r="K19" s="28"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="s">
         <v>42</v>
       </c>
@@ -16795,9 +17862,15 @@
       <c r="E20" s="46">
         <v>6470000</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
+      <c r="F20" s="46">
+        <v>6270000</v>
+      </c>
+      <c r="G20" s="50">
+        <v>6250000</v>
+      </c>
+      <c r="H20" s="50">
+        <v>6280000</v>
+      </c>
       <c r="I20" s="46">
         <v>6450000</v>
       </c>
@@ -16806,7 +17879,7 @@
       </c>
       <c r="K20" s="28"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="26" t="s">
         <v>42</v>
       </c>
@@ -16819,9 +17892,15 @@
       <c r="E21" s="46">
         <v>1.35</v>
       </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
+      <c r="F21" s="47">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G21" s="48">
+        <v>5.64</v>
+      </c>
+      <c r="H21" s="48">
+        <v>5.03</v>
+      </c>
       <c r="I21" s="47">
         <v>3.08</v>
       </c>
@@ -16830,7 +17909,7 @@
       </c>
       <c r="K21" s="28"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="26" t="s">
         <v>44</v>
       </c>
@@ -16848,7 +17927,7 @@
       <c r="J22" s="48"/>
       <c r="K22" s="28"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="26" t="s">
         <v>44</v>
       </c>
@@ -16866,7 +17945,7 @@
       <c r="J23" s="48"/>
       <c r="K23" s="28"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="48"/>
       <c r="D24" s="48"/>
@@ -16877,7 +17956,7 @@
       <c r="I24" s="47"/>
       <c r="J24" s="48"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="44" t="s">
         <v>43</v>
@@ -16890,7 +17969,7 @@
       <c r="I25" s="48"/>
       <c r="J25" s="48"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="45"/>
       <c r="D26" s="45"/>
@@ -16901,7 +17980,7 @@
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -16912,7 +17991,7 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -16923,7 +18002,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -16934,7 +18013,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="27"/>
       <c r="D30" s="30"/>
@@ -16945,7 +18024,7 @@
       <c r="I30" s="30"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -16956,91 +18035,91 @@
       <c r="I31" s="29"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="3:7">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="3:7">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="3:7">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="3:7">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="3:7">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="3:7">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="3:7">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="3:7">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="3:7">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="3:7">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="3:7">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="3:7">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
       <c r="E44" s="5"/>
@@ -17062,18 +18141,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20CB03-FDC1-47B9-AF99-E205AFF1D2E2}">
   <dimension ref="C3:BF46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="12" max="12" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:40">
+    <row r="3" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C3" s="11" t="s">
         <v>31</v>
       </c>
@@ -17088,12 +18167,12 @@
       <c r="AM3" s="10"/>
       <c r="AN3" s="10"/>
     </row>
-    <row r="24" spans="52:52">
+    <row r="24" spans="52:52" x14ac:dyDescent="0.25">
       <c r="AZ24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="58:58">
+    <row r="46" spans="58:58" x14ac:dyDescent="0.25">
       <c r="BF46" t="s">
         <v>58</v>
       </c>
@@ -17110,7 +18189,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c4e1f6e80555f8e/Documenten/Internship/Project/Shared folder/HVI/GitHub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayleigh\Documents\HVI share\HVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{D271ACAF-FB1B-4886-9FB3-0EC59A4C17E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C581C04-3C98-4CE2-AAE3-F07701EB97D6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06B0BE8-AEFD-4FD4-952A-3E40E47E09B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,21 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="140">
   <si>
     <t>Al 7005</t>
   </si>
@@ -165,27 +156,6 @@
     <t>Material Options:</t>
   </si>
   <si>
-    <t>Impact Velocity</t>
-  </si>
-  <si>
-    <t>Wc parameter</t>
-  </si>
-  <si>
-    <t>Friction coefficient</t>
-  </si>
-  <si>
-    <t>Mesh size</t>
-  </si>
-  <si>
-    <t>t/D ratio</t>
-  </si>
-  <si>
-    <t>Target thickness (t)</t>
-  </si>
-  <si>
-    <t>Diameter of debris particle (D)</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -238,9 +208,6 @@
   </si>
   <si>
     <t>ton/mm3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Density    x10-9   </t>
   </si>
   <si>
     <t>Docol 600 DL</t>
@@ -501,7 +468,7 @@
     <t>DP800</t>
   </si>
   <si>
-    <t>Wc RESULTS - Aluminium</t>
+    <t>Wc RESULTS</t>
   </si>
 </sst>
 </file>
@@ -511,7 +478,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,7 +593,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -779,19 +746,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="2" tint="-9.9978637043366805E-2"/>
       </left>
       <right style="thin">
@@ -915,7 +869,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1007,31 +961,27 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1040,97 +990,104 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="9" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1145,10 +1102,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1239,7 +1192,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1279,7 +1232,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$5</c:f>
+              <c:f>Sheet2!$F$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1291,7 +1244,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$15</c:f>
+              <c:f>Sheet2!$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1338,7 +1291,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$J$5</c:f>
+              <c:f>Sheet2!$K$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1350,7 +1303,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$J$15</c:f>
+              <c:f>Sheet2!$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1397,7 +1350,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$I$5</c:f>
+              <c:f>Sheet2!$J$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1409,7 +1362,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$I$15</c:f>
+              <c:f>Sheet2!$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1431,7 +1384,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$H$4</c:f>
+              <c:f>Sheet2!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1464,7 +1417,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$H$5</c:f>
+              <c:f>Sheet2!$I$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1476,7 +1429,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$H$15</c:f>
+              <c:f>Sheet2!$I$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1498,7 +1451,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$G$4</c:f>
+              <c:f>Sheet2!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1531,7 +1484,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$G$5</c:f>
+              <c:f>Sheet2!$H$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1543,7 +1496,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$G$15</c:f>
+              <c:f>Sheet2!$H$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1565,7 +1518,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$F$4</c:f>
+              <c:f>Sheet2!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1598,7 +1551,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$F$5</c:f>
+              <c:f>Sheet2!$G$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1610,7 +1563,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$15</c:f>
+              <c:f>Sheet2!$G$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1794,7 +1747,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1832,7 +1785,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -1925,7 +1878,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1963,7 +1916,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -2005,7 +1958,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2042,7 +1995,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2160,7 +2113,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2200,19 +2153,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$7</c:f>
+              <c:f>Sheet2!$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>278</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$21</c:f>
+              <c:f>Sheet2!$F$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2259,19 +2212,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$F$7</c:f>
+              <c:f>Sheet2!$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>151</c:v>
+                  <c:v>3.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$21</c:f>
+              <c:f>Sheet2!$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2318,19 +2271,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$G$7</c:f>
+              <c:f>Sheet2!$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>211</c:v>
+                  <c:v>2.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$G$21</c:f>
+              <c:f>Sheet2!$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2377,19 +2330,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$H$7</c:f>
+              <c:f>Sheet2!$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>115</c:v>
+                  <c:v>2.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$H$21</c:f>
+              <c:f>Sheet2!$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2436,19 +2389,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$I$7</c:f>
+              <c:f>Sheet2!$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>2.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$I$21</c:f>
+              <c:f>Sheet2!$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2462,6 +2415,65 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-F577-42D2-B623-D1E17E79D22A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Docol 600 DL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32B3-4389-A871-5AF88463B17D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2548,7 +2560,7 @@
                   <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Cockcroft-Latham parameter, Wc (MPa) </a:t>
+                  <a:t>x-axis</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB" sz="1100">
                   <a:effectLst/>
@@ -2595,7 +2607,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2633,7 +2645,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -2742,7 +2754,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2780,7 +2792,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -2822,7 +2834,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2859,7 +2871,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2943,7 +2955,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2983,7 +2995,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$5</c:f>
+              <c:f>Sheet2!$F$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2995,7 +3007,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$16</c:f>
+              <c:f>Sheet2!$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3042,7 +3054,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$J$5</c:f>
+              <c:f>Sheet2!$K$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3054,7 +3066,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$J$16</c:f>
+              <c:f>Sheet2!$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3101,7 +3113,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$I$5</c:f>
+              <c:f>Sheet2!$J$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3113,7 +3125,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$I$16</c:f>
+              <c:f>Sheet2!$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3135,7 +3147,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$H$4</c:f>
+              <c:f>Sheet2!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3168,7 +3180,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$H$5</c:f>
+              <c:f>Sheet2!$I$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3180,7 +3192,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$H$16</c:f>
+              <c:f>Sheet2!$I$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3202,7 +3214,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$G$4</c:f>
+              <c:f>Sheet2!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3235,7 +3247,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$G$5</c:f>
+              <c:f>Sheet2!$H$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3247,7 +3259,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$G$16</c:f>
+              <c:f>Sheet2!$H$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3269,7 +3281,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$F$4</c:f>
+              <c:f>Sheet2!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3302,7 +3314,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$F$5</c:f>
+              <c:f>Sheet2!$G$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3314,7 +3326,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$16</c:f>
+              <c:f>Sheet2!$G$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3493,7 +3505,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3531,7 +3543,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -3624,7 +3636,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3662,7 +3674,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -3704,7 +3716,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3741,7 +3753,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3859,7 +3871,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3899,7 +3911,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$5</c:f>
+              <c:f>Sheet2!$F$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3911,7 +3923,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$19</c:f>
+              <c:f>Sheet2!$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3958,7 +3970,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$J$5</c:f>
+              <c:f>Sheet2!$K$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3970,7 +3982,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$J$19</c:f>
+              <c:f>Sheet2!$K$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4017,7 +4029,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$I$5</c:f>
+              <c:f>Sheet2!$J$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4029,7 +4041,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$I$19</c:f>
+              <c:f>Sheet2!$J$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4051,7 +4063,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$H$4</c:f>
+              <c:f>Sheet2!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4084,7 +4096,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$H$5</c:f>
+              <c:f>Sheet2!$I$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4096,7 +4108,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$H$19</c:f>
+              <c:f>Sheet2!$I$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4118,7 +4130,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$G$4</c:f>
+              <c:f>Sheet2!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4151,7 +4163,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$G$5</c:f>
+              <c:f>Sheet2!$H$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4163,7 +4175,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$G$19</c:f>
+              <c:f>Sheet2!$H$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4185,7 +4197,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$F$4</c:f>
+              <c:f>Sheet2!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4218,7 +4230,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$F$5</c:f>
+              <c:f>Sheet2!$G$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4230,7 +4242,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$19</c:f>
+              <c:f>Sheet2!$G$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4409,7 +4421,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4447,7 +4459,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -4540,7 +4552,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4578,7 +4590,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -4620,7 +4632,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4657,7 +4669,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4741,7 +4753,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4781,7 +4793,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$5</c:f>
+              <c:f>Sheet2!$F$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4793,7 +4805,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$20</c:f>
+              <c:f>Sheet2!$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4840,7 +4852,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$J$5</c:f>
+              <c:f>Sheet2!$K$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4852,7 +4864,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$J$20</c:f>
+              <c:f>Sheet2!$K$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4899,7 +4911,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$I$5</c:f>
+              <c:f>Sheet2!$J$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4911,7 +4923,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$I$20</c:f>
+              <c:f>Sheet2!$J$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4933,7 +4945,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$H$4</c:f>
+              <c:f>Sheet2!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4966,7 +4978,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$H$5</c:f>
+              <c:f>Sheet2!$I$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4978,7 +4990,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$H$20</c:f>
+              <c:f>Sheet2!$I$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5000,7 +5012,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$G$4</c:f>
+              <c:f>Sheet2!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5033,7 +5045,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$G$5</c:f>
+              <c:f>Sheet2!$H$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5045,7 +5057,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$G$20</c:f>
+              <c:f>Sheet2!$H$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5067,7 +5079,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$F$4</c:f>
+              <c:f>Sheet2!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5100,7 +5112,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$F$5</c:f>
+              <c:f>Sheet2!$G$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5112,7 +5124,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$20</c:f>
+              <c:f>Sheet2!$G$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5283,7 +5295,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5321,7 +5333,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -5422,7 +5434,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5460,7 +5472,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -5502,7 +5514,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5539,7 +5551,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5657,7 +5669,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5697,7 +5709,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$5</c:f>
+              <c:f>Sheet2!$F$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5709,7 +5721,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$21</c:f>
+              <c:f>Sheet2!$F$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5756,7 +5768,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$J$5</c:f>
+              <c:f>Sheet2!$K$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5768,7 +5780,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$J$21</c:f>
+              <c:f>Sheet2!$K$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5815,7 +5827,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$I$5</c:f>
+              <c:f>Sheet2!$J$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5827,7 +5839,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$I$21</c:f>
+              <c:f>Sheet2!$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5849,7 +5861,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$H$4</c:f>
+              <c:f>Sheet2!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5882,7 +5894,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$H$5</c:f>
+              <c:f>Sheet2!$I$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5894,7 +5906,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$H$21</c:f>
+              <c:f>Sheet2!$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5916,7 +5928,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$G$4</c:f>
+              <c:f>Sheet2!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5949,7 +5961,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$G$5</c:f>
+              <c:f>Sheet2!$H$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5961,7 +5973,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$G$21</c:f>
+              <c:f>Sheet2!$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5983,7 +5995,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$F$4</c:f>
+              <c:f>Sheet2!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6016,7 +6028,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$F$5</c:f>
+              <c:f>Sheet2!$G$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -6028,7 +6040,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$21</c:f>
+              <c:f>Sheet2!$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -6199,7 +6211,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6237,7 +6249,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -6346,7 +6358,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6384,7 +6396,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -6426,7 +6438,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6463,7 +6475,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6547,7 +6559,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6587,19 +6599,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$7</c:f>
+              <c:f>Sheet2!$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>278</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$15</c:f>
+              <c:f>Sheet2!$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -6646,19 +6658,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$F$7</c:f>
+              <c:f>Sheet2!$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>151</c:v>
+                  <c:v>3.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$15</c:f>
+              <c:f>Sheet2!$G$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -6705,19 +6717,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$G$7</c:f>
+              <c:f>Sheet2!$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>211</c:v>
+                  <c:v>2.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$G$15</c:f>
+              <c:f>Sheet2!$H$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -6764,19 +6776,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$H$7</c:f>
+              <c:f>Sheet2!$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>115</c:v>
+                  <c:v>2.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$H$15</c:f>
+              <c:f>Sheet2!$I$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -6823,19 +6835,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$I$7</c:f>
+              <c:f>Sheet2!$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>2.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$I$15</c:f>
+              <c:f>Sheet2!$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -6849,6 +6861,65 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0692-4545-B313-B7A23DDB4EF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Docol 600 DL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-707F-4597-A97F-82D818B2C4D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6933,14 +7004,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB" sz="1100"/>
-                  <a:t>Cockcroft-Latham parameter, Wc (MPa</a:t>
+                  <a:t>x-axis</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1100">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>) </a:t>
-                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1100">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6991,7 +7059,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7029,7 +7097,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -7122,7 +7190,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7160,7 +7228,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -7202,7 +7270,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7239,7 +7307,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7323,7 +7391,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7363,19 +7431,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$7</c:f>
+              <c:f>Sheet2!$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>278</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$16</c:f>
+              <c:f>Sheet2!$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -7422,19 +7490,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$F$7</c:f>
+              <c:f>Sheet2!$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>151</c:v>
+                  <c:v>3.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$16</c:f>
+              <c:f>Sheet2!$G$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -7481,19 +7549,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$G$7</c:f>
+              <c:f>Sheet2!$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>211</c:v>
+                  <c:v>2.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$G$16</c:f>
+              <c:f>Sheet2!$H$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -7540,19 +7608,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$H$7</c:f>
+              <c:f>Sheet2!$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>115</c:v>
+                  <c:v>2.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$H$16</c:f>
+              <c:f>Sheet2!$I$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -7599,19 +7667,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$I$7</c:f>
+              <c:f>Sheet2!$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>2.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$I$16</c:f>
+              <c:f>Sheet2!$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -7625,6 +7693,65 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-C782-4731-A8B8-BBA391678DEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Docol 600 DL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9247-4ECF-AA9B-2A0FB9FFC1A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7711,7 +7838,7 @@
                   <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Cockcroft-Latham parameter, Wc (MPa) </a:t>
+                  <a:t>x-axis</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB" sz="1100">
                   <a:effectLst/>
@@ -7766,7 +7893,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7804,7 +7931,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -7897,7 +8024,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7935,7 +8062,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -7977,7 +8104,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8014,7 +8141,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8132,7 +8259,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8172,19 +8299,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$7</c:f>
+              <c:f>Sheet2!$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>278</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$19</c:f>
+              <c:f>Sheet2!$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
@@ -8231,19 +8358,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$F$7</c:f>
+              <c:f>Sheet2!$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>151</c:v>
+                  <c:v>3.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$19</c:f>
+              <c:f>Sheet2!$G$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
@@ -8290,19 +8417,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$G$7</c:f>
+              <c:f>Sheet2!$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>211</c:v>
+                  <c:v>2.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$G$19</c:f>
+              <c:f>Sheet2!$H$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
@@ -8349,19 +8476,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$H$7</c:f>
+              <c:f>Sheet2!$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>115</c:v>
+                  <c:v>2.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$H$19</c:f>
+              <c:f>Sheet2!$I$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
@@ -8408,19 +8535,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$I$7</c:f>
+              <c:f>Sheet2!$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>2.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$I$19</c:f>
+              <c:f>Sheet2!$J$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
@@ -8434,6 +8561,65 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7476-46E7-858B-C35FFF4CD727}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Docol 600 DL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.7377049180327875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AFA-418C-BA69-1655A802B0DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8520,7 +8706,7 @@
                   <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Cockcroft-Latham parameter, Wc (MPa) </a:t>
+                  <a:t>x-axis</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB" sz="1100">
                   <a:effectLst/>
@@ -8575,7 +8761,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8613,7 +8799,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -8706,7 +8892,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8744,7 +8930,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -8786,7 +8972,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8823,7 +9009,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8907,7 +9093,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8947,19 +9133,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$7</c:f>
+              <c:f>Sheet2!$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>278</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$20</c:f>
+              <c:f>Sheet2!$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -9006,19 +9192,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$F$7</c:f>
+              <c:f>Sheet2!$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>151</c:v>
+                  <c:v>3.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$20</c:f>
+              <c:f>Sheet2!$G$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -9065,19 +9251,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$G$7</c:f>
+              <c:f>Sheet2!$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>211</c:v>
+                  <c:v>2.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$G$20</c:f>
+              <c:f>Sheet2!$H$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -9124,19 +9310,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$H$7</c:f>
+              <c:f>Sheet2!$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>115</c:v>
+                  <c:v>2.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$H$20</c:f>
+              <c:f>Sheet2!$I$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -9183,19 +9369,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$I$7</c:f>
+              <c:f>Sheet2!$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>2.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$I$20</c:f>
+              <c:f>Sheet2!$J$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -9209,6 +9395,65 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-AF52-4618-AA56-376AC878D045}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Docol 600 DL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6070000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-57DF-43CC-93B4-8F333C8C24B3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9295,7 +9540,7 @@
                   <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Cockcroft-Latham parameter, Wc (MPa) </a:t>
+                  <a:t>x-axis</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB" sz="1100">
                   <a:effectLst/>
@@ -9342,7 +9587,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9380,7 +9625,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -9481,7 +9726,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9519,7 +9764,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -9561,7 +9806,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9598,7 +9843,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15857,24 +16102,24 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="78.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:4">
       <c r="C2" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" ht="17.25" customHeight="1">
       <c r="C4" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" ht="21" customHeight="1">
       <c r="C5" s="17" t="s">
         <v>23</v>
       </c>
@@ -15882,53 +16127,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4">
       <c r="C6" s="18"/>
       <c r="D6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4">
       <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4">
       <c r="C8" s="19"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4">
       <c r="C9" s="20"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4">
       <c r="C10" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4">
       <c r="C11" s="22"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4">
       <c r="C12" s="23"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:4">
       <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:4">
       <c r="C14" s="19"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:4">
       <c r="C15" s="20"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5">
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
@@ -15939,7 +16184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5">
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>18</v>
@@ -15948,21 +16193,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5">
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
         <v>15</v>
@@ -15971,21 +16216,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5">
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5">
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5">
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -15994,21 +16239,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5">
       <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
@@ -16017,28 +16262,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5">
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5">
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:5">
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:5">
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="16" t="s">
@@ -16056,10 +16301,10 @@
   <dimension ref="B3:Q47"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="33.140625" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
@@ -16076,7 +16321,7 @@
     <col min="15" max="15" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17">
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -16093,7 +16338,7 @@
       <c r="O3" s="28"/>
       <c r="P3" s="28"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17">
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -16110,7 +16355,7 @@
       <c r="O4" s="28"/>
       <c r="P4" s="28"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17">
       <c r="B5" s="28"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
@@ -16127,128 +16372,128 @@
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17">
       <c r="B6" s="28"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105"/>
-      <c r="P6" s="98"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="105" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="94"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17">
       <c r="B7" s="28"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="M7" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="N7" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="O7" s="97" t="s">
-        <v>145</v>
-      </c>
-      <c r="P7" s="98"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="M7" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="N7" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="O7" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="P7" s="94"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="2:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" ht="34.5" customHeight="1" thickBot="1">
       <c r="B8" s="28"/>
-      <c r="C8" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="98"/>
+      <c r="C8" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="94"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17">
       <c r="B9" s="28"/>
-      <c r="C9" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="84">
+      <c r="C9" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="80">
         <v>2.7000000000000002E-9</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="62">
         <v>2.7000000000000002E-9</v>
       </c>
-      <c r="H9" s="66">
+      <c r="H9" s="62">
         <v>2.7000000000000002E-9</v>
       </c>
-      <c r="I9" s="66">
+      <c r="I9" s="62">
         <v>2.7000000000000002E-9</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="73">
         <v>2.7000000000000002E-9</v>
       </c>
       <c r="K9" s="32">
@@ -16258,20 +16503,20 @@
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
-      <c r="P9" s="99"/>
+      <c r="P9" s="95"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17">
       <c r="B10" s="28"/>
       <c r="C10" s="36" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="86">
+        <v>73</v>
+      </c>
+      <c r="E10" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="82">
         <v>58333.33</v>
       </c>
       <c r="G10" s="39">
@@ -16283,7 +16528,7 @@
       <c r="I10" s="39">
         <v>58333.33</v>
       </c>
-      <c r="J10" s="78">
+      <c r="J10" s="74">
         <v>58333.33</v>
       </c>
       <c r="K10" s="32">
@@ -16293,20 +16538,20 @@
       <c r="M10" s="32"/>
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
-      <c r="P10" s="99"/>
+      <c r="P10" s="95"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17">
       <c r="B11" s="28"/>
       <c r="C11" s="36" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="86">
+        <v>76</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="82">
         <v>26923.08</v>
       </c>
       <c r="G11" s="39">
@@ -16318,7 +16563,7 @@
       <c r="I11" s="39">
         <v>26923.08</v>
       </c>
-      <c r="J11" s="78">
+      <c r="J11" s="74">
         <v>26923.08</v>
       </c>
       <c r="K11" s="32">
@@ -16328,20 +16573,20 @@
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
       <c r="O11" s="32"/>
-      <c r="P11" s="99"/>
+      <c r="P11" s="95"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17">
       <c r="B12" s="28"/>
       <c r="C12" s="36" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="86">
+        <v>78</v>
+      </c>
+      <c r="E12" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="82">
         <v>47</v>
       </c>
       <c r="G12" s="39">
@@ -16353,7 +16598,7 @@
       <c r="I12" s="39">
         <v>47</v>
       </c>
-      <c r="J12" s="78">
+      <c r="J12" s="74">
         <v>47</v>
       </c>
       <c r="K12" s="33">
@@ -16363,20 +16608,20 @@
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
       <c r="O12" s="33"/>
-      <c r="P12" s="99"/>
+      <c r="P12" s="95"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17">
       <c r="B13" s="28"/>
       <c r="C13" s="36" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="86">
+        <v>80</v>
+      </c>
+      <c r="E13" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="82">
         <v>70000</v>
       </c>
       <c r="G13" s="39">
@@ -16388,7 +16633,7 @@
       <c r="I13" s="39">
         <v>70000</v>
       </c>
-      <c r="J13" s="78">
+      <c r="J13" s="74">
         <v>70000</v>
       </c>
       <c r="K13" s="32">
@@ -16398,20 +16643,20 @@
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
       <c r="O13" s="32"/>
-      <c r="P13" s="99"/>
+      <c r="P13" s="95"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17">
       <c r="B14" s="28"/>
       <c r="C14" s="36" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="86">
+        <v>82</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="82">
         <v>0.3</v>
       </c>
       <c r="G14" s="39">
@@ -16423,7 +16668,7 @@
       <c r="I14" s="39">
         <v>0.3</v>
       </c>
-      <c r="J14" s="78">
+      <c r="J14" s="74">
         <v>0.3</v>
       </c>
       <c r="K14" s="33">
@@ -16433,20 +16678,20 @@
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
       <c r="O14" s="33"/>
-      <c r="P14" s="99"/>
+      <c r="P14" s="95"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17">
       <c r="B15" s="28"/>
       <c r="C15" s="36" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="86">
+        <v>84</v>
+      </c>
+      <c r="E15" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="82">
         <v>0.9</v>
       </c>
       <c r="G15" s="39">
@@ -16458,7 +16703,7 @@
       <c r="I15" s="39">
         <v>0.9</v>
       </c>
-      <c r="J15" s="78">
+      <c r="J15" s="74">
         <v>0.9</v>
       </c>
       <c r="K15" s="33">
@@ -16468,20 +16713,20 @@
       <c r="M15" s="33"/>
       <c r="N15" s="33"/>
       <c r="O15" s="33"/>
-      <c r="P15" s="99"/>
+      <c r="P15" s="95"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17">
       <c r="B16" s="28"/>
       <c r="C16" s="36" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="85">
+        <v>86</v>
+      </c>
+      <c r="E16" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="81">
         <v>910000000</v>
       </c>
       <c r="G16" s="37">
@@ -16493,7 +16738,7 @@
       <c r="I16" s="37">
         <v>910000000</v>
       </c>
-      <c r="J16" s="79">
+      <c r="J16" s="75">
         <v>910000000</v>
       </c>
       <c r="K16" s="32">
@@ -16503,20 +16748,20 @@
       <c r="M16" s="32"/>
       <c r="N16" s="32"/>
       <c r="O16" s="32"/>
-      <c r="P16" s="99"/>
+      <c r="P16" s="95"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16">
       <c r="B17" s="28"/>
       <c r="C17" s="36" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="85">
+        <v>89</v>
+      </c>
+      <c r="E17" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="81">
         <v>2.3200000000000001E-5</v>
       </c>
       <c r="G17" s="37">
@@ -16528,7 +16773,7 @@
       <c r="I17" s="40">
         <v>2.3200000000000001E-5</v>
       </c>
-      <c r="J17" s="80">
+      <c r="J17" s="76">
         <v>2.3200000000000001E-5</v>
       </c>
       <c r="K17" s="32">
@@ -16538,18 +16783,18 @@
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
-      <c r="P17" s="99"/>
+      <c r="P17" s="95"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16">
       <c r="B18" s="28"/>
       <c r="C18" s="36" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="85">
+        <v>92</v>
+      </c>
+      <c r="E18" s="85"/>
+      <c r="F18" s="81">
         <v>1E-4</v>
       </c>
       <c r="G18" s="37">
@@ -16561,7 +16806,7 @@
       <c r="I18" s="37">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J18" s="79">
+      <c r="J18" s="75">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K18" s="32">
@@ -16571,16 +16816,16 @@
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
       <c r="O18" s="28"/>
-      <c r="P18" s="99"/>
+      <c r="P18" s="95"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16">
       <c r="B19" s="28"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="85">
+        <v>93</v>
+      </c>
+      <c r="E19" s="85"/>
+      <c r="F19" s="81">
         <v>2.4569999999999999</v>
       </c>
       <c r="G19" s="37">
@@ -16592,7 +16837,7 @@
       <c r="I19" s="37">
         <v>2.4569999999999999</v>
       </c>
-      <c r="J19" s="79">
+      <c r="J19" s="75">
         <v>2.4569999999999999</v>
       </c>
       <c r="K19" s="32">
@@ -16602,20 +16847,20 @@
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
       <c r="O19" s="28"/>
-      <c r="P19" s="99"/>
+      <c r="P19" s="95"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16">
       <c r="B20" s="28"/>
       <c r="C20" s="41" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="86">
+        <v>95</v>
+      </c>
+      <c r="E20" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="82">
         <v>893</v>
       </c>
       <c r="G20" s="39">
@@ -16627,7 +16872,7 @@
       <c r="I20" s="39">
         <v>893</v>
       </c>
-      <c r="J20" s="78">
+      <c r="J20" s="74">
         <v>893</v>
       </c>
       <c r="K20" s="33">
@@ -16637,20 +16882,20 @@
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
       <c r="O20" s="28"/>
-      <c r="P20" s="99"/>
+      <c r="P20" s="95"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16">
       <c r="B21" s="28"/>
       <c r="C21" s="41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="86">
+        <v>97</v>
+      </c>
+      <c r="E21" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="82">
         <v>293</v>
       </c>
       <c r="G21" s="39">
@@ -16662,7 +16907,7 @@
       <c r="I21" s="39">
         <v>293</v>
       </c>
-      <c r="J21" s="78">
+      <c r="J21" s="74">
         <v>293</v>
       </c>
       <c r="K21" s="33">
@@ -16672,20 +16917,20 @@
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
       <c r="O21" s="28"/>
-      <c r="P21" s="99"/>
+      <c r="P21" s="95"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16">
       <c r="B22" s="28"/>
       <c r="C22" s="41" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="86">
+        <v>99</v>
+      </c>
+      <c r="E22" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="82">
         <v>293</v>
       </c>
       <c r="G22" s="39">
@@ -16697,7 +16942,7 @@
       <c r="I22" s="39">
         <v>293</v>
       </c>
-      <c r="J22" s="78">
+      <c r="J22" s="74">
         <v>293</v>
       </c>
       <c r="K22" s="33">
@@ -16707,20 +16952,20 @@
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
       <c r="O22" s="28"/>
-      <c r="P22" s="99"/>
+      <c r="P22" s="95"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16">
       <c r="B23" s="28"/>
       <c r="C23" s="41" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="86">
+        <v>101</v>
+      </c>
+      <c r="E23" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="82">
         <v>893</v>
       </c>
       <c r="G23" s="39">
@@ -16732,7 +16977,7 @@
       <c r="I23" s="39">
         <v>893</v>
       </c>
-      <c r="J23" s="78">
+      <c r="J23" s="74">
         <v>893</v>
       </c>
       <c r="K23" s="33">
@@ -16742,20 +16987,20 @@
       <c r="M23" s="31"/>
       <c r="N23" s="31"/>
       <c r="O23" s="28"/>
-      <c r="P23" s="99"/>
+      <c r="P23" s="95"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16">
       <c r="B24" s="28"/>
       <c r="C24" s="36" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="86">
+        <v>103</v>
+      </c>
+      <c r="E24" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="82">
         <v>292.60000000000002</v>
       </c>
       <c r="G24" s="39">
@@ -16767,7 +17012,7 @@
       <c r="I24" s="39">
         <v>350</v>
       </c>
-      <c r="J24" s="78">
+      <c r="J24" s="74">
         <v>292.5</v>
       </c>
       <c r="K24" s="33">
@@ -16777,20 +17022,20 @@
       <c r="M24" s="31"/>
       <c r="N24" s="31"/>
       <c r="O24" s="28"/>
-      <c r="P24" s="99"/>
+      <c r="P24" s="95"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16">
       <c r="B25" s="28"/>
       <c r="C25" s="36" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="86">
+        <v>105</v>
+      </c>
+      <c r="E25" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="82">
         <v>0</v>
       </c>
       <c r="G25" s="39">
@@ -16802,7 +17047,7 @@
       <c r="I25" s="39">
         <v>2.64</v>
       </c>
-      <c r="J25" s="78">
+      <c r="J25" s="74">
         <v>2.69</v>
       </c>
       <c r="K25" s="33">
@@ -16812,20 +17057,20 @@
       <c r="M25" s="31"/>
       <c r="N25" s="31"/>
       <c r="O25" s="28"/>
-      <c r="P25" s="99"/>
+      <c r="P25" s="95"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16">
       <c r="B26" s="28"/>
       <c r="C26" s="36" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="86">
+        <v>107</v>
+      </c>
+      <c r="E26" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="82">
         <v>0</v>
       </c>
       <c r="G26" s="39">
@@ -16837,7 +17082,7 @@
       <c r="I26" s="39">
         <v>0.05</v>
       </c>
-      <c r="J26" s="78">
+      <c r="J26" s="74">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="K26" s="33">
@@ -16847,20 +17092,20 @@
       <c r="M26" s="31"/>
       <c r="N26" s="31"/>
       <c r="O26" s="28"/>
-      <c r="P26" s="99"/>
+      <c r="P26" s="95"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16">
       <c r="B27" s="28"/>
       <c r="C27" s="36" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="86">
+        <v>108</v>
+      </c>
+      <c r="E27" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="82">
         <v>0.02</v>
       </c>
       <c r="G27" s="39">
@@ -16872,7 +17117,7 @@
       <c r="I27" s="39">
         <v>0.10299999999999999</v>
       </c>
-      <c r="J27" s="78">
+      <c r="J27" s="74">
         <v>0.105</v>
       </c>
       <c r="K27" s="33">
@@ -16882,20 +17127,20 @@
       <c r="M27" s="31"/>
       <c r="N27" s="31"/>
       <c r="O27" s="28"/>
-      <c r="P27" s="99"/>
+      <c r="P27" s="95"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16">
       <c r="B28" s="28"/>
       <c r="C28" s="36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="86">
+        <v>110</v>
+      </c>
+      <c r="E28" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="82">
         <v>1</v>
       </c>
       <c r="G28" s="39">
@@ -16907,7 +17152,7 @@
       <c r="I28" s="39">
         <v>1</v>
       </c>
-      <c r="J28" s="78">
+      <c r="J28" s="74">
         <v>1</v>
       </c>
       <c r="K28" s="33">
@@ -16917,20 +17162,20 @@
       <c r="M28" s="31"/>
       <c r="N28" s="31"/>
       <c r="O28" s="28"/>
-      <c r="P28" s="99"/>
+      <c r="P28" s="95"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16">
       <c r="B29" s="28"/>
       <c r="C29" s="41" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="86">
+        <v>112</v>
+      </c>
+      <c r="E29" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="82">
         <v>2.7</v>
       </c>
       <c r="G29" s="39">
@@ -16942,7 +17187,7 @@
       <c r="I29" s="39">
         <v>30.1</v>
       </c>
-      <c r="J29" s="78">
+      <c r="J29" s="74">
         <v>55.3</v>
       </c>
       <c r="K29" s="33">
@@ -16952,20 +17197,20 @@
       <c r="M29" s="31"/>
       <c r="N29" s="31"/>
       <c r="O29" s="28"/>
-      <c r="P29" s="99"/>
+      <c r="P29" s="95"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16">
       <c r="B30" s="28"/>
       <c r="C30" s="41" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="86">
+        <v>113</v>
+      </c>
+      <c r="E30" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="82">
         <v>2160.6999999999998</v>
       </c>
       <c r="G30" s="39">
@@ -16977,7 +17222,7 @@
       <c r="I30" s="39">
         <v>185.9</v>
       </c>
-      <c r="J30" s="78">
+      <c r="J30" s="74">
         <v>317.2</v>
       </c>
       <c r="K30" s="33">
@@ -16987,20 +17232,20 @@
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
       <c r="O30" s="28"/>
-      <c r="P30" s="99"/>
+      <c r="P30" s="95"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16">
       <c r="B31" s="28"/>
       <c r="C31" s="41" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="F31" s="86">
+        <v>114</v>
+      </c>
+      <c r="E31" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="82">
         <v>707.6</v>
       </c>
       <c r="G31" s="39">
@@ -17012,7 +17257,7 @@
       <c r="I31" s="39">
         <v>72.8</v>
       </c>
-      <c r="J31" s="78">
+      <c r="J31" s="74">
         <v>31.1</v>
       </c>
       <c r="K31" s="33">
@@ -17022,20 +17267,20 @@
       <c r="M31" s="31"/>
       <c r="N31" s="31"/>
       <c r="O31" s="28"/>
-      <c r="P31" s="99"/>
+      <c r="P31" s="95"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16">
       <c r="B32" s="28"/>
       <c r="C32" s="41" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="86">
+        <v>115</v>
+      </c>
+      <c r="E32" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="82">
         <v>8.94</v>
       </c>
       <c r="G32" s="39">
@@ -17047,7 +17292,7 @@
       <c r="I32" s="39">
         <v>7.7</v>
       </c>
-      <c r="J32" s="78">
+      <c r="J32" s="74">
         <v>10</v>
       </c>
       <c r="K32" s="33">
@@ -17057,20 +17302,20 @@
       <c r="M32" s="31"/>
       <c r="N32" s="31"/>
       <c r="O32" s="28"/>
-      <c r="P32" s="99"/>
+      <c r="P32" s="95"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="B33" s="28"/>
       <c r="C33" s="41" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="90" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="86">
+        <v>117</v>
+      </c>
+      <c r="E33" s="86" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="82">
         <v>278</v>
       </c>
       <c r="G33" s="39">
@@ -17082,7 +17327,7 @@
       <c r="I33" s="39">
         <v>115</v>
       </c>
-      <c r="J33" s="78">
+      <c r="J33" s="74">
         <v>128</v>
       </c>
       <c r="K33" s="33">
@@ -17092,18 +17337,18 @@
       <c r="M33" s="31"/>
       <c r="N33" s="31"/>
       <c r="O33" s="28"/>
-      <c r="P33" s="99"/>
+      <c r="P33" s="95"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="B34" s="28"/>
       <c r="C34" s="36"/>
       <c r="D34" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="86">
+        <v>119</v>
+      </c>
+      <c r="E34" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="82">
         <v>1E-3</v>
       </c>
       <c r="G34" s="39">
@@ -17115,7 +17360,7 @@
       <c r="I34" s="39">
         <v>1E-3</v>
       </c>
-      <c r="J34" s="78">
+      <c r="J34" s="74">
         <v>1E-3</v>
       </c>
       <c r="K34" s="31"/>
@@ -17123,84 +17368,84 @@
       <c r="M34" s="31"/>
       <c r="N34" s="31"/>
       <c r="O34" s="28"/>
-      <c r="P34" s="99"/>
+      <c r="P34" s="95"/>
     </row>
-    <row r="35" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16" ht="15.75" thickBot="1">
       <c r="B35" s="28"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="F35" s="94">
+      <c r="C35" s="66"/>
+      <c r="D35" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="90">
         <v>292.60000000000002</v>
       </c>
-      <c r="G35" s="71">
+      <c r="G35" s="67">
         <v>51</v>
       </c>
-      <c r="H35" s="71">
+      <c r="H35" s="67">
         <v>187</v>
       </c>
-      <c r="I35" s="71">
+      <c r="I35" s="67">
         <v>373</v>
       </c>
-      <c r="J35" s="81">
+      <c r="J35" s="77">
         <v>341</v>
       </c>
-      <c r="K35" s="100"/>
-      <c r="L35" s="100"/>
-      <c r="M35" s="100"/>
-      <c r="N35" s="100"/>
-      <c r="O35" s="101"/>
-      <c r="P35" s="99"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="96"/>
+      <c r="O35" s="97"/>
+      <c r="P35" s="95"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="B36" s="28"/>
-      <c r="C36" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" s="68"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="95" t="s">
-        <v>139</v>
-      </c>
-      <c r="G36" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="H36" s="69" t="s">
+      <c r="C36" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="64"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="I36" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="J36" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="K36" s="69"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
+      <c r="G36" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="H36" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="J36" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="K36" s="65"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
       <c r="N36" s="31"/>
       <c r="O36" s="28"/>
       <c r="P36" s="28"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16">
       <c r="B37" s="28"/>
       <c r="C37" s="35" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D37" s="35"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="107" t="s">
-        <v>42</v>
-      </c>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="108"/>
       <c r="K37" s="42" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L37" s="38"/>
       <c r="M37" s="38"/>
@@ -17208,30 +17453,30 @@
       <c r="O37" s="28"/>
       <c r="P37" s="28"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" s="28"/>
       <c r="C38" s="35" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D38" s="35"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="96" t="s">
-        <v>136</v>
+      <c r="E38" s="89"/>
+      <c r="F38" s="92" t="s">
+        <v>128</v>
       </c>
       <c r="G38" s="42" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H38" s="42" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I38" s="42" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J38" s="42" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="K38" s="42" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
@@ -17239,7 +17484,7 @@
       <c r="O38" s="28"/>
       <c r="P38" s="28"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="B39" s="28"/>
       <c r="C39" s="31"/>
       <c r="D39" s="31"/>
@@ -17256,7 +17501,7 @@
       <c r="O39" s="28"/>
       <c r="P39" s="28"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16">
       <c r="B40" s="28"/>
       <c r="C40" s="31"/>
       <c r="D40" s="31"/>
@@ -17273,7 +17518,7 @@
       <c r="O40" s="28"/>
       <c r="P40" s="28"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="B41" s="28"/>
       <c r="C41" s="31"/>
       <c r="D41" s="31"/>
@@ -17290,10 +17535,10 @@
       <c r="O41" s="28"/>
       <c r="P41" s="28"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" s="28"/>
       <c r="C42" s="34" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D42" s="31"/>
       <c r="E42" s="31"/>
@@ -17309,26 +17554,26 @@
       <c r="O42" s="28"/>
       <c r="P42" s="28"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="B43" s="28"/>
-      <c r="C43" s="108" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" s="108"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="108"/>
-      <c r="G43" s="108"/>
-      <c r="H43" s="108"/>
-      <c r="I43" s="108"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="108"/>
+      <c r="C43" s="109" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="109"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="109"/>
+      <c r="K43" s="109"/>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
       <c r="N43" s="31"/>
       <c r="O43" s="28"/>
       <c r="P43" s="28"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16">
       <c r="B44" s="28"/>
       <c r="C44" s="31"/>
       <c r="D44" s="31"/>
@@ -17345,7 +17590,7 @@
       <c r="O44" s="28"/>
       <c r="P44" s="28"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
@@ -17362,7 +17607,7 @@
       <c r="O45" s="28"/>
       <c r="P45" s="28"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16">
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
@@ -17379,7 +17624,7 @@
       <c r="O46" s="28"/>
       <c r="P46" s="28"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16">
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
@@ -17410,103 +17655,103 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F425B10-5B6F-4D38-8EC8-85892A4FDDD6}">
-  <dimension ref="B2:K44"/>
+  <dimension ref="B2:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="52.140625" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="110"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="28"/>
+    <row r="2" spans="2:12">
+      <c r="C2" s="111"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="28"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="110"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="43" t="s">
-        <v>64</v>
-      </c>
+    <row r="3" spans="2:12">
+      <c r="C3" s="111"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="43" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I3" s="43" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J3" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="28"/>
+        <v>60</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="28"/>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="15.75" thickBot="1">
       <c r="C4" s="56" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>71</v>
+        <v>39</v>
+      </c>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57" t="s">
+        <v>54</v>
       </c>
       <c r="G4" s="58" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H4" s="58" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I4" s="58" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J4" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" s="28"/>
+        <v>66</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12">
       <c r="B5" s="26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="53">
-        <v>2.7</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="53">
         <v>2.7</v>
       </c>
@@ -17519,616 +17764,567 @@
       <c r="I5" s="53">
         <v>2.7</v>
       </c>
-      <c r="J5" s="55">
+      <c r="J5" s="53">
+        <v>2.7</v>
+      </c>
+      <c r="K5" s="55">
         <v>7.85</v>
       </c>
-      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12">
       <c r="B6" s="26"/>
-      <c r="C6" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="45" t="s">
+      <c r="C6" s="44" t="str">
+        <f>Sheet4!C25</f>
+        <v>JC hardening parameter</v>
+      </c>
+      <c r="D6" s="44" t="str">
+        <f>Sheet4!D25</f>
+        <v>B</v>
+      </c>
+      <c r="E6" s="44" t="str">
+        <f>Sheet4!E25</f>
+        <v>-</v>
+      </c>
+      <c r="F6" s="44">
+        <f>Sheet4!F25</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="44">
+        <f>Sheet4!G25</f>
+        <v>3.63</v>
+      </c>
+      <c r="H6" s="44">
+        <f>Sheet4!H25</f>
+        <v>2.99</v>
+      </c>
+      <c r="I6" s="44">
+        <f>Sheet4!I25</f>
+        <v>2.64</v>
+      </c>
+      <c r="J6" s="44">
+        <f>Sheet4!J25</f>
+        <v>2.69</v>
+      </c>
+      <c r="K6" s="44">
+        <f>Sheet4!K25</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="28"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="5"/>
+      <c r="C7" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="28"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="5"/>
+      <c r="C8" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="46">
-        <v>6700000</v>
-      </c>
-      <c r="F6" s="46">
-        <v>6700000</v>
-      </c>
-      <c r="G6" s="46">
-        <v>6700000</v>
-      </c>
-      <c r="H6" s="46">
-        <v>6700000</v>
-      </c>
-      <c r="I6" s="46">
-        <v>6700000</v>
-      </c>
-      <c r="J6" s="46">
-        <v>6700000</v>
-      </c>
-      <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="47">
-        <v>278</v>
-      </c>
-      <c r="F7" s="47">
-        <v>151</v>
-      </c>
-      <c r="G7" s="47">
-        <v>211</v>
-      </c>
-      <c r="H7" s="48">
-        <v>115</v>
-      </c>
-      <c r="I7" s="48">
-        <v>128</v>
-      </c>
-      <c r="J7" s="47">
-        <v>555</v>
-      </c>
-      <c r="K7" s="28"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="28"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="28"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="28"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="28"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="26"/>
-      <c r="C12" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="28"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="28"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="54">
+      <c r="E8" s="52"/>
+      <c r="F8" s="54">
         <v>5.86</v>
       </c>
-      <c r="F14" s="111">
+      <c r="G8" s="99">
         <f>AVERAGE(5.70739,5.75573,5.71911,5.75623)</f>
         <v>5.7346149999999998</v>
       </c>
-      <c r="G14" s="112">
+      <c r="H8" s="100">
         <f>AVERAGE(5.5333,5.53117,5.50411,5.55659)</f>
         <v>5.5312925000000002</v>
       </c>
-      <c r="H14" s="112">
+      <c r="I8" s="100">
         <f>AVERAGE(5.66583,5.60073,5.61915,5.59391,5.59718)</f>
         <v>5.6153599999999999</v>
       </c>
-      <c r="I14" s="54">
+      <c r="J8" s="54">
         <v>5.42</v>
       </c>
-      <c r="J14" s="54">
+      <c r="K8" s="54">
         <v>6.96</v>
       </c>
-      <c r="K14" s="28"/>
+      <c r="L8" s="28"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="47">
-        <f>E14*2</f>
+    <row r="9" spans="2:12">
+      <c r="B9" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="45"/>
+      <c r="F9" s="47">
+        <f>F8*2</f>
         <v>11.72</v>
       </c>
-      <c r="F15" s="113">
-        <f t="shared" ref="F15:J15" si="0">F14*2</f>
+      <c r="G9" s="101">
+        <f t="shared" ref="G9:K9" si="0">G8*2</f>
         <v>11.46923</v>
       </c>
-      <c r="G15" s="113">
+      <c r="H9" s="101">
         <f t="shared" si="0"/>
         <v>11.062585</v>
       </c>
-      <c r="H15" s="113">
+      <c r="I9" s="101">
         <f t="shared" si="0"/>
         <v>11.23072</v>
       </c>
-      <c r="I15" s="47">
+      <c r="J9" s="47">
         <f t="shared" si="0"/>
         <v>10.84</v>
       </c>
-      <c r="J15" s="47">
+      <c r="K9" s="47">
         <f t="shared" si="0"/>
         <v>13.92</v>
       </c>
-      <c r="K15" s="28"/>
+      <c r="L9" s="28"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="47">
+    <row r="10" spans="2:12">
+      <c r="B10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="F10" s="47">
         <v>62.2</v>
       </c>
-      <c r="F16" s="113">
+      <c r="G10" s="101">
         <f>AVERAGE(51.78,51.7122,49.6736,50.0039)</f>
         <v>50.792424999999994</v>
       </c>
-      <c r="G16" s="114">
+      <c r="H10" s="102">
         <v>54.277700000000003</v>
       </c>
-      <c r="H16" s="114">
+      <c r="I10" s="102">
         <f>AVERAGE(52.2685,51.7548)</f>
         <v>52.011650000000003</v>
       </c>
-      <c r="I16" s="47">
+      <c r="J10" s="47">
         <v>52</v>
       </c>
-      <c r="J16" s="47">
+      <c r="K10" s="47">
         <v>90</v>
       </c>
-      <c r="K16" s="28"/>
+      <c r="L10" s="28"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
-      <c r="C17" s="44" t="s">
+    <row r="11" spans="2:12">
+      <c r="B11" s="26"/>
+      <c r="C11" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46">
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46">
         <v>1.22E-6</v>
       </c>
-      <c r="F17" s="46">
+      <c r="G11" s="46">
         <v>1.22E-6</v>
       </c>
-      <c r="G17" s="46">
+      <c r="H11" s="46">
         <v>1.22E-6</v>
       </c>
-      <c r="H17" s="46">
+      <c r="I11" s="46">
         <v>1.22E-6</v>
       </c>
-      <c r="I17" s="46">
+      <c r="J11" s="46">
         <v>1.22E-6</v>
       </c>
-      <c r="J17" s="46">
+      <c r="K11" s="46">
         <v>1.22E-6</v>
       </c>
-      <c r="K17" s="28"/>
+      <c r="L11" s="28"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
-      <c r="C18" s="44" t="s">
+    <row r="12" spans="2:12">
+      <c r="B12" s="26"/>
+      <c r="C12" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46">
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46">
         <v>3.1600000000000002E-7</v>
       </c>
-      <c r="F18" s="46">
+      <c r="G12" s="46">
         <v>1.74E-7</v>
       </c>
-      <c r="G18" s="50">
+      <c r="H12" s="50">
         <v>1.14E-7</v>
       </c>
-      <c r="H18" s="50">
+      <c r="I12" s="50">
         <v>1.85E-7</v>
       </c>
-      <c r="I18" s="46">
+      <c r="J12" s="46">
         <v>3.4700000000000002E-7</v>
       </c>
-      <c r="J18" s="46">
+      <c r="K12" s="46">
         <v>7.0000000000000005E-8</v>
       </c>
-      <c r="K18" s="28"/>
+      <c r="L12" s="28"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="49">
-        <f>(E18/E17)*100</f>
+    <row r="13" spans="2:12">
+      <c r="B13" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="45"/>
+      <c r="F13" s="49">
+        <f>(F12/F11)*100</f>
         <v>25.9016393442623</v>
       </c>
-      <c r="F19" s="49">
-        <f t="shared" ref="F19:J19" si="1">(F18/F17)*100</f>
+      <c r="G13" s="49">
+        <f t="shared" ref="G13:K13" si="1">(G12/G11)*100</f>
         <v>14.262295081967213</v>
       </c>
-      <c r="G19" s="49">
+      <c r="H13" s="49">
         <f t="shared" si="1"/>
         <v>9.3442622950819683</v>
       </c>
-      <c r="H19" s="49">
+      <c r="I13" s="49">
         <f t="shared" si="1"/>
         <v>15.163934426229508</v>
       </c>
-      <c r="I19" s="49">
+      <c r="J13" s="49">
         <f t="shared" si="1"/>
         <v>28.442622950819676</v>
       </c>
-      <c r="J19" s="49">
+      <c r="K13" s="49">
         <f t="shared" si="1"/>
         <v>5.7377049180327875</v>
       </c>
-      <c r="K19" s="28"/>
+      <c r="L13" s="28"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
+    <row r="14" spans="2:12">
+      <c r="B14" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46">
+        <v>6470000</v>
+      </c>
+      <c r="G14" s="46">
+        <v>6270000</v>
+      </c>
+      <c r="H14" s="50">
+        <v>6250000</v>
+      </c>
+      <c r="I14" s="50">
+        <v>6280000</v>
+      </c>
+      <c r="J14" s="46">
+        <v>6450000</v>
+      </c>
+      <c r="K14" s="46">
+        <v>6070000</v>
+      </c>
+      <c r="L14" s="28"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="46">
-        <v>6470000</v>
-      </c>
-      <c r="F20" s="46">
-        <v>6270000</v>
-      </c>
-      <c r="G20" s="50">
-        <v>6250000</v>
-      </c>
-      <c r="H20" s="50">
-        <v>6280000</v>
-      </c>
-      <c r="I20" s="46">
-        <v>6450000</v>
-      </c>
-      <c r="J20" s="46">
-        <v>6070000</v>
-      </c>
-      <c r="K20" s="28"/>
+      <c r="D15" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46">
+        <v>1.35</v>
+      </c>
+      <c r="G15" s="47">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="H15" s="48">
+        <v>5.64</v>
+      </c>
+      <c r="I15" s="48">
+        <v>5.03</v>
+      </c>
+      <c r="J15" s="47">
+        <v>3.08</v>
+      </c>
+      <c r="K15" s="46">
+        <v>4.96</v>
+      </c>
+      <c r="L15" s="28"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="44" t="s">
+    <row r="16" spans="2:12">
+      <c r="B16" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="46">
-        <v>1.35</v>
-      </c>
-      <c r="F21" s="47">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="G21" s="48">
-        <v>5.64</v>
-      </c>
-      <c r="H21" s="48">
-        <v>5.03</v>
-      </c>
-      <c r="I21" s="47">
-        <v>3.08</v>
-      </c>
-      <c r="J21" s="46">
-        <v>4.96</v>
-      </c>
-      <c r="K21" s="28"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="28"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="26" t="s">
+    <row r="17" spans="2:12">
+      <c r="B17" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="D17" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="28"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="28"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="28"/>
+    <row r="18" spans="2:12">
+      <c r="B18" s="5"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
+      <c r="B19" s="5"/>
+      <c r="C19" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="5"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="2:12">
       <c r="B24" s="5"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="48"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="B25" s="5"/>
-      <c r="C25" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
+    <row r="26" spans="2:12">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
+    <row r="27" spans="2:12">
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
+    <row r="28" spans="2:12">
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
+    <row r="29" spans="2:12">
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="5"/>
+    <row r="30" spans="2:12">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="5"/>
+    <row r="31" spans="2:12">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12">
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8">
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:8">
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="6"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:8">
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:8">
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="5"/>
+    <row r="37" spans="3:8">
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="5"/>
+    <row r="38" spans="3:8">
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
+      <c r="H38" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="F2:J2"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
   </mergeCells>
@@ -18139,20 +18335,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20CB03-FDC1-47B9-AF99-E205AFF1D2E2}">
-  <dimension ref="C3:BF46"/>
+  <dimension ref="C2:CB46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView topLeftCell="AA31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AV58" sqref="AV58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="12" max="12" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:67">
+      <c r="BK2" s="5"/>
+      <c r="BL2" s="5"/>
+      <c r="BM2" s="5"/>
+      <c r="BN2" s="5"/>
+      <c r="BO2" s="5"/>
+    </row>
+    <row r="3" spans="3:67">
       <c r="C3" s="11" t="s">
         <v>31</v>
       </c>
@@ -18162,19 +18365,36 @@
       </c>
       <c r="M3" s="10"/>
       <c r="AL3" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AM3" s="10"/>
       <c r="AN3" s="10"/>
+      <c r="BK3" s="5"/>
+      <c r="BL3" s="6"/>
+      <c r="BM3" s="5"/>
+      <c r="BN3" s="5"/>
+      <c r="BO3" s="5"/>
     </row>
-    <row r="24" spans="52:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:67">
+      <c r="BK4" s="5"/>
+      <c r="BL4" s="5"/>
+      <c r="BM4" s="5"/>
+      <c r="BN4" s="5"/>
+      <c r="BO4" s="5"/>
+    </row>
+    <row r="24" spans="52:80">
       <c r="AZ24" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="46" spans="58:58" x14ac:dyDescent="0.25">
+    <row r="26" spans="52:80">
+      <c r="CB26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="58:58">
       <c r="BF46" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -18189,7 +18409,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayleigh\Documents\HVI share\HVI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c4e1f6e80555f8e/Documenten/Internship/Project/Shared folder/HVI/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06B0BE8-AEFD-4FD4-952A-3E40E47E09B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="13_ncr:1_{D06B0BE8-AEFD-4FD4-952A-3E40E47E09B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88ACADC5-5625-468E-85BF-7B4991C06C9E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
+    <workbookView xWindow="4095" yWindow="-15480" windowWidth="20730" windowHeight="15600" activeTab="2" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,31 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="density">Sheet4!$C$10:$C$34</definedName>
+    <definedName name="rho">Sheet4!$D$10:$D$34</definedName>
+    <definedName name="ton_mm3">Sheet4!$E$10:$E$34</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="140">
   <si>
     <t>Al 7005</t>
   </si>
@@ -166,9 +180,6 @@
   </si>
   <si>
     <t>mm/s</t>
-  </si>
-  <si>
-    <t>Units</t>
   </si>
   <si>
     <t xml:space="preserve">Percentage of solid material in debris cloud </t>
@@ -357,28 +368,16 @@
     <t>TC</t>
   </si>
   <si>
-    <t>JC Yield stress</t>
-  </si>
-  <si>
     <t>A / sigma0</t>
   </si>
   <si>
-    <t>JC hardening parameter</t>
-  </si>
-  <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>JC hardening param</t>
   </si>
   <si>
     <t>n</t>
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>JC softening param</t>
   </si>
   <si>
     <t>m</t>
@@ -468,7 +467,22 @@
     <t>DP800</t>
   </si>
   <si>
-    <t>Wc RESULTS</t>
+    <t>units</t>
+  </si>
+  <si>
+    <t>JC Yield stress A</t>
+  </si>
+  <si>
+    <t>JC hardening parameter B</t>
+  </si>
+  <si>
+    <t>JC hardening param n</t>
+  </si>
+  <si>
+    <t>JC hardening param C</t>
+  </si>
+  <si>
+    <t>JC softening param m</t>
   </si>
 </sst>
 </file>
@@ -478,7 +492,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -869,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -897,18 +911,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1102,6 +1108,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1192,7 +1199,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1747,7 +1754,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1785,7 +1792,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -1878,7 +1885,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1916,7 +1923,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -1958,7 +1965,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1995,7 +2002,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2022,49 +2029,15 @@
   <c:chart>
     <c:title>
       <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Percentage of conversion to particles due to temperature </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400"/>
-              <a:t>as a function of Wc</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
+        <c:strRef>
+          <c:f>Sheet3!$AK$50</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>critical temperature and percentage of converted particles due to temperature</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
       </c:tx>
       <c:layout>
         <c:manualLayout>
@@ -2113,7 +2086,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2158,7 +2131,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2217,7 +2190,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.63</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2276,7 +2249,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.99</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2335,7 +2308,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.64</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2394,7 +2367,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.69</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2453,7 +2426,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2525,48 +2498,15 @@
         </c:minorGridlines>
         <c:title>
           <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>x-axis</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB" sz="1100">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
+            <c:strRef>
+              <c:f>Sheet3!$AD$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>critical temperature TC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
@@ -2607,7 +2547,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2645,7 +2585,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -2754,7 +2694,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2792,7 +2732,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -2834,7 +2774,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2871,7 +2811,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2955,7 +2895,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3505,7 +3445,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3543,7 +3483,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -3636,7 +3576,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3674,7 +3614,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -3716,7 +3656,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3753,7 +3693,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3871,7 +3811,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4421,7 +4361,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4459,7 +4399,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -4552,7 +4492,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4590,7 +4530,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -4632,7 +4572,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4669,7 +4609,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4753,7 +4693,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5295,7 +5235,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5333,7 +5273,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -5434,7 +5374,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5472,7 +5412,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -5514,7 +5454,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5551,7 +5491,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5669,7 +5609,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6211,7 +6151,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6249,7 +6189,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -6358,7 +6298,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6396,7 +6336,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -6438,7 +6378,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6475,7 +6415,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6502,29 +6442,15 @@
   <c:chart>
     <c:title>
       <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Target hole diameter as a function of Wc</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
+        <c:strRef>
+          <c:f>Sheet3!$AD$10</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>critical temperature and target hole diameter</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
       </c:tx>
       <c:layout>
         <c:manualLayout>
@@ -6559,7 +6485,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6604,7 +6530,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6663,7 +6589,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.63</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6722,7 +6648,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.99</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6781,7 +6707,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.64</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6840,7 +6766,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.69</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6899,7 +6825,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6971,53 +6897,22 @@
         </c:minorGridlines>
         <c:title>
           <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1100"/>
-                  <a:t>x-axis</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB" sz="1100">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
+            <c:strRef>
+              <c:f>Sheet3!$AD$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>critical temperature TC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:layout>
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.32518847960696418"/>
-              <c:y val="0.90929218606099127"/>
+              <c:x val="0.37904044358011968"/>
+              <c:y val="0.91272418810181644"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7059,7 +6954,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7097,7 +6992,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -7190,7 +7085,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7228,7 +7123,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -7270,7 +7165,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7307,7 +7202,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7334,29 +7229,15 @@
   <c:chart>
     <c:title>
       <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Debris cloud diameter as a function of Wc</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
+        <c:strRef>
+          <c:f>Sheet3!$AP$7</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>critical temperature and debris cloud diamter</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
       </c:tx>
       <c:layout>
         <c:manualLayout>
@@ -7391,7 +7272,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7436,7 +7317,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7495,7 +7376,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.63</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7554,7 +7435,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.99</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7613,7 +7494,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.64</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7672,7 +7553,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.69</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7731,7 +7612,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7803,48 +7684,15 @@
         </c:minorGridlines>
         <c:title>
           <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>x-axis</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB" sz="1100">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
+            <c:strRef>
+              <c:f>Sheet3!$AD$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>critical temperature TC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:layout>
             <c:manualLayout>
@@ -7893,7 +7741,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7931,7 +7779,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -8024,7 +7872,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8062,7 +7910,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -8104,7 +7952,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8141,7 +7989,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8168,49 +8016,15 @@
   <c:chart>
     <c:title>
       <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Percentage of solid material in debris cloud </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400"/>
-              <a:t>as a function of Wc</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
+        <c:strRef>
+          <c:f>Sheet3!$AD$29</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>critical temperature and percentage of solid material in debris cloud</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
       </c:tx>
       <c:layout>
         <c:manualLayout>
@@ -8259,7 +8073,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8304,7 +8118,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8363,7 +8177,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.63</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8422,7 +8236,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.99</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8481,7 +8295,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.64</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8540,7 +8354,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.69</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8599,7 +8413,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8671,48 +8485,15 @@
         </c:minorGridlines>
         <c:title>
           <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>x-axis</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB" sz="1100">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
+            <c:strRef>
+              <c:f>Sheet3!$AD$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>critical temperature TC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:layout>
             <c:manualLayout>
@@ -8761,7 +8542,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8799,7 +8580,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -8892,7 +8673,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8930,7 +8711,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -8972,7 +8753,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9009,7 +8790,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9036,29 +8817,15 @@
   <c:chart>
     <c:title>
       <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Residual velocity as a function of Wc</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
+        <c:strRef>
+          <c:f>Sheet3!$AP$29</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>critical temperature and residual velocity</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
       </c:tx>
       <c:layout>
         <c:manualLayout>
@@ -9093,7 +8860,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9138,7 +8905,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9197,7 +8964,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.63</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9256,7 +9023,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.99</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9315,7 +9082,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.64</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9374,7 +9141,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.69</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9433,7 +9200,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9505,48 +9272,15 @@
         </c:minorGridlines>
         <c:title>
           <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>x-axis</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB" sz="1100">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
+            <c:strRef>
+              <c:f>Sheet3!$AD$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>critical temperature TC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
@@ -9587,7 +9321,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9625,7 +9359,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -9726,7 +9460,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9764,7 +9498,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -9806,7 +9540,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9843,7 +9577,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15609,15 +15343,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
+      <xdr:colOff>35721</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>97632</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
+      <xdr:colOff>330996</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>119064</xdr:rowOff>
+      <xdr:rowOff>178596</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15647,15 +15381,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
+      <xdr:colOff>433389</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>83343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
+      <xdr:colOff>71439</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>128589</xdr:rowOff>
+      <xdr:rowOff>164307</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15685,15 +15419,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>59531</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>78580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>354806</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>154780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15723,15 +15457,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
+      <xdr:colOff>440532</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>102394</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
+      <xdr:colOff>78582</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>147639</xdr:rowOff>
+      <xdr:rowOff>183358</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15760,16 +15494,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>223839</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>64294</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>90488</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:colOff>578645</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16102,24 +15836,24 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="78.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="17.25" customHeight="1">
+    <row r="4" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="21" customHeight="1">
+    <row r="5" spans="3:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="17" t="s">
         <v>23</v>
       </c>
@@ -16127,53 +15861,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" s="18"/>
       <c r="D6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="3:4">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="19"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="3:4">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" s="20"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="3:4">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="3:4">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" s="22"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="3:4">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" s="23"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="3:4">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="3:4">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" s="19"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="3:4">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" s="20"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
@@ -16184,7 +15918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>18</v>
@@ -16193,21 +15927,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
         <v>15</v>
@@ -16216,21 +15950,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -16239,21 +15973,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="3:5">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:5">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="3:5">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
@@ -16262,28 +15996,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:5">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:5">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="3:5">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:5">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="16" t="s">
@@ -16300,11 +16034,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20077FD7-1EC0-41E4-96B7-2075AF4FD95D}">
   <dimension ref="B3:Q47"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="33.140625" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
@@ -16321,1325 +16055,1325 @@
     <col min="15" max="15" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
     </row>
-    <row r="4" spans="2:17">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
     </row>
-    <row r="5" spans="2:17">
-      <c r="B5" s="28"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
     </row>
-    <row r="6" spans="2:17">
-      <c r="B6" s="28"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="105" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="106" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="94"/>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="26"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="90"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="2:17">
-      <c r="B7" s="28"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="78" t="s">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="26"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="H7" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="69" t="s">
+      <c r="I7" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="69" t="s">
+      <c r="J7" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="71" t="s">
+      <c r="K7" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="M7" s="69" t="s">
-        <v>135</v>
-      </c>
-      <c r="N7" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="O7" s="93" t="s">
-        <v>137</v>
-      </c>
-      <c r="P7" s="94"/>
+      <c r="L7" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="M7" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="N7" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="O7" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="P7" s="90"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="2:17" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B8" s="28"/>
-      <c r="C8" s="70" t="s">
+    <row r="8" spans="2:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="26"/>
+      <c r="C8" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="E8" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="70" t="s">
+      <c r="F8" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="I8" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="70" t="s">
+      <c r="J8" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="94"/>
+      <c r="K8" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="90"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="2:17">
-      <c r="B9" s="28"/>
-      <c r="C9" s="61" t="s">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="26"/>
+      <c r="C9" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="E9" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="76">
+        <v>2.7000000000000002E-9</v>
+      </c>
+      <c r="G9" s="58">
+        <v>2.7000000000000002E-9</v>
+      </c>
+      <c r="H9" s="58">
+        <v>2.7000000000000002E-9</v>
+      </c>
+      <c r="I9" s="58">
+        <v>2.7000000000000002E-9</v>
+      </c>
+      <c r="J9" s="69">
+        <v>2.7000000000000002E-9</v>
+      </c>
+      <c r="K9" s="28">
+        <v>7.8500000000000008E-9</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="91"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="26"/>
+      <c r="C10" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="80">
-        <v>2.7000000000000002E-9</v>
-      </c>
-      <c r="G9" s="62">
-        <v>2.7000000000000002E-9</v>
-      </c>
-      <c r="H9" s="62">
-        <v>2.7000000000000002E-9</v>
-      </c>
-      <c r="I9" s="62">
-        <v>2.7000000000000002E-9</v>
-      </c>
-      <c r="J9" s="73">
-        <v>2.7000000000000002E-9</v>
-      </c>
-      <c r="K9" s="32">
-        <v>7.8500000000000008E-9</v>
-      </c>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="95"/>
+      <c r="D10" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="78">
+        <v>58333.33</v>
+      </c>
+      <c r="G10" s="35">
+        <v>58333.33</v>
+      </c>
+      <c r="H10" s="35">
+        <v>58333.33</v>
+      </c>
+      <c r="I10" s="35">
+        <v>58333.33</v>
+      </c>
+      <c r="J10" s="70">
+        <v>58333.33</v>
+      </c>
+      <c r="K10" s="28">
+        <v>205880</v>
+      </c>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="91"/>
     </row>
-    <row r="10" spans="2:17">
-      <c r="B10" s="28"/>
-      <c r="C10" s="36" t="s">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="26"/>
+      <c r="C11" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="78">
+        <v>26923.08</v>
+      </c>
+      <c r="G11" s="35">
+        <v>26923.08</v>
+      </c>
+      <c r="H11" s="35">
+        <v>26923.08</v>
+      </c>
+      <c r="I11" s="35">
+        <v>26923.08</v>
+      </c>
+      <c r="J11" s="70">
+        <v>26923.08</v>
+      </c>
+      <c r="K11" s="28">
+        <v>78947</v>
+      </c>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="91"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="26"/>
+      <c r="C12" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="78">
+        <v>47</v>
+      </c>
+      <c r="G12" s="35">
+        <v>47</v>
+      </c>
+      <c r="H12" s="35">
+        <v>47</v>
+      </c>
+      <c r="I12" s="35">
+        <v>47</v>
+      </c>
+      <c r="J12" s="70">
+        <v>47</v>
+      </c>
+      <c r="K12" s="29">
+        <v>47</v>
+      </c>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="91"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="26"/>
+      <c r="C13" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="78">
+        <v>70000</v>
+      </c>
+      <c r="G13" s="35">
+        <v>70000</v>
+      </c>
+      <c r="H13" s="35">
+        <v>70000</v>
+      </c>
+      <c r="I13" s="35">
+        <v>70000</v>
+      </c>
+      <c r="J13" s="70">
+        <v>70000</v>
+      </c>
+      <c r="K13" s="28">
+        <v>210000</v>
+      </c>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="91"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="26"/>
+      <c r="C14" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="G14" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="J14" s="70">
+        <v>0.3</v>
+      </c>
+      <c r="K14" s="29">
+        <v>0.33</v>
+      </c>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="91"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="26"/>
+      <c r="C15" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="78">
+        <v>0.9</v>
+      </c>
+      <c r="G15" s="35">
+        <v>0.9</v>
+      </c>
+      <c r="H15" s="35">
+        <v>0.9</v>
+      </c>
+      <c r="I15" s="35">
+        <v>0.9</v>
+      </c>
+      <c r="J15" s="70">
+        <v>0.9</v>
+      </c>
+      <c r="K15" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="91"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="26"/>
+      <c r="C16" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="77">
+        <v>910000000</v>
+      </c>
+      <c r="G16" s="33">
+        <v>910000000</v>
+      </c>
+      <c r="H16" s="33">
+        <v>910000000</v>
+      </c>
+      <c r="I16" s="33">
+        <v>910000000</v>
+      </c>
+      <c r="J16" s="71">
+        <v>910000000</v>
+      </c>
+      <c r="K16" s="28">
+        <v>452000000</v>
+      </c>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="91"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="26"/>
+      <c r="C17" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="77">
+        <v>2.3200000000000001E-5</v>
+      </c>
+      <c r="G17" s="33">
+        <v>2.3200000000000001E-5</v>
+      </c>
+      <c r="H17" s="36">
+        <v>2.3200000000000001E-5</v>
+      </c>
+      <c r="I17" s="36">
+        <v>2.3200000000000001E-5</v>
+      </c>
+      <c r="J17" s="72">
+        <v>2.3200000000000001E-5</v>
+      </c>
+      <c r="K17" s="28">
+        <v>2.3200000000000001E-5</v>
+      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="91"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="26"/>
+      <c r="C18" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="81"/>
+      <c r="F18" s="77">
+        <v>1E-4</v>
+      </c>
+      <c r="G18" s="33">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H18" s="33">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I18" s="33">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J18" s="71">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K18" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="91"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="26"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="81"/>
+      <c r="F19" s="77">
+        <v>2.4569999999999999</v>
+      </c>
+      <c r="G19" s="33">
+        <v>2.4569999999999999</v>
+      </c>
+      <c r="H19" s="33">
+        <v>2.4569999999999999</v>
+      </c>
+      <c r="I19" s="33">
+        <v>2.4569999999999999</v>
+      </c>
+      <c r="J19" s="71">
+        <v>2.4569999999999999</v>
+      </c>
+      <c r="K19" s="28">
+        <v>3.548</v>
+      </c>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="91"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="26"/>
+      <c r="C20" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="F20" s="78">
+        <v>893</v>
+      </c>
+      <c r="G20" s="35">
+        <v>893</v>
+      </c>
+      <c r="H20" s="35">
+        <v>893</v>
+      </c>
+      <c r="I20" s="35">
+        <v>893</v>
+      </c>
+      <c r="J20" s="70">
+        <v>893</v>
+      </c>
+      <c r="K20" s="29">
+        <v>1800</v>
+      </c>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="91"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="26"/>
+      <c r="C21" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="78">
+        <v>293</v>
+      </c>
+      <c r="G21" s="35">
+        <v>293</v>
+      </c>
+      <c r="H21" s="35">
+        <v>293</v>
+      </c>
+      <c r="I21" s="35">
+        <v>293</v>
+      </c>
+      <c r="J21" s="70">
+        <v>293</v>
+      </c>
+      <c r="K21" s="29">
+        <v>293</v>
+      </c>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="91"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="26"/>
+      <c r="C22" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="78">
+        <v>293</v>
+      </c>
+      <c r="G22" s="35">
+        <v>293</v>
+      </c>
+      <c r="H22" s="35">
+        <v>293</v>
+      </c>
+      <c r="I22" s="35">
+        <v>293</v>
+      </c>
+      <c r="J22" s="70">
+        <v>293</v>
+      </c>
+      <c r="K22" s="29">
+        <v>293</v>
+      </c>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="91"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="26"/>
+      <c r="C23" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="78">
+        <v>893</v>
+      </c>
+      <c r="G23" s="35">
+        <v>893</v>
+      </c>
+      <c r="H23" s="35">
+        <v>893</v>
+      </c>
+      <c r="I23" s="35">
+        <v>893</v>
+      </c>
+      <c r="J23" s="70">
+        <v>893</v>
+      </c>
+      <c r="K23" s="29">
+        <v>893</v>
+      </c>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="91"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="26"/>
+      <c r="C24" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="82">
-        <v>58333.33</v>
-      </c>
-      <c r="G10" s="39">
-        <v>58333.33</v>
-      </c>
-      <c r="H10" s="39">
-        <v>58333.33</v>
-      </c>
-      <c r="I10" s="39">
-        <v>58333.33</v>
-      </c>
-      <c r="J10" s="74">
-        <v>58333.33</v>
-      </c>
-      <c r="K10" s="32">
-        <v>205880</v>
-      </c>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="95"/>
+      <c r="F24" s="78">
+        <v>292.60000000000002</v>
+      </c>
+      <c r="G24" s="35">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="H24" s="35">
+        <v>172.7</v>
+      </c>
+      <c r="I24" s="35">
+        <v>350</v>
+      </c>
+      <c r="J24" s="70">
+        <v>292.5</v>
+      </c>
+      <c r="K24" s="29">
+        <v>325.70001000000002</v>
+      </c>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="91"/>
     </row>
-    <row r="11" spans="2:17">
-      <c r="B11" s="28"/>
-      <c r="C11" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="82">
-        <v>26923.08</v>
-      </c>
-      <c r="G11" s="39">
-        <v>26923.08</v>
-      </c>
-      <c r="H11" s="39">
-        <v>26923.08</v>
-      </c>
-      <c r="I11" s="39">
-        <v>26923.08</v>
-      </c>
-      <c r="J11" s="74">
-        <v>26923.08</v>
-      </c>
-      <c r="K11" s="32">
-        <v>78947</v>
-      </c>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="95"/>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="26"/>
+      <c r="C25" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="78">
+        <v>0</v>
+      </c>
+      <c r="G25" s="35">
+        <v>3.63</v>
+      </c>
+      <c r="H25" s="35">
+        <v>2.99</v>
+      </c>
+      <c r="I25" s="35">
+        <v>2.64</v>
+      </c>
+      <c r="J25" s="70">
+        <v>2.69</v>
+      </c>
+      <c r="K25" s="29">
+        <v>0</v>
+      </c>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="91"/>
     </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="28"/>
-      <c r="C12" s="36" t="s">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="26"/>
+      <c r="C26" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="82">
-        <v>47</v>
-      </c>
-      <c r="G12" s="39">
-        <v>47</v>
-      </c>
-      <c r="H12" s="39">
-        <v>47</v>
-      </c>
-      <c r="I12" s="39">
-        <v>47</v>
-      </c>
-      <c r="J12" s="74">
-        <v>47</v>
-      </c>
-      <c r="K12" s="33">
-        <v>47</v>
-      </c>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="95"/>
+      <c r="F26" s="78">
+        <v>0</v>
+      </c>
+      <c r="G26" s="35">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="H26" s="35">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="I26" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="J26" s="70">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K26" s="29">
+        <v>0</v>
+      </c>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="91"/>
     </row>
-    <row r="13" spans="2:17">
-      <c r="B13" s="28"/>
-      <c r="C13" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="82">
-        <v>70000</v>
-      </c>
-      <c r="G13" s="39">
-        <v>70000</v>
-      </c>
-      <c r="H13" s="39">
-        <v>70000</v>
-      </c>
-      <c r="I13" s="39">
-        <v>70000</v>
-      </c>
-      <c r="J13" s="74">
-        <v>70000</v>
-      </c>
-      <c r="K13" s="32">
-        <v>210000</v>
-      </c>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="95"/>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="26"/>
+      <c r="C27" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="78">
+        <v>0.02</v>
+      </c>
+      <c r="G27" s="35">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="H27" s="35">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="I27" s="35">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="J27" s="70">
+        <v>0.105</v>
+      </c>
+      <c r="K27" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="91"/>
     </row>
-    <row r="14" spans="2:17">
-      <c r="B14" s="28"/>
-      <c r="C14" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="82">
-        <v>0.3</v>
-      </c>
-      <c r="G14" s="39">
-        <v>0.3</v>
-      </c>
-      <c r="H14" s="39">
-        <v>0.3</v>
-      </c>
-      <c r="I14" s="39">
-        <v>0.3</v>
-      </c>
-      <c r="J14" s="74">
-        <v>0.3</v>
-      </c>
-      <c r="K14" s="33">
-        <v>0.33</v>
-      </c>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="95"/>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="26"/>
+      <c r="C28" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="78">
+        <v>1</v>
+      </c>
+      <c r="G28" s="35">
+        <v>1</v>
+      </c>
+      <c r="H28" s="35">
+        <v>1</v>
+      </c>
+      <c r="I28" s="35">
+        <v>1</v>
+      </c>
+      <c r="J28" s="70">
+        <v>1</v>
+      </c>
+      <c r="K28" s="29">
+        <v>1</v>
+      </c>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="91"/>
     </row>
-    <row r="15" spans="2:17">
-      <c r="B15" s="28"/>
-      <c r="C15" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="82">
-        <v>0.9</v>
-      </c>
-      <c r="G15" s="39">
-        <v>0.9</v>
-      </c>
-      <c r="H15" s="39">
-        <v>0.9</v>
-      </c>
-      <c r="I15" s="39">
-        <v>0.9</v>
-      </c>
-      <c r="J15" s="74">
-        <v>0.9</v>
-      </c>
-      <c r="K15" s="33">
-        <v>0.9</v>
-      </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="95"/>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="26"/>
+      <c r="C29" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="78">
+        <v>2.7</v>
+      </c>
+      <c r="G29" s="35">
+        <v>79.5</v>
+      </c>
+      <c r="H29" s="35">
+        <v>35.6</v>
+      </c>
+      <c r="I29" s="35">
+        <v>30.1</v>
+      </c>
+      <c r="J29" s="70">
+        <v>55.3</v>
+      </c>
+      <c r="K29" s="29">
+        <v>234.8</v>
+      </c>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="91"/>
     </row>
-    <row r="16" spans="2:17">
-      <c r="B16" s="28"/>
-      <c r="C16" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="81">
-        <v>910000000</v>
-      </c>
-      <c r="G16" s="37">
-        <v>910000000</v>
-      </c>
-      <c r="H16" s="37">
-        <v>910000000</v>
-      </c>
-      <c r="I16" s="37">
-        <v>910000000</v>
-      </c>
-      <c r="J16" s="75">
-        <v>910000000</v>
-      </c>
-      <c r="K16" s="32">
-        <v>452000000</v>
-      </c>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="95"/>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="26"/>
+      <c r="C30" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="78">
+        <v>2160.6999999999998</v>
+      </c>
+      <c r="G30" s="35">
+        <v>56.9</v>
+      </c>
+      <c r="H30" s="35">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="I30" s="35">
+        <v>185.9</v>
+      </c>
+      <c r="J30" s="70">
+        <v>317.2</v>
+      </c>
+      <c r="K30" s="29">
+        <v>56.200001</v>
+      </c>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="91"/>
     </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="28"/>
-      <c r="C17" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="81">
-        <v>2.3200000000000001E-5</v>
-      </c>
-      <c r="G17" s="37">
-        <v>2.3200000000000001E-5</v>
-      </c>
-      <c r="H17" s="40">
-        <v>2.3200000000000001E-5</v>
-      </c>
-      <c r="I17" s="40">
-        <v>2.3200000000000001E-5</v>
-      </c>
-      <c r="J17" s="76">
-        <v>2.3200000000000001E-5</v>
-      </c>
-      <c r="K17" s="32">
-        <v>2.3200000000000001E-5</v>
-      </c>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="95"/>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="26"/>
+      <c r="C31" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="78">
+        <v>707.6</v>
+      </c>
+      <c r="G31" s="35">
+        <v>88.2</v>
+      </c>
+      <c r="H31" s="35">
+        <v>247.7</v>
+      </c>
+      <c r="I31" s="35">
+        <v>72.8</v>
+      </c>
+      <c r="J31" s="70">
+        <v>31.1</v>
+      </c>
+      <c r="K31" s="29">
+        <v>445.70001000000002</v>
+      </c>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="91"/>
     </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="28"/>
-      <c r="C18" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="81">
-        <v>1E-4</v>
-      </c>
-      <c r="G18" s="37">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H18" s="37">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="I18" s="37">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J18" s="75">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="K18" s="32">
-        <v>1E-4</v>
-      </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="95"/>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="26"/>
+      <c r="C32" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="78">
+        <v>8.94</v>
+      </c>
+      <c r="G32" s="35">
+        <v>4</v>
+      </c>
+      <c r="H32" s="35">
+        <v>6.5</v>
+      </c>
+      <c r="I32" s="35">
+        <v>7.7</v>
+      </c>
+      <c r="J32" s="70">
+        <v>10</v>
+      </c>
+      <c r="K32" s="29">
+        <v>4.6999997999999996</v>
+      </c>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="91"/>
     </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="28"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="85"/>
-      <c r="F19" s="81">
-        <v>2.4569999999999999</v>
-      </c>
-      <c r="G19" s="37">
-        <v>2.4569999999999999</v>
-      </c>
-      <c r="H19" s="37">
-        <v>2.4569999999999999</v>
-      </c>
-      <c r="I19" s="37">
-        <v>2.4569999999999999</v>
-      </c>
-      <c r="J19" s="75">
-        <v>2.4569999999999999</v>
-      </c>
-      <c r="K19" s="32">
-        <v>3.548</v>
-      </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="95"/>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="26"/>
+      <c r="C33" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="78">
+        <v>278</v>
+      </c>
+      <c r="G33" s="35">
+        <v>151</v>
+      </c>
+      <c r="H33" s="35">
+        <v>211</v>
+      </c>
+      <c r="I33" s="35">
+        <v>115</v>
+      </c>
+      <c r="J33" s="70">
+        <v>128</v>
+      </c>
+      <c r="K33" s="29">
+        <v>555</v>
+      </c>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="91"/>
     </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="28"/>
-      <c r="C20" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="86" t="s">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="26"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="78">
+        <v>1E-3</v>
+      </c>
+      <c r="G34" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="H34" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="I34" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="J34" s="70">
+        <v>1E-3</v>
+      </c>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="91"/>
+    </row>
+    <row r="35" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="26"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="82">
-        <v>893</v>
-      </c>
-      <c r="G20" s="39">
-        <v>893</v>
-      </c>
-      <c r="H20" s="39">
-        <v>893</v>
-      </c>
-      <c r="I20" s="39">
-        <v>893</v>
-      </c>
-      <c r="J20" s="74">
-        <v>893</v>
-      </c>
-      <c r="K20" s="33">
-        <v>1800</v>
-      </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="95"/>
+      <c r="F35" s="86">
+        <v>292.60000000000002</v>
+      </c>
+      <c r="G35" s="63">
+        <v>51</v>
+      </c>
+      <c r="H35" s="63">
+        <v>187</v>
+      </c>
+      <c r="I35" s="63">
+        <v>373</v>
+      </c>
+      <c r="J35" s="73">
+        <v>341</v>
+      </c>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="91"/>
     </row>
-    <row r="21" spans="2:16">
-      <c r="B21" s="28"/>
-      <c r="C21" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="82">
-        <v>293</v>
-      </c>
-      <c r="G21" s="39">
-        <v>293</v>
-      </c>
-      <c r="H21" s="39">
-        <v>293</v>
-      </c>
-      <c r="I21" s="39">
-        <v>293</v>
-      </c>
-      <c r="J21" s="74">
-        <v>293</v>
-      </c>
-      <c r="K21" s="33">
-        <v>293</v>
-      </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="95"/>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="26"/>
+      <c r="C36" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="60"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="I36" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="J36" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="K36" s="61"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
     </row>
-    <row r="22" spans="2:16">
-      <c r="B22" s="28"/>
-      <c r="C22" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="82">
-        <v>293</v>
-      </c>
-      <c r="G22" s="39">
-        <v>293</v>
-      </c>
-      <c r="H22" s="39">
-        <v>293</v>
-      </c>
-      <c r="I22" s="39">
-        <v>293</v>
-      </c>
-      <c r="J22" s="74">
-        <v>293</v>
-      </c>
-      <c r="K22" s="33">
-        <v>293</v>
-      </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="95"/>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="26"/>
+      <c r="C37" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
     </row>
-    <row r="23" spans="2:16">
-      <c r="B23" s="28"/>
-      <c r="C23" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="82">
-        <v>893</v>
-      </c>
-      <c r="G23" s="39">
-        <v>893</v>
-      </c>
-      <c r="H23" s="39">
-        <v>893</v>
-      </c>
-      <c r="I23" s="39">
-        <v>893</v>
-      </c>
-      <c r="J23" s="74">
-        <v>893</v>
-      </c>
-      <c r="K23" s="33">
-        <v>893</v>
-      </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="95"/>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="26"/>
+      <c r="C38" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="J38" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="K38" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
     </row>
-    <row r="24" spans="2:16">
-      <c r="B24" s="28"/>
-      <c r="C24" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="82">
-        <v>292.60000000000002</v>
-      </c>
-      <c r="G24" s="39">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="H24" s="39">
-        <v>172.7</v>
-      </c>
-      <c r="I24" s="39">
-        <v>350</v>
-      </c>
-      <c r="J24" s="74">
-        <v>292.5</v>
-      </c>
-      <c r="K24" s="33">
-        <v>325.70001000000002</v>
-      </c>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="95"/>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
     </row>
-    <row r="25" spans="2:16">
-      <c r="B25" s="28"/>
-      <c r="C25" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="82">
-        <v>0</v>
-      </c>
-      <c r="G25" s="39">
-        <v>3.63</v>
-      </c>
-      <c r="H25" s="39">
-        <v>2.99</v>
-      </c>
-      <c r="I25" s="39">
-        <v>2.64</v>
-      </c>
-      <c r="J25" s="74">
-        <v>2.69</v>
-      </c>
-      <c r="K25" s="33">
-        <v>0</v>
-      </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="95"/>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="26"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
     </row>
-    <row r="26" spans="2:16">
-      <c r="B26" s="28"/>
-      <c r="C26" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="82">
-        <v>0</v>
-      </c>
-      <c r="G26" s="39">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="H26" s="39">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="I26" s="39">
-        <v>0.05</v>
-      </c>
-      <c r="J26" s="74">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="K26" s="33">
-        <v>0</v>
-      </c>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="95"/>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="26"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
     </row>
-    <row r="27" spans="2:16">
-      <c r="B27" s="28"/>
-      <c r="C27" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="82">
-        <v>0.02</v>
-      </c>
-      <c r="G27" s="39">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="H27" s="39">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="I27" s="39">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="J27" s="74">
-        <v>0.105</v>
-      </c>
-      <c r="K27" s="33">
-        <v>0.01</v>
-      </c>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="95"/>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="26"/>
+      <c r="C42" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
     </row>
-    <row r="28" spans="2:16">
-      <c r="B28" s="28"/>
-      <c r="C28" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="82">
-        <v>1</v>
-      </c>
-      <c r="G28" s="39">
-        <v>1</v>
-      </c>
-      <c r="H28" s="39">
-        <v>1</v>
-      </c>
-      <c r="I28" s="39">
-        <v>1</v>
-      </c>
-      <c r="J28" s="74">
-        <v>1</v>
-      </c>
-      <c r="K28" s="33">
-        <v>1</v>
-      </c>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="95"/>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="26"/>
+      <c r="C43" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
     </row>
-    <row r="29" spans="2:16">
-      <c r="B29" s="28"/>
-      <c r="C29" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="82">
-        <v>2.7</v>
-      </c>
-      <c r="G29" s="39">
-        <v>79.5</v>
-      </c>
-      <c r="H29" s="39">
-        <v>35.6</v>
-      </c>
-      <c r="I29" s="39">
-        <v>30.1</v>
-      </c>
-      <c r="J29" s="74">
-        <v>55.3</v>
-      </c>
-      <c r="K29" s="33">
-        <v>234.8</v>
-      </c>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="95"/>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="26"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
     </row>
-    <row r="30" spans="2:16">
-      <c r="B30" s="28"/>
-      <c r="C30" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="E30" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" s="82">
-        <v>2160.6999999999998</v>
-      </c>
-      <c r="G30" s="39">
-        <v>56.9</v>
-      </c>
-      <c r="H30" s="39">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="I30" s="39">
-        <v>185.9</v>
-      </c>
-      <c r="J30" s="74">
-        <v>317.2</v>
-      </c>
-      <c r="K30" s="33">
-        <v>56.200001</v>
-      </c>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="95"/>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
     </row>
-    <row r="31" spans="2:16">
-      <c r="B31" s="28"/>
-      <c r="C31" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="82">
-        <v>707.6</v>
-      </c>
-      <c r="G31" s="39">
-        <v>88.2</v>
-      </c>
-      <c r="H31" s="39">
-        <v>247.7</v>
-      </c>
-      <c r="I31" s="39">
-        <v>72.8</v>
-      </c>
-      <c r="J31" s="74">
-        <v>31.1</v>
-      </c>
-      <c r="K31" s="33">
-        <v>445.70001000000002</v>
-      </c>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="95"/>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
     </row>
-    <row r="32" spans="2:16">
-      <c r="B32" s="28"/>
-      <c r="C32" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="82">
-        <v>8.94</v>
-      </c>
-      <c r="G32" s="39">
-        <v>4</v>
-      </c>
-      <c r="H32" s="39">
-        <v>6.5</v>
-      </c>
-      <c r="I32" s="39">
-        <v>7.7</v>
-      </c>
-      <c r="J32" s="74">
-        <v>10</v>
-      </c>
-      <c r="K32" s="33">
-        <v>4.6999997999999996</v>
-      </c>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="95"/>
-    </row>
-    <row r="33" spans="2:16">
-      <c r="B33" s="28"/>
-      <c r="C33" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="86" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" s="82">
-        <v>278</v>
-      </c>
-      <c r="G33" s="39">
-        <v>151</v>
-      </c>
-      <c r="H33" s="39">
-        <v>211</v>
-      </c>
-      <c r="I33" s="39">
-        <v>115</v>
-      </c>
-      <c r="J33" s="74">
-        <v>128</v>
-      </c>
-      <c r="K33" s="33">
-        <v>555</v>
-      </c>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="95"/>
-    </row>
-    <row r="34" spans="2:16">
-      <c r="B34" s="28"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="82">
-        <v>1E-3</v>
-      </c>
-      <c r="G34" s="39">
-        <v>1E-3</v>
-      </c>
-      <c r="H34" s="39">
-        <v>1E-3</v>
-      </c>
-      <c r="I34" s="39">
-        <v>1E-3</v>
-      </c>
-      <c r="J34" s="74">
-        <v>1E-3</v>
-      </c>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="95"/>
-    </row>
-    <row r="35" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B35" s="28"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="90">
-        <v>292.60000000000002</v>
-      </c>
-      <c r="G35" s="67">
-        <v>51</v>
-      </c>
-      <c r="H35" s="67">
-        <v>187</v>
-      </c>
-      <c r="I35" s="67">
-        <v>373</v>
-      </c>
-      <c r="J35" s="77">
-        <v>341</v>
-      </c>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="97"/>
-      <c r="P35" s="95"/>
-    </row>
-    <row r="36" spans="2:16">
-      <c r="B36" s="28"/>
-      <c r="C36" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="G36" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="H36" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="I36" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="J36" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="K36" s="65"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-    </row>
-    <row r="37" spans="2:16">
-      <c r="B37" s="28"/>
-      <c r="C37" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" s="108"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-    </row>
-    <row r="38" spans="2:16">
-      <c r="B38" s="28"/>
-      <c r="C38" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="92" t="s">
-        <v>128</v>
-      </c>
-      <c r="G38" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="H38" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="I38" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="J38" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="K38" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-    </row>
-    <row r="39" spans="2:16">
-      <c r="B39" s="28"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-    </row>
-    <row r="40" spans="2:16">
-      <c r="B40" s="28"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-    </row>
-    <row r="41" spans="2:16">
-      <c r="B41" s="28"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-    </row>
-    <row r="42" spans="2:16">
-      <c r="B42" s="28"/>
-      <c r="C42" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-    </row>
-    <row r="43" spans="2:16">
-      <c r="B43" s="28"/>
-      <c r="C43" s="109" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" s="109"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="109"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="109"/>
-      <c r="J43" s="109"/>
-      <c r="K43" s="109"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-    </row>
-    <row r="44" spans="2:16">
-      <c r="B44" s="28"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-    </row>
-    <row r="45" spans="2:16">
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-    </row>
-    <row r="46" spans="2:16">
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-    </row>
-    <row r="47" spans="2:16">
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -17655,18 +17389,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F425B10-5B6F-4D38-8EC8-85892A4FDDD6}">
-  <dimension ref="B2:L38"/>
+  <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="52.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.140625" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
@@ -17675,490 +17409,481 @@
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
-      <c r="C2" s="111"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="110" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="107"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="26"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C3" s="107"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="43" t="s">
+      <c r="G3" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="26"/>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="28"/>
+      <c r="H4" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="26"/>
     </row>
-    <row r="3" spans="2:12">
-      <c r="C3" s="111"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="28"/>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49">
+        <v>2.7</v>
+      </c>
+      <c r="G5" s="49">
+        <v>2.7</v>
+      </c>
+      <c r="H5" s="49">
+        <v>2.7</v>
+      </c>
+      <c r="I5" s="49">
+        <v>2.7</v>
+      </c>
+      <c r="J5" s="49">
+        <v>2.7</v>
+      </c>
+      <c r="K5" s="51">
+        <v>7.85</v>
+      </c>
+      <c r="L5" s="26"/>
     </row>
-    <row r="4" spans="2:12" ht="15.75" thickBot="1">
-      <c r="C4" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="28"/>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="25"/>
+      <c r="C6" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="108" t="str">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,2,FALSE)</f>
+        <v>TC</v>
+      </c>
+      <c r="E6" s="108" t="str">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,3,FALSE)</f>
+        <v>K</v>
+      </c>
+      <c r="F6" s="108">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,4,FALSE)</f>
+        <v>893</v>
+      </c>
+      <c r="G6" s="108">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,5,FALSE)</f>
+        <v>893</v>
+      </c>
+      <c r="H6" s="108">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,6,FALSE)</f>
+        <v>893</v>
+      </c>
+      <c r="I6" s="108">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,7,FALSE)</f>
+        <v>893</v>
+      </c>
+      <c r="J6" s="108">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,8,FALSE)</f>
+        <v>893</v>
+      </c>
+      <c r="K6" s="108">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,9,FALSE)</f>
+        <v>893</v>
+      </c>
+      <c r="L6" s="26"/>
     </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53">
-        <v>2.7</v>
-      </c>
-      <c r="G5" s="53">
-        <v>2.7</v>
-      </c>
-      <c r="H5" s="53">
-        <v>2.7</v>
-      </c>
-      <c r="I5" s="53">
-        <v>2.7</v>
-      </c>
-      <c r="J5" s="53">
-        <v>2.7</v>
-      </c>
-      <c r="K5" s="55">
-        <v>7.85</v>
-      </c>
-      <c r="L5" s="28"/>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="26"/>
     </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="26"/>
-      <c r="C6" s="44" t="str">
-        <f>Sheet4!C25</f>
-        <v>JC hardening parameter</v>
-      </c>
-      <c r="D6" s="44" t="str">
-        <f>Sheet4!D25</f>
-        <v>B</v>
-      </c>
-      <c r="E6" s="44" t="str">
-        <f>Sheet4!E25</f>
-        <v>-</v>
-      </c>
-      <c r="F6" s="44">
-        <f>Sheet4!F25</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="44">
-        <f>Sheet4!G25</f>
-        <v>3.63</v>
-      </c>
-      <c r="H6" s="44">
-        <f>Sheet4!H25</f>
-        <v>2.99</v>
-      </c>
-      <c r="I6" s="44">
-        <f>Sheet4!I25</f>
-        <v>2.64</v>
-      </c>
-      <c r="J6" s="44">
-        <f>Sheet4!J25</f>
-        <v>2.69</v>
-      </c>
-      <c r="K6" s="44">
-        <f>Sheet4!K25</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="28"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="5"/>
-      <c r="C7" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="28"/>
-    </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="54">
+      <c r="C8" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="50">
         <v>5.86</v>
       </c>
-      <c r="G8" s="99">
+      <c r="G8" s="95">
         <f>AVERAGE(5.70739,5.75573,5.71911,5.75623)</f>
         <v>5.7346149999999998</v>
       </c>
-      <c r="H8" s="100">
+      <c r="H8" s="96">
         <f>AVERAGE(5.5333,5.53117,5.50411,5.55659)</f>
         <v>5.5312925000000002</v>
       </c>
-      <c r="I8" s="100">
+      <c r="I8" s="96">
         <f>AVERAGE(5.66583,5.60073,5.61915,5.59391,5.59718)</f>
         <v>5.6153599999999999</v>
       </c>
-      <c r="J8" s="54">
+      <c r="J8" s="50">
         <v>5.42</v>
       </c>
-      <c r="K8" s="54">
+      <c r="K8" s="50">
         <v>6.96</v>
       </c>
-      <c r="L8" s="28"/>
+      <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="26" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="47">
+      <c r="C9" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="43">
         <f>F8*2</f>
         <v>11.72</v>
       </c>
-      <c r="G9" s="101">
+      <c r="G9" s="97">
         <f t="shared" ref="G9:K9" si="0">G8*2</f>
         <v>11.46923</v>
       </c>
-      <c r="H9" s="101">
+      <c r="H9" s="97">
         <f t="shared" si="0"/>
         <v>11.062585</v>
       </c>
-      <c r="I9" s="101">
+      <c r="I9" s="97">
         <f t="shared" si="0"/>
         <v>11.23072</v>
       </c>
-      <c r="J9" s="47">
+      <c r="J9" s="43">
         <f t="shared" si="0"/>
         <v>10.84</v>
       </c>
-      <c r="K9" s="47">
+      <c r="K9" s="43">
         <f t="shared" si="0"/>
         <v>13.92</v>
       </c>
-      <c r="L9" s="28"/>
+      <c r="L9" s="26"/>
     </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="26" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="45" t="s">
+      <c r="C10" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="47">
+      <c r="E10" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="43">
         <v>62.2</v>
       </c>
-      <c r="G10" s="101">
+      <c r="G10" s="97">
         <f>AVERAGE(51.78,51.7122,49.6736,50.0039)</f>
         <v>50.792424999999994</v>
       </c>
-      <c r="H10" s="102">
+      <c r="H10" s="98">
         <v>54.277700000000003</v>
       </c>
-      <c r="I10" s="102">
+      <c r="I10" s="98">
         <f>AVERAGE(52.2685,51.7548)</f>
         <v>52.011650000000003</v>
       </c>
-      <c r="J10" s="47">
+      <c r="J10" s="43">
         <v>52</v>
       </c>
-      <c r="K10" s="47">
+      <c r="K10" s="43">
         <v>90</v>
       </c>
-      <c r="L10" s="28"/>
+      <c r="L10" s="26"/>
     </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="26"/>
-      <c r="C11" s="44" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="25"/>
+      <c r="C11" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46">
+      <c r="E11" s="41"/>
+      <c r="F11" s="42">
         <v>1.22E-6</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="42">
         <v>1.22E-6</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="42">
         <v>1.22E-6</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="42">
         <v>1.22E-6</v>
       </c>
-      <c r="J11" s="46">
+      <c r="J11" s="42">
         <v>1.22E-6</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="42">
         <v>1.22E-6</v>
       </c>
-      <c r="L11" s="28"/>
+      <c r="L11" s="26"/>
     </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="26"/>
-      <c r="C12" s="44" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="25"/>
+      <c r="C12" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46">
+      <c r="E12" s="41"/>
+      <c r="F12" s="42">
         <v>3.1600000000000002E-7</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="42">
         <v>1.74E-7</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="46">
         <v>1.14E-7</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="46">
         <v>1.85E-7</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="42">
         <v>3.4700000000000002E-7</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="42">
         <v>7.0000000000000005E-8</v>
       </c>
-      <c r="L12" s="28"/>
+      <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="26" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="49">
+      <c r="F13" s="45">
         <f>(F12/F11)*100</f>
         <v>25.9016393442623</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="45">
         <f t="shared" ref="G13:K13" si="1">(G12/G11)*100</f>
         <v>14.262295081967213</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="45">
         <f t="shared" si="1"/>
         <v>9.3442622950819683</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13" s="45">
         <f t="shared" si="1"/>
         <v>15.163934426229508</v>
       </c>
-      <c r="J13" s="49">
+      <c r="J13" s="45">
         <f t="shared" si="1"/>
         <v>28.442622950819676</v>
       </c>
-      <c r="K13" s="49">
+      <c r="K13" s="45">
         <f t="shared" si="1"/>
         <v>5.7377049180327875</v>
       </c>
-      <c r="L13" s="28"/>
+      <c r="L13" s="26"/>
     </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="26" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="E14" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46">
+      <c r="F14" s="42">
         <v>6470000</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="42">
         <v>6270000</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="46">
         <v>6250000</v>
       </c>
-      <c r="I14" s="50">
+      <c r="I14" s="46">
         <v>6280000</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14" s="42">
         <v>6450000</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14" s="42">
         <v>6070000</v>
       </c>
-      <c r="L14" s="28"/>
+      <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="26" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="42">
+        <v>1.35</v>
+      </c>
+      <c r="G15" s="43">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="H15" s="44">
+        <v>5.64</v>
+      </c>
+      <c r="I15" s="44">
+        <v>5.03</v>
+      </c>
+      <c r="J15" s="43">
+        <v>3.08</v>
+      </c>
+      <c r="K15" s="42">
+        <v>4.96</v>
+      </c>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46">
-        <v>1.35</v>
-      </c>
-      <c r="G15" s="47">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="H15" s="48">
-        <v>5.64</v>
-      </c>
-      <c r="I15" s="48">
-        <v>5.03</v>
-      </c>
-      <c r="J15" s="47">
-        <v>3.08</v>
-      </c>
-      <c r="K15" s="46">
-        <v>4.96</v>
-      </c>
-      <c r="L15" s="28"/>
+      <c r="E16" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="46"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="26"/>
     </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="26" t="s">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C17" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="E17" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="28"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="26"/>
     </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="28"/>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="44"/>
     </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="5"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="48"/>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
     </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="5"/>
-      <c r="C19" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
     </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="5"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-    </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -18170,158 +17895,6 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="5"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="5"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="2:12">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="3:8">
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="3:8">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="3:8">
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="3:8">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="3:8">
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="3:8">
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F2:J2"/>
@@ -18330,32 +17903,49 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{764E7DC7-58CF-4E5A-A1BF-67B55195319A}">
+          <x14:formula1>
+            <xm:f>Sheet4!$C$9:$C$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>C6:C7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20CB03-FDC1-47B9-AF99-E205AFF1D2E2}">
-  <dimension ref="C2:CB46"/>
+  <dimension ref="C2:CB50"/>
   <sheetViews>
-    <sheetView topLeftCell="AA31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AV58" sqref="AV58"/>
+    <sheetView topLeftCell="Z16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="12" max="12" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:67">
+    <row r="2" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
       <c r="BK2" s="5"/>
       <c r="BL2" s="5"/>
       <c r="BM2" s="5"/>
       <c r="BN2" s="5"/>
       <c r="BO2" s="5"/>
     </row>
-    <row r="3" spans="3:67">
+    <row r="3" spans="3:67" x14ac:dyDescent="0.25">
       <c r="C3" s="11" t="s">
         <v>31</v>
       </c>
@@ -18364,37 +17954,76 @@
         <v>32</v>
       </c>
       <c r="M3" s="10"/>
-      <c r="AL3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
       <c r="BK3" s="5"/>
       <c r="BL3" s="6"/>
       <c r="BM3" s="5"/>
       <c r="BN3" s="5"/>
       <c r="BO3" s="5"/>
     </row>
-    <row r="4" spans="3:67">
+    <row r="4" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
       <c r="BK4" s="5"/>
       <c r="BL4" s="5"/>
       <c r="BM4" s="5"/>
       <c r="BN4" s="5"/>
       <c r="BO4" s="5"/>
     </row>
-    <row r="24" spans="52:80">
+    <row r="7" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="AP7" t="str">
+        <f>Sheet2!C6&amp; " and debris cloud diamter"</f>
+        <v>critical temperature and debris cloud diamter</v>
+      </c>
+    </row>
+    <row r="8" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="AD8" t="str">
+        <f>Sheet2!C6&amp;" "&amp;Sheet2!D6</f>
+        <v>critical temperature TC</v>
+      </c>
+    </row>
+    <row r="10" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="AD10" t="str">
+        <f>Sheet2!C6&amp; " and target hole diameter"</f>
+        <v>critical temperature and target hole diameter</v>
+      </c>
+    </row>
+    <row r="24" spans="30:80" x14ac:dyDescent="0.25">
       <c r="AZ24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="26" spans="52:80">
+    <row r="26" spans="30:80" x14ac:dyDescent="0.25">
       <c r="CB26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="46" spans="58:58">
+    <row r="29" spans="30:80" x14ac:dyDescent="0.25">
+      <c r="AD29" t="str">
+        <f>Sheet2!C6&amp;" and percentage of solid material in debris cloud"</f>
+        <v>critical temperature and percentage of solid material in debris cloud</v>
+      </c>
+      <c r="AP29" t="str">
+        <f>Sheet2!C6&amp; " and residual velocity"</f>
+        <v>critical temperature and residual velocity</v>
+      </c>
+    </row>
+    <row r="46" spans="58:58" x14ac:dyDescent="0.25">
       <c r="BF46" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="37:37" x14ac:dyDescent="0.25">
+      <c r="AK50" t="str">
+        <f>Sheet2!C6&amp; " and percentage of converted particles due to temperature"</f>
+        <v>critical temperature and percentage of converted particles due to temperature</v>
       </c>
     </row>
   </sheetData>
@@ -18409,7 +18038,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c4e1f6e80555f8e/Documenten/Internship/Project/Shared folder/HVI/GitHub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayleigh\Documents\HVI share\HVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="13_ncr:1_{D06B0BE8-AEFD-4FD4-952A-3E40E47E09B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88ACADC5-5625-468E-85BF-7B4991C06C9E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C6882B-C950-47C5-804A-F9CC2A0FAC19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="-15480" windowWidth="20730" windowHeight="15600" activeTab="2" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
+    <workbookView xWindow="4095" yWindow="-15480" windowWidth="20730" windowHeight="15600" activeTab="1" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,21 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="157">
   <si>
     <t>Al 7005</t>
   </si>
@@ -153,9 +144,6 @@
   </si>
   <si>
     <t>Material Properties</t>
-  </si>
-  <si>
-    <t>Results</t>
   </si>
   <si>
     <t>GRAPHICAL RESULTS</t>
@@ -437,9 +425,6 @@
     <t>done</t>
   </si>
   <si>
-    <t>running</t>
-  </si>
-  <si>
     <t>* Effects of heat treatment on the ballistic properties of AA6070 aluminium alloy J.K. Holmen a , J. Johnsen a , S. Jupp b , O.S. Hopperstad a , T. Børvik</t>
   </si>
   <si>
@@ -450,21 +435,6 @@
   </si>
   <si>
     <t>** On the dynamic response of blast-loaded steel plates with andwithout pre-formed holesTaggedPD1XXV. AuneD2XXa,b,*,D3XXG. ValsamosD4XXc,D5XXF. CasadeiD6XXc,1,D7XXM. LangsethD8XXa,b,D9XXT. BørvikD10XXa</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>DP800</t>
   </si>
   <si>
     <t>units</t>
@@ -484,6 +454,79 @@
   <si>
     <t>JC softening param m</t>
   </si>
+  <si>
+    <t>TITANIUM</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>VT6</t>
+  </si>
+  <si>
+    <t>OT4</t>
+  </si>
+  <si>
+    <t>OT4-O</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>−0.1</t>
+  </si>
+  <si>
+    <t>−1.157</t>
+  </si>
+  <si>
+    <t>−0.083</t>
+  </si>
+  <si>
+    <t>−0.02</t>
+  </si>
+  <si>
+    <t>−0.81</t>
+  </si>
+  <si>
+    <t>−0.15</t>
+  </si>
+  <si>
+    <t>Tensile strength</t>
+  </si>
+  <si>
+    <t>MODIFIED JOHNSON-COOK</t>
+  </si>
+  <si>
+    <t>ORIGINAL JOHNSON-COOK</t>
+  </si>
+  <si>
+    <t>Damage Paramenters</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>*** Determination and verification of Johnson–Cook model parameters at high-speed deformation of titanium alloys
+Author links open overlay panelA.E.BuzyurkinaI.L.GladkybE.I.Krausa</t>
+  </si>
 </sst>
 </file>
 
@@ -492,7 +535,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,6 +599,12 @@
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2E2E2E"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -607,7 +656,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -879,11 +928,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -984,12 +1208,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1017,14 +1235,8 @@
     <xf numFmtId="11" fontId="9" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1056,17 +1268,11 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -1081,6 +1287,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1108,7 +1324,129 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1199,7 +1537,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1754,7 +2092,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1792,7 +2130,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -1885,7 +2223,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1923,7 +2261,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -1965,7 +2303,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2002,7 +2340,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2034,7 +2372,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>critical temperature and percentage of converted particles due to temperature</c:v>
+              <c:v>Voice hardening parameter and percentage of converted particles due to temperature</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -2086,7 +2424,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2131,7 +2469,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2190,7 +2528,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>79.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2249,7 +2587,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2308,7 +2646,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>30.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2367,7 +2705,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>55.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2426,7 +2764,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>234.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2503,7 +2841,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>critical temperature TC</c:v>
+                  <c:v>Voice hardening parameter Q1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2547,7 +2885,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2585,7 +2923,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -2694,7 +3032,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2732,7 +3070,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -2774,7 +3112,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2811,7 +3149,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2895,7 +3233,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3445,7 +3783,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3483,7 +3821,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -3576,7 +3914,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3614,7 +3952,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -3656,7 +3994,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3693,7 +4031,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3811,7 +4149,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4361,7 +4699,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4399,7 +4737,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -4492,7 +4830,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4530,7 +4868,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -4572,7 +4910,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4609,7 +4947,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4693,7 +5031,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5235,7 +5573,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5273,7 +5611,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -5374,7 +5712,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5412,7 +5750,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -5454,7 +5792,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5491,7 +5829,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5609,7 +5947,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6151,7 +6489,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6189,7 +6527,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -6298,7 +6636,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6336,7 +6674,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -6378,7 +6716,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6415,7 +6753,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6447,7 +6785,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>critical temperature and target hole diameter</c:v>
+              <c:v>Voice hardening parameter and target hole diameter</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -6485,7 +6823,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6530,7 +6868,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6589,7 +6927,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>79.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6648,7 +6986,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6707,7 +7045,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>30.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6766,7 +7104,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>55.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6825,7 +7163,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>234.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6902,7 +7240,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>critical temperature TC</c:v>
+                  <c:v>Voice hardening parameter Q1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6954,7 +7292,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6992,7 +7330,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -7085,7 +7423,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7123,7 +7461,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -7165,7 +7503,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7202,7 +7540,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7234,7 +7572,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>critical temperature and debris cloud diamter</c:v>
+              <c:v>Voice hardening parameter and debris cloud diamter</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -7272,7 +7610,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7317,7 +7655,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7376,7 +7714,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>79.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7435,7 +7773,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7494,7 +7832,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>30.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7553,7 +7891,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>55.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7612,7 +7950,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>234.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7689,7 +8027,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>critical temperature TC</c:v>
+                  <c:v>Voice hardening parameter Q1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7741,7 +8079,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7779,7 +8117,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -7872,7 +8210,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7910,7 +8248,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -7952,7 +8290,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7989,7 +8327,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8021,7 +8359,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>critical temperature and percentage of solid material in debris cloud</c:v>
+              <c:v>Voice hardening parameter and percentage of solid material in debris cloud</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -8073,7 +8411,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8118,7 +8456,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8177,7 +8515,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>79.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8236,7 +8574,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8295,7 +8633,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>30.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8354,7 +8692,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>55.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8413,7 +8751,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>234.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8490,7 +8828,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>critical temperature TC</c:v>
+                  <c:v>Voice hardening parameter Q1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8542,7 +8880,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8580,7 +8918,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -8673,7 +9011,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8711,7 +9049,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -8753,7 +9091,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8790,7 +9128,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8822,7 +9160,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>critical temperature and residual velocity</c:v>
+              <c:v>Voice hardening parameter and residual velocity</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -8860,7 +9198,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8905,7 +9243,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8964,7 +9302,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>79.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9023,7 +9361,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9082,7 +9420,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>30.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9141,7 +9479,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>55.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9200,7 +9538,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>893</c:v>
+                  <c:v>234.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9277,7 +9615,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>critical temperature TC</c:v>
+                  <c:v>Voice hardening parameter Q1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9321,7 +9659,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9359,7 +9697,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -9460,7 +9798,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9498,7 +9836,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -9540,7 +9878,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9577,7 +9915,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15495,15 +15833,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>223839</xdr:colOff>
+      <xdr:colOff>390527</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>88106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>578645</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>138114</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15836,24 +16174,24 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="78.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:4">
       <c r="C2" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" ht="17.25" customHeight="1">
+      <c r="C4" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" ht="21" customHeight="1">
       <c r="C5" s="17" t="s">
         <v>23</v>
       </c>
@@ -15861,53 +16199,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4">
       <c r="C6" s="18"/>
       <c r="D6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4">
       <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4">
       <c r="C8" s="19"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4">
       <c r="C9" s="20"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4">
       <c r="C10" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4">
       <c r="C11" s="22"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4">
       <c r="C12" s="23"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:4">
       <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:4">
       <c r="C14" s="19"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:4">
       <c r="C15" s="20"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5">
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
@@ -15918,7 +16256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5">
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>18</v>
@@ -15927,21 +16265,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5">
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
         <v>15</v>
@@ -15950,21 +16288,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5">
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5">
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5">
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -15973,21 +16311,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5">
       <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
@@ -15996,28 +16334,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5">
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5">
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:5">
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:5">
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="16" t="s">
@@ -16032,30 +16370,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20077FD7-1EC0-41E4-96B7-2075AF4FD95D}">
-  <dimension ref="B3:Q47"/>
+  <dimension ref="B3:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="33.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
     <col min="15" max="15" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -16072,7 +16411,7 @@
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17">
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -16089,133 +16428,141 @@
       <c r="O4" s="26"/>
       <c r="P4" s="26"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17">
       <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="26"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="129" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="129" t="s">
+        <v>153</v>
+      </c>
+      <c r="M5" s="130"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="108"/>
       <c r="P5" s="26"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17">
       <c r="B6" s="26"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="101" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="102" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="90"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="133" t="s">
+        <v>133</v>
+      </c>
+      <c r="M6" s="106"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="84"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17">
       <c r="B7" s="26"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="74" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="H7" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="I7" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="J7" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="67" t="s">
+      <c r="K7" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="M7" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="N7" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="O7" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="P7" s="90"/>
+      <c r="L7" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="M7" s="94" t="s">
+        <v>135</v>
+      </c>
+      <c r="N7" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="O7" s="110"/>
+      <c r="P7" s="84"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="2:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" ht="16.5" customHeight="1" thickBot="1">
       <c r="B8" s="26"/>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="E8" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="66" t="s">
+      <c r="F8" s="147" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="148" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="I8" s="148" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="66" t="s">
+      <c r="J8" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="90"/>
+      <c r="K8" s="149" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="147" t="s">
+        <v>137</v>
+      </c>
+      <c r="M8" s="148" t="s">
+        <v>138</v>
+      </c>
+      <c r="N8" s="148" t="s">
+        <v>139</v>
+      </c>
+      <c r="O8" s="111"/>
+      <c r="P8" s="84"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17">
       <c r="B9" s="26"/>
       <c r="C9" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="76">
+      <c r="E9" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="72">
         <v>2.7000000000000002E-9</v>
       </c>
       <c r="G9" s="58">
@@ -16227,30 +16574,36 @@
       <c r="I9" s="58">
         <v>2.7000000000000002E-9</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="67">
         <v>2.7000000000000002E-9</v>
       </c>
       <c r="K9" s="28">
         <v>7.8500000000000008E-9</v>
       </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
+      <c r="L9" s="134">
+        <v>4.4299999999999998E-9</v>
+      </c>
+      <c r="M9" s="135">
+        <v>4.5500000000000002E-9</v>
+      </c>
+      <c r="N9" s="136">
+        <v>4.5500000000000002E-9</v>
+      </c>
       <c r="O9" s="28"/>
-      <c r="P9" s="91"/>
+      <c r="P9" s="85"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17">
       <c r="B10" s="26"/>
       <c r="C10" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="E10" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="78">
+      <c r="F10" s="74">
         <v>58333.33</v>
       </c>
       <c r="G10" s="35">
@@ -16262,30 +16615,36 @@
       <c r="I10" s="35">
         <v>58333.33</v>
       </c>
-      <c r="J10" s="70">
+      <c r="J10" s="68">
         <v>58333.33</v>
       </c>
       <c r="K10" s="28">
         <v>205880</v>
       </c>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
+      <c r="L10" s="134">
+        <v>116</v>
+      </c>
+      <c r="M10" s="135">
+        <v>116</v>
+      </c>
+      <c r="N10" s="135">
+        <v>116</v>
+      </c>
       <c r="O10" s="28"/>
-      <c r="P10" s="91"/>
+      <c r="P10" s="85"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17">
       <c r="B11" s="26"/>
       <c r="C11" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="78">
+      <c r="E11" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="74">
         <v>26923.08</v>
       </c>
       <c r="G11" s="35">
@@ -16297,30 +16656,36 @@
       <c r="I11" s="35">
         <v>26923.08</v>
       </c>
-      <c r="J11" s="70">
+      <c r="J11" s="68">
         <v>26923.08</v>
       </c>
       <c r="K11" s="28">
         <v>78947</v>
       </c>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
+      <c r="L11" s="134">
+        <v>38000</v>
+      </c>
+      <c r="M11" s="135">
+        <v>38000</v>
+      </c>
+      <c r="N11" s="135">
+        <v>38000</v>
+      </c>
       <c r="O11" s="28"/>
-      <c r="P11" s="91"/>
+      <c r="P11" s="85"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17">
       <c r="B12" s="26"/>
       <c r="C12" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="78">
+      <c r="E12" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="74">
         <v>47</v>
       </c>
       <c r="G12" s="35">
@@ -16332,30 +16697,36 @@
       <c r="I12" s="35">
         <v>47</v>
       </c>
-      <c r="J12" s="70">
+      <c r="J12" s="68">
         <v>47</v>
       </c>
       <c r="K12" s="29">
         <v>47</v>
       </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
+      <c r="L12" s="134">
+        <v>47</v>
+      </c>
+      <c r="M12" s="135">
+        <v>47</v>
+      </c>
+      <c r="N12" s="135">
+        <v>47</v>
+      </c>
       <c r="O12" s="29"/>
-      <c r="P12" s="91"/>
+      <c r="P12" s="85"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17">
       <c r="B13" s="26"/>
       <c r="C13" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="78">
+      <c r="E13" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="74">
         <v>70000</v>
       </c>
       <c r="G13" s="35">
@@ -16367,30 +16738,36 @@
       <c r="I13" s="35">
         <v>70000</v>
       </c>
-      <c r="J13" s="70">
+      <c r="J13" s="68">
         <v>70000</v>
       </c>
       <c r="K13" s="28">
         <v>210000</v>
       </c>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
+      <c r="L13" s="134">
+        <v>114500</v>
+      </c>
+      <c r="M13" s="135">
+        <v>114500</v>
+      </c>
+      <c r="N13" s="135">
+        <v>114500</v>
+      </c>
       <c r="O13" s="28"/>
-      <c r="P13" s="91"/>
+      <c r="P13" s="85"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17">
       <c r="B14" s="26"/>
       <c r="C14" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="78">
+      <c r="E14" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="74">
         <v>0.3</v>
       </c>
       <c r="G14" s="35">
@@ -16402,30 +16779,36 @@
       <c r="I14" s="35">
         <v>0.3</v>
       </c>
-      <c r="J14" s="70">
+      <c r="J14" s="68">
         <v>0.3</v>
       </c>
       <c r="K14" s="29">
         <v>0.33</v>
       </c>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
+      <c r="L14" s="134">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="M14" s="135">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="N14" s="135">
+        <v>0.34499999999999997</v>
+      </c>
       <c r="O14" s="29"/>
-      <c r="P14" s="91"/>
+      <c r="P14" s="85"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17">
       <c r="B15" s="26"/>
       <c r="C15" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="78">
+      <c r="E15" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="74">
         <v>0.9</v>
       </c>
       <c r="G15" s="35">
@@ -16437,30 +16820,30 @@
       <c r="I15" s="35">
         <v>0.9</v>
       </c>
-      <c r="J15" s="70">
+      <c r="J15" s="68">
         <v>0.9</v>
       </c>
       <c r="K15" s="29">
         <v>0.9</v>
       </c>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="135"/>
       <c r="O15" s="29"/>
-      <c r="P15" s="91"/>
+      <c r="P15" s="85"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17">
       <c r="B16" s="26"/>
       <c r="C16" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="E16" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="77">
+      <c r="F16" s="73">
         <v>910000000</v>
       </c>
       <c r="G16" s="33">
@@ -16472,30 +16855,36 @@
       <c r="I16" s="33">
         <v>910000000</v>
       </c>
-      <c r="J16" s="71">
+      <c r="J16" s="69">
         <v>910000000</v>
       </c>
       <c r="K16" s="28">
         <v>452000000</v>
       </c>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
+      <c r="L16" s="137">
+        <v>720000000</v>
+      </c>
+      <c r="M16" s="136">
+        <v>720000000</v>
+      </c>
+      <c r="N16" s="136">
+        <v>720000000</v>
+      </c>
       <c r="O16" s="28"/>
-      <c r="P16" s="91"/>
+      <c r="P16" s="85"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16">
       <c r="B17" s="26"/>
       <c r="C17" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="E17" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="77">
+      <c r="F17" s="73">
         <v>2.3200000000000001E-5</v>
       </c>
       <c r="G17" s="33">
@@ -16507,28 +16896,28 @@
       <c r="I17" s="36">
         <v>2.3200000000000001E-5</v>
       </c>
-      <c r="J17" s="72">
+      <c r="J17" s="70">
         <v>2.3200000000000001E-5</v>
       </c>
       <c r="K17" s="28">
         <v>2.3200000000000001E-5</v>
       </c>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="135"/>
       <c r="O17" s="28"/>
-      <c r="P17" s="91"/>
+      <c r="P17" s="85"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16">
       <c r="B18" s="26"/>
       <c r="C18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="81"/>
-      <c r="F18" s="77">
+      <c r="E18" s="77"/>
+      <c r="F18" s="73">
         <v>1E-4</v>
       </c>
       <c r="G18" s="33">
@@ -16540,26 +16929,32 @@
       <c r="I18" s="33">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J18" s="71">
+      <c r="J18" s="69">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K18" s="28">
         <v>1E-4</v>
       </c>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
+      <c r="L18" s="138">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="M18" s="139">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="N18" s="139">
+        <v>6.3499999999999997E-3</v>
+      </c>
       <c r="O18" s="26"/>
-      <c r="P18" s="91"/>
+      <c r="P18" s="85"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16">
       <c r="B19" s="26"/>
       <c r="C19" s="32"/>
       <c r="D19" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="81"/>
-      <c r="F19" s="77">
+        <v>91</v>
+      </c>
+      <c r="E19" s="77"/>
+      <c r="F19" s="73">
         <v>2.4569999999999999</v>
       </c>
       <c r="G19" s="33">
@@ -16571,30 +16966,39 @@
       <c r="I19" s="33">
         <v>2.4569999999999999</v>
       </c>
-      <c r="J19" s="71">
+      <c r="J19" s="69">
         <v>2.4569999999999999</v>
       </c>
       <c r="K19" s="28">
         <v>3.548</v>
       </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
+      <c r="L19" s="137">
+        <f>L16*L9</f>
+        <v>3.1896</v>
+      </c>
+      <c r="M19" s="135">
+        <f t="shared" ref="M19:N19" si="0">M16*M9</f>
+        <v>3.2760000000000002</v>
+      </c>
+      <c r="N19" s="135">
+        <f t="shared" si="0"/>
+        <v>3.2760000000000002</v>
+      </c>
       <c r="O19" s="26"/>
-      <c r="P19" s="91"/>
+      <c r="P19" s="85"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16">
       <c r="B20" s="26"/>
       <c r="C20" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="78">
+      <c r="E20" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="74">
         <v>893</v>
       </c>
       <c r="G20" s="35">
@@ -16606,30 +17010,39 @@
       <c r="I20" s="35">
         <v>893</v>
       </c>
-      <c r="J20" s="70">
+      <c r="J20" s="68">
         <v>893</v>
       </c>
       <c r="K20" s="29">
         <v>1800</v>
       </c>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
+      <c r="L20" s="134">
+        <f>1668+273</f>
+        <v>1941</v>
+      </c>
+      <c r="M20" s="135">
+        <f t="shared" ref="M20:N20" si="1">1668+273</f>
+        <v>1941</v>
+      </c>
+      <c r="N20" s="135">
+        <f t="shared" si="1"/>
+        <v>1941</v>
+      </c>
       <c r="O20" s="26"/>
-      <c r="P20" s="91"/>
+      <c r="P20" s="85"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16">
       <c r="B21" s="26"/>
       <c r="C21" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="78">
+      <c r="E21" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="74">
         <v>293</v>
       </c>
       <c r="G21" s="35">
@@ -16641,30 +17054,36 @@
       <c r="I21" s="35">
         <v>293</v>
       </c>
-      <c r="J21" s="70">
+      <c r="J21" s="68">
         <v>293</v>
       </c>
       <c r="K21" s="29">
         <v>293</v>
       </c>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
+      <c r="L21" s="140">
+        <v>293</v>
+      </c>
+      <c r="M21" s="29">
+        <v>293</v>
+      </c>
+      <c r="N21" s="29">
+        <v>293</v>
+      </c>
       <c r="O21" s="26"/>
-      <c r="P21" s="91"/>
+      <c r="P21" s="85"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16">
       <c r="B22" s="26"/>
       <c r="C22" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="78">
+      <c r="E22" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="74">
         <v>293</v>
       </c>
       <c r="G22" s="35">
@@ -16676,30 +17095,36 @@
       <c r="I22" s="35">
         <v>293</v>
       </c>
-      <c r="J22" s="70">
+      <c r="J22" s="68">
         <v>293</v>
       </c>
       <c r="K22" s="29">
         <v>293</v>
       </c>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
+      <c r="L22" s="140">
+        <v>293</v>
+      </c>
+      <c r="M22" s="29">
+        <v>293</v>
+      </c>
+      <c r="N22" s="29">
+        <v>293</v>
+      </c>
       <c r="O22" s="26"/>
-      <c r="P22" s="91"/>
+      <c r="P22" s="85"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16">
       <c r="B23" s="26"/>
       <c r="C23" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="78">
+      <c r="E23" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="74">
         <v>893</v>
       </c>
       <c r="G23" s="35">
@@ -16711,30 +17136,30 @@
       <c r="I23" s="35">
         <v>893</v>
       </c>
-      <c r="J23" s="70">
+      <c r="J23" s="68">
         <v>893</v>
       </c>
       <c r="K23" s="29">
         <v>893</v>
       </c>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="135"/>
       <c r="O23" s="26"/>
-      <c r="P23" s="91"/>
+      <c r="P23" s="85"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16">
       <c r="B24" s="26"/>
       <c r="C24" s="32" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="78">
+        <v>100</v>
+      </c>
+      <c r="E24" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="74">
         <v>292.60000000000002</v>
       </c>
       <c r="G24" s="35">
@@ -16746,30 +17171,36 @@
       <c r="I24" s="35">
         <v>350</v>
       </c>
-      <c r="J24" s="70">
+      <c r="J24" s="68">
         <v>292.5</v>
       </c>
       <c r="K24" s="29">
         <v>325.70001000000002</v>
       </c>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
+      <c r="L24" s="134">
+        <v>900</v>
+      </c>
+      <c r="M24" s="135">
+        <v>600</v>
+      </c>
+      <c r="N24" s="135">
+        <v>500</v>
+      </c>
       <c r="O24" s="26"/>
-      <c r="P24" s="91"/>
+      <c r="P24" s="85"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16">
       <c r="B25" s="26"/>
       <c r="C25" s="32" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="78">
+        <v>101</v>
+      </c>
+      <c r="E25" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="74">
         <v>0</v>
       </c>
       <c r="G25" s="35">
@@ -16781,30 +17212,36 @@
       <c r="I25" s="35">
         <v>2.64</v>
       </c>
-      <c r="J25" s="70">
+      <c r="J25" s="68">
         <v>2.69</v>
       </c>
       <c r="K25" s="29">
         <v>0</v>
       </c>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
+      <c r="L25" s="134">
+        <v>509.75</v>
+      </c>
+      <c r="M25" s="135">
+        <v>528</v>
+      </c>
+      <c r="N25" s="135">
+        <v>353.9</v>
+      </c>
       <c r="O25" s="26"/>
-      <c r="P25" s="91"/>
+      <c r="P25" s="85"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16">
       <c r="B26" s="26"/>
       <c r="C26" s="32" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="78">
+        <v>102</v>
+      </c>
+      <c r="E26" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="74">
         <v>0</v>
       </c>
       <c r="G26" s="35">
@@ -16816,30 +17253,36 @@
       <c r="I26" s="35">
         <v>0.05</v>
       </c>
-      <c r="J26" s="70">
+      <c r="J26" s="68">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="K26" s="29">
         <v>0</v>
       </c>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
+      <c r="L26" s="134">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="M26" s="135">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="N26" s="135">
+        <v>0.50800000000000001</v>
+      </c>
       <c r="O26" s="26"/>
-      <c r="P26" s="91"/>
+      <c r="P26" s="85"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16">
       <c r="B27" s="26"/>
       <c r="C27" s="32" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="78">
+        <v>103</v>
+      </c>
+      <c r="E27" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="74">
         <v>0.02</v>
       </c>
       <c r="G27" s="35">
@@ -16851,30 +17294,36 @@
       <c r="I27" s="35">
         <v>0.10299999999999999</v>
       </c>
-      <c r="J27" s="70">
+      <c r="J27" s="68">
         <v>0.105</v>
       </c>
       <c r="K27" s="29">
         <v>0.01</v>
       </c>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
+      <c r="L27" s="134">
+        <v>0.03</v>
+      </c>
+      <c r="M27" s="135">
+        <v>0.03</v>
+      </c>
+      <c r="N27" s="135">
+        <v>0.03</v>
+      </c>
       <c r="O27" s="26"/>
-      <c r="P27" s="91"/>
+      <c r="P27" s="85"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16">
       <c r="B28" s="26"/>
       <c r="C28" s="32" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" s="78">
+        <v>104</v>
+      </c>
+      <c r="E28" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="74">
         <v>1</v>
       </c>
       <c r="G28" s="35">
@@ -16886,30 +17335,36 @@
       <c r="I28" s="35">
         <v>1</v>
       </c>
-      <c r="J28" s="70">
+      <c r="J28" s="68">
         <v>1</v>
       </c>
       <c r="K28" s="29">
         <v>1</v>
       </c>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
+      <c r="L28" s="134">
+        <v>0</v>
+      </c>
+      <c r="M28" s="135">
+        <v>0</v>
+      </c>
+      <c r="N28" s="135">
+        <v>0</v>
+      </c>
       <c r="O28" s="26"/>
-      <c r="P28" s="91"/>
+      <c r="P28" s="85"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16">
       <c r="B29" s="26"/>
       <c r="C29" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="78">
+      <c r="E29" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="74">
         <v>2.7</v>
       </c>
       <c r="G29" s="35">
@@ -16921,30 +17376,30 @@
       <c r="I29" s="35">
         <v>30.1</v>
       </c>
-      <c r="J29" s="70">
+      <c r="J29" s="68">
         <v>55.3</v>
       </c>
       <c r="K29" s="29">
         <v>234.8</v>
       </c>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="135"/>
+      <c r="N29" s="135"/>
       <c r="O29" s="26"/>
-      <c r="P29" s="91"/>
+      <c r="P29" s="85"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16">
       <c r="B30" s="26"/>
       <c r="C30" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" s="78">
+        <v>107</v>
+      </c>
+      <c r="E30" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="74">
         <v>2160.6999999999998</v>
       </c>
       <c r="G30" s="35">
@@ -16956,30 +17411,30 @@
       <c r="I30" s="35">
         <v>185.9</v>
       </c>
-      <c r="J30" s="70">
+      <c r="J30" s="68">
         <v>317.2</v>
       </c>
       <c r="K30" s="29">
         <v>56.200001</v>
       </c>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="135"/>
+      <c r="N30" s="135"/>
       <c r="O30" s="26"/>
-      <c r="P30" s="91"/>
+      <c r="P30" s="85"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16">
       <c r="B31" s="26"/>
       <c r="C31" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="78">
+        <v>108</v>
+      </c>
+      <c r="E31" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="74">
         <v>707.6</v>
       </c>
       <c r="G31" s="35">
@@ -16991,30 +17446,30 @@
       <c r="I31" s="35">
         <v>72.8</v>
       </c>
-      <c r="J31" s="70">
+      <c r="J31" s="68">
         <v>31.1</v>
       </c>
       <c r="K31" s="29">
         <v>445.70001000000002</v>
       </c>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="135"/>
+      <c r="N31" s="135"/>
       <c r="O31" s="26"/>
-      <c r="P31" s="91"/>
+      <c r="P31" s="85"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16">
       <c r="B32" s="26"/>
       <c r="C32" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" s="78">
+        <v>109</v>
+      </c>
+      <c r="E32" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="74">
         <v>8.94</v>
       </c>
       <c r="G32" s="35">
@@ -17026,30 +17481,30 @@
       <c r="I32" s="35">
         <v>7.7</v>
       </c>
-      <c r="J32" s="70">
+      <c r="J32" s="68">
         <v>10</v>
       </c>
       <c r="K32" s="29">
         <v>4.6999997999999996</v>
       </c>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="135"/>
+      <c r="N32" s="135"/>
       <c r="O32" s="26"/>
-      <c r="P32" s="91"/>
+      <c r="P32" s="85"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="B33" s="26"/>
       <c r="C33" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="E33" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="E33" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" s="78">
+      <c r="F33" s="74">
         <v>278</v>
       </c>
       <c r="G33" s="35">
@@ -17061,28 +17516,28 @@
       <c r="I33" s="35">
         <v>115</v>
       </c>
-      <c r="J33" s="70">
+      <c r="J33" s="68">
         <v>128</v>
       </c>
       <c r="K33" s="29">
         <v>555</v>
       </c>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="135"/>
+      <c r="N33" s="135"/>
       <c r="O33" s="26"/>
-      <c r="P33" s="91"/>
+      <c r="P33" s="85"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="B34" s="26"/>
       <c r="C34" s="32"/>
       <c r="D34" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="78">
+        <v>113</v>
+      </c>
+      <c r="E34" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="74">
         <v>1E-3</v>
       </c>
       <c r="G34" s="35">
@@ -17094,296 +17549,460 @@
       <c r="I34" s="35">
         <v>1E-3</v>
       </c>
-      <c r="J34" s="70">
+      <c r="J34" s="68">
         <v>1E-3</v>
       </c>
       <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
+      <c r="L34" s="134"/>
+      <c r="M34" s="135"/>
+      <c r="N34" s="135"/>
       <c r="O34" s="26"/>
-      <c r="P34" s="91"/>
+      <c r="P34" s="85"/>
     </row>
-    <row r="35" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16">
       <c r="B35" s="26"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62" t="s">
+      <c r="C35" s="112"/>
+      <c r="D35" s="112" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="114">
+        <v>292.60000000000002</v>
+      </c>
+      <c r="G35" s="115">
+        <v>51</v>
+      </c>
+      <c r="H35" s="115">
+        <v>187</v>
+      </c>
+      <c r="I35" s="115">
+        <v>373</v>
+      </c>
+      <c r="J35" s="116">
+        <v>341</v>
+      </c>
+      <c r="K35" s="27"/>
+      <c r="L35" s="134"/>
+      <c r="M35" s="135"/>
+      <c r="N35" s="135"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="85"/>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="B36" s="26"/>
+      <c r="C36" s="144" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="121"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="134" t="s">
+        <v>149</v>
+      </c>
+      <c r="M36" s="135">
+        <v>-0.995</v>
+      </c>
+      <c r="N36" s="135" t="s">
+        <v>146</v>
+      </c>
+      <c r="O36" s="26"/>
+      <c r="P36" s="85"/>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="B37" s="26"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="121"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="134">
+        <v>1.18</v>
+      </c>
+      <c r="M37" s="135">
+        <v>1.45</v>
+      </c>
+      <c r="N37" s="135">
+        <v>1.6850000000000001</v>
+      </c>
+      <c r="O37" s="26"/>
+      <c r="P37" s="85"/>
+    </row>
+    <row r="38" spans="2:16">
+      <c r="B38" s="26"/>
+      <c r="C38" s="145"/>
+      <c r="D38" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="121"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="134" t="s">
+        <v>150</v>
+      </c>
+      <c r="M38" s="135" t="s">
+        <v>145</v>
+      </c>
+      <c r="N38" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="O38" s="26"/>
+      <c r="P38" s="85"/>
+    </row>
+    <row r="39" spans="2:16">
+      <c r="B39" s="26"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="121"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="134" t="s">
+        <v>148</v>
+      </c>
+      <c r="M39" s="135" t="s">
+        <v>148</v>
+      </c>
+      <c r="N39" s="135">
+        <v>2.4E-2</v>
+      </c>
+      <c r="O39" s="26"/>
+      <c r="P39" s="85"/>
+    </row>
+    <row r="40" spans="2:16">
+      <c r="B40" s="26"/>
+      <c r="C40" s="146"/>
+      <c r="D40" s="112" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="126"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="134">
+        <v>0</v>
+      </c>
+      <c r="M40" s="135">
+        <v>0</v>
+      </c>
+      <c r="N40" s="135">
+        <v>0</v>
+      </c>
+      <c r="O40" s="26"/>
+      <c r="P40" s="85"/>
+    </row>
+    <row r="41" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B41" s="26"/>
+      <c r="C41" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="122"/>
+      <c r="E41" s="123" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="124"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="141">
+        <v>1000</v>
+      </c>
+      <c r="M41" s="125">
+        <v>800</v>
+      </c>
+      <c r="N41" s="125">
+        <v>600</v>
+      </c>
+      <c r="O41" s="87"/>
+      <c r="P41" s="85"/>
+    </row>
+    <row r="42" spans="2:16">
+      <c r="B42" s="26"/>
+      <c r="C42" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="E35" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="86">
-        <v>292.60000000000002</v>
-      </c>
-      <c r="G35" s="63">
-        <v>51</v>
-      </c>
-      <c r="H35" s="63">
-        <v>187</v>
-      </c>
-      <c r="I35" s="63">
-        <v>373</v>
-      </c>
-      <c r="J35" s="73">
-        <v>341</v>
-      </c>
-      <c r="K35" s="92"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="93"/>
-      <c r="P35" s="91"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="26"/>
-      <c r="C36" s="60" t="s">
+      <c r="D42" s="60"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="G42" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="87" t="s">
-        <v>126</v>
-      </c>
-      <c r="G36" s="61" t="s">
+      <c r="H42" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="H36" s="61" t="s">
+      <c r="I42" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="I36" s="61" t="s">
+      <c r="J42" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="J36" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="K36" s="61"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="26"/>
-      <c r="C37" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" s="104"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="104"/>
-      <c r="K37" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="26"/>
-      <c r="C38" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="88" t="s">
-        <v>123</v>
-      </c>
-      <c r="G38" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="H38" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="I38" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="J38" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="K38" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="26"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="26"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B42" s="26"/>
-      <c r="C42" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
+      <c r="K42" s="131"/>
+      <c r="L42" s="142"/>
+      <c r="M42" s="59"/>
       <c r="N42" s="27"/>
       <c r="O42" s="26"/>
       <c r="P42" s="26"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="B43" s="26"/>
-      <c r="C43" s="105" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
+      <c r="C43" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="L43" s="150" t="s">
+        <v>155</v>
+      </c>
+      <c r="M43" s="127"/>
+      <c r="N43" s="127"/>
       <c r="O43" s="26"/>
       <c r="P43" s="26"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16">
       <c r="B44" s="26"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
+      <c r="C44" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="31"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="I44" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="J44" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="K44" s="132" t="s">
+        <v>122</v>
+      </c>
+      <c r="L44" s="143"/>
+      <c r="M44" s="34"/>
       <c r="N44" s="27"/>
       <c r="O44" s="26"/>
       <c r="P44" s="26"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
       <c r="O45" s="26"/>
       <c r="P45" s="26"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16">
       <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
       <c r="O46" s="26"/>
       <c r="P46" s="26"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16">
       <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
       <c r="O47" s="26"/>
       <c r="P47" s="26"/>
     </row>
+    <row r="48" spans="2:16">
+      <c r="B48" s="26"/>
+      <c r="C48" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+    </row>
+    <row r="49" spans="2:16">
+      <c r="B49" s="26"/>
+      <c r="C49" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="103"/>
+      <c r="K49" s="103"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+    </row>
+    <row r="50" spans="2:16">
+      <c r="B50" s="26"/>
+      <c r="C50" s="103" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="103"/>
+      <c r="J50" s="103"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+    </row>
+    <row r="51" spans="2:16">
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+    </row>
+    <row r="52" spans="2:16">
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
+    </row>
+    <row r="53" spans="2:16">
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="C50:J50"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:J6"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="L6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17391,11 +18010,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F425B10-5B6F-4D38-8EC8-85892A4FDDD6}">
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="52.140625" customWidth="1"/>
@@ -17409,82 +18028,82 @@
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="107"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="106" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
+    <row r="2" spans="2:12">
+      <c r="C2" s="105"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
       <c r="K2" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L2" s="26"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="107"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="94"/>
+    <row r="3" spans="2:12">
+      <c r="C3" s="105"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="88"/>
       <c r="F3" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="H3" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="I3" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="J3" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="K3" s="39" t="s">
         <v>59</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>60</v>
       </c>
       <c r="L3" s="26"/>
     </row>
-    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="15.75" thickBot="1">
       <c r="C4" s="52" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="I4" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="J4" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="54" t="s">
-        <v>65</v>
-      </c>
       <c r="K4" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L4" s="26"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12">
       <c r="B5" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="48"/>
       <c r="E5" s="48"/>
@@ -17508,49 +18127,49 @@
       </c>
       <c r="L5" s="26"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12">
       <c r="B6" s="25"/>
       <c r="C6" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="108" t="str">
+        <v>105</v>
+      </c>
+      <c r="D6" s="96" t="str">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,2,FALSE)</f>
-        <v>TC</v>
-      </c>
-      <c r="E6" s="108" t="str">
+        <v>Q1</v>
+      </c>
+      <c r="E6" s="96" t="str">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,3,FALSE)</f>
-        <v>K</v>
-      </c>
-      <c r="F6" s="108">
+        <v>MPa</v>
+      </c>
+      <c r="F6" s="96">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,4,FALSE)</f>
-        <v>893</v>
-      </c>
-      <c r="G6" s="108">
+        <v>2.7</v>
+      </c>
+      <c r="G6" s="96">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,5,FALSE)</f>
-        <v>893</v>
-      </c>
-      <c r="H6" s="108">
+        <v>79.5</v>
+      </c>
+      <c r="H6" s="96">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,6,FALSE)</f>
-        <v>893</v>
-      </c>
-      <c r="I6" s="108">
+        <v>35.6</v>
+      </c>
+      <c r="I6" s="96">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,7,FALSE)</f>
-        <v>893</v>
-      </c>
-      <c r="J6" s="108">
+        <v>30.1</v>
+      </c>
+      <c r="J6" s="96">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,8,FALSE)</f>
-        <v>893</v>
-      </c>
-      <c r="K6" s="108">
+        <v>55.3</v>
+      </c>
+      <c r="K6" s="96">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,9,FALSE)</f>
-        <v>893</v>
+        <v>234.8</v>
       </c>
       <c r="L6" s="26"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12">
       <c r="B7" s="5"/>
       <c r="C7" s="55" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="D7" s="55"/>
       <c r="E7" s="55"/>
@@ -17562,26 +18181,26 @@
       <c r="K7" s="56"/>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12">
       <c r="B8" s="5"/>
       <c r="C8" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="50">
         <v>5.86</v>
       </c>
-      <c r="G8" s="95">
+      <c r="G8" s="89">
         <f>AVERAGE(5.70739,5.75573,5.71911,5.75623)</f>
         <v>5.7346149999999998</v>
       </c>
-      <c r="H8" s="96">
+      <c r="H8" s="90">
         <f>AVERAGE(5.5333,5.53117,5.50411,5.55659)</f>
         <v>5.5312925000000002</v>
       </c>
-      <c r="I8" s="96">
+      <c r="I8" s="90">
         <f>AVERAGE(5.66583,5.60073,5.61915,5.59391,5.59718)</f>
         <v>5.6153599999999999</v>
       </c>
@@ -17593,29 +18212,29 @@
       </c>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12">
       <c r="B9" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="43">
         <f>F8*2</f>
         <v>11.72</v>
       </c>
-      <c r="G9" s="97">
+      <c r="G9" s="91">
         <f t="shared" ref="G9:K9" si="0">G8*2</f>
         <v>11.46923</v>
       </c>
-      <c r="H9" s="97">
+      <c r="H9" s="91">
         <f t="shared" si="0"/>
         <v>11.062585</v>
       </c>
-      <c r="I9" s="97">
+      <c r="I9" s="91">
         <f t="shared" si="0"/>
         <v>11.23072</v>
       </c>
@@ -17629,27 +18248,27 @@
       </c>
       <c r="L9" s="26"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12">
       <c r="B10" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="43">
         <v>62.2</v>
       </c>
-      <c r="G10" s="97">
+      <c r="G10" s="91">
         <f>AVERAGE(51.78,51.7122,49.6736,50.0039)</f>
         <v>50.792424999999994</v>
       </c>
-      <c r="H10" s="98">
+      <c r="H10" s="92">
         <v>54.277700000000003</v>
       </c>
-      <c r="I10" s="98">
+      <c r="I10" s="92">
         <f>AVERAGE(52.2685,51.7548)</f>
         <v>52.011650000000003</v>
       </c>
@@ -17661,7 +18280,7 @@
       </c>
       <c r="L10" s="26"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12">
       <c r="B11" s="25"/>
       <c r="C11" s="40" t="s">
         <v>27</v>
@@ -17687,7 +18306,7 @@
       </c>
       <c r="L11" s="26"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12">
       <c r="B12" s="25"/>
       <c r="C12" s="40" t="s">
         <v>28</v>
@@ -17713,15 +18332,15 @@
       </c>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12">
       <c r="B13" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="41" t="s">
         <v>39</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>40</v>
       </c>
       <c r="F13" s="45">
         <f>(F12/F11)*100</f>
@@ -17749,15 +18368,15 @@
       </c>
       <c r="L13" s="26"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12">
       <c r="B14" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="42">
         <v>6470000</v>
@@ -17779,15 +18398,15 @@
       </c>
       <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12">
       <c r="B15" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="42">
         <v>1.35</v>
@@ -17809,15 +18428,15 @@
       </c>
       <c r="L15" s="26"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12">
       <c r="B16" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="46"/>
       <c r="G16" s="43"/>
@@ -17827,15 +18446,15 @@
       <c r="K16" s="44"/>
       <c r="L16" s="26"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="44"/>
       <c r="G17" s="43"/>
@@ -17845,7 +18464,7 @@
       <c r="K17" s="44"/>
       <c r="L17" s="26"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" s="5"/>
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
@@ -17857,10 +18476,10 @@
       <c r="J18" s="43"/>
       <c r="K18" s="44"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" s="5"/>
       <c r="C19" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -17871,7 +18490,7 @@
       <c r="J19" s="44"/>
       <c r="K19" s="44"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12">
       <c r="B20" s="5"/>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
@@ -17883,7 +18502,7 @@
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -17922,18 +18541,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20CB03-FDC1-47B9-AF99-E205AFF1D2E2}">
   <dimension ref="C2:CB50"/>
   <sheetViews>
-    <sheetView topLeftCell="Z16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView topLeftCell="Z28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AY57" sqref="AY57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="12" max="12" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:67" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:67">
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
@@ -17945,13 +18564,13 @@
       <c r="BN2" s="5"/>
       <c r="BO2" s="5"/>
     </row>
-    <row r="3" spans="3:67" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:67">
       <c r="C3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="11"/>
       <c r="L3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" s="10"/>
       <c r="AK3" s="5"/>
@@ -17965,7 +18584,7 @@
       <c r="BN3" s="5"/>
       <c r="BO3" s="5"/>
     </row>
-    <row r="4" spans="3:67" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:67">
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
       <c r="AM4" s="5"/>
@@ -17977,53 +18596,53 @@
       <c r="BN4" s="5"/>
       <c r="BO4" s="5"/>
     </row>
-    <row r="7" spans="3:67" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:67">
       <c r="AP7" t="str">
         <f>Sheet2!C6&amp; " and debris cloud diamter"</f>
-        <v>critical temperature and debris cloud diamter</v>
+        <v>Voice hardening parameter and debris cloud diamter</v>
       </c>
     </row>
-    <row r="8" spans="3:67" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:67">
       <c r="AD8" t="str">
         <f>Sheet2!C6&amp;" "&amp;Sheet2!D6</f>
-        <v>critical temperature TC</v>
+        <v>Voice hardening parameter Q1</v>
       </c>
     </row>
-    <row r="10" spans="3:67" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:67">
       <c r="AD10" t="str">
         <f>Sheet2!C6&amp; " and target hole diameter"</f>
-        <v>critical temperature and target hole diameter</v>
+        <v>Voice hardening parameter and target hole diameter</v>
       </c>
     </row>
-    <row r="24" spans="30:80" x14ac:dyDescent="0.25">
+    <row r="24" spans="30:80">
       <c r="AZ24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="26" spans="30:80" x14ac:dyDescent="0.25">
+    <row r="26" spans="30:80">
       <c r="CB26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="29" spans="30:80" x14ac:dyDescent="0.25">
+    <row r="29" spans="30:80">
       <c r="AD29" t="str">
         <f>Sheet2!C6&amp;" and percentage of solid material in debris cloud"</f>
-        <v>critical temperature and percentage of solid material in debris cloud</v>
+        <v>Voice hardening parameter and percentage of solid material in debris cloud</v>
       </c>
       <c r="AP29" t="str">
         <f>Sheet2!C6&amp; " and residual velocity"</f>
-        <v>critical temperature and residual velocity</v>
+        <v>Voice hardening parameter and residual velocity</v>
       </c>
     </row>
-    <row r="46" spans="58:58" x14ac:dyDescent="0.25">
+    <row r="46" spans="58:58">
       <c r="BF46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="50" spans="37:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="37:37">
       <c r="AK50" t="str">
         <f>Sheet2!C6&amp; " and percentage of converted particles due to temperature"</f>
-        <v>critical temperature and percentage of converted particles due to temperature</v>
+        <v>Voice hardening parameter and percentage of converted particles due to temperature</v>
       </c>
     </row>
   </sheetData>
@@ -18038,7 +18657,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayleigh\Documents\HVI share\HVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C6882B-C950-47C5-804A-F9CC2A0FAC19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EE7AEA-1AE8-4D2D-98BA-6142DDD8D4AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="-15480" windowWidth="20730" windowHeight="15600" activeTab="1" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
+    <workbookView xWindow="4095" yWindow="-15480" windowWidth="20730" windowHeight="15600" activeTab="2" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1297,39 +1297,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1379,25 +1346,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1426,6 +1381,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1435,17 +1405,47 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16372,9 +16372,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20077FD7-1EC0-41E4-96B7-2075AF4FD95D}">
   <dimension ref="B3:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R25" sqref="R25"/>
+      <selection pane="topRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16430,46 +16430,46 @@
     </row>
     <row r="5" spans="2:17">
       <c r="B5" s="26"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="129" t="s">
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="132" t="s">
         <v>152</v>
       </c>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="129" t="s">
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="M5" s="130"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="108"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="133"/>
+      <c r="O5" s="97"/>
       <c r="P5" s="26"/>
     </row>
     <row r="6" spans="2:17">
       <c r="B6" s="26"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="99" t="s">
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="101"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="144"/>
       <c r="K6" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="133" t="s">
+      <c r="L6" s="146" t="s">
         <v>133</v>
       </c>
-      <c r="M6" s="106"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="109"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="148"/>
+      <c r="O6" s="98"/>
       <c r="P6" s="84"/>
       <c r="Q6" s="5"/>
     </row>
@@ -16505,7 +16505,7 @@
       <c r="N7" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="O7" s="110"/>
+      <c r="O7" s="99"/>
       <c r="P7" s="84"/>
       <c r="Q7" s="5"/>
     </row>
@@ -16520,34 +16520,34 @@
       <c r="E8" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="147" t="s">
+      <c r="F8" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="148" t="s">
+      <c r="G8" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="148" t="s">
+      <c r="H8" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="148" t="s">
+      <c r="I8" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="149" t="s">
+      <c r="J8" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="149" t="s">
+      <c r="K8" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="147" t="s">
+      <c r="L8" s="129" t="s">
         <v>137</v>
       </c>
-      <c r="M8" s="148" t="s">
+      <c r="M8" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="N8" s="148" t="s">
+      <c r="N8" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="O8" s="111"/>
+      <c r="O8" s="100"/>
       <c r="P8" s="84"/>
       <c r="Q8" s="5"/>
     </row>
@@ -16580,13 +16580,13 @@
       <c r="K9" s="28">
         <v>7.8500000000000008E-9</v>
       </c>
-      <c r="L9" s="134">
+      <c r="L9" s="119">
         <v>4.4299999999999998E-9</v>
       </c>
-      <c r="M9" s="135">
+      <c r="M9" s="120">
         <v>4.5500000000000002E-9</v>
       </c>
-      <c r="N9" s="136">
+      <c r="N9" s="121">
         <v>4.5500000000000002E-9</v>
       </c>
       <c r="O9" s="28"/>
@@ -16621,13 +16621,13 @@
       <c r="K10" s="28">
         <v>205880</v>
       </c>
-      <c r="L10" s="134">
+      <c r="L10" s="119">
         <v>116</v>
       </c>
-      <c r="M10" s="135">
+      <c r="M10" s="120">
         <v>116</v>
       </c>
-      <c r="N10" s="135">
+      <c r="N10" s="120">
         <v>116</v>
       </c>
       <c r="O10" s="28"/>
@@ -16662,13 +16662,13 @@
       <c r="K11" s="28">
         <v>78947</v>
       </c>
-      <c r="L11" s="134">
+      <c r="L11" s="119">
         <v>38000</v>
       </c>
-      <c r="M11" s="135">
+      <c r="M11" s="120">
         <v>38000</v>
       </c>
-      <c r="N11" s="135">
+      <c r="N11" s="120">
         <v>38000</v>
       </c>
       <c r="O11" s="28"/>
@@ -16703,13 +16703,13 @@
       <c r="K12" s="29">
         <v>47</v>
       </c>
-      <c r="L12" s="134">
+      <c r="L12" s="119">
         <v>47</v>
       </c>
-      <c r="M12" s="135">
+      <c r="M12" s="120">
         <v>47</v>
       </c>
-      <c r="N12" s="135">
+      <c r="N12" s="120">
         <v>47</v>
       </c>
       <c r="O12" s="29"/>
@@ -16744,13 +16744,13 @@
       <c r="K13" s="28">
         <v>210000</v>
       </c>
-      <c r="L13" s="134">
+      <c r="L13" s="119">
         <v>114500</v>
       </c>
-      <c r="M13" s="135">
+      <c r="M13" s="120">
         <v>114500</v>
       </c>
-      <c r="N13" s="135">
+      <c r="N13" s="120">
         <v>114500</v>
       </c>
       <c r="O13" s="28"/>
@@ -16785,13 +16785,13 @@
       <c r="K14" s="29">
         <v>0.33</v>
       </c>
-      <c r="L14" s="134">
+      <c r="L14" s="119">
         <v>0.34499999999999997</v>
       </c>
-      <c r="M14" s="135">
+      <c r="M14" s="120">
         <v>0.34499999999999997</v>
       </c>
-      <c r="N14" s="135">
+      <c r="N14" s="120">
         <v>0.34499999999999997</v>
       </c>
       <c r="O14" s="29"/>
@@ -16826,9 +16826,9 @@
       <c r="K15" s="29">
         <v>0.9</v>
       </c>
-      <c r="L15" s="134"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="135"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
       <c r="O15" s="29"/>
       <c r="P15" s="85"/>
     </row>
@@ -16861,13 +16861,13 @@
       <c r="K16" s="28">
         <v>452000000</v>
       </c>
-      <c r="L16" s="137">
+      <c r="L16" s="122">
         <v>720000000</v>
       </c>
-      <c r="M16" s="136">
+      <c r="M16" s="121">
         <v>720000000</v>
       </c>
-      <c r="N16" s="136">
+      <c r="N16" s="121">
         <v>720000000</v>
       </c>
       <c r="O16" s="28"/>
@@ -16902,9 +16902,9 @@
       <c r="K17" s="28">
         <v>2.3200000000000001E-5</v>
       </c>
-      <c r="L17" s="134"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="135"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
       <c r="O17" s="28"/>
       <c r="P17" s="85"/>
     </row>
@@ -16935,13 +16935,13 @@
       <c r="K18" s="28">
         <v>1E-4</v>
       </c>
-      <c r="L18" s="138">
+      <c r="L18" s="123">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="M18" s="139">
+      <c r="M18" s="124">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="N18" s="139">
+      <c r="N18" s="124">
         <v>6.3499999999999997E-3</v>
       </c>
       <c r="O18" s="26"/>
@@ -16972,15 +16972,15 @@
       <c r="K19" s="28">
         <v>3.548</v>
       </c>
-      <c r="L19" s="137">
+      <c r="L19" s="122">
         <f>L16*L9</f>
         <v>3.1896</v>
       </c>
-      <c r="M19" s="135">
+      <c r="M19" s="120">
         <f t="shared" ref="M19:N19" si="0">M16*M9</f>
         <v>3.2760000000000002</v>
       </c>
-      <c r="N19" s="135">
+      <c r="N19" s="120">
         <f t="shared" si="0"/>
         <v>3.2760000000000002</v>
       </c>
@@ -17016,15 +17016,15 @@
       <c r="K20" s="29">
         <v>1800</v>
       </c>
-      <c r="L20" s="134">
+      <c r="L20" s="119">
         <f>1668+273</f>
         <v>1941</v>
       </c>
-      <c r="M20" s="135">
+      <c r="M20" s="120">
         <f t="shared" ref="M20:N20" si="1">1668+273</f>
         <v>1941</v>
       </c>
-      <c r="N20" s="135">
+      <c r="N20" s="120">
         <f t="shared" si="1"/>
         <v>1941</v>
       </c>
@@ -17060,7 +17060,7 @@
       <c r="K21" s="29">
         <v>293</v>
       </c>
-      <c r="L21" s="140">
+      <c r="L21" s="125">
         <v>293</v>
       </c>
       <c r="M21" s="29">
@@ -17101,7 +17101,7 @@
       <c r="K22" s="29">
         <v>293</v>
       </c>
-      <c r="L22" s="140">
+      <c r="L22" s="125">
         <v>293</v>
       </c>
       <c r="M22" s="29">
@@ -17142,9 +17142,9 @@
       <c r="K23" s="29">
         <v>893</v>
       </c>
-      <c r="L23" s="134"/>
-      <c r="M23" s="135"/>
-      <c r="N23" s="135"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="120"/>
       <c r="O23" s="26"/>
       <c r="P23" s="85"/>
     </row>
@@ -17177,13 +17177,13 @@
       <c r="K24" s="29">
         <v>325.70001000000002</v>
       </c>
-      <c r="L24" s="134">
+      <c r="L24" s="119">
         <v>900</v>
       </c>
-      <c r="M24" s="135">
+      <c r="M24" s="120">
         <v>600</v>
       </c>
-      <c r="N24" s="135">
+      <c r="N24" s="120">
         <v>500</v>
       </c>
       <c r="O24" s="26"/>
@@ -17218,13 +17218,13 @@
       <c r="K25" s="29">
         <v>0</v>
       </c>
-      <c r="L25" s="134">
+      <c r="L25" s="119">
         <v>509.75</v>
       </c>
-      <c r="M25" s="135">
+      <c r="M25" s="120">
         <v>528</v>
       </c>
-      <c r="N25" s="135">
+      <c r="N25" s="120">
         <v>353.9</v>
       </c>
       <c r="O25" s="26"/>
@@ -17259,13 +17259,13 @@
       <c r="K26" s="29">
         <v>0</v>
       </c>
-      <c r="L26" s="134">
+      <c r="L26" s="119">
         <v>0.50600000000000001</v>
       </c>
-      <c r="M26" s="135">
+      <c r="M26" s="120">
         <v>0.38600000000000001</v>
       </c>
-      <c r="N26" s="135">
+      <c r="N26" s="120">
         <v>0.50800000000000001</v>
       </c>
       <c r="O26" s="26"/>
@@ -17300,13 +17300,13 @@
       <c r="K27" s="29">
         <v>0.01</v>
       </c>
-      <c r="L27" s="134">
+      <c r="L27" s="119">
         <v>0.03</v>
       </c>
-      <c r="M27" s="135">
+      <c r="M27" s="120">
         <v>0.03</v>
       </c>
-      <c r="N27" s="135">
+      <c r="N27" s="120">
         <v>0.03</v>
       </c>
       <c r="O27" s="26"/>
@@ -17341,13 +17341,13 @@
       <c r="K28" s="29">
         <v>1</v>
       </c>
-      <c r="L28" s="134">
+      <c r="L28" s="119">
         <v>0</v>
       </c>
-      <c r="M28" s="135">
+      <c r="M28" s="120">
         <v>0</v>
       </c>
-      <c r="N28" s="135">
+      <c r="N28" s="120">
         <v>0</v>
       </c>
       <c r="O28" s="26"/>
@@ -17382,9 +17382,9 @@
       <c r="K29" s="29">
         <v>234.8</v>
       </c>
-      <c r="L29" s="134"/>
-      <c r="M29" s="135"/>
-      <c r="N29" s="135"/>
+      <c r="L29" s="119"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="120"/>
       <c r="O29" s="26"/>
       <c r="P29" s="85"/>
     </row>
@@ -17417,9 +17417,9 @@
       <c r="K30" s="29">
         <v>56.200001</v>
       </c>
-      <c r="L30" s="134"/>
-      <c r="M30" s="135"/>
-      <c r="N30" s="135"/>
+      <c r="L30" s="119"/>
+      <c r="M30" s="120"/>
+      <c r="N30" s="120"/>
       <c r="O30" s="26"/>
       <c r="P30" s="85"/>
     </row>
@@ -17452,9 +17452,9 @@
       <c r="K31" s="29">
         <v>445.70001000000002</v>
       </c>
-      <c r="L31" s="134"/>
-      <c r="M31" s="135"/>
-      <c r="N31" s="135"/>
+      <c r="L31" s="119"/>
+      <c r="M31" s="120"/>
+      <c r="N31" s="120"/>
       <c r="O31" s="26"/>
       <c r="P31" s="85"/>
     </row>
@@ -17487,9 +17487,9 @@
       <c r="K32" s="29">
         <v>4.6999997999999996</v>
       </c>
-      <c r="L32" s="134"/>
-      <c r="M32" s="135"/>
-      <c r="N32" s="135"/>
+      <c r="L32" s="119"/>
+      <c r="M32" s="120"/>
+      <c r="N32" s="120"/>
       <c r="O32" s="26"/>
       <c r="P32" s="85"/>
     </row>
@@ -17522,9 +17522,9 @@
       <c r="K33" s="29">
         <v>555</v>
       </c>
-      <c r="L33" s="134"/>
-      <c r="M33" s="135"/>
-      <c r="N33" s="135"/>
+      <c r="L33" s="119"/>
+      <c r="M33" s="120"/>
+      <c r="N33" s="120"/>
       <c r="O33" s="26"/>
       <c r="P33" s="85"/>
     </row>
@@ -17553,65 +17553,65 @@
         <v>1E-3</v>
       </c>
       <c r="K34" s="27"/>
-      <c r="L34" s="134"/>
-      <c r="M34" s="135"/>
-      <c r="N34" s="135"/>
+      <c r="L34" s="119"/>
+      <c r="M34" s="120"/>
+      <c r="N34" s="120"/>
       <c r="O34" s="26"/>
       <c r="P34" s="85"/>
     </row>
     <row r="35" spans="2:16">
       <c r="B35" s="26"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112" t="s">
+      <c r="C35" s="101"/>
+      <c r="D35" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="113" t="s">
+      <c r="E35" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="114">
+      <c r="F35" s="103">
         <v>292.60000000000002</v>
       </c>
-      <c r="G35" s="115">
+      <c r="G35" s="104">
         <v>51</v>
       </c>
-      <c r="H35" s="115">
+      <c r="H35" s="104">
         <v>187</v>
       </c>
-      <c r="I35" s="115">
+      <c r="I35" s="104">
         <v>373</v>
       </c>
-      <c r="J35" s="116">
+      <c r="J35" s="105">
         <v>341</v>
       </c>
       <c r="K35" s="27"/>
-      <c r="L35" s="134"/>
-      <c r="M35" s="135"/>
-      <c r="N35" s="135"/>
+      <c r="L35" s="119"/>
+      <c r="M35" s="120"/>
+      <c r="N35" s="120"/>
       <c r="O35" s="26"/>
       <c r="P35" s="85"/>
     </row>
     <row r="36" spans="2:16">
       <c r="B36" s="26"/>
-      <c r="C36" s="144" t="s">
+      <c r="C36" s="134" t="s">
         <v>154</v>
       </c>
       <c r="D36" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="E36" s="121"/>
+      <c r="E36" s="110"/>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
       <c r="K36" s="27"/>
-      <c r="L36" s="134" t="s">
+      <c r="L36" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="M36" s="135">
+      <c r="M36" s="120">
         <v>-0.995</v>
       </c>
-      <c r="N36" s="135" t="s">
+      <c r="N36" s="120" t="s">
         <v>146</v>
       </c>
       <c r="O36" s="26"/>
@@ -17619,24 +17619,24 @@
     </row>
     <row r="37" spans="2:16">
       <c r="B37" s="26"/>
-      <c r="C37" s="145"/>
+      <c r="C37" s="135"/>
       <c r="D37" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="121"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="117"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="118"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="107"/>
       <c r="K37" s="27"/>
-      <c r="L37" s="134">
+      <c r="L37" s="119">
         <v>1.18</v>
       </c>
-      <c r="M37" s="135">
+      <c r="M37" s="120">
         <v>1.45</v>
       </c>
-      <c r="N37" s="135">
+      <c r="N37" s="120">
         <v>1.6850000000000001</v>
       </c>
       <c r="O37" s="26"/>
@@ -17644,24 +17644,24 @@
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="26"/>
-      <c r="C38" s="145"/>
+      <c r="C38" s="135"/>
       <c r="D38" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="E38" s="121"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="116"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="105"/>
       <c r="K38" s="27"/>
-      <c r="L38" s="134" t="s">
+      <c r="L38" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="M38" s="135" t="s">
+      <c r="M38" s="120" t="s">
         <v>145</v>
       </c>
-      <c r="N38" s="135" t="s">
+      <c r="N38" s="120" t="s">
         <v>147</v>
       </c>
       <c r="O38" s="26"/>
@@ -17669,24 +17669,24 @@
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="26"/>
-      <c r="C39" s="145"/>
+      <c r="C39" s="135"/>
       <c r="D39" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="E39" s="121"/>
-      <c r="F39" s="120"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="116"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="105"/>
       <c r="K39" s="27"/>
-      <c r="L39" s="134" t="s">
+      <c r="L39" s="119" t="s">
         <v>148</v>
       </c>
-      <c r="M39" s="135" t="s">
+      <c r="M39" s="120" t="s">
         <v>148</v>
       </c>
-      <c r="N39" s="135">
+      <c r="N39" s="120">
         <v>2.4E-2</v>
       </c>
       <c r="O39" s="26"/>
@@ -17694,24 +17694,24 @@
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="26"/>
-      <c r="C40" s="146"/>
-      <c r="D40" s="112" t="s">
+      <c r="C40" s="136"/>
+      <c r="D40" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="E40" s="126"/>
+      <c r="E40" s="115"/>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
       <c r="I40" s="29"/>
       <c r="J40" s="29"/>
       <c r="K40" s="27"/>
-      <c r="L40" s="134">
+      <c r="L40" s="119">
         <v>0</v>
       </c>
-      <c r="M40" s="135">
+      <c r="M40" s="120">
         <v>0</v>
       </c>
-      <c r="N40" s="135">
+      <c r="N40" s="120">
         <v>0</v>
       </c>
       <c r="O40" s="26"/>
@@ -17722,23 +17722,23 @@
       <c r="C41" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="D41" s="122"/>
-      <c r="E41" s="123" t="s">
+      <c r="D41" s="111"/>
+      <c r="E41" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="124"/>
+      <c r="F41" s="113"/>
       <c r="G41" s="87"/>
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
       <c r="J41" s="87"/>
       <c r="K41" s="86"/>
-      <c r="L41" s="141">
+      <c r="L41" s="126">
         <v>1000</v>
       </c>
-      <c r="M41" s="125">
+      <c r="M41" s="114">
         <v>800</v>
       </c>
-      <c r="N41" s="125">
+      <c r="N41" s="114">
         <v>600</v>
       </c>
       <c r="O41" s="87"/>
@@ -17766,8 +17766,8 @@
       <c r="J42" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="K42" s="131"/>
-      <c r="L42" s="142"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="127"/>
       <c r="M42" s="59"/>
       <c r="N42" s="27"/>
       <c r="O42" s="26"/>
@@ -17781,20 +17781,20 @@
       <c r="D43" s="31"/>
       <c r="E43" s="81"/>
       <c r="F43" s="83"/>
-      <c r="G43" s="102" t="s">
+      <c r="G43" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="H43" s="102"/>
-      <c r="I43" s="102"/>
-      <c r="J43" s="102"/>
-      <c r="K43" s="132" t="s">
+      <c r="H43" s="145"/>
+      <c r="I43" s="145"/>
+      <c r="J43" s="145"/>
+      <c r="K43" s="118" t="s">
         <v>125</v>
       </c>
-      <c r="L43" s="150" t="s">
+      <c r="L43" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="M43" s="127"/>
-      <c r="N43" s="127"/>
+      <c r="M43" s="138"/>
+      <c r="N43" s="138"/>
       <c r="O43" s="26"/>
       <c r="P43" s="26"/>
     </row>
@@ -17820,10 +17820,10 @@
       <c r="J44" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="K44" s="132" t="s">
+      <c r="K44" s="118" t="s">
         <v>122</v>
       </c>
-      <c r="L44" s="143"/>
+      <c r="L44" s="128"/>
       <c r="M44" s="34"/>
       <c r="N44" s="27"/>
       <c r="O44" s="26"/>
@@ -17901,17 +17901,17 @@
     </row>
     <row r="49" spans="2:16">
       <c r="B49" s="26"/>
-      <c r="C49" s="103" t="s">
+      <c r="C49" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="103"/>
-      <c r="K49" s="103"/>
+      <c r="D49" s="139"/>
+      <c r="E49" s="139"/>
+      <c r="F49" s="139"/>
+      <c r="G49" s="139"/>
+      <c r="H49" s="139"/>
+      <c r="I49" s="139"/>
+      <c r="J49" s="139"/>
+      <c r="K49" s="139"/>
       <c r="L49" s="27"/>
       <c r="M49" s="27"/>
       <c r="N49" s="27"/>
@@ -17920,16 +17920,16 @@
     </row>
     <row r="50" spans="2:16">
       <c r="B50" s="26"/>
-      <c r="C50" s="103" t="s">
+      <c r="C50" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103"/>
-      <c r="J50" s="103"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
+      <c r="G50" s="139"/>
+      <c r="H50" s="139"/>
+      <c r="I50" s="139"/>
+      <c r="J50" s="139"/>
       <c r="K50" s="27"/>
       <c r="L50" s="27"/>
       <c r="M50" s="27"/>
@@ -18010,8 +18010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F425B10-5B6F-4D38-8EC8-85892A4FDDD6}">
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18029,24 +18029,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="C2" s="105"/>
-      <c r="D2" s="104"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="149"/>
       <c r="E2" s="88"/>
-      <c r="F2" s="104" t="s">
+      <c r="F2" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
       <c r="K2" s="39" t="s">
         <v>60</v>
       </c>
       <c r="L2" s="26"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="C3" s="105"/>
-      <c r="D3" s="104"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="149"/>
       <c r="E3" s="88"/>
       <c r="F3" s="39" t="s">
         <v>54</v>
@@ -18541,7 +18541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20CB03-FDC1-47B9-AF99-E205AFF1D2E2}">
   <dimension ref="C2:CB50"/>
   <sheetViews>
-    <sheetView topLeftCell="Z28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AY57" sqref="AY57"/>
     </sheetView>
   </sheetViews>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayleigh\Documents\HVI share\HVI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c4e1f6e80555f8e/Documenten/Internship/Project/Shared folder/HVI/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EE7AEA-1AE8-4D2D-98BA-6142DDD8D4AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{E8EE7AEA-1AE8-4D2D-98BA-6142DDD8D4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9629517A-0625-4FFC-9C0B-2138227043AB}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="-15480" windowWidth="20730" windowHeight="15600" activeTab="2" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
+    <workbookView xWindow="4095" yWindow="-15480" windowWidth="20730" windowHeight="15600" activeTab="1" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="163">
   <si>
     <t>Al 7005</t>
   </si>
@@ -527,6 +536,24 @@
     <t>*** Determination and verification of Johnson–Cook model parameters at high-speed deformation of titanium alloys
 Author links open overlay panelA.E.BuzyurkinaI.L.GladkybE.I.Krausa</t>
   </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>****Ballistic impact simulation of GT model vehicle door using finite element method</t>
+  </si>
+  <si>
+    <t>****</t>
+  </si>
+  <si>
+    <t>Mie-Gruneisen EOS constants</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>gamma0</t>
+  </si>
 </sst>
 </file>
 
@@ -535,7 +562,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,7 +683,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -723,15 +750,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1041,32 +1059,6 @@
       <top style="thin">
         <color theme="2" tint="-9.9978637043366805E-2"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1103,11 +1095,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1151,175 +1281,168 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="9" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="9" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="9" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1331,28 +1454,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1372,38 +1486,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1414,38 +1522,121 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1537,7 +1728,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2092,7 +2283,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2130,7 +2321,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -2223,7 +2414,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2261,7 +2452,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -2303,7 +2494,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2340,7 +2531,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2424,7 +2615,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2885,7 +3076,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2923,7 +3114,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -3032,7 +3223,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3070,7 +3261,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -3112,7 +3303,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3149,7 +3340,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3233,7 +3424,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3783,7 +3974,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3821,7 +4012,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -3914,7 +4105,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3952,7 +4143,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -3994,7 +4185,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4031,7 +4222,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4149,7 +4340,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4699,7 +4890,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4737,7 +4928,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -4830,7 +5021,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4868,7 +5059,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -4910,7 +5101,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4947,7 +5138,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5031,7 +5222,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5573,7 +5764,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5611,7 +5802,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -5712,7 +5903,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5750,7 +5941,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -5792,7 +5983,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5829,7 +6020,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5947,7 +6138,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6489,7 +6680,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6527,7 +6718,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -6636,7 +6827,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6674,7 +6865,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -6716,7 +6907,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6753,7 +6944,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6823,7 +7014,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7292,7 +7483,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7330,7 +7521,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -7423,7 +7614,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7461,7 +7652,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -7503,7 +7694,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7540,7 +7731,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7610,7 +7801,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8079,7 +8270,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8117,7 +8308,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -8210,7 +8401,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8248,7 +8439,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -8290,7 +8481,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8327,7 +8518,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8411,7 +8602,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8880,7 +9071,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8918,7 +9109,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -9011,7 +9202,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9049,7 +9240,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -9091,7 +9282,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9128,7 +9319,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9198,7 +9389,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9659,7 +9850,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9697,7 +9888,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -9798,7 +9989,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nb-NO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9836,7 +10027,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -9878,7 +10069,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9915,7 +10106,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16174,24 +16365,24 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="78.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="17.25" customHeight="1">
+    <row r="4" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="21" customHeight="1">
+    <row r="5" spans="3:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="17" t="s">
         <v>23</v>
       </c>
@@ -16199,53 +16390,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" s="18"/>
       <c r="D6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="3:4">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="19"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="3:4">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" s="20"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="3:4">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="3:4">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" s="22"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="3:4">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" s="23"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="3:4">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="3:4">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" s="19"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="3:4">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" s="20"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
@@ -16256,7 +16447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>18</v>
@@ -16265,21 +16456,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
         <v>15</v>
@@ -16288,21 +16479,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -16311,21 +16502,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="3:5">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:5">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="3:5">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
@@ -16334,28 +16525,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:5">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:5">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="3:5">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:5">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="16" t="s">
@@ -16370,14 +16561,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20077FD7-1EC0-41E4-96B7-2075AF4FD95D}">
-  <dimension ref="B3:Q53"/>
+  <dimension ref="B3:R57"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="33.140625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -16387,14 +16578,14 @@
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -16410,8 +16601,9 @@
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -16427,53 +16619,56 @@
       <c r="N4" s="26"/>
       <c r="O4" s="26"/>
       <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="132" t="s">
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="125" t="s">
         <v>152</v>
       </c>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="132" t="s">
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="125" t="s">
         <v>153</v>
       </c>
-      <c r="M5" s="133"/>
-      <c r="N5" s="133"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="26"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="26"/>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142" t="s">
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="95" t="s">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="146" t="s">
+      <c r="L6" s="155"/>
+      <c r="M6" s="136" t="s">
         <v>133</v>
       </c>
-      <c r="M6" s="147"/>
-      <c r="N6" s="148"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="5"/>
+      <c r="N6" s="137"/>
+      <c r="O6" s="138"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
@@ -16493,23 +16688,26 @@
       <c r="J7" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="95" t="s">
+      <c r="K7" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="157" t="s">
+        <v>157</v>
+      </c>
+      <c r="M7" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="M7" s="94" t="s">
+      <c r="N7" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="N7" s="94" t="s">
+      <c r="O7" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="O7" s="99"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="5"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="2:17" ht="16.5" customHeight="1" thickBot="1">
+    <row r="8" spans="2:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="26"/>
       <c r="C8" s="64" t="s">
         <v>65</v>
@@ -16520,38 +16718,41 @@
       <c r="E8" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="129" t="s">
+      <c r="F8" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="130" t="s">
+      <c r="G8" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="130" t="s">
+      <c r="H8" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="130" t="s">
+      <c r="I8" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="131" t="s">
+      <c r="J8" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="131" t="s">
+      <c r="K8" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="129" t="s">
+      <c r="L8" s="159">
+        <v>4340</v>
+      </c>
+      <c r="M8" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="M8" s="130" t="s">
+      <c r="N8" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="N8" s="130" t="s">
+      <c r="O8" s="121" t="s">
         <v>139</v>
       </c>
-      <c r="O8" s="100"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="5"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="26"/>
       <c r="C9" s="57" t="s">
         <v>68</v>
@@ -16577,22 +16778,25 @@
       <c r="J9" s="67">
         <v>2.7000000000000002E-9</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="160">
         <v>7.8500000000000008E-9</v>
       </c>
-      <c r="L9" s="119">
+      <c r="L9" s="161">
+        <v>7.8500000000000008E-9</v>
+      </c>
+      <c r="M9" s="111">
         <v>4.4299999999999998E-9</v>
       </c>
-      <c r="M9" s="120">
+      <c r="N9" s="112">
         <v>4.5500000000000002E-9</v>
       </c>
-      <c r="N9" s="121">
+      <c r="O9" s="113">
         <v>4.5500000000000002E-9</v>
       </c>
-      <c r="O9" s="28"/>
-      <c r="P9" s="85"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="84"/>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="26"/>
       <c r="C10" s="32" t="s">
         <v>70</v>
@@ -16618,22 +16822,26 @@
       <c r="J10" s="68">
         <v>58333.33</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="160">
         <v>205880</v>
       </c>
-      <c r="L10" s="119">
+      <c r="L10" s="161">
+        <f>L13/(3*(1-2*L14))</f>
+        <v>174999.99999999997</v>
+      </c>
+      <c r="M10" s="111">
         <v>116</v>
       </c>
-      <c r="M10" s="120">
+      <c r="N10" s="112">
         <v>116</v>
       </c>
-      <c r="N10" s="120">
+      <c r="O10" s="112">
         <v>116</v>
       </c>
-      <c r="O10" s="28"/>
-      <c r="P10" s="85"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="84"/>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="26"/>
       <c r="C11" s="32" t="s">
         <v>73</v>
@@ -16659,22 +16867,26 @@
       <c r="J11" s="68">
         <v>26923.08</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="160">
         <v>78947</v>
       </c>
-      <c r="L11" s="119">
+      <c r="L11" s="161">
+        <f>L13/(2*(1+L14))</f>
+        <v>80769.230769230766</v>
+      </c>
+      <c r="M11" s="111">
         <v>38000</v>
       </c>
-      <c r="M11" s="120">
+      <c r="N11" s="112">
         <v>38000</v>
       </c>
-      <c r="N11" s="120">
+      <c r="O11" s="112">
         <v>38000</v>
       </c>
-      <c r="O11" s="28"/>
-      <c r="P11" s="85"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="84"/>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="26"/>
       <c r="C12" s="32" t="s">
         <v>75</v>
@@ -16700,22 +16912,25 @@
       <c r="J12" s="68">
         <v>47</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="117">
         <v>47</v>
       </c>
-      <c r="L12" s="119">
+      <c r="L12" s="162">
         <v>47</v>
       </c>
-      <c r="M12" s="120">
+      <c r="M12" s="111">
         <v>47</v>
       </c>
-      <c r="N12" s="120">
+      <c r="N12" s="112">
         <v>47</v>
       </c>
-      <c r="O12" s="29"/>
-      <c r="P12" s="85"/>
+      <c r="O12" s="112">
+        <v>47</v>
+      </c>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="84"/>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="26"/>
       <c r="C13" s="32" t="s">
         <v>77</v>
@@ -16741,22 +16956,25 @@
       <c r="J13" s="68">
         <v>70000</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="160">
         <v>210000</v>
       </c>
-      <c r="L13" s="119">
+      <c r="L13" s="161">
+        <v>210000</v>
+      </c>
+      <c r="M13" s="111">
         <v>114500</v>
       </c>
-      <c r="M13" s="120">
+      <c r="N13" s="112">
         <v>114500</v>
       </c>
-      <c r="N13" s="120">
+      <c r="O13" s="112">
         <v>114500</v>
       </c>
-      <c r="O13" s="28"/>
-      <c r="P13" s="85"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="84"/>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="26"/>
       <c r="C14" s="32" t="s">
         <v>79</v>
@@ -16782,22 +17000,25 @@
       <c r="J14" s="68">
         <v>0.3</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="117">
         <v>0.33</v>
       </c>
-      <c r="L14" s="119">
+      <c r="L14" s="162">
+        <v>0.3</v>
+      </c>
+      <c r="M14" s="111">
         <v>0.34499999999999997</v>
       </c>
-      <c r="M14" s="120">
+      <c r="N14" s="112">
         <v>0.34499999999999997</v>
       </c>
-      <c r="N14" s="120">
+      <c r="O14" s="112">
         <v>0.34499999999999997</v>
       </c>
-      <c r="O14" s="29"/>
-      <c r="P14" s="85"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="84"/>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="26"/>
       <c r="C15" s="32" t="s">
         <v>81</v>
@@ -16823,16 +17044,17 @@
       <c r="J15" s="68">
         <v>0.9</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="117">
         <v>0.9</v>
       </c>
-      <c r="L15" s="119"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="85"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="84"/>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="26"/>
       <c r="C16" s="32" t="s">
         <v>83</v>
@@ -16858,22 +17080,25 @@
       <c r="J16" s="69">
         <v>910000000</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="160">
         <v>452000000</v>
       </c>
-      <c r="L16" s="122">
+      <c r="L16" s="161">
+        <v>452000000</v>
+      </c>
+      <c r="M16" s="114">
         <v>720000000</v>
       </c>
-      <c r="M16" s="121">
+      <c r="N16" s="113">
         <v>720000000</v>
       </c>
-      <c r="N16" s="121">
+      <c r="O16" s="113">
         <v>720000000</v>
       </c>
-      <c r="O16" s="28"/>
-      <c r="P16" s="85"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="84"/>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
       <c r="C17" s="32" t="s">
         <v>86</v>
@@ -16899,16 +17124,19 @@
       <c r="J17" s="70">
         <v>2.3200000000000001E-5</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="160">
         <v>2.3200000000000001E-5</v>
       </c>
-      <c r="L17" s="119"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="120"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="85"/>
+      <c r="L17" s="161">
+        <v>2.3200000000000001E-5</v>
+      </c>
+      <c r="M17" s="111"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="84"/>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
       <c r="C18" s="32" t="s">
         <v>89</v>
@@ -16932,22 +17160,25 @@
       <c r="J18" s="69">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="160">
         <v>1E-4</v>
       </c>
-      <c r="L18" s="123">
+      <c r="L18" s="161">
+        <v>1E-4</v>
+      </c>
+      <c r="M18" s="115">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="M18" s="124">
+      <c r="N18" s="116">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="N18" s="124">
+      <c r="O18" s="116">
         <v>6.3499999999999997E-3</v>
       </c>
-      <c r="O18" s="26"/>
-      <c r="P18" s="85"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="84"/>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
       <c r="C19" s="32"/>
       <c r="D19" s="32" t="s">
@@ -16969,25 +17200,29 @@
       <c r="J19" s="69">
         <v>2.4569999999999999</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="160">
         <v>3.548</v>
       </c>
-      <c r="L19" s="122">
+      <c r="L19" s="161">
         <f>L16*L9</f>
+        <v>3.5482000000000005</v>
+      </c>
+      <c r="M19" s="114">
+        <f>M16*M9</f>
         <v>3.1896</v>
       </c>
-      <c r="M19" s="120">
-        <f t="shared" ref="M19:N19" si="0">M16*M9</f>
+      <c r="N19" s="112">
+        <f t="shared" ref="N19:O19" si="0">N16*N9</f>
         <v>3.2760000000000002</v>
       </c>
-      <c r="N19" s="120">
+      <c r="O19" s="112">
         <f t="shared" si="0"/>
         <v>3.2760000000000002</v>
       </c>
-      <c r="O19" s="26"/>
-      <c r="P19" s="85"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="84"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
       <c r="C20" s="37" t="s">
         <v>92</v>
@@ -17013,25 +17248,28 @@
       <c r="J20" s="68">
         <v>893</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="117">
         <v>1800</v>
       </c>
-      <c r="L20" s="119">
+      <c r="L20" s="162">
+        <v>1800</v>
+      </c>
+      <c r="M20" s="111">
         <f>1668+273</f>
         <v>1941</v>
       </c>
-      <c r="M20" s="120">
-        <f t="shared" ref="M20:N20" si="1">1668+273</f>
+      <c r="N20" s="112">
+        <f t="shared" ref="N20:O20" si="1">1668+273</f>
         <v>1941</v>
       </c>
-      <c r="N20" s="120">
+      <c r="O20" s="112">
         <f t="shared" si="1"/>
         <v>1941</v>
       </c>
-      <c r="O20" s="26"/>
-      <c r="P20" s="85"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="84"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
       <c r="C21" s="37" t="s">
         <v>94</v>
@@ -17057,22 +17295,25 @@
       <c r="J21" s="68">
         <v>293</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="117">
         <v>293</v>
       </c>
-      <c r="L21" s="125">
+      <c r="L21" s="162">
         <v>293</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="117">
         <v>293</v>
       </c>
       <c r="N21" s="29">
         <v>293</v>
       </c>
-      <c r="O21" s="26"/>
-      <c r="P21" s="85"/>
+      <c r="O21" s="29">
+        <v>293</v>
+      </c>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="84"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="C22" s="37" t="s">
         <v>96</v>
@@ -17098,22 +17339,25 @@
       <c r="J22" s="68">
         <v>293</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="117">
         <v>293</v>
       </c>
-      <c r="L22" s="125">
+      <c r="L22" s="162">
         <v>293</v>
       </c>
-      <c r="M22" s="29">
+      <c r="M22" s="117">
         <v>293</v>
       </c>
       <c r="N22" s="29">
         <v>293</v>
       </c>
-      <c r="O22" s="26"/>
-      <c r="P22" s="85"/>
+      <c r="O22" s="29">
+        <v>293</v>
+      </c>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="84"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="26"/>
       <c r="C23" s="37" t="s">
         <v>98</v>
@@ -17139,16 +17383,19 @@
       <c r="J23" s="68">
         <v>893</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="117">
         <v>893</v>
       </c>
-      <c r="L23" s="119"/>
-      <c r="M23" s="120"/>
-      <c r="N23" s="120"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="85"/>
+      <c r="L23" s="162">
+        <v>893</v>
+      </c>
+      <c r="M23" s="111"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="84"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="26"/>
       <c r="C24" s="32" t="s">
         <v>128</v>
@@ -17174,22 +17421,25 @@
       <c r="J24" s="68">
         <v>292.5</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="117">
         <v>325.70001000000002</v>
       </c>
-      <c r="L24" s="119">
+      <c r="L24" s="162">
+        <v>910</v>
+      </c>
+      <c r="M24" s="111">
         <v>900</v>
       </c>
-      <c r="M24" s="120">
+      <c r="N24" s="112">
         <v>600</v>
       </c>
-      <c r="N24" s="120">
+      <c r="O24" s="112">
         <v>500</v>
       </c>
-      <c r="O24" s="26"/>
-      <c r="P24" s="85"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="84"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
       <c r="C25" s="32" t="s">
         <v>129</v>
@@ -17215,22 +17465,25 @@
       <c r="J25" s="68">
         <v>2.69</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K25" s="117">
         <v>0</v>
       </c>
-      <c r="L25" s="119">
+      <c r="L25" s="162">
+        <v>586</v>
+      </c>
+      <c r="M25" s="111">
         <v>509.75</v>
       </c>
-      <c r="M25" s="120">
+      <c r="N25" s="112">
         <v>528</v>
       </c>
-      <c r="N25" s="120">
+      <c r="O25" s="112">
         <v>353.9</v>
       </c>
-      <c r="O25" s="26"/>
-      <c r="P25" s="85"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="84"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
       <c r="C26" s="32" t="s">
         <v>130</v>
@@ -17256,22 +17509,25 @@
       <c r="J26" s="68">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="K26" s="29">
+      <c r="K26" s="117">
         <v>0</v>
       </c>
-      <c r="L26" s="119">
+      <c r="L26" s="162">
+        <v>0.26</v>
+      </c>
+      <c r="M26" s="111">
         <v>0.50600000000000001</v>
       </c>
-      <c r="M26" s="120">
+      <c r="N26" s="112">
         <v>0.38600000000000001</v>
       </c>
-      <c r="N26" s="120">
+      <c r="O26" s="112">
         <v>0.50800000000000001</v>
       </c>
-      <c r="O26" s="26"/>
-      <c r="P26" s="85"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="84"/>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="26"/>
       <c r="C27" s="32" t="s">
         <v>131</v>
@@ -17297,22 +17553,25 @@
       <c r="J27" s="68">
         <v>0.105</v>
       </c>
-      <c r="K27" s="29">
+      <c r="K27" s="117">
         <v>0.01</v>
       </c>
-      <c r="L27" s="119">
+      <c r="L27" s="162">
+        <v>1.4E-2</v>
+      </c>
+      <c r="M27" s="111">
         <v>0.03</v>
       </c>
-      <c r="M27" s="120">
+      <c r="N27" s="112">
         <v>0.03</v>
       </c>
-      <c r="N27" s="120">
+      <c r="O27" s="112">
         <v>0.03</v>
       </c>
-      <c r="O27" s="26"/>
-      <c r="P27" s="85"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="84"/>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="26"/>
       <c r="C28" s="32" t="s">
         <v>132</v>
@@ -17338,22 +17597,25 @@
       <c r="J28" s="68">
         <v>1</v>
       </c>
-      <c r="K28" s="29">
+      <c r="K28" s="117">
         <v>1</v>
       </c>
-      <c r="L28" s="119">
+      <c r="L28" s="162">
+        <v>1.03</v>
+      </c>
+      <c r="M28" s="111">
         <v>0</v>
       </c>
-      <c r="M28" s="120">
+      <c r="N28" s="112">
         <v>0</v>
       </c>
-      <c r="N28" s="120">
+      <c r="O28" s="112">
         <v>0</v>
       </c>
-      <c r="O28" s="26"/>
-      <c r="P28" s="85"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="84"/>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="26"/>
       <c r="C29" s="37" t="s">
         <v>105</v>
@@ -17379,16 +17641,17 @@
       <c r="J29" s="68">
         <v>55.3</v>
       </c>
-      <c r="K29" s="29">
+      <c r="K29" s="117">
         <v>234.8</v>
       </c>
-      <c r="L29" s="119"/>
-      <c r="M29" s="120"/>
-      <c r="N29" s="120"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="85"/>
+      <c r="L29" s="162"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="84"/>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="26"/>
       <c r="C30" s="37" t="s">
         <v>105</v>
@@ -17414,16 +17677,17 @@
       <c r="J30" s="68">
         <v>317.2</v>
       </c>
-      <c r="K30" s="29">
+      <c r="K30" s="117">
         <v>56.200001</v>
       </c>
-      <c r="L30" s="119"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="120"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="85"/>
+      <c r="L30" s="162"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="84"/>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="26"/>
       <c r="C31" s="37" t="s">
         <v>105</v>
@@ -17449,16 +17713,17 @@
       <c r="J31" s="68">
         <v>31.1</v>
       </c>
-      <c r="K31" s="29">
+      <c r="K31" s="117">
         <v>445.70001000000002</v>
       </c>
-      <c r="L31" s="119"/>
-      <c r="M31" s="120"/>
-      <c r="N31" s="120"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="85"/>
+      <c r="L31" s="162"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="84"/>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="26"/>
       <c r="C32" s="37" t="s">
         <v>105</v>
@@ -17484,16 +17749,17 @@
       <c r="J32" s="68">
         <v>10</v>
       </c>
-      <c r="K32" s="29">
+      <c r="K32" s="117">
         <v>4.6999997999999996</v>
       </c>
-      <c r="L32" s="119"/>
-      <c r="M32" s="120"/>
-      <c r="N32" s="120"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="85"/>
+      <c r="L32" s="162"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="112"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="84"/>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="26"/>
       <c r="C33" s="37" t="s">
         <v>110</v>
@@ -17519,16 +17785,17 @@
       <c r="J33" s="68">
         <v>128</v>
       </c>
-      <c r="K33" s="29">
+      <c r="K33" s="117">
         <v>555</v>
       </c>
-      <c r="L33" s="119"/>
-      <c r="M33" s="120"/>
-      <c r="N33" s="120"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="85"/>
+      <c r="L33" s="162"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="112"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="84"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="26"/>
       <c r="C34" s="32"/>
       <c r="D34" s="32" t="s">
@@ -17552,454 +17819,588 @@
       <c r="J34" s="68">
         <v>1E-3</v>
       </c>
-      <c r="K34" s="27"/>
-      <c r="L34" s="119"/>
-      <c r="M34" s="120"/>
-      <c r="N34" s="120"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="85"/>
+      <c r="K34" s="163"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="112"/>
+      <c r="O34" s="112"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="84"/>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="26"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101" t="s">
+      <c r="C35" s="97"/>
+      <c r="D35" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="102" t="s">
+      <c r="E35" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="103">
+      <c r="F35" s="99">
         <v>292.60000000000002</v>
       </c>
-      <c r="G35" s="104">
+      <c r="G35" s="100">
         <v>51</v>
       </c>
-      <c r="H35" s="104">
+      <c r="H35" s="100">
         <v>187</v>
       </c>
-      <c r="I35" s="104">
+      <c r="I35" s="100">
         <v>373</v>
       </c>
-      <c r="J35" s="105">
+      <c r="J35" s="101">
         <v>341</v>
       </c>
-      <c r="K35" s="27"/>
-      <c r="L35" s="119"/>
-      <c r="M35" s="120"/>
-      <c r="N35" s="120"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="85"/>
+      <c r="K35" s="163"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="111"/>
+      <c r="N35" s="112"/>
+      <c r="O35" s="112"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="84"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="26"/>
-      <c r="C36" s="134" t="s">
+      <c r="C36" s="151" t="s">
         <v>154</v>
       </c>
       <c r="D36" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="E36" s="110"/>
+      <c r="E36" s="106"/>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="119" t="s">
+      <c r="K36" s="163"/>
+      <c r="L36" s="148">
+        <v>-0.8</v>
+      </c>
+      <c r="M36" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="M36" s="120">
+      <c r="N36" s="112">
         <v>-0.995</v>
       </c>
-      <c r="N36" s="120" t="s">
+      <c r="O36" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="O36" s="26"/>
-      <c r="P36" s="85"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="84"/>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="26"/>
-      <c r="C37" s="135"/>
+      <c r="C37" s="152"/>
       <c r="D37" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="110"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="119">
+      <c r="E37" s="106"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="163"/>
+      <c r="L37" s="148">
+        <v>2.1</v>
+      </c>
+      <c r="M37" s="111">
         <v>1.18</v>
       </c>
-      <c r="M37" s="120">
+      <c r="N37" s="112">
         <v>1.45</v>
       </c>
-      <c r="N37" s="120">
+      <c r="O37" s="112">
         <v>1.6850000000000001</v>
       </c>
-      <c r="O37" s="26"/>
-      <c r="P37" s="85"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="84"/>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="26"/>
-      <c r="C38" s="135"/>
+      <c r="C38" s="152"/>
       <c r="D38" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="E38" s="110"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="119" t="s">
+      <c r="E38" s="106"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="101"/>
+      <c r="K38" s="163"/>
+      <c r="L38" s="148">
+        <v>-0.5</v>
+      </c>
+      <c r="M38" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="M38" s="120" t="s">
+      <c r="N38" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="N38" s="120" t="s">
+      <c r="O38" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="O38" s="26"/>
-      <c r="P38" s="85"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="84"/>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="26"/>
-      <c r="C39" s="135"/>
+      <c r="C39" s="152"/>
       <c r="D39" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="E39" s="110"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="104"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="119" t="s">
+      <c r="E39" s="106"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="163"/>
+      <c r="L39" s="148">
+        <v>2E-3</v>
+      </c>
+      <c r="M39" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="M39" s="120" t="s">
+      <c r="N39" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="N39" s="120">
+      <c r="O39" s="112">
         <v>2.4E-2</v>
       </c>
-      <c r="O39" s="26"/>
-      <c r="P39" s="85"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="84"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="26"/>
-      <c r="C40" s="136"/>
-      <c r="D40" s="101" t="s">
+      <c r="C40" s="152"/>
+      <c r="D40" s="97" t="s">
         <v>144</v>
       </c>
-      <c r="E40" s="115"/>
+      <c r="E40" s="107"/>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
       <c r="I40" s="29"/>
       <c r="J40" s="29"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="119">
+      <c r="K40" s="163"/>
+      <c r="L40" s="148">
+        <v>0.61</v>
+      </c>
+      <c r="M40" s="111">
         <v>0</v>
       </c>
-      <c r="M40" s="120">
+      <c r="N40" s="112">
         <v>0</v>
       </c>
-      <c r="N40" s="120">
+      <c r="O40" s="112">
         <v>0</v>
       </c>
-      <c r="O40" s="26"/>
-      <c r="P40" s="85"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="84"/>
     </row>
-    <row r="41" spans="2:16" ht="15.75" thickBot="1">
+    <row r="41" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="26"/>
-      <c r="C41" s="79" t="s">
+      <c r="C41" s="149" t="s">
         <v>151</v>
       </c>
-      <c r="D41" s="111"/>
-      <c r="E41" s="112" t="s">
+      <c r="D41" s="150"/>
+      <c r="E41" s="150" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="113"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="86"/>
-      <c r="L41" s="126">
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="163"/>
+      <c r="L41" s="148">
+        <v>745</v>
+      </c>
+      <c r="M41" s="112">
         <v>1000</v>
       </c>
-      <c r="M41" s="114">
+      <c r="N41" s="112">
         <v>800</v>
       </c>
-      <c r="N41" s="114">
+      <c r="O41" s="112">
         <v>600</v>
       </c>
-      <c r="O41" s="87"/>
-      <c r="P41" s="85"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="84"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="26"/>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="153" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="150" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="150" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="163"/>
+      <c r="L42" s="148">
+        <v>164</v>
+      </c>
+      <c r="M42" s="111"/>
+      <c r="N42" s="112"/>
+      <c r="O42" s="112"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+    </row>
+    <row r="43" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="26"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="150" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="150" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="163"/>
+      <c r="L43" s="148">
+        <v>294</v>
+      </c>
+      <c r="M43" s="111"/>
+      <c r="N43" s="112"/>
+      <c r="O43" s="112"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+    </row>
+    <row r="44" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="26"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="150" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" s="150" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="163"/>
+      <c r="L44" s="148">
+        <v>500</v>
+      </c>
+      <c r="M44" s="111"/>
+      <c r="N44" s="112"/>
+      <c r="O44" s="112"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+    </row>
+    <row r="45" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="26"/>
+      <c r="C45" s="154"/>
+      <c r="D45" s="142" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="143" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" s="144"/>
+      <c r="G45" s="145"/>
+      <c r="H45" s="145"/>
+      <c r="I45" s="145"/>
+      <c r="J45" s="145"/>
+      <c r="K45" s="164"/>
+      <c r="L45" s="165">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="M45" s="146"/>
+      <c r="N45" s="147"/>
+      <c r="O45" s="147"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="26"/>
+      <c r="C46" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="60"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="82" t="s">
+      <c r="D46" s="60"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="G42" s="61" t="s">
+      <c r="G46" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="H42" s="61" t="s">
+      <c r="H46" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="I42" s="61" t="s">
+      <c r="I46" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="J42" s="61" t="s">
+      <c r="J46" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="K42" s="117"/>
-      <c r="L42" s="127"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
+      <c r="K46" s="166"/>
+      <c r="L46" s="167"/>
+      <c r="M46" s="118"/>
+      <c r="N46" s="59"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
     </row>
-    <row r="43" spans="2:16">
-      <c r="B43" s="26"/>
-      <c r="C43" s="31" t="s">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="26"/>
+      <c r="C47" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="145" t="s">
+      <c r="D47" s="31"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="H43" s="145"/>
-      <c r="I43" s="145"/>
-      <c r="J43" s="145"/>
-      <c r="K43" s="118" t="s">
+      <c r="H47" s="135"/>
+      <c r="I47" s="135"/>
+      <c r="J47" s="156"/>
+      <c r="K47" s="168" t="s">
         <v>125</v>
       </c>
-      <c r="L43" s="137" t="s">
+      <c r="L47" s="169" t="s">
+        <v>159</v>
+      </c>
+      <c r="M47" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="M43" s="138"/>
-      <c r="N43" s="138"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
+      <c r="N47" s="128"/>
+      <c r="O47" s="128"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
     </row>
-    <row r="44" spans="2:16">
-      <c r="B44" s="26"/>
-      <c r="C44" s="31" t="s">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="26"/>
+      <c r="C48" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="83" t="s">
+      <c r="D48" s="31"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="G44" s="38" t="s">
+      <c r="G48" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="H44" s="38" t="s">
+      <c r="H48" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="I44" s="38" t="s">
+      <c r="I48" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="J44" s="38" t="s">
+      <c r="J48" s="110" t="s">
         <v>122</v>
       </c>
-      <c r="K44" s="118" t="s">
+      <c r="K48" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="L44" s="128"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
+      <c r="L48" s="170"/>
+      <c r="M48" s="119"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
     </row>
-    <row r="45" spans="2:16">
-      <c r="B45" s="26"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-    </row>
-    <row r="46" spans="2:16">
-      <c r="B46" s="26"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
-    </row>
-    <row r="47" spans="2:16">
-      <c r="B47" s="26"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
-    </row>
-    <row r="48" spans="2:16">
-      <c r="B48" s="26"/>
-      <c r="C48" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-    </row>
-    <row r="49" spans="2:16">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="26"/>
-      <c r="C49" s="139" t="s">
-        <v>126</v>
-      </c>
-      <c r="D49" s="139"/>
-      <c r="E49" s="139"/>
-      <c r="F49" s="139"/>
-      <c r="G49" s="139"/>
-      <c r="H49" s="139"/>
-      <c r="I49" s="139"/>
-      <c r="J49" s="139"/>
-      <c r="K49" s="139"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
       <c r="L49" s="27"/>
       <c r="M49" s="27"/>
       <c r="N49" s="27"/>
-      <c r="O49" s="26"/>
+      <c r="O49" s="27"/>
       <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
     </row>
-    <row r="50" spans="2:16">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="26"/>
-      <c r="C50" s="139" t="s">
-        <v>156</v>
-      </c>
-      <c r="D50" s="139"/>
-      <c r="E50" s="139"/>
-      <c r="F50" s="139"/>
-      <c r="G50" s="139"/>
-      <c r="H50" s="139"/>
-      <c r="I50" s="139"/>
-      <c r="J50" s="139"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
       <c r="K50" s="27"/>
       <c r="L50" s="27"/>
       <c r="M50" s="27"/>
       <c r="N50" s="27"/>
-      <c r="O50" s="26"/>
+      <c r="O50" s="27"/>
       <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
     </row>
-    <row r="51" spans="2:16">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
       <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
     </row>
-    <row r="52" spans="2:16">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
+      <c r="C52" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
       <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
     </row>
-    <row r="53" spans="2:16">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
+      <c r="C53" s="129" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="129"/>
+      <c r="G53" s="129"/>
+      <c r="H53" s="129"/>
+      <c r="I53" s="129"/>
+      <c r="J53" s="129"/>
+      <c r="K53" s="129"/>
+      <c r="L53" s="123"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
       <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B54" s="26"/>
+      <c r="C54" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="129"/>
+      <c r="G54" s="129"/>
+      <c r="H54" s="129"/>
+      <c r="I54" s="129"/>
+      <c r="J54" s="129"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B55" s="26"/>
+      <c r="C55" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="26"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="26"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="C54:J54"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:J6"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="F5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18010,11 +18411,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F425B10-5B6F-4D38-8EC8-85892A4FDDD6}">
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="52.140625" customWidth="1"/>
@@ -18028,26 +18429,26 @@
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
-      <c r="C2" s="150"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="149" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="140"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
       <c r="K2" s="39" t="s">
         <v>60</v>
       </c>
       <c r="L2" s="26"/>
     </row>
-    <row r="3" spans="2:12">
-      <c r="C3" s="150"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="88"/>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C3" s="140"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="39" t="s">
         <v>54</v>
       </c>
@@ -18068,7 +18469,7 @@
       </c>
       <c r="L3" s="26"/>
     </row>
-    <row r="4" spans="2:12" ht="15.75" thickBot="1">
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="52" t="s">
         <v>29</v>
       </c>
@@ -18098,7 +18499,7 @@
       </c>
       <c r="L4" s="26"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="25" t="s">
         <v>34</v>
       </c>
@@ -18127,46 +18528,46 @@
       </c>
       <c r="L5" s="26"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="25"/>
       <c r="C6" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="96" t="str">
+      <c r="D6" s="92" t="str">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,2,FALSE)</f>
         <v>Q1</v>
       </c>
-      <c r="E6" s="96" t="str">
+      <c r="E6" s="92" t="str">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,3,FALSE)</f>
         <v>MPa</v>
       </c>
-      <c r="F6" s="96">
+      <c r="F6" s="92">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,4,FALSE)</f>
         <v>2.7</v>
       </c>
-      <c r="G6" s="96">
+      <c r="G6" s="92">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,5,FALSE)</f>
         <v>79.5</v>
       </c>
-      <c r="H6" s="96">
+      <c r="H6" s="92">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,6,FALSE)</f>
         <v>35.6</v>
       </c>
-      <c r="I6" s="96">
+      <c r="I6" s="92">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,7,FALSE)</f>
         <v>30.1</v>
       </c>
-      <c r="J6" s="96">
+      <c r="J6" s="92">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,8,FALSE)</f>
         <v>55.3</v>
       </c>
-      <c r="K6" s="96">
+      <c r="K6" s="92">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,9,FALSE)</f>
         <v>234.8</v>
       </c>
       <c r="L6" s="26"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="55" t="s">
         <v>68</v>
@@ -18181,7 +18582,7 @@
       <c r="K7" s="56"/>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="47" t="s">
         <v>46</v>
@@ -18192,15 +18593,15 @@
       <c r="F8" s="50">
         <v>5.86</v>
       </c>
-      <c r="G8" s="89">
+      <c r="G8" s="86">
         <f>AVERAGE(5.70739,5.75573,5.71911,5.75623)</f>
         <v>5.7346149999999998</v>
       </c>
-      <c r="H8" s="90">
+      <c r="H8" s="87">
         <f>AVERAGE(5.5333,5.53117,5.50411,5.55659)</f>
         <v>5.5312925000000002</v>
       </c>
-      <c r="I8" s="90">
+      <c r="I8" s="87">
         <f>AVERAGE(5.66583,5.60073,5.61915,5.59391,5.59718)</f>
         <v>5.6153599999999999</v>
       </c>
@@ -18212,7 +18613,7 @@
       </c>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="s">
         <v>34</v>
       </c>
@@ -18226,15 +18627,15 @@
         <f>F8*2</f>
         <v>11.72</v>
       </c>
-      <c r="G9" s="91">
+      <c r="G9" s="88">
         <f t="shared" ref="G9:K9" si="0">G8*2</f>
         <v>11.46923</v>
       </c>
-      <c r="H9" s="91">
+      <c r="H9" s="88">
         <f t="shared" si="0"/>
         <v>11.062585</v>
       </c>
-      <c r="I9" s="91">
+      <c r="I9" s="88">
         <f t="shared" si="0"/>
         <v>11.23072</v>
       </c>
@@ -18248,7 +18649,7 @@
       </c>
       <c r="L9" s="26"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
         <v>34</v>
       </c>
@@ -18261,14 +18662,14 @@
       <c r="F10" s="43">
         <v>62.2</v>
       </c>
-      <c r="G10" s="91">
+      <c r="G10" s="88">
         <f>AVERAGE(51.78,51.7122,49.6736,50.0039)</f>
         <v>50.792424999999994</v>
       </c>
-      <c r="H10" s="92">
+      <c r="H10" s="89">
         <v>54.277700000000003</v>
       </c>
-      <c r="I10" s="92">
+      <c r="I10" s="89">
         <f>AVERAGE(52.2685,51.7548)</f>
         <v>52.011650000000003</v>
       </c>
@@ -18280,7 +18681,7 @@
       </c>
       <c r="L10" s="26"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="25"/>
       <c r="C11" s="40" t="s">
         <v>27</v>
@@ -18306,7 +18707,7 @@
       </c>
       <c r="L11" s="26"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="25"/>
       <c r="C12" s="40" t="s">
         <v>28</v>
@@ -18332,7 +18733,7 @@
       </c>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="25" t="s">
         <v>34</v>
       </c>
@@ -18368,7 +18769,7 @@
       </c>
       <c r="L13" s="26"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="s">
         <v>34</v>
       </c>
@@ -18398,7 +18799,7 @@
       </c>
       <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
         <v>34</v>
       </c>
@@ -18428,7 +18829,7 @@
       </c>
       <c r="L15" s="26"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="25" t="s">
         <v>36</v>
       </c>
@@ -18446,7 +18847,7 @@
       <c r="K16" s="44"/>
       <c r="L16" s="26"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="25" t="s">
         <v>36</v>
       </c>
@@ -18464,7 +18865,7 @@
       <c r="K17" s="44"/>
       <c r="L17" s="26"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
@@ -18476,7 +18877,7 @@
       <c r="J18" s="43"/>
       <c r="K18" s="44"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="40" t="s">
         <v>35</v>
@@ -18490,7 +18891,7 @@
       <c r="J19" s="44"/>
       <c r="K19" s="44"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
@@ -18502,7 +18903,7 @@
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -18545,14 +18946,14 @@
       <selection activeCell="AY57" sqref="AY57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="12" max="12" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:67">
+    <row r="2" spans="3:67" x14ac:dyDescent="0.25">
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
@@ -18564,7 +18965,7 @@
       <c r="BN2" s="5"/>
       <c r="BO2" s="5"/>
     </row>
-    <row r="3" spans="3:67">
+    <row r="3" spans="3:67" x14ac:dyDescent="0.25">
       <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
@@ -18584,7 +18985,7 @@
       <c r="BN3" s="5"/>
       <c r="BO3" s="5"/>
     </row>
-    <row r="4" spans="3:67">
+    <row r="4" spans="3:67" x14ac:dyDescent="0.25">
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
       <c r="AM4" s="5"/>
@@ -18596,35 +18997,35 @@
       <c r="BN4" s="5"/>
       <c r="BO4" s="5"/>
     </row>
-    <row r="7" spans="3:67">
+    <row r="7" spans="3:67" x14ac:dyDescent="0.25">
       <c r="AP7" t="str">
         <f>Sheet2!C6&amp; " and debris cloud diamter"</f>
         <v>Voice hardening parameter and debris cloud diamter</v>
       </c>
     </row>
-    <row r="8" spans="3:67">
+    <row r="8" spans="3:67" x14ac:dyDescent="0.25">
       <c r="AD8" t="str">
         <f>Sheet2!C6&amp;" "&amp;Sheet2!D6</f>
         <v>Voice hardening parameter Q1</v>
       </c>
     </row>
-    <row r="10" spans="3:67">
+    <row r="10" spans="3:67" x14ac:dyDescent="0.25">
       <c r="AD10" t="str">
         <f>Sheet2!C6&amp; " and target hole diameter"</f>
         <v>Voice hardening parameter and target hole diameter</v>
       </c>
     </row>
-    <row r="24" spans="30:80">
+    <row r="24" spans="30:80" x14ac:dyDescent="0.25">
       <c r="AZ24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="30:80">
+    <row r="26" spans="30:80" x14ac:dyDescent="0.25">
       <c r="CB26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="30:80">
+    <row r="29" spans="30:80" x14ac:dyDescent="0.25">
       <c r="AD29" t="str">
         <f>Sheet2!C6&amp;" and percentage of solid material in debris cloud"</f>
         <v>Voice hardening parameter and percentage of solid material in debris cloud</v>
@@ -18634,12 +19035,12 @@
         <v>Voice hardening parameter and residual velocity</v>
       </c>
     </row>
-    <row r="46" spans="58:58">
+    <row r="46" spans="58:58" x14ac:dyDescent="0.25">
       <c r="BF46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="37:37">
+    <row r="50" spans="37:37" x14ac:dyDescent="0.25">
       <c r="AK50" t="str">
         <f>Sheet2!C6&amp; " and percentage of converted particles due to temperature"</f>
         <v>Voice hardening parameter and percentage of converted particles due to temperature</v>
@@ -18657,7 +19058,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c4e1f6e80555f8e/Documenten/Internship/Project/Shared folder/HVI/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{E8EE7AEA-1AE8-4D2D-98BA-6142DDD8D4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9629517A-0625-4FFC-9C0B-2138227043AB}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="13_ncr:1_{E8EE7AEA-1AE8-4D2D-98BA-6142DDD8D4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D452979-AC25-4495-9BEB-FFE801584AE1}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="-15480" windowWidth="20730" windowHeight="15600" activeTab="1" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
+    <workbookView xWindow="4440" yWindow="-15480" windowWidth="20730" windowHeight="15600" activeTab="2" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="167">
   <si>
     <t>Al 7005</t>
   </si>
@@ -380,9 +380,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>Voice hardening parameter</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -554,6 +551,21 @@
   <si>
     <t>gamma0</t>
   </si>
+  <si>
+    <t>Voice hardening parameter Q1</t>
+  </si>
+  <si>
+    <t>Voice hardening parameter Q2</t>
+  </si>
+  <si>
+    <t>Voice hardening parameter C1</t>
+  </si>
+  <si>
+    <t>Voice hardening parameter C2</t>
+  </si>
+  <si>
+    <t>Titanium</t>
+  </si>
 </sst>
 </file>
 
@@ -683,7 +695,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1233,11 +1245,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1507,54 +1561,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1586,12 +1592,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1635,9 +1635,81 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1728,7 +1800,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2283,7 +2355,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2321,7 +2393,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -2414,7 +2486,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2452,7 +2524,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -2494,7 +2566,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2531,7 +2603,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2563,7 +2635,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Voice hardening parameter and percentage of converted particles due to temperature</c:v>
+              <c:v>Voice hardening parameter Q1 and percentage of converted particles due to temperature</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -2615,7 +2687,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2669,7 +2741,7 @@
             <c:numRef>
               <c:f>Sheet2!$F$15</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1.35</c:v>
@@ -2964,7 +3036,7 @@
             <c:numRef>
               <c:f>Sheet2!$K$15</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>4.96</c:v>
@@ -3032,7 +3104,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Voice hardening parameter Q1</c:v>
+                  <c:v>Voice hardening parameter Q1 Q1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3076,7 +3148,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3114,7 +3186,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -3223,11 +3295,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3261,7 +3333,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -3303,7 +3375,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3340,7 +3412,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3424,7 +3496,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3974,7 +4046,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4012,7 +4084,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -4105,7 +4177,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4143,7 +4215,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -4185,7 +4257,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4222,7 +4294,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4340,7 +4412,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4890,7 +4962,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4928,7 +5000,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -5021,7 +5093,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5059,7 +5131,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -5101,7 +5173,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5138,7 +5210,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5222,7 +5294,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5764,7 +5836,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5802,7 +5874,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -5903,7 +5975,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5941,7 +6013,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -5983,7 +6055,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6020,7 +6092,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6138,7 +6210,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6192,7 +6264,7 @@
             <c:numRef>
               <c:f>Sheet2!$F$15</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1.35</c:v>
@@ -6251,7 +6323,7 @@
             <c:numRef>
               <c:f>Sheet2!$K$15</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>4.96</c:v>
@@ -6680,7 +6752,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6718,7 +6790,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -6827,11 +6899,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6865,7 +6937,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -6907,7 +6979,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6944,7 +7016,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6976,7 +7048,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Voice hardening parameter and target hole diameter</c:v>
+              <c:v>Voice hardening parameter Q1 and target hole diameter</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -7014,7 +7086,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7431,7 +7503,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Voice hardening parameter Q1</c:v>
+                  <c:v>Voice hardening parameter Q1 Q1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7483,7 +7555,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7521,7 +7593,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -7614,7 +7686,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7652,7 +7724,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -7694,7 +7766,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7731,7 +7803,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7763,7 +7835,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Voice hardening parameter and debris cloud diamter</c:v>
+              <c:v>Voice hardening parameter Q1 and debris cloud diamter</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -7801,7 +7873,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8218,7 +8290,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Voice hardening parameter Q1</c:v>
+                  <c:v>Voice hardening parameter Q1 Q1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8270,7 +8342,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8308,7 +8380,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -8401,7 +8473,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8439,7 +8511,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -8481,7 +8553,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8518,7 +8590,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8550,7 +8622,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Voice hardening parameter and percentage of solid material in debris cloud</c:v>
+              <c:v>Voice hardening parameter Q1 and percentage of solid material in debris cloud</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -8602,7 +8674,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9019,7 +9091,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Voice hardening parameter Q1</c:v>
+                  <c:v>Voice hardening parameter Q1 Q1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9071,7 +9143,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9109,7 +9181,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -9202,7 +9274,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9240,7 +9312,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -9282,7 +9354,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9319,7 +9391,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9351,7 +9423,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Voice hardening parameter and residual velocity</c:v>
+              <c:v>Voice hardening parameter Q1 and residual velocity</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -9389,7 +9461,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9806,7 +9878,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Voice hardening parameter Q1</c:v>
+                  <c:v>Voice hardening parameter Q1 Q1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9850,7 +9922,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9888,7 +9960,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -9989,7 +10061,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nb-NO"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10027,7 +10099,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -10069,7 +10141,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10106,7 +10178,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16365,24 +16437,24 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" customWidth="1"/>
-    <col min="5" max="5" width="78.85546875" customWidth="1"/>
+    <col min="2" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" customWidth="1"/>
+    <col min="5" max="5" width="78.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="17" t="s">
         <v>23</v>
       </c>
@@ -16390,53 +16462,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" s="18"/>
       <c r="D6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" s="19"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" s="20"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" s="22"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" s="23"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" s="19"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" s="20"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
@@ -16447,7 +16519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>18</v>
@@ -16456,21 +16528,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
         <v>15</v>
@@ -16479,21 +16551,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -16502,21 +16574,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
@@ -16525,28 +16597,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="16" t="s">
@@ -16563,29 +16635,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20077FD7-1EC0-41E4-96B7-2075AF4FD95D}">
   <dimension ref="B3:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="12" width="14.88671875" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" customWidth="1"/>
+    <col min="16" max="16" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -16603,7 +16675,7 @@
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -16621,54 +16693,54 @@
       <c r="P4" s="26"/>
       <c r="Q4" s="26"/>
     </row>
-    <row r="5" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="26"/>
       <c r="C5" s="108"/>
       <c r="D5" s="108"/>
       <c r="E5" s="108"/>
-      <c r="F5" s="125" t="s">
+      <c r="F5" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="153" t="s">
         <v>152</v>
       </c>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="125" t="s">
-        <v>153</v>
-      </c>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="154"/>
       <c r="P5" s="93"/>
       <c r="Q5" s="26"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="26"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="132" t="s">
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="136" t="s">
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="162"/>
+      <c r="K6" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="155"/>
-      <c r="M6" s="136" t="s">
-        <v>133</v>
-      </c>
-      <c r="N6" s="137"/>
-      <c r="O6" s="138"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="165" t="s">
+        <v>132</v>
+      </c>
+      <c r="N6" s="166"/>
+      <c r="O6" s="167"/>
       <c r="P6" s="94"/>
       <c r="Q6" s="83"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="26"/>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
@@ -16691,23 +16763,23 @@
       <c r="K7" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="157" t="s">
-        <v>157</v>
+      <c r="L7" s="139" t="s">
+        <v>156</v>
       </c>
       <c r="M7" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="N7" s="91" t="s">
+      <c r="O7" s="91" t="s">
         <v>135</v>
-      </c>
-      <c r="O7" s="91" t="s">
-        <v>136</v>
       </c>
       <c r="P7" s="95"/>
       <c r="Q7" s="83"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="2:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="26"/>
       <c r="C8" s="64" t="s">
         <v>65</v>
@@ -16733,26 +16805,26 @@
       <c r="J8" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="158" t="s">
+      <c r="K8" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="159">
+      <c r="L8" s="141">
         <v>4340</v>
       </c>
       <c r="M8" s="120" t="s">
+        <v>136</v>
+      </c>
+      <c r="N8" s="121" t="s">
         <v>137</v>
       </c>
-      <c r="N8" s="121" t="s">
+      <c r="O8" s="121" t="s">
         <v>138</v>
-      </c>
-      <c r="O8" s="121" t="s">
-        <v>139</v>
       </c>
       <c r="P8" s="96"/>
       <c r="Q8" s="83"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="26"/>
       <c r="C9" s="57" t="s">
         <v>68</v>
@@ -16778,10 +16850,10 @@
       <c r="J9" s="67">
         <v>2.7000000000000002E-9</v>
       </c>
-      <c r="K9" s="160">
+      <c r="K9" s="142">
         <v>7.8500000000000008E-9</v>
       </c>
-      <c r="L9" s="161">
+      <c r="L9" s="143">
         <v>7.8500000000000008E-9</v>
       </c>
       <c r="M9" s="111">
@@ -16796,7 +16868,7 @@
       <c r="P9" s="28"/>
       <c r="Q9" s="84"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="26"/>
       <c r="C10" s="32" t="s">
         <v>70</v>
@@ -16822,10 +16894,10 @@
       <c r="J10" s="68">
         <v>58333.33</v>
       </c>
-      <c r="K10" s="160">
+      <c r="K10" s="142">
         <v>205880</v>
       </c>
-      <c r="L10" s="161">
+      <c r="L10" s="143">
         <f>L13/(3*(1-2*L14))</f>
         <v>174999.99999999997</v>
       </c>
@@ -16841,7 +16913,7 @@
       <c r="P10" s="28"/>
       <c r="Q10" s="84"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="26"/>
       <c r="C11" s="32" t="s">
         <v>73</v>
@@ -16867,10 +16939,10 @@
       <c r="J11" s="68">
         <v>26923.08</v>
       </c>
-      <c r="K11" s="160">
+      <c r="K11" s="142">
         <v>78947</v>
       </c>
-      <c r="L11" s="161">
+      <c r="L11" s="143">
         <f>L13/(2*(1+L14))</f>
         <v>80769.230769230766</v>
       </c>
@@ -16886,7 +16958,7 @@
       <c r="P11" s="28"/>
       <c r="Q11" s="84"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="26"/>
       <c r="C12" s="32" t="s">
         <v>75</v>
@@ -16915,7 +16987,7 @@
       <c r="K12" s="117">
         <v>47</v>
       </c>
-      <c r="L12" s="162">
+      <c r="L12" s="144">
         <v>47</v>
       </c>
       <c r="M12" s="111">
@@ -16930,7 +17002,7 @@
       <c r="P12" s="29"/>
       <c r="Q12" s="84"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="26"/>
       <c r="C13" s="32" t="s">
         <v>77</v>
@@ -16956,10 +17028,10 @@
       <c r="J13" s="68">
         <v>70000</v>
       </c>
-      <c r="K13" s="160">
+      <c r="K13" s="142">
         <v>210000</v>
       </c>
-      <c r="L13" s="161">
+      <c r="L13" s="143">
         <v>210000</v>
       </c>
       <c r="M13" s="111">
@@ -16974,7 +17046,7 @@
       <c r="P13" s="28"/>
       <c r="Q13" s="84"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="26"/>
       <c r="C14" s="32" t="s">
         <v>79</v>
@@ -17003,7 +17075,7 @@
       <c r="K14" s="117">
         <v>0.33</v>
       </c>
-      <c r="L14" s="162">
+      <c r="L14" s="144">
         <v>0.3</v>
       </c>
       <c r="M14" s="111">
@@ -17018,7 +17090,7 @@
       <c r="P14" s="29"/>
       <c r="Q14" s="84"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="26"/>
       <c r="C15" s="32" t="s">
         <v>81</v>
@@ -17047,14 +17119,14 @@
       <c r="K15" s="117">
         <v>0.9</v>
       </c>
-      <c r="L15" s="162"/>
+      <c r="L15" s="144"/>
       <c r="M15" s="111"/>
       <c r="N15" s="112"/>
       <c r="O15" s="112"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="84"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="26"/>
       <c r="C16" s="32" t="s">
         <v>83</v>
@@ -17080,10 +17152,10 @@
       <c r="J16" s="69">
         <v>910000000</v>
       </c>
-      <c r="K16" s="160">
+      <c r="K16" s="142">
         <v>452000000</v>
       </c>
-      <c r="L16" s="161">
+      <c r="L16" s="143">
         <v>452000000</v>
       </c>
       <c r="M16" s="114">
@@ -17098,7 +17170,7 @@
       <c r="P16" s="28"/>
       <c r="Q16" s="84"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
       <c r="C17" s="32" t="s">
         <v>86</v>
@@ -17124,10 +17196,10 @@
       <c r="J17" s="70">
         <v>2.3200000000000001E-5</v>
       </c>
-      <c r="K17" s="160">
+      <c r="K17" s="142">
         <v>2.3200000000000001E-5</v>
       </c>
-      <c r="L17" s="161">
+      <c r="L17" s="143">
         <v>2.3200000000000001E-5</v>
       </c>
       <c r="M17" s="111"/>
@@ -17136,7 +17208,7 @@
       <c r="P17" s="28"/>
       <c r="Q17" s="84"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="26"/>
       <c r="C18" s="32" t="s">
         <v>89</v>
@@ -17160,10 +17232,10 @@
       <c r="J18" s="69">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K18" s="160">
+      <c r="K18" s="142">
         <v>1E-4</v>
       </c>
-      <c r="L18" s="161">
+      <c r="L18" s="143">
         <v>1E-4</v>
       </c>
       <c r="M18" s="115">
@@ -17178,7 +17250,7 @@
       <c r="P18" s="26"/>
       <c r="Q18" s="84"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="26"/>
       <c r="C19" s="32"/>
       <c r="D19" s="32" t="s">
@@ -17200,10 +17272,10 @@
       <c r="J19" s="69">
         <v>2.4569999999999999</v>
       </c>
-      <c r="K19" s="160">
+      <c r="K19" s="142">
         <v>3.548</v>
       </c>
-      <c r="L19" s="161">
+      <c r="L19" s="143">
         <f>L16*L9</f>
         <v>3.5482000000000005</v>
       </c>
@@ -17222,7 +17294,7 @@
       <c r="P19" s="26"/>
       <c r="Q19" s="84"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="C20" s="37" t="s">
         <v>92</v>
@@ -17251,7 +17323,7 @@
       <c r="K20" s="117">
         <v>1800</v>
       </c>
-      <c r="L20" s="162">
+      <c r="L20" s="144">
         <v>1800</v>
       </c>
       <c r="M20" s="111">
@@ -17269,7 +17341,7 @@
       <c r="P20" s="26"/>
       <c r="Q20" s="84"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
       <c r="C21" s="37" t="s">
         <v>94</v>
@@ -17298,7 +17370,7 @@
       <c r="K21" s="117">
         <v>293</v>
       </c>
-      <c r="L21" s="162">
+      <c r="L21" s="144">
         <v>293</v>
       </c>
       <c r="M21" s="117">
@@ -17313,7 +17385,7 @@
       <c r="P21" s="26"/>
       <c r="Q21" s="84"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="C22" s="37" t="s">
         <v>96</v>
@@ -17342,7 +17414,7 @@
       <c r="K22" s="117">
         <v>293</v>
       </c>
-      <c r="L22" s="162">
+      <c r="L22" s="144">
         <v>293</v>
       </c>
       <c r="M22" s="117">
@@ -17357,7 +17429,7 @@
       <c r="P22" s="26"/>
       <c r="Q22" s="84"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="26"/>
       <c r="C23" s="37" t="s">
         <v>98</v>
@@ -17386,7 +17458,7 @@
       <c r="K23" s="117">
         <v>893</v>
       </c>
-      <c r="L23" s="162">
+      <c r="L23" s="144">
         <v>893</v>
       </c>
       <c r="M23" s="111"/>
@@ -17395,10 +17467,10 @@
       <c r="P23" s="26"/>
       <c r="Q23" s="84"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="26"/>
       <c r="C24" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>100</v>
@@ -17424,7 +17496,7 @@
       <c r="K24" s="117">
         <v>325.70001000000002</v>
       </c>
-      <c r="L24" s="162">
+      <c r="L24" s="144">
         <v>910</v>
       </c>
       <c r="M24" s="111">
@@ -17439,10 +17511,10 @@
       <c r="P24" s="26"/>
       <c r="Q24" s="84"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="26"/>
       <c r="C25" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>101</v>
@@ -17468,7 +17540,7 @@
       <c r="K25" s="117">
         <v>0</v>
       </c>
-      <c r="L25" s="162">
+      <c r="L25" s="144">
         <v>586</v>
       </c>
       <c r="M25" s="111">
@@ -17483,10 +17555,10 @@
       <c r="P25" s="26"/>
       <c r="Q25" s="84"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="26"/>
       <c r="C26" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>102</v>
@@ -17512,7 +17584,7 @@
       <c r="K26" s="117">
         <v>0</v>
       </c>
-      <c r="L26" s="162">
+      <c r="L26" s="144">
         <v>0.26</v>
       </c>
       <c r="M26" s="111">
@@ -17527,10 +17599,10 @@
       <c r="P26" s="26"/>
       <c r="Q26" s="84"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="26"/>
       <c r="C27" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>103</v>
@@ -17556,7 +17628,7 @@
       <c r="K27" s="117">
         <v>0.01</v>
       </c>
-      <c r="L27" s="162">
+      <c r="L27" s="144">
         <v>1.4E-2</v>
       </c>
       <c r="M27" s="111">
@@ -17571,10 +17643,10 @@
       <c r="P27" s="26"/>
       <c r="Q27" s="84"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="26"/>
       <c r="C28" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>104</v>
@@ -17600,7 +17672,7 @@
       <c r="K28" s="117">
         <v>1</v>
       </c>
-      <c r="L28" s="162">
+      <c r="L28" s="144">
         <v>1.03</v>
       </c>
       <c r="M28" s="111">
@@ -17615,13 +17687,13 @@
       <c r="P28" s="26"/>
       <c r="Q28" s="84"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="26"/>
       <c r="C29" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="37" t="s">
         <v>105</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>106</v>
       </c>
       <c r="E29" s="78" t="s">
         <v>72</v>
@@ -17644,20 +17716,20 @@
       <c r="K29" s="117">
         <v>234.8</v>
       </c>
-      <c r="L29" s="162"/>
+      <c r="L29" s="144"/>
       <c r="M29" s="111"/>
       <c r="N29" s="112"/>
       <c r="O29" s="112"/>
       <c r="P29" s="26"/>
       <c r="Q29" s="84"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="26"/>
       <c r="C30" s="37" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" s="78" t="s">
         <v>76</v>
@@ -17680,20 +17752,20 @@
       <c r="K30" s="117">
         <v>56.200001</v>
       </c>
-      <c r="L30" s="162"/>
+      <c r="L30" s="144"/>
       <c r="M30" s="111"/>
       <c r="N30" s="112"/>
       <c r="O30" s="112"/>
       <c r="P30" s="26"/>
       <c r="Q30" s="84"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="26"/>
       <c r="C31" s="37" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E31" s="78" t="s">
         <v>72</v>
@@ -17716,20 +17788,20 @@
       <c r="K31" s="117">
         <v>445.70001000000002</v>
       </c>
-      <c r="L31" s="162"/>
+      <c r="L31" s="144"/>
       <c r="M31" s="111"/>
       <c r="N31" s="112"/>
       <c r="O31" s="112"/>
       <c r="P31" s="26"/>
       <c r="Q31" s="84"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="26"/>
       <c r="C32" s="37" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" s="78" t="s">
         <v>76</v>
@@ -17752,23 +17824,23 @@
       <c r="K32" s="117">
         <v>4.6999997999999996</v>
       </c>
-      <c r="L32" s="162"/>
+      <c r="L32" s="144"/>
       <c r="M32" s="111"/>
       <c r="N32" s="112"/>
       <c r="O32" s="112"/>
       <c r="P32" s="26"/>
       <c r="Q32" s="84"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="26"/>
       <c r="C33" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="E33" s="78" t="s">
         <v>111</v>
-      </c>
-      <c r="E33" s="78" t="s">
-        <v>112</v>
       </c>
       <c r="F33" s="74">
         <v>278</v>
@@ -17788,18 +17860,18 @@
       <c r="K33" s="117">
         <v>555</v>
       </c>
-      <c r="L33" s="162"/>
+      <c r="L33" s="144"/>
       <c r="M33" s="111"/>
       <c r="N33" s="112"/>
       <c r="O33" s="112"/>
       <c r="P33" s="26"/>
       <c r="Q33" s="84"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" s="26"/>
       <c r="C34" s="32"/>
       <c r="D34" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E34" s="77" t="s">
         <v>76</v>
@@ -17819,19 +17891,19 @@
       <c r="J34" s="68">
         <v>1E-3</v>
       </c>
-      <c r="K34" s="163"/>
-      <c r="L34" s="148"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="132"/>
       <c r="M34" s="111"/>
       <c r="N34" s="112"/>
       <c r="O34" s="112"/>
       <c r="P34" s="26"/>
       <c r="Q34" s="84"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" s="26"/>
       <c r="C35" s="97"/>
       <c r="D35" s="97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E35" s="98" t="s">
         <v>72</v>
@@ -17851,21 +17923,21 @@
       <c r="J35" s="101">
         <v>341</v>
       </c>
-      <c r="K35" s="163"/>
-      <c r="L35" s="148"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="132"/>
       <c r="M35" s="111"/>
       <c r="N35" s="112"/>
       <c r="O35" s="112"/>
       <c r="P35" s="26"/>
       <c r="Q35" s="84"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36" s="26"/>
-      <c r="C36" s="151" t="s">
-        <v>154</v>
+      <c r="C36" s="135" t="s">
+        <v>153</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E36" s="106"/>
       <c r="F36" s="29"/>
@@ -17873,27 +17945,27 @@
       <c r="H36" s="29"/>
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
-      <c r="K36" s="163"/>
-      <c r="L36" s="148">
+      <c r="K36" s="145"/>
+      <c r="L36" s="132">
         <v>-0.8</v>
       </c>
       <c r="M36" s="111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N36" s="112">
         <v>-0.995</v>
       </c>
       <c r="O36" s="112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P36" s="26"/>
       <c r="Q36" s="84"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B37" s="26"/>
-      <c r="C37" s="152"/>
+      <c r="C37" s="136"/>
       <c r="D37" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37" s="106"/>
       <c r="F37" s="104"/>
@@ -17901,8 +17973,8 @@
       <c r="H37" s="102"/>
       <c r="I37" s="102"/>
       <c r="J37" s="103"/>
-      <c r="K37" s="163"/>
-      <c r="L37" s="148">
+      <c r="K37" s="145"/>
+      <c r="L37" s="132">
         <v>2.1</v>
       </c>
       <c r="M37" s="111">
@@ -17917,11 +17989,11 @@
       <c r="P37" s="26"/>
       <c r="Q37" s="84"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38" s="26"/>
-      <c r="C38" s="152"/>
+      <c r="C38" s="136"/>
       <c r="D38" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E38" s="106"/>
       <c r="F38" s="105"/>
@@ -17929,27 +18001,27 @@
       <c r="H38" s="100"/>
       <c r="I38" s="100"/>
       <c r="J38" s="101"/>
-      <c r="K38" s="163"/>
-      <c r="L38" s="148">
+      <c r="K38" s="145"/>
+      <c r="L38" s="132">
         <v>-0.5</v>
       </c>
       <c r="M38" s="111" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N38" s="112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O38" s="112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P38" s="26"/>
       <c r="Q38" s="84"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39" s="26"/>
-      <c r="C39" s="152"/>
+      <c r="C39" s="136"/>
       <c r="D39" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E39" s="106"/>
       <c r="F39" s="105"/>
@@ -17957,15 +18029,15 @@
       <c r="H39" s="100"/>
       <c r="I39" s="100"/>
       <c r="J39" s="101"/>
-      <c r="K39" s="163"/>
-      <c r="L39" s="148">
+      <c r="K39" s="145"/>
+      <c r="L39" s="132">
         <v>2E-3</v>
       </c>
       <c r="M39" s="111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N39" s="112" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O39" s="112">
         <v>2.4E-2</v>
@@ -17973,11 +18045,11 @@
       <c r="P39" s="26"/>
       <c r="Q39" s="84"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" s="26"/>
-      <c r="C40" s="152"/>
+      <c r="C40" s="136"/>
       <c r="D40" s="97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E40" s="107"/>
       <c r="F40" s="29"/>
@@ -17985,8 +18057,8 @@
       <c r="H40" s="29"/>
       <c r="I40" s="29"/>
       <c r="J40" s="29"/>
-      <c r="K40" s="163"/>
-      <c r="L40" s="148">
+      <c r="K40" s="145"/>
+      <c r="L40" s="132">
         <v>0.61</v>
       </c>
       <c r="M40" s="111">
@@ -18001,13 +18073,13 @@
       <c r="P40" s="26"/>
       <c r="Q40" s="84"/>
     </row>
-    <row r="41" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="26"/>
-      <c r="C41" s="149" t="s">
-        <v>151</v>
-      </c>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150" t="s">
+      <c r="C41" s="133" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="134"/>
+      <c r="E41" s="134" t="s">
         <v>72</v>
       </c>
       <c r="F41" s="26"/>
@@ -18015,8 +18087,8 @@
       <c r="H41" s="26"/>
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="163"/>
-      <c r="L41" s="148">
+      <c r="K41" s="145"/>
+      <c r="L41" s="132">
         <v>745</v>
       </c>
       <c r="M41" s="112">
@@ -18031,15 +18103,15 @@
       <c r="P41" s="26"/>
       <c r="Q41" s="84"/>
     </row>
-    <row r="42" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="26"/>
-      <c r="C42" s="153" t="s">
-        <v>160</v>
-      </c>
-      <c r="D42" s="150" t="s">
+      <c r="C42" s="137" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="150" t="s">
+      <c r="E42" s="134" t="s">
         <v>76</v>
       </c>
       <c r="F42" s="26"/>
@@ -18047,8 +18119,8 @@
       <c r="H42" s="26"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="163"/>
-      <c r="L42" s="148">
+      <c r="K42" s="145"/>
+      <c r="L42" s="132">
         <v>164</v>
       </c>
       <c r="M42" s="111"/>
@@ -18057,13 +18129,13 @@
       <c r="P42" s="26"/>
       <c r="Q42" s="26"/>
     </row>
-    <row r="43" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="26"/>
-      <c r="C43" s="141"/>
-      <c r="D43" s="150" t="s">
-        <v>157</v>
-      </c>
-      <c r="E43" s="150" t="s">
+      <c r="C43" s="125"/>
+      <c r="D43" s="134" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" s="134" t="s">
         <v>76</v>
       </c>
       <c r="F43" s="26"/>
@@ -18071,8 +18143,8 @@
       <c r="H43" s="26"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="163"/>
-      <c r="L43" s="148">
+      <c r="K43" s="145"/>
+      <c r="L43" s="132">
         <v>294</v>
       </c>
       <c r="M43" s="111"/>
@@ -18081,13 +18153,13 @@
       <c r="P43" s="26"/>
       <c r="Q43" s="26"/>
     </row>
-    <row r="44" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
-      <c r="C44" s="141"/>
-      <c r="D44" s="150" t="s">
-        <v>161</v>
-      </c>
-      <c r="E44" s="150" t="s">
+      <c r="C44" s="125"/>
+      <c r="D44" s="134" t="s">
+        <v>160</v>
+      </c>
+      <c r="E44" s="134" t="s">
         <v>76</v>
       </c>
       <c r="F44" s="26"/>
@@ -18095,8 +18167,8 @@
       <c r="H44" s="26"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="163"/>
-      <c r="L44" s="148">
+      <c r="K44" s="145"/>
+      <c r="L44" s="132">
         <v>500</v>
       </c>
       <c r="M44" s="111"/>
@@ -18105,121 +18177,121 @@
       <c r="P44" s="26"/>
       <c r="Q44" s="26"/>
     </row>
-    <row r="45" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="26"/>
-      <c r="C45" s="154"/>
-      <c r="D45" s="142" t="s">
-        <v>162</v>
-      </c>
-      <c r="E45" s="143" t="s">
+      <c r="C45" s="138"/>
+      <c r="D45" s="126" t="s">
+        <v>161</v>
+      </c>
+      <c r="E45" s="127" t="s">
         <v>76</v>
       </c>
-      <c r="F45" s="144"/>
-      <c r="G45" s="145"/>
-      <c r="H45" s="145"/>
-      <c r="I45" s="145"/>
-      <c r="J45" s="145"/>
-      <c r="K45" s="164"/>
-      <c r="L45" s="165">
+      <c r="F45" s="128"/>
+      <c r="G45" s="129"/>
+      <c r="H45" s="129"/>
+      <c r="I45" s="129"/>
+      <c r="J45" s="129"/>
+      <c r="K45" s="146"/>
+      <c r="L45" s="147">
         <v>1.1599999999999999</v>
       </c>
-      <c r="M45" s="146"/>
-      <c r="N45" s="147"/>
-      <c r="O45" s="147"/>
+      <c r="M45" s="130"/>
+      <c r="N45" s="131"/>
+      <c r="O45" s="131"/>
       <c r="P45" s="26"/>
       <c r="Q45" s="26"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46" s="26"/>
       <c r="C46" s="60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D46" s="60"/>
       <c r="E46" s="79"/>
       <c r="F46" s="81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G46" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="H46" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="H46" s="61" t="s">
+      <c r="I46" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="I46" s="61" t="s">
+      <c r="J46" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="J46" s="109" t="s">
-        <v>119</v>
-      </c>
-      <c r="K46" s="166"/>
-      <c r="L46" s="167"/>
+      <c r="K46" s="148"/>
+      <c r="L46" s="149"/>
       <c r="M46" s="118"/>
       <c r="N46" s="59"/>
       <c r="O46" s="27"/>
       <c r="P46" s="26"/>
       <c r="Q46" s="26"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47" s="26"/>
       <c r="C47" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D47" s="31"/>
       <c r="E47" s="80"/>
       <c r="F47" s="82"/>
-      <c r="G47" s="135" t="s">
+      <c r="G47" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="135"/>
-      <c r="I47" s="135"/>
-      <c r="J47" s="156"/>
-      <c r="K47" s="168" t="s">
-        <v>125</v>
-      </c>
-      <c r="L47" s="169" t="s">
-        <v>159</v>
-      </c>
-      <c r="M47" s="127" t="s">
-        <v>155</v>
-      </c>
-      <c r="N47" s="128"/>
-      <c r="O47" s="128"/>
+      <c r="H47" s="163"/>
+      <c r="I47" s="163"/>
+      <c r="J47" s="164"/>
+      <c r="K47" s="150" t="s">
+        <v>124</v>
+      </c>
+      <c r="L47" s="151" t="s">
+        <v>158</v>
+      </c>
+      <c r="M47" s="155" t="s">
+        <v>154</v>
+      </c>
+      <c r="N47" s="156"/>
+      <c r="O47" s="156"/>
       <c r="P47" s="26"/>
       <c r="Q47" s="26"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48" s="26"/>
       <c r="C48" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D48" s="31"/>
       <c r="E48" s="80"/>
       <c r="F48" s="82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G48" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H48" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I48" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J48" s="110" t="s">
-        <v>122</v>
-      </c>
-      <c r="K48" s="168" t="s">
-        <v>122</v>
-      </c>
-      <c r="L48" s="170"/>
+        <v>121</v>
+      </c>
+      <c r="K48" s="150" t="s">
+        <v>121</v>
+      </c>
+      <c r="L48" s="152"/>
       <c r="M48" s="119"/>
       <c r="N48" s="34"/>
       <c r="O48" s="27"/>
       <c r="P48" s="26"/>
       <c r="Q48" s="26"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B49" s="26"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -18237,7 +18309,7 @@
       <c r="P49" s="26"/>
       <c r="Q49" s="26"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B50" s="26"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -18255,7 +18327,7 @@
       <c r="P50" s="26"/>
       <c r="Q50" s="26"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B51" s="26"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
@@ -18273,10 +18345,10 @@
       <c r="P51" s="26"/>
       <c r="Q51" s="26"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B52" s="26"/>
       <c r="C52" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
@@ -18293,19 +18365,19 @@
       <c r="P52" s="26"/>
       <c r="Q52" s="26"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B53" s="26"/>
-      <c r="C53" s="129" t="s">
-        <v>126</v>
-      </c>
-      <c r="D53" s="129"/>
-      <c r="E53" s="129"/>
-      <c r="F53" s="129"/>
-      <c r="G53" s="129"/>
-      <c r="H53" s="129"/>
-      <c r="I53" s="129"/>
-      <c r="J53" s="129"/>
-      <c r="K53" s="129"/>
+      <c r="C53" s="157" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="157"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="157"/>
+      <c r="H53" s="157"/>
+      <c r="I53" s="157"/>
+      <c r="J53" s="157"/>
+      <c r="K53" s="157"/>
       <c r="L53" s="123"/>
       <c r="M53" s="27"/>
       <c r="N53" s="27"/>
@@ -18313,18 +18385,18 @@
       <c r="P53" s="26"/>
       <c r="Q53" s="26"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B54" s="26"/>
-      <c r="C54" s="129" t="s">
-        <v>156</v>
-      </c>
-      <c r="D54" s="129"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="129"/>
-      <c r="G54" s="129"/>
-      <c r="H54" s="129"/>
-      <c r="I54" s="129"/>
-      <c r="J54" s="129"/>
+      <c r="C54" s="157" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="157"/>
+      <c r="E54" s="157"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="157"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="157"/>
+      <c r="J54" s="157"/>
       <c r="K54" s="27"/>
       <c r="L54" s="27"/>
       <c r="M54" s="27"/>
@@ -18333,10 +18405,10 @@
       <c r="P54" s="26"/>
       <c r="Q54" s="26"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B55" s="26"/>
       <c r="C55" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
@@ -18353,7 +18425,7 @@
       <c r="P55" s="26"/>
       <c r="Q55" s="26"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B56" s="26"/>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
@@ -18371,7 +18443,7 @@
       <c r="P56" s="26"/>
       <c r="Q56" s="26"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B57" s="26"/>
       <c r="C57" s="26"/>
       <c r="D57" s="26"/>
@@ -18409,45 +18481,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F425B10-5B6F-4D38-8EC8-85892A4FDDD6}">
-  <dimension ref="B2:L21"/>
+  <dimension ref="B2:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="52.109375" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="11" max="15" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="140"/>
-      <c r="D2" s="139"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C2" s="171"/>
+      <c r="D2" s="170"/>
       <c r="E2" s="85"/>
-      <c r="F2" s="139" t="s">
+      <c r="F2" s="170" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="39" t="s">
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="176" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="26"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="177" t="s">
+        <v>166</v>
+      </c>
+      <c r="N2" s="177"/>
+      <c r="O2" s="177"/>
+      <c r="P2" s="26"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="140"/>
-      <c r="D3" s="139"/>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C3" s="171"/>
+      <c r="D3" s="170"/>
       <c r="E3" s="85"/>
       <c r="F3" s="39" t="s">
         <v>54</v>
@@ -18467,9 +18546,21 @@
       <c r="K3" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="26"/>
+      <c r="L3" s="172" t="s">
+        <v>156</v>
+      </c>
+      <c r="M3" s="172" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" s="172" t="s">
+        <v>134</v>
+      </c>
+      <c r="O3" s="172" t="s">
+        <v>135</v>
+      </c>
+      <c r="P3" s="26"/>
     </row>
-    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="52" t="s">
         <v>29</v>
       </c>
@@ -18477,7 +18568,7 @@
         <v>66</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="53" t="s">
         <v>52</v>
@@ -18497,9 +18588,25 @@
       <c r="K4" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="26"/>
+      <c r="L4" s="175">
+        <f>Sheet4!L8</f>
+        <v>4340</v>
+      </c>
+      <c r="M4" s="178" t="str">
+        <f>Sheet4!M8</f>
+        <v>VT6</v>
+      </c>
+      <c r="N4" s="178" t="str">
+        <f>Sheet4!N8</f>
+        <v>OT4</v>
+      </c>
+      <c r="O4" s="178" t="str">
+        <f>Sheet4!O8</f>
+        <v>OT4-O</v>
+      </c>
+      <c r="P4" s="26"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
         <v>34</v>
       </c>
@@ -18526,12 +18633,28 @@
       <c r="K5" s="51">
         <v>7.85</v>
       </c>
-      <c r="L5" s="26"/>
+      <c r="L5" s="173">
+        <f>Sheet4!L9</f>
+        <v>7.8500000000000008E-9</v>
+      </c>
+      <c r="M5" s="173">
+        <f>Sheet4!M9</f>
+        <v>4.4299999999999998E-9</v>
+      </c>
+      <c r="N5" s="173">
+        <f>Sheet4!N9</f>
+        <v>4.5500000000000002E-9</v>
+      </c>
+      <c r="O5" s="173">
+        <f>Sheet4!O9</f>
+        <v>4.5500000000000002E-9</v>
+      </c>
+      <c r="P5" s="26"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="25"/>
       <c r="C6" s="40" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="D6" s="92" t="str">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,2,FALSE)</f>
@@ -18546,32 +18669,46 @@
         <v>2.7</v>
       </c>
       <c r="G6" s="92">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,5,FALSE)</f>
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BB$33,5,FALSE)</f>
         <v>79.5</v>
       </c>
       <c r="H6" s="92">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,6,FALSE)</f>
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BB$33,6,FALSE)</f>
         <v>35.6</v>
       </c>
       <c r="I6" s="92">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,7,FALSE)</f>
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BB$33,7,FALSE)</f>
         <v>30.1</v>
       </c>
       <c r="J6" s="92">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,8,FALSE)</f>
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BB$33,8,FALSE)</f>
         <v>55.3</v>
       </c>
-      <c r="K6" s="92">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,9,FALSE)</f>
+      <c r="K6" s="179">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BB$33,9,FALSE)</f>
         <v>234.8</v>
       </c>
-      <c r="L6" s="26"/>
+      <c r="L6" s="179">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BB$33,10,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="179">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BB$33,11,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="179">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BB$33,12,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="179">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BB$33,13,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="26"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
-      <c r="C7" s="55" t="s">
-        <v>68</v>
-      </c>
+      <c r="C7" s="55"/>
       <c r="D7" s="55"/>
       <c r="E7" s="55"/>
       <c r="F7" s="56"/>
@@ -18580,9 +18717,13 @@
       <c r="I7" s="56"/>
       <c r="J7" s="56"/>
       <c r="K7" s="56"/>
-      <c r="L7" s="26"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="26"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="47" t="s">
         <v>46</v>
@@ -18612,8 +18753,18 @@
         <v>6.96</v>
       </c>
       <c r="L8" s="26"/>
+      <c r="M8" s="181">
+        <f>AVERAGE(5.59878,5.63895,5.73598,5.559)</f>
+        <v>5.6331774999999995</v>
+      </c>
+      <c r="N8" s="181">
+        <f>AVERAGE(5.72896,5.85194,5.71406,5.82871)</f>
+        <v>5.7809175000000002</v>
+      </c>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
         <v>34</v>
       </c>
@@ -18628,7 +18779,7 @@
         <v>11.72</v>
       </c>
       <c r="G9" s="88">
-        <f t="shared" ref="G9:K9" si="0">G8*2</f>
+        <f t="shared" ref="G9:J9" si="0">G8*2</f>
         <v>11.46923</v>
       </c>
       <c r="H9" s="88">
@@ -18644,12 +18795,28 @@
         <v>10.84</v>
       </c>
       <c r="K9" s="43">
-        <f t="shared" si="0"/>
+        <f>K8*2</f>
         <v>13.92</v>
       </c>
-      <c r="L9" s="26"/>
+      <c r="L9" s="43">
+        <f t="shared" ref="L9:O9" si="1">L8*2</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="88">
+        <f t="shared" si="1"/>
+        <v>11.266354999999999</v>
+      </c>
+      <c r="N9" s="88">
+        <f t="shared" si="1"/>
+        <v>11.561835</v>
+      </c>
+      <c r="O9" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="26"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
         <v>34</v>
       </c>
@@ -18680,8 +18847,18 @@
         <v>90</v>
       </c>
       <c r="L10" s="26"/>
+      <c r="M10" s="181">
+        <f>AVERAGE(75.681,72.9799,72.8709,75.8579,74.0277)</f>
+        <v>74.283479999999997</v>
+      </c>
+      <c r="N10" s="181">
+        <f>AVERAGE(73.0359,74.5732,73.0406)</f>
+        <v>73.549899999999994</v>
+      </c>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
       <c r="C11" s="40" t="s">
         <v>27</v>
@@ -18705,9 +18882,21 @@
       <c r="K11" s="42">
         <v>1.22E-6</v>
       </c>
-      <c r="L11" s="26"/>
+      <c r="L11" s="42">
+        <v>1.22E-6</v>
+      </c>
+      <c r="M11" s="42">
+        <v>1.22E-6</v>
+      </c>
+      <c r="N11" s="42">
+        <v>1.22E-6</v>
+      </c>
+      <c r="O11" s="42">
+        <v>1.22E-6</v>
+      </c>
+      <c r="P11" s="26"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
       <c r="C12" s="40" t="s">
         <v>28</v>
@@ -18731,9 +18920,17 @@
       <c r="K12" s="42">
         <v>7.0000000000000005E-8</v>
       </c>
-      <c r="L12" s="26"/>
+      <c r="L12" s="174"/>
+      <c r="M12" s="174">
+        <v>9.6299999999999995E-8</v>
+      </c>
+      <c r="N12" s="174">
+        <v>9.3499999999999997E-8</v>
+      </c>
+      <c r="O12" s="174"/>
+      <c r="P12" s="26"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="25" t="s">
         <v>34</v>
       </c>
@@ -18748,28 +18945,44 @@
         <v>25.9016393442623</v>
       </c>
       <c r="G13" s="45">
-        <f t="shared" ref="G13:K13" si="1">(G12/G11)*100</f>
+        <f t="shared" ref="G13:J13" si="2">(G12/G11)*100</f>
         <v>14.262295081967213</v>
       </c>
       <c r="H13" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.3442622950819683</v>
       </c>
       <c r="I13" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.163934426229508</v>
       </c>
       <c r="J13" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28.442622950819676</v>
       </c>
       <c r="K13" s="45">
-        <f t="shared" si="1"/>
+        <f>(K12/K11)*100</f>
         <v>5.7377049180327875</v>
       </c>
-      <c r="L13" s="26"/>
+      <c r="L13" s="45">
+        <f t="shared" ref="L13:O13" si="3">(L12/L11)*100</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="45">
+        <f>(M12/M11)*100</f>
+        <v>7.8934426229508192</v>
+      </c>
+      <c r="N13" s="45">
+        <f t="shared" si="3"/>
+        <v>7.6639344262295088</v>
+      </c>
+      <c r="O13" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="26"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="25" t="s">
         <v>34</v>
       </c>
@@ -18797,9 +19010,17 @@
       <c r="K14" s="42">
         <v>6070000</v>
       </c>
-      <c r="L14" s="26"/>
+      <c r="L14" s="174"/>
+      <c r="M14" s="174">
+        <v>6050000</v>
+      </c>
+      <c r="N14" s="174">
+        <v>6060000</v>
+      </c>
+      <c r="O14" s="174"/>
+      <c r="P14" s="26"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
         <v>34</v>
       </c>
@@ -18809,7 +19030,7 @@
       <c r="E15" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="88">
         <v>1.35</v>
       </c>
       <c r="G15" s="43">
@@ -18824,12 +19045,20 @@
       <c r="J15" s="43">
         <v>3.08</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="88">
         <v>4.96</v>
       </c>
-      <c r="L15" s="26"/>
+      <c r="L15" s="181"/>
+      <c r="M15" s="181">
+        <v>11.2</v>
+      </c>
+      <c r="N15" s="181">
+        <v>11.4</v>
+      </c>
+      <c r="O15" s="181"/>
+      <c r="P15" s="26"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="25" t="s">
         <v>36</v>
       </c>
@@ -18845,9 +19074,13 @@
       <c r="I16" s="44"/>
       <c r="J16" s="43"/>
       <c r="K16" s="44"/>
-      <c r="L16" s="26"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="26"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="25" t="s">
         <v>36</v>
       </c>
@@ -18863,9 +19096,13 @@
       <c r="I17" s="44"/>
       <c r="J17" s="43"/>
       <c r="K17" s="44"/>
-      <c r="L17" s="26"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="26"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
@@ -18876,22 +19113,30 @@
       <c r="I18" s="44"/>
       <c r="J18" s="43"/>
       <c r="K18" s="44"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="40" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
@@ -18902,8 +19147,12 @@
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -18914,12 +19163,18 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18942,18 +19197,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20CB03-FDC1-47B9-AF99-E205AFF1D2E2}">
   <dimension ref="C2:CB50"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="Y19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AY57" sqref="AY57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:67" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:67" x14ac:dyDescent="0.3">
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
@@ -18965,7 +19220,7 @@
       <c r="BN2" s="5"/>
       <c r="BO2" s="5"/>
     </row>
-    <row r="3" spans="3:67" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:67" x14ac:dyDescent="0.3">
       <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
@@ -18985,7 +19240,7 @@
       <c r="BN3" s="5"/>
       <c r="BO3" s="5"/>
     </row>
-    <row r="4" spans="3:67" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:67" x14ac:dyDescent="0.3">
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
       <c r="AM4" s="5"/>
@@ -18997,53 +19252,53 @@
       <c r="BN4" s="5"/>
       <c r="BO4" s="5"/>
     </row>
-    <row r="7" spans="3:67" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:67" x14ac:dyDescent="0.3">
       <c r="AP7" t="str">
         <f>Sheet2!C6&amp; " and debris cloud diamter"</f>
-        <v>Voice hardening parameter and debris cloud diamter</v>
+        <v>Voice hardening parameter Q1 and debris cloud diamter</v>
       </c>
     </row>
-    <row r="8" spans="3:67" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:67" x14ac:dyDescent="0.3">
       <c r="AD8" t="str">
         <f>Sheet2!C6&amp;" "&amp;Sheet2!D6</f>
-        <v>Voice hardening parameter Q1</v>
+        <v>Voice hardening parameter Q1 Q1</v>
       </c>
     </row>
-    <row r="10" spans="3:67" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:67" x14ac:dyDescent="0.3">
       <c r="AD10" t="str">
         <f>Sheet2!C6&amp; " and target hole diameter"</f>
-        <v>Voice hardening parameter and target hole diameter</v>
+        <v>Voice hardening parameter Q1 and target hole diameter</v>
       </c>
     </row>
-    <row r="24" spans="30:80" x14ac:dyDescent="0.25">
+    <row r="24" spans="30:80" x14ac:dyDescent="0.3">
       <c r="AZ24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="30:80" x14ac:dyDescent="0.25">
+    <row r="26" spans="30:80" x14ac:dyDescent="0.3">
       <c r="CB26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="30:80" x14ac:dyDescent="0.25">
+    <row r="29" spans="30:80" x14ac:dyDescent="0.3">
       <c r="AD29" t="str">
         <f>Sheet2!C6&amp;" and percentage of solid material in debris cloud"</f>
-        <v>Voice hardening parameter and percentage of solid material in debris cloud</v>
+        <v>Voice hardening parameter Q1 and percentage of solid material in debris cloud</v>
       </c>
       <c r="AP29" t="str">
         <f>Sheet2!C6&amp; " and residual velocity"</f>
-        <v>Voice hardening parameter and residual velocity</v>
+        <v>Voice hardening parameter Q1 and residual velocity</v>
       </c>
     </row>
-    <row r="46" spans="58:58" x14ac:dyDescent="0.25">
+    <row r="46" spans="58:58" x14ac:dyDescent="0.3">
       <c r="BF46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="37:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="37:37" x14ac:dyDescent="0.3">
       <c r="AK50" t="str">
         <f>Sheet2!C6&amp; " and percentage of converted particles due to temperature"</f>
-        <v>Voice hardening parameter and percentage of converted particles due to temperature</v>
+        <v>Voice hardening parameter Q1 and percentage of converted particles due to temperature</v>
       </c>
     </row>
   </sheetData>
@@ -19058,7 +19313,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c4e1f6e80555f8e/Documenten/Internship/Project/Shared folder/HVI/GitHub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayleigh\Documents\HVI share\HVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="13_ncr:1_{E8EE7AEA-1AE8-4D2D-98BA-6142DDD8D4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D452979-AC25-4495-9BEB-FFE801584AE1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45513231-847D-4A77-ACB5-D564D0489230}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="-15480" windowWidth="20730" windowHeight="15600" activeTab="2" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
+    <workbookView xWindow="4440" yWindow="-15480" windowWidth="20730" windowHeight="15600" activeTab="1" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,21 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="172">
   <si>
     <t>Al 7005</t>
   </si>
@@ -552,19 +543,34 @@
     <t>gamma0</t>
   </si>
   <si>
-    <t>Voice hardening parameter Q1</t>
+    <t>Titanium</t>
   </si>
   <si>
-    <t>Voice hardening parameter Q2</t>
+    <t>WELDOX 460 E</t>
   </si>
   <si>
-    <t>Voice hardening parameter C1</t>
+    <t>S4</t>
   </si>
   <si>
-    <t>Voice hardening parameter C2</t>
+    <t>S5</t>
   </si>
   <si>
-    <t>Titanium</t>
+    <t>WELDOX 700 E</t>
+  </si>
+  <si>
+    <t>WELDOX 900 E</t>
+  </si>
+  <si>
+    <t>Voce hardening parameter Q1</t>
+  </si>
+  <si>
+    <t>Voce hardening parameter C1</t>
+  </si>
+  <si>
+    <t>Voce hardening parameter Q2</t>
+  </si>
+  <si>
+    <t>Voce hardening parameter C2</t>
   </si>
 </sst>
 </file>
@@ -574,7 +580,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,7 +701,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1152,15 +1158,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
       </left>
@@ -1185,19 +1182,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1207,41 +1191,6 @@
       </top>
       <bottom style="medium">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1283,6 +1232,32 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1464,12 +1439,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1574,41 +1543,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1617,24 +1571,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1680,36 +1655,36 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1800,7 +1775,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2355,7 +2330,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2393,7 +2368,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -2486,7 +2461,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2524,7 +2499,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -2566,7 +2541,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2603,7 +2578,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2635,7 +2610,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Voice hardening parameter Q1 and percentage of converted particles due to temperature</c:v>
+              <c:v>JC Yield stress A and percentage of converted particles due to temperature</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -2687,7 +2662,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2711,7 +2686,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -2732,7 +2707,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.7</c:v>
+                  <c:v>292.60000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2770,7 +2745,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -2791,7 +2766,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>79.5</c:v>
+                  <c:v>38.799999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2829,7 +2804,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -2850,7 +2825,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>35.6</c:v>
+                  <c:v>172.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2888,7 +2863,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -2909,7 +2884,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30.1</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2947,7 +2922,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -2968,7 +2943,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>55.3</c:v>
+                  <c:v>292.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3006,7 +2981,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -3027,7 +3002,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>234.8</c:v>
+                  <c:v>325.70001000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3048,6 +3023,290 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-32B3-4389-A871-5AF88463B17D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4340</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>910</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4950-4A97-99EA-F4D701C55FA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VT6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4950-4A97-99EA-F4D701C55FA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OT4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4950-4A97-99EA-F4D701C55FA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OT4-O</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$R$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4950-4A97-99EA-F4D701C55FA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3104,7 +3363,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Voice hardening parameter Q1 Q1</c:v>
+                  <c:v>JC Yield stress A A / sigma0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3148,7 +3407,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3186,7 +3445,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -3295,7 +3554,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3333,7 +3592,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -3375,7 +3634,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3412,7 +3671,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3496,7 +3755,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4046,7 +4305,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4084,7 +4343,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -4177,7 +4436,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4215,7 +4474,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -4257,7 +4516,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4294,7 +4553,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4412,7 +4671,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4962,7 +5221,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5000,7 +5259,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -5093,7 +5352,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5131,7 +5390,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -5173,7 +5432,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5210,7 +5469,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5294,7 +5553,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5836,7 +6095,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5874,7 +6133,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -5975,7 +6234,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6013,7 +6272,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -6055,7 +6314,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6092,7 +6351,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6210,7 +6469,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6752,7 +7011,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6790,7 +7049,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -6899,7 +7158,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6937,7 +7196,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -6979,7 +7238,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7016,7 +7275,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7048,7 +7307,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Voice hardening parameter Q1 and target hole diameter</c:v>
+              <c:v>JC Yield stress A and target hole diameter</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -7086,7 +7345,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7110,7 +7369,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -7131,7 +7390,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.7</c:v>
+                  <c:v>292.60000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7169,7 +7428,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -7190,7 +7449,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>79.5</c:v>
+                  <c:v>38.799999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7228,7 +7487,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -7249,7 +7508,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>35.6</c:v>
+                  <c:v>172.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7287,7 +7546,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -7308,7 +7567,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30.1</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7346,7 +7605,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="x"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -7367,7 +7626,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>55.3</c:v>
+                  <c:v>292.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7405,7 +7664,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -7426,7 +7685,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>234.8</c:v>
+                  <c:v>325.70001000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7447,6 +7706,290 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-707F-4597-A97F-82D818B2C4D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4340</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>910</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-487F-470A-A647-4A96F345121C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OT4-O</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-487F-470A-A647-4A96F345121C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OT4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11.561835</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-487F-470A-A647-4A96F345121C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VT6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11.266354999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-487F-470A-A647-4A96F345121C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7503,7 +8046,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Voice hardening parameter Q1 Q1</c:v>
+                  <c:v>JC Yield stress A A / sigma0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7555,7 +8098,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7593,7 +8136,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -7686,7 +8229,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7724,7 +8267,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -7766,7 +8309,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7803,7 +8346,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7835,7 +8378,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Voice hardening parameter Q1 and debris cloud diamter</c:v>
+              <c:v>JC Yield stress A and debris cloud diamter</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -7873,7 +8416,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7897,7 +8440,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -7918,7 +8461,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.7</c:v>
+                  <c:v>292.60000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7956,7 +8499,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -7977,7 +8520,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>79.5</c:v>
+                  <c:v>38.799999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8015,7 +8558,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -8036,7 +8579,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>35.6</c:v>
+                  <c:v>172.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8074,7 +8617,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -8095,7 +8638,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30.1</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8133,7 +8676,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -8154,7 +8697,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>55.3</c:v>
+                  <c:v>292.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8192,7 +8735,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -8213,7 +8756,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>234.8</c:v>
+                  <c:v>325.70001000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8234,6 +8777,290 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9247-4ECF-AA9B-2A0FB9FFC1A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4340</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>910</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F9EA-4F4D-914E-24066A60C86B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VT6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>74.283479999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F9EA-4F4D-914E-24066A60C86B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OT4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>73.549899999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F9EA-4F4D-914E-24066A60C86B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OT4-O</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>92.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F9EA-4F4D-914E-24066A60C86B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8290,7 +9117,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Voice hardening parameter Q1 Q1</c:v>
+                  <c:v>JC Yield stress A A / sigma0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8342,7 +9169,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8380,7 +9207,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -8473,7 +9300,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8511,7 +9338,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -8553,7 +9380,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8590,7 +9417,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8622,7 +9449,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Voice hardening parameter Q1 and percentage of solid material in debris cloud</c:v>
+              <c:v>JC Yield stress A and percentage of solid material in debris cloud</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -8674,7 +9501,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8698,7 +9525,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -8719,7 +9546,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.7</c:v>
+                  <c:v>292.60000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8757,7 +9584,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -8778,7 +9605,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>79.5</c:v>
+                  <c:v>38.799999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8816,7 +9643,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -8837,7 +9664,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>35.6</c:v>
+                  <c:v>172.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8875,7 +9702,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -8896,7 +9723,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30.1</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8934,7 +9761,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -8955,7 +9782,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>55.3</c:v>
+                  <c:v>292.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8993,7 +9820,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -9014,7 +9841,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>234.8</c:v>
+                  <c:v>325.70001000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9035,6 +9862,290 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9AFA-418C-BA69-1655A802B0DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4340</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>910</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7540983606557381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE71-4B7F-8968-84FEABD2FED1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VT6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.8934426229508192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE71-4B7F-8968-84FEABD2FED1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OT4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.6639344262295088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FE71-4B7F-8968-84FEABD2FED1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OT4-O</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.8934426229508201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FE71-4B7F-8968-84FEABD2FED1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9091,7 +10202,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Voice hardening parameter Q1 Q1</c:v>
+                  <c:v>JC Yield stress A A / sigma0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9143,7 +10254,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9181,7 +10292,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -9274,7 +10385,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9312,7 +10423,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -9354,7 +10465,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9391,7 +10502,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9423,7 +10534,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Voice hardening parameter Q1 and residual velocity</c:v>
+              <c:v>JC Yield stress A and residual velocity</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -9461,7 +10572,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9485,7 +10596,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -9506,7 +10617,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.7</c:v>
+                  <c:v>292.60000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9544,7 +10655,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -9565,7 +10676,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>79.5</c:v>
+                  <c:v>38.799999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9603,7 +10714,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -9624,7 +10735,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>35.6</c:v>
+                  <c:v>172.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9662,7 +10773,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -9683,7 +10794,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30.1</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9721,7 +10832,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -9742,7 +10853,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>55.3</c:v>
+                  <c:v>292.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9780,7 +10891,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -9801,7 +10912,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>234.8</c:v>
+                  <c:v>325.70001000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9822,6 +10933,290 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-57DF-43CC-93B4-8F333C8C24B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4340</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>910</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5720000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-82C0-457F-8492-FD9D25AF5429}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VT6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6050000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-82C0-457F-8492-FD9D25AF5429}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OT4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6060000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-82C0-457F-8492-FD9D25AF5429}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OT4-O</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6040000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-82C0-457F-8492-FD9D25AF5429}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9878,7 +11273,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Voice hardening parameter Q1 Q1</c:v>
+                  <c:v>JC Yield stress A A / sigma0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9922,7 +11317,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9960,7 +11355,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -10061,7 +11456,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-NL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10099,7 +11494,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -10141,7 +11536,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10178,7 +11573,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16437,24 +17832,24 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" customWidth="1"/>
-    <col min="5" max="5" width="78.88671875" customWidth="1"/>
+    <col min="2" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="78.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:4">
       <c r="C2" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:4" ht="17.25" customHeight="1">
       <c r="C4" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:4" ht="21" customHeight="1">
       <c r="C5" s="17" t="s">
         <v>23</v>
       </c>
@@ -16462,53 +17857,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:4">
       <c r="C6" s="18"/>
       <c r="D6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:4">
       <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:4">
       <c r="C8" s="19"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:4">
       <c r="C9" s="20"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:4">
       <c r="C10" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:4">
       <c r="C11" s="22"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:4">
       <c r="C12" s="23"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:4">
       <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:4">
       <c r="C14" s="19"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:4">
       <c r="C15" s="20"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:5">
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
@@ -16519,7 +17914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5">
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>18</v>
@@ -16528,21 +17923,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5">
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
         <v>15</v>
@@ -16551,21 +17946,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5">
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:5">
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5">
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -16574,21 +17969,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:5">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:5">
       <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
@@ -16597,28 +17992,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:5">
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:5">
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:5">
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:5">
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="16" t="s">
@@ -16633,31 +18028,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20077FD7-1EC0-41E4-96B7-2075AF4FD95D}">
-  <dimension ref="B3:R57"/>
+  <dimension ref="B3:U57"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L36" sqref="L36"/>
+      <selection pane="topRight" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="33.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
-    <col min="11" max="12" width="14.88671875" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" customWidth="1"/>
-    <col min="16" max="16" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" customWidth="1"/>
+    <col min="13" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:21">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -16674,8 +18070,11 @@
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:21">
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -16692,55 +18091,64 @@
       <c r="O4" s="26"/>
       <c r="P4" s="26"/>
       <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
     </row>
-    <row r="5" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:21" ht="15" customHeight="1">
       <c r="B5" s="26"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="153" t="s">
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="157" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="169"/>
-      <c r="M5" s="153" t="s">
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="158"/>
+      <c r="L5" s="158" t="s">
         <v>152</v>
       </c>
-      <c r="N5" s="154"/>
-      <c r="O5" s="154"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="26"/>
+      <c r="M5" s="158"/>
+      <c r="N5" s="158"/>
+      <c r="O5" s="158"/>
+      <c r="P5" s="158"/>
+      <c r="Q5" s="158"/>
+      <c r="R5" s="158"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="26"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:21">
       <c r="B6" s="26"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="160" t="s">
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="162"/>
-      <c r="K6" s="165" t="s">
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="168"/>
-      <c r="M6" s="165" t="s">
+      <c r="L6" s="170"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="169" t="s">
         <v>132</v>
       </c>
-      <c r="N6" s="166"/>
-      <c r="O6" s="167"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="5"/>
+      <c r="Q6" s="170"/>
+      <c r="R6" s="171"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:21">
       <c r="B7" s="26"/>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
@@ -16760,26 +18168,35 @@
       <c r="J7" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="124" t="s">
+      <c r="K7" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="139" t="s">
+      <c r="L7" s="147" t="s">
         <v>156</v>
       </c>
-      <c r="M7" s="90" t="s">
+      <c r="M7" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="N7" s="147" t="s">
+        <v>164</v>
+      </c>
+      <c r="O7" s="147" t="s">
+        <v>165</v>
+      </c>
+      <c r="P7" s="144" t="s">
         <v>133</v>
       </c>
-      <c r="N7" s="91" t="s">
+      <c r="Q7" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="O7" s="91" t="s">
+      <c r="R7" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="5"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="2:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:21" ht="16.5" customHeight="1" thickBot="1">
       <c r="B8" s="26"/>
       <c r="C8" s="64" t="s">
         <v>65</v>
@@ -16790,41 +18207,50 @@
       <c r="E8" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="120" t="s">
+      <c r="F8" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="121" t="s">
+      <c r="G8" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="121" t="s">
+      <c r="H8" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="121" t="s">
+      <c r="I8" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="122" t="s">
+      <c r="J8" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="140" t="s">
+      <c r="K8" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="141">
+      <c r="L8" s="178">
         <v>4340</v>
       </c>
       <c r="M8" s="120" t="s">
+        <v>163</v>
+      </c>
+      <c r="N8" s="178" t="s">
+        <v>166</v>
+      </c>
+      <c r="O8" s="178" t="s">
+        <v>167</v>
+      </c>
+      <c r="P8" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="N8" s="121" t="s">
+      <c r="Q8" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="O8" s="121" t="s">
+      <c r="R8" s="119" t="s">
         <v>138</v>
       </c>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="5"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:21">
       <c r="B9" s="26"/>
       <c r="C9" s="57" t="s">
         <v>68</v>
@@ -16850,25 +18276,34 @@
       <c r="J9" s="67">
         <v>2.7000000000000002E-9</v>
       </c>
-      <c r="K9" s="142">
+      <c r="K9" s="137">
         <v>7.8500000000000008E-9</v>
       </c>
-      <c r="L9" s="143">
+      <c r="L9" s="28">
         <v>7.8500000000000008E-9</v>
       </c>
-      <c r="M9" s="111">
+      <c r="M9" s="28">
+        <v>7.8500000000000008E-9</v>
+      </c>
+      <c r="N9" s="28">
+        <v>7.8500000000000008E-9</v>
+      </c>
+      <c r="O9" s="28">
+        <v>7.8500000000000008E-9</v>
+      </c>
+      <c r="P9" s="109">
         <v>4.4299999999999998E-9</v>
       </c>
-      <c r="N9" s="112">
+      <c r="Q9" s="110">
         <v>4.5500000000000002E-9</v>
       </c>
-      <c r="O9" s="113">
+      <c r="R9" s="111">
         <v>4.5500000000000002E-9</v>
       </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="84"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="84"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:21">
       <c r="B10" s="26"/>
       <c r="C10" s="32" t="s">
         <v>70</v>
@@ -16894,26 +18329,38 @@
       <c r="J10" s="68">
         <v>58333.33</v>
       </c>
-      <c r="K10" s="142">
+      <c r="K10" s="137">
         <v>205880</v>
       </c>
-      <c r="L10" s="143">
+      <c r="L10" s="28">
         <f>L13/(3*(1-2*L14))</f>
         <v>174999.99999999997</v>
       </c>
-      <c r="M10" s="111">
+      <c r="M10" s="28">
+        <f>M13/(3*(1-2*M14))</f>
+        <v>205882.35294117648</v>
+      </c>
+      <c r="N10" s="28">
+        <f t="shared" ref="M10:O10" si="0">N13/(3*(1-2*N14))</f>
+        <v>205882.35294117648</v>
+      </c>
+      <c r="O10" s="28">
+        <f t="shared" si="0"/>
+        <v>205882.35294117648</v>
+      </c>
+      <c r="P10" s="109">
         <v>116</v>
       </c>
-      <c r="N10" s="112">
+      <c r="Q10" s="110">
         <v>116</v>
       </c>
-      <c r="O10" s="112">
+      <c r="R10" s="110">
         <v>116</v>
       </c>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="84"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="84"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:21">
       <c r="B11" s="26"/>
       <c r="C11" s="32" t="s">
         <v>73</v>
@@ -16939,26 +18386,38 @@
       <c r="J11" s="68">
         <v>26923.08</v>
       </c>
-      <c r="K11" s="142">
+      <c r="K11" s="137">
         <v>78947</v>
       </c>
-      <c r="L11" s="143">
+      <c r="L11" s="28">
         <f>L13/(2*(1+L14))</f>
         <v>80769.230769230766</v>
       </c>
-      <c r="M11" s="111">
+      <c r="M11" s="28">
+        <f t="shared" ref="M11:O11" si="1">M13/(2*(1+M14))</f>
+        <v>78947.368421052626</v>
+      </c>
+      <c r="N11" s="28">
+        <f t="shared" si="1"/>
+        <v>78947.368421052626</v>
+      </c>
+      <c r="O11" s="28">
+        <f t="shared" si="1"/>
+        <v>78947.368421052626</v>
+      </c>
+      <c r="P11" s="109">
         <v>38000</v>
       </c>
-      <c r="N11" s="112">
+      <c r="Q11" s="110">
         <v>38000</v>
       </c>
-      <c r="O11" s="112">
+      <c r="R11" s="110">
         <v>38000</v>
       </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="84"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="84"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:21">
       <c r="B12" s="26"/>
       <c r="C12" s="32" t="s">
         <v>75</v>
@@ -16984,25 +18443,34 @@
       <c r="J12" s="68">
         <v>47</v>
       </c>
-      <c r="K12" s="117">
+      <c r="K12" s="115">
         <v>47</v>
       </c>
-      <c r="L12" s="144">
+      <c r="L12" s="29">
         <v>47</v>
       </c>
-      <c r="M12" s="111">
+      <c r="M12" s="29">
         <v>47</v>
       </c>
-      <c r="N12" s="112">
+      <c r="N12" s="29">
         <v>47</v>
       </c>
-      <c r="O12" s="112">
+      <c r="O12" s="29">
         <v>47</v>
       </c>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="84"/>
+      <c r="P12" s="109">
+        <v>47</v>
+      </c>
+      <c r="Q12" s="110">
+        <v>47</v>
+      </c>
+      <c r="R12" s="110">
+        <v>47</v>
+      </c>
+      <c r="S12" s="29"/>
+      <c r="T12" s="84"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:21">
       <c r="B13" s="26"/>
       <c r="C13" s="32" t="s">
         <v>77</v>
@@ -17028,25 +18496,34 @@
       <c r="J13" s="68">
         <v>70000</v>
       </c>
-      <c r="K13" s="142">
+      <c r="K13" s="137">
         <v>210000</v>
       </c>
-      <c r="L13" s="143">
+      <c r="L13" s="28">
         <v>210000</v>
       </c>
-      <c r="M13" s="111">
+      <c r="M13" s="28">
+        <v>210000</v>
+      </c>
+      <c r="N13" s="28">
+        <v>210000</v>
+      </c>
+      <c r="O13" s="28">
+        <v>210000</v>
+      </c>
+      <c r="P13" s="109">
         <v>114500</v>
       </c>
-      <c r="N13" s="112">
+      <c r="Q13" s="110">
         <v>114500</v>
       </c>
-      <c r="O13" s="112">
+      <c r="R13" s="110">
         <v>114500</v>
       </c>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="84"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="84"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:21">
       <c r="B14" s="26"/>
       <c r="C14" s="32" t="s">
         <v>79</v>
@@ -17072,25 +18549,34 @@
       <c r="J14" s="68">
         <v>0.3</v>
       </c>
-      <c r="K14" s="117">
+      <c r="K14" s="115">
         <v>0.33</v>
       </c>
-      <c r="L14" s="144">
+      <c r="L14" s="29">
         <v>0.3</v>
       </c>
-      <c r="M14" s="111">
+      <c r="M14" s="29">
+        <v>0.33</v>
+      </c>
+      <c r="N14" s="29">
+        <v>0.33</v>
+      </c>
+      <c r="O14" s="29">
+        <v>0.33</v>
+      </c>
+      <c r="P14" s="109">
         <v>0.34499999999999997</v>
       </c>
-      <c r="N14" s="112">
+      <c r="Q14" s="110">
         <v>0.34499999999999997</v>
       </c>
-      <c r="O14" s="112">
+      <c r="R14" s="110">
         <v>0.34499999999999997</v>
       </c>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="84"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="84"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:21">
       <c r="B15" s="26"/>
       <c r="C15" s="32" t="s">
         <v>81</v>
@@ -17116,17 +18602,26 @@
       <c r="J15" s="68">
         <v>0.9</v>
       </c>
-      <c r="K15" s="117">
+      <c r="K15" s="115">
         <v>0.9</v>
       </c>
-      <c r="L15" s="144"/>
-      <c r="M15" s="111"/>
-      <c r="N15" s="112"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="84"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="N15" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="O15" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="84"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:21">
       <c r="B16" s="26"/>
       <c r="C16" s="32" t="s">
         <v>83</v>
@@ -17152,25 +18647,34 @@
       <c r="J16" s="69">
         <v>910000000</v>
       </c>
-      <c r="K16" s="142">
+      <c r="K16" s="137">
         <v>452000000</v>
       </c>
-      <c r="L16" s="143">
+      <c r="L16" s="28">
         <v>452000000</v>
       </c>
-      <c r="M16" s="114">
+      <c r="M16" s="28">
+        <v>452000000</v>
+      </c>
+      <c r="N16" s="28">
+        <v>452000000</v>
+      </c>
+      <c r="O16" s="28">
+        <v>452000000</v>
+      </c>
+      <c r="P16" s="112">
         <v>720000000</v>
       </c>
-      <c r="N16" s="113">
+      <c r="Q16" s="111">
         <v>720000000</v>
       </c>
-      <c r="O16" s="113">
+      <c r="R16" s="111">
         <v>720000000</v>
       </c>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="84"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="84"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20">
       <c r="B17" s="26"/>
       <c r="C17" s="32" t="s">
         <v>86</v>
@@ -17196,19 +18700,28 @@
       <c r="J17" s="70">
         <v>2.3200000000000001E-5</v>
       </c>
-      <c r="K17" s="142">
+      <c r="K17" s="137">
         <v>2.3200000000000001E-5</v>
       </c>
-      <c r="L17" s="143">
+      <c r="L17" s="28">
         <v>2.3200000000000001E-5</v>
       </c>
-      <c r="M17" s="111"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="84"/>
+      <c r="M17" s="28">
+        <v>1.2E-5</v>
+      </c>
+      <c r="N17" s="28">
+        <v>1.2E-5</v>
+      </c>
+      <c r="O17" s="28">
+        <v>1.2E-5</v>
+      </c>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="84"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20">
       <c r="B18" s="26"/>
       <c r="C18" s="32" t="s">
         <v>89</v>
@@ -17232,25 +18745,34 @@
       <c r="J18" s="69">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K18" s="142">
+      <c r="K18" s="137">
         <v>1E-4</v>
       </c>
-      <c r="L18" s="143">
+      <c r="L18" s="28">
         <v>1E-4</v>
       </c>
-      <c r="M18" s="115">
+      <c r="M18" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="N18" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="O18" s="28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="P18" s="113">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="N18" s="116">
+      <c r="Q18" s="114">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="O18" s="116">
+      <c r="R18" s="114">
         <v>6.3499999999999997E-3</v>
       </c>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="84"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="84"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20">
       <c r="B19" s="26"/>
       <c r="C19" s="32"/>
       <c r="D19" s="32" t="s">
@@ -17272,29 +18794,32 @@
       <c r="J19" s="69">
         <v>2.4569999999999999</v>
       </c>
-      <c r="K19" s="142">
+      <c r="K19" s="137">
         <v>3.548</v>
       </c>
-      <c r="L19" s="143">
+      <c r="L19" s="28">
         <f>L16*L9</f>
         <v>3.5482000000000005</v>
       </c>
-      <c r="M19" s="114">
-        <f>M16*M9</f>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="112">
+        <f>P16*P9</f>
         <v>3.1896</v>
       </c>
-      <c r="N19" s="112">
-        <f t="shared" ref="N19:O19" si="0">N16*N9</f>
+      <c r="Q19" s="110">
+        <f t="shared" ref="Q19:R19" si="2">Q16*Q9</f>
         <v>3.2760000000000002</v>
       </c>
-      <c r="O19" s="112">
-        <f t="shared" si="0"/>
+      <c r="R19" s="110">
+        <f t="shared" si="2"/>
         <v>3.2760000000000002</v>
       </c>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="84"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="84"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20">
       <c r="B20" s="26"/>
       <c r="C20" s="37" t="s">
         <v>92</v>
@@ -17320,28 +18845,37 @@
       <c r="J20" s="68">
         <v>893</v>
       </c>
-      <c r="K20" s="117">
+      <c r="K20" s="115">
         <v>1800</v>
       </c>
-      <c r="L20" s="144">
+      <c r="L20" s="29">
         <v>1800</v>
       </c>
-      <c r="M20" s="111">
+      <c r="M20" s="29">
+        <v>1800</v>
+      </c>
+      <c r="N20" s="29">
+        <v>1800</v>
+      </c>
+      <c r="O20" s="29">
+        <v>1800</v>
+      </c>
+      <c r="P20" s="109">
         <f>1668+273</f>
         <v>1941</v>
       </c>
-      <c r="N20" s="112">
-        <f t="shared" ref="N20:O20" si="1">1668+273</f>
+      <c r="Q20" s="110">
+        <f t="shared" ref="Q20:R20" si="3">1668+273</f>
         <v>1941</v>
       </c>
-      <c r="O20" s="112">
-        <f t="shared" si="1"/>
+      <c r="R20" s="110">
+        <f t="shared" si="3"/>
         <v>1941</v>
       </c>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="84"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="84"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20">
       <c r="B21" s="26"/>
       <c r="C21" s="37" t="s">
         <v>94</v>
@@ -17367,13 +18901,13 @@
       <c r="J21" s="68">
         <v>293</v>
       </c>
-      <c r="K21" s="117">
+      <c r="K21" s="115">
         <v>293</v>
       </c>
-      <c r="L21" s="144">
+      <c r="L21" s="29">
         <v>293</v>
       </c>
-      <c r="M21" s="117">
+      <c r="M21" s="29">
         <v>293</v>
       </c>
       <c r="N21" s="29">
@@ -17382,10 +18916,19 @@
       <c r="O21" s="29">
         <v>293</v>
       </c>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="84"/>
+      <c r="P21" s="115">
+        <v>293</v>
+      </c>
+      <c r="Q21" s="29">
+        <v>293</v>
+      </c>
+      <c r="R21" s="29">
+        <v>293</v>
+      </c>
+      <c r="S21" s="26"/>
+      <c r="T21" s="84"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20">
       <c r="B22" s="26"/>
       <c r="C22" s="37" t="s">
         <v>96</v>
@@ -17411,13 +18954,13 @@
       <c r="J22" s="68">
         <v>293</v>
       </c>
-      <c r="K22" s="117">
+      <c r="K22" s="115">
         <v>293</v>
       </c>
-      <c r="L22" s="144">
+      <c r="L22" s="29">
         <v>293</v>
       </c>
-      <c r="M22" s="117">
+      <c r="M22" s="29">
         <v>293</v>
       </c>
       <c r="N22" s="29">
@@ -17426,10 +18969,19 @@
       <c r="O22" s="29">
         <v>293</v>
       </c>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="84"/>
+      <c r="P22" s="115">
+        <v>293</v>
+      </c>
+      <c r="Q22" s="29">
+        <v>293</v>
+      </c>
+      <c r="R22" s="29">
+        <v>293</v>
+      </c>
+      <c r="S22" s="26"/>
+      <c r="T22" s="84"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20">
       <c r="B23" s="26"/>
       <c r="C23" s="37" t="s">
         <v>98</v>
@@ -17455,19 +19007,22 @@
       <c r="J23" s="68">
         <v>893</v>
       </c>
-      <c r="K23" s="117">
+      <c r="K23" s="115">
         <v>893</v>
       </c>
-      <c r="L23" s="144">
+      <c r="L23" s="29">
         <v>893</v>
       </c>
-      <c r="M23" s="111"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="84"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="109"/>
+      <c r="Q23" s="110"/>
+      <c r="R23" s="110"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="84"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20">
       <c r="B24" s="26"/>
       <c r="C24" s="32" t="s">
         <v>127</v>
@@ -17493,25 +19048,34 @@
       <c r="J24" s="68">
         <v>292.5</v>
       </c>
-      <c r="K24" s="117">
+      <c r="K24" s="115">
         <v>325.70001000000002</v>
       </c>
-      <c r="L24" s="144">
+      <c r="L24" s="29">
         <v>910</v>
       </c>
-      <c r="M24" s="111">
+      <c r="M24" s="29">
+        <v>499</v>
+      </c>
+      <c r="N24" s="29">
+        <v>859</v>
+      </c>
+      <c r="O24" s="29">
+        <v>992</v>
+      </c>
+      <c r="P24" s="109">
         <v>900</v>
       </c>
-      <c r="N24" s="112">
+      <c r="Q24" s="110">
         <v>600</v>
       </c>
-      <c r="O24" s="112">
+      <c r="R24" s="110">
         <v>500</v>
       </c>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="84"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="84"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20">
       <c r="B25" s="26"/>
       <c r="C25" s="32" t="s">
         <v>128</v>
@@ -17537,25 +19101,34 @@
       <c r="J25" s="68">
         <v>2.69</v>
       </c>
-      <c r="K25" s="117">
+      <c r="K25" s="115">
         <v>0</v>
       </c>
-      <c r="L25" s="144">
+      <c r="L25" s="29">
         <v>586</v>
       </c>
-      <c r="M25" s="111">
+      <c r="M25" s="29">
+        <v>382</v>
+      </c>
+      <c r="N25" s="29">
+        <v>329</v>
+      </c>
+      <c r="O25" s="29">
+        <v>364</v>
+      </c>
+      <c r="P25" s="109">
         <v>509.75</v>
       </c>
-      <c r="N25" s="112">
+      <c r="Q25" s="110">
         <v>528</v>
       </c>
-      <c r="O25" s="112">
+      <c r="R25" s="110">
         <v>353.9</v>
       </c>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="84"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="84"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20">
       <c r="B26" s="26"/>
       <c r="C26" s="32" t="s">
         <v>129</v>
@@ -17581,25 +19154,34 @@
       <c r="J26" s="68">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="K26" s="117">
+      <c r="K26" s="115">
         <v>0</v>
       </c>
-      <c r="L26" s="144">
+      <c r="L26" s="29">
         <v>0.26</v>
       </c>
-      <c r="M26" s="111">
+      <c r="M26" s="29">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="N26" s="29">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="O26" s="29">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="P26" s="109">
         <v>0.50600000000000001</v>
       </c>
-      <c r="N26" s="112">
+      <c r="Q26" s="110">
         <v>0.38600000000000001</v>
       </c>
-      <c r="O26" s="112">
+      <c r="R26" s="110">
         <v>0.50800000000000001</v>
       </c>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="84"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="84"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20">
       <c r="B27" s="26"/>
       <c r="C27" s="32" t="s">
         <v>130</v>
@@ -17625,25 +19207,34 @@
       <c r="J27" s="68">
         <v>0.105</v>
       </c>
-      <c r="K27" s="117">
+      <c r="K27" s="115">
         <v>0.01</v>
       </c>
-      <c r="L27" s="144">
+      <c r="L27" s="29">
         <v>1.4E-2</v>
       </c>
-      <c r="M27" s="111">
+      <c r="M27" s="29">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="N27" s="29">
+        <v>1.15E-2</v>
+      </c>
+      <c r="O27" s="29">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="P27" s="109">
         <v>0.03</v>
       </c>
-      <c r="N27" s="112">
+      <c r="Q27" s="110">
         <v>0.03</v>
       </c>
-      <c r="O27" s="112">
+      <c r="R27" s="110">
         <v>0.03</v>
       </c>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="84"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="84"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20">
       <c r="B28" s="26"/>
       <c r="C28" s="32" t="s">
         <v>131</v>
@@ -17669,28 +19260,37 @@
       <c r="J28" s="68">
         <v>1</v>
       </c>
-      <c r="K28" s="117">
+      <c r="K28" s="115">
         <v>1</v>
       </c>
-      <c r="L28" s="144">
+      <c r="L28" s="29">
         <v>1.03</v>
       </c>
-      <c r="M28" s="111">
+      <c r="M28" s="29">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="N28" s="29">
+        <v>1.071</v>
+      </c>
+      <c r="O28" s="29">
+        <v>1.131</v>
+      </c>
+      <c r="P28" s="109">
         <v>0</v>
       </c>
-      <c r="N28" s="112">
+      <c r="Q28" s="110">
         <v>0</v>
       </c>
-      <c r="O28" s="112">
+      <c r="R28" s="110">
         <v>0</v>
       </c>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="84"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="84"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20">
       <c r="B29" s="26"/>
       <c r="C29" s="37" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D29" s="37" t="s">
         <v>105</v>
@@ -17713,20 +19313,23 @@
       <c r="J29" s="68">
         <v>55.3</v>
       </c>
-      <c r="K29" s="117">
+      <c r="K29" s="115">
         <v>234.8</v>
       </c>
-      <c r="L29" s="144"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="84"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="84"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20">
       <c r="B30" s="26"/>
       <c r="C30" s="37" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D30" s="37" t="s">
         <v>106</v>
@@ -17749,20 +19352,23 @@
       <c r="J30" s="68">
         <v>317.2</v>
       </c>
-      <c r="K30" s="117">
+      <c r="K30" s="115">
         <v>56.200001</v>
       </c>
-      <c r="L30" s="144"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="112"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="84"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="110"/>
+      <c r="R30" s="110"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="84"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20">
       <c r="B31" s="26"/>
       <c r="C31" s="37" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D31" s="37" t="s">
         <v>107</v>
@@ -17785,20 +19391,23 @@
       <c r="J31" s="68">
         <v>31.1</v>
       </c>
-      <c r="K31" s="117">
+      <c r="K31" s="115">
         <v>445.70001000000002</v>
       </c>
-      <c r="L31" s="144"/>
-      <c r="M31" s="111"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="84"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="110"/>
+      <c r="R31" s="110"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="84"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20">
       <c r="B32" s="26"/>
       <c r="C32" s="37" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D32" s="37" t="s">
         <v>108</v>
@@ -17821,17 +19430,20 @@
       <c r="J32" s="68">
         <v>10</v>
       </c>
-      <c r="K32" s="117">
+      <c r="K32" s="115">
         <v>4.6999997999999996</v>
       </c>
-      <c r="L32" s="144"/>
-      <c r="M32" s="111"/>
-      <c r="N32" s="112"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="84"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="109"/>
+      <c r="Q32" s="110"/>
+      <c r="R32" s="110"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="84"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:20">
       <c r="B33" s="26"/>
       <c r="C33" s="37" t="s">
         <v>109</v>
@@ -17857,17 +19469,26 @@
       <c r="J33" s="68">
         <v>128</v>
       </c>
-      <c r="K33" s="117">
+      <c r="K33" s="115">
         <v>555</v>
       </c>
-      <c r="L33" s="144"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="112"/>
-      <c r="O33" s="112"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="84"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29">
+        <v>1292</v>
+      </c>
+      <c r="N33" s="29">
+        <v>1424</v>
+      </c>
+      <c r="O33" s="29">
+        <v>1510</v>
+      </c>
+      <c r="P33" s="109"/>
+      <c r="Q33" s="110"/>
+      <c r="R33" s="110"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="84"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:20">
       <c r="B34" s="26"/>
       <c r="C34" s="32"/>
       <c r="D34" s="32" t="s">
@@ -17891,195 +19512,246 @@
       <c r="J34" s="68">
         <v>1E-3</v>
       </c>
-      <c r="K34" s="145"/>
-      <c r="L34" s="132"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="112"/>
-      <c r="O34" s="112"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="84"/>
+      <c r="K34" s="138"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="109"/>
+      <c r="Q34" s="110"/>
+      <c r="R34" s="110"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="84"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:20">
       <c r="B35" s="26"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97" t="s">
+      <c r="C35" s="95"/>
+      <c r="D35" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="98" t="s">
+      <c r="E35" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="99">
+      <c r="F35" s="97">
         <v>292.60000000000002</v>
       </c>
-      <c r="G35" s="100">
+      <c r="G35" s="98">
         <v>51</v>
       </c>
-      <c r="H35" s="100">
+      <c r="H35" s="98">
         <v>187</v>
       </c>
-      <c r="I35" s="100">
+      <c r="I35" s="98">
         <v>373</v>
       </c>
-      <c r="J35" s="101">
+      <c r="J35" s="99">
         <v>341</v>
       </c>
-      <c r="K35" s="145"/>
-      <c r="L35" s="132"/>
-      <c r="M35" s="111"/>
-      <c r="N35" s="112"/>
-      <c r="O35" s="112"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="84"/>
+      <c r="K35" s="138"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="109"/>
+      <c r="Q35" s="110"/>
+      <c r="R35" s="110"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="84"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:20">
       <c r="B36" s="26"/>
-      <c r="C36" s="135" t="s">
+      <c r="C36" s="132" t="s">
         <v>153</v>
       </c>
       <c r="D36" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="E36" s="106"/>
+      <c r="E36" s="104"/>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
-      <c r="K36" s="145"/>
-      <c r="L36" s="132">
+      <c r="K36" s="138"/>
+      <c r="L36" s="27">
         <v>-0.8</v>
       </c>
-      <c r="M36" s="111" t="s">
+      <c r="M36" s="27">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="N36" s="27">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="O36" s="27">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="P36" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="N36" s="112">
+      <c r="Q36" s="110">
         <v>-0.995</v>
       </c>
-      <c r="O36" s="112" t="s">
+      <c r="R36" s="110" t="s">
         <v>145</v>
       </c>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="84"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="84"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:20">
       <c r="B37" s="26"/>
-      <c r="C37" s="136"/>
+      <c r="C37" s="133"/>
       <c r="D37" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="E37" s="106"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="145"/>
-      <c r="L37" s="132">
+      <c r="E37" s="104"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="138"/>
+      <c r="L37" s="27">
         <v>2.1</v>
       </c>
-      <c r="M37" s="111">
+      <c r="M37" s="27">
+        <v>1.9359999999999999</v>
+      </c>
+      <c r="N37" s="27">
+        <v>4.7679999999999998</v>
+      </c>
+      <c r="O37" s="27">
+        <v>5.149</v>
+      </c>
+      <c r="P37" s="109">
         <v>1.18</v>
       </c>
-      <c r="N37" s="112">
+      <c r="Q37" s="110">
         <v>1.45</v>
       </c>
-      <c r="O37" s="112">
+      <c r="R37" s="110">
         <v>1.6850000000000001</v>
       </c>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="84"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="84"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:20">
       <c r="B38" s="26"/>
-      <c r="C38" s="136"/>
+      <c r="C38" s="133"/>
       <c r="D38" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="E38" s="106"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="100"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="145"/>
-      <c r="L38" s="132">
+      <c r="E38" s="104"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="138"/>
+      <c r="L38" s="27">
         <v>-0.5</v>
       </c>
-      <c r="M38" s="111" t="s">
+      <c r="M38" s="27">
+        <v>-2.9689999999999999</v>
+      </c>
+      <c r="N38" s="27">
+        <v>-5.1070000000000002</v>
+      </c>
+      <c r="O38" s="27">
+        <v>-5.5830000000000002</v>
+      </c>
+      <c r="P38" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="N38" s="112" t="s">
+      <c r="Q38" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="O38" s="112" t="s">
+      <c r="R38" s="110" t="s">
         <v>146</v>
       </c>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="84"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="84"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:20">
       <c r="B39" s="26"/>
-      <c r="C39" s="136"/>
+      <c r="C39" s="133"/>
       <c r="D39" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="E39" s="106"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="100"/>
-      <c r="J39" s="101"/>
-      <c r="K39" s="145"/>
-      <c r="L39" s="132">
+      <c r="E39" s="104"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="138"/>
+      <c r="L39" s="27">
         <v>2E-3</v>
       </c>
-      <c r="M39" s="111" t="s">
+      <c r="M39" s="27">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="N39" s="27">
+        <v>-1.2999999999999999E-3</v>
+      </c>
+      <c r="O39" s="27">
+        <v>2.3E-3</v>
+      </c>
+      <c r="P39" s="109" t="s">
         <v>147</v>
       </c>
-      <c r="N39" s="112" t="s">
+      <c r="Q39" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="O39" s="112">
+      <c r="R39" s="110">
         <v>2.4E-2</v>
       </c>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="84"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="84"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:20">
       <c r="B40" s="26"/>
-      <c r="C40" s="136"/>
-      <c r="D40" s="97" t="s">
+      <c r="C40" s="133"/>
+      <c r="D40" s="95" t="s">
         <v>143</v>
       </c>
-      <c r="E40" s="107"/>
+      <c r="E40" s="105"/>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
       <c r="I40" s="29"/>
       <c r="J40" s="29"/>
-      <c r="K40" s="145"/>
-      <c r="L40" s="132">
+      <c r="K40" s="138"/>
+      <c r="L40" s="27">
         <v>0.61</v>
       </c>
-      <c r="M40" s="111">
+      <c r="M40" s="27">
+        <v>1.014</v>
+      </c>
+      <c r="N40" s="27">
+        <v>1.333</v>
+      </c>
+      <c r="O40" s="27">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="P40" s="109">
         <v>0</v>
       </c>
-      <c r="N40" s="112">
+      <c r="Q40" s="110">
         <v>0</v>
       </c>
-      <c r="O40" s="112">
+      <c r="R40" s="110">
         <v>0</v>
       </c>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="84"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="84"/>
     </row>
-    <row r="41" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:20" ht="14.25" customHeight="1">
       <c r="B41" s="26"/>
-      <c r="C41" s="133" t="s">
+      <c r="C41" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="134"/>
-      <c r="E41" s="134" t="s">
+      <c r="D41" s="131"/>
+      <c r="E41" s="131" t="s">
         <v>72</v>
       </c>
       <c r="F41" s="26"/>
@@ -18087,31 +19759,34 @@
       <c r="H41" s="26"/>
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="145"/>
-      <c r="L41" s="132">
+      <c r="K41" s="138"/>
+      <c r="L41" s="27">
         <v>745</v>
       </c>
-      <c r="M41" s="112">
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="109">
         <v>1000</v>
       </c>
-      <c r="N41" s="112">
+      <c r="Q41" s="110">
         <v>800</v>
       </c>
-      <c r="O41" s="112">
+      <c r="R41" s="110">
         <v>600</v>
       </c>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="84"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="84"/>
     </row>
-    <row r="42" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:20" ht="14.25" customHeight="1">
       <c r="B42" s="26"/>
-      <c r="C42" s="137" t="s">
+      <c r="C42" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="D42" s="134" t="s">
+      <c r="D42" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="134" t="s">
+      <c r="E42" s="131" t="s">
         <v>76</v>
       </c>
       <c r="F42" s="26"/>
@@ -18119,23 +19794,26 @@
       <c r="H42" s="26"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="145"/>
-      <c r="L42" s="132">
+      <c r="K42" s="138"/>
+      <c r="L42" s="27">
         <v>164</v>
       </c>
-      <c r="M42" s="111"/>
-      <c r="N42" s="112"/>
-      <c r="O42" s="112"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="109"/>
+      <c r="Q42" s="110"/>
+      <c r="R42" s="110"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
     </row>
-    <row r="43" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:20" ht="14.25" customHeight="1">
       <c r="B43" s="26"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="134" t="s">
+      <c r="C43" s="123"/>
+      <c r="D43" s="131" t="s">
         <v>156</v>
       </c>
-      <c r="E43" s="134" t="s">
+      <c r="E43" s="131" t="s">
         <v>76</v>
       </c>
       <c r="F43" s="26"/>
@@ -18143,23 +19821,26 @@
       <c r="H43" s="26"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="145"/>
-      <c r="L43" s="132">
+      <c r="K43" s="138"/>
+      <c r="L43" s="27">
         <v>294</v>
       </c>
-      <c r="M43" s="111"/>
-      <c r="N43" s="112"/>
-      <c r="O43" s="112"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="109"/>
+      <c r="Q43" s="110"/>
+      <c r="R43" s="110"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
     </row>
-    <row r="44" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:20" ht="14.25" customHeight="1">
       <c r="B44" s="26"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="134" t="s">
+      <c r="C44" s="123"/>
+      <c r="D44" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="E44" s="134" t="s">
+      <c r="E44" s="131" t="s">
         <v>76</v>
       </c>
       <c r="F44" s="26"/>
@@ -18167,41 +19848,47 @@
       <c r="H44" s="26"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="145"/>
-      <c r="L44" s="132">
+      <c r="K44" s="138"/>
+      <c r="L44" s="27">
         <v>500</v>
       </c>
-      <c r="M44" s="111"/>
-      <c r="N44" s="112"/>
-      <c r="O44" s="112"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="109"/>
+      <c r="Q44" s="110"/>
+      <c r="R44" s="110"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
     </row>
-    <row r="45" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:20" ht="14.25" customHeight="1">
       <c r="B45" s="26"/>
-      <c r="C45" s="138"/>
-      <c r="D45" s="126" t="s">
+      <c r="C45" s="135"/>
+      <c r="D45" s="124" t="s">
         <v>161</v>
       </c>
-      <c r="E45" s="127" t="s">
+      <c r="E45" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="F45" s="128"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="129"/>
-      <c r="J45" s="129"/>
-      <c r="K45" s="146"/>
-      <c r="L45" s="147">
+      <c r="F45" s="126"/>
+      <c r="G45" s="127"/>
+      <c r="H45" s="127"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="127"/>
+      <c r="K45" s="139"/>
+      <c r="L45" s="179">
         <v>1.1599999999999999</v>
       </c>
-      <c r="M45" s="130"/>
-      <c r="N45" s="131"/>
-      <c r="O45" s="131"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
+      <c r="M45" s="179"/>
+      <c r="N45" s="179"/>
+      <c r="O45" s="179"/>
+      <c r="P45" s="128"/>
+      <c r="Q45" s="129"/>
+      <c r="R45" s="129"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:20">
       <c r="B46" s="26"/>
       <c r="C46" s="60" t="s">
         <v>114</v>
@@ -18220,18 +19907,21 @@
       <c r="I46" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="J46" s="109" t="s">
+      <c r="J46" s="107" t="s">
         <v>118</v>
       </c>
-      <c r="K46" s="148"/>
-      <c r="L46" s="149"/>
-      <c r="M46" s="118"/>
-      <c r="N46" s="59"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26"/>
+      <c r="K46" s="140"/>
+      <c r="L46" s="180"/>
+      <c r="M46" s="142"/>
+      <c r="N46" s="142"/>
+      <c r="O46" s="142"/>
+      <c r="P46" s="116"/>
+      <c r="Q46" s="59"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="26"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:20">
       <c r="B47" s="26"/>
       <c r="C47" s="31" t="s">
         <v>119</v>
@@ -18239,27 +19929,30 @@
       <c r="D47" s="31"/>
       <c r="E47" s="80"/>
       <c r="F47" s="82"/>
-      <c r="G47" s="163" t="s">
+      <c r="G47" s="167" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="163"/>
-      <c r="I47" s="163"/>
-      <c r="J47" s="164"/>
-      <c r="K47" s="150" t="s">
+      <c r="H47" s="167"/>
+      <c r="I47" s="167"/>
+      <c r="J47" s="168"/>
+      <c r="K47" s="141" t="s">
         <v>124</v>
       </c>
-      <c r="L47" s="151" t="s">
+      <c r="L47" s="142" t="s">
         <v>158</v>
       </c>
-      <c r="M47" s="155" t="s">
+      <c r="M47" s="142"/>
+      <c r="N47" s="142"/>
+      <c r="O47" s="142"/>
+      <c r="P47" s="159" t="s">
         <v>154</v>
       </c>
-      <c r="N47" s="156"/>
-      <c r="O47" s="156"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26"/>
+      <c r="Q47" s="160"/>
+      <c r="R47" s="160"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="26"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:20">
       <c r="B48" s="26"/>
       <c r="C48" s="31" t="s">
         <v>120</v>
@@ -18278,20 +19971,23 @@
       <c r="I48" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="J48" s="110" t="s">
+      <c r="J48" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="K48" s="150" t="s">
+      <c r="K48" s="141" t="s">
         <v>121</v>
       </c>
-      <c r="L48" s="152"/>
-      <c r="M48" s="119"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
+      <c r="L48" s="181"/>
+      <c r="M48" s="142"/>
+      <c r="N48" s="142"/>
+      <c r="O48" s="142"/>
+      <c r="P48" s="117"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:20">
       <c r="B49" s="26"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -18306,10 +20002,13 @@
       <c r="M49" s="27"/>
       <c r="N49" s="27"/>
       <c r="O49" s="27"/>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="26"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="26"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:20">
       <c r="B50" s="26"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -18324,10 +20023,13 @@
       <c r="M50" s="27"/>
       <c r="N50" s="27"/>
       <c r="O50" s="27"/>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="26"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="26"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:20">
       <c r="B51" s="26"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
@@ -18342,10 +20044,13 @@
       <c r="M51" s="27"/>
       <c r="N51" s="27"/>
       <c r="O51" s="27"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:20">
       <c r="B52" s="26"/>
       <c r="C52" s="30" t="s">
         <v>122</v>
@@ -18362,50 +20067,59 @@
       <c r="M52" s="27"/>
       <c r="N52" s="27"/>
       <c r="O52" s="27"/>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="26"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="26"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:20">
       <c r="B53" s="26"/>
-      <c r="C53" s="157" t="s">
+      <c r="C53" s="161" t="s">
         <v>125</v>
       </c>
-      <c r="D53" s="157"/>
-      <c r="E53" s="157"/>
-      <c r="F53" s="157"/>
-      <c r="G53" s="157"/>
-      <c r="H53" s="157"/>
-      <c r="I53" s="157"/>
-      <c r="J53" s="157"/>
-      <c r="K53" s="157"/>
-      <c r="L53" s="123"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="26"/>
+      <c r="D53" s="161"/>
+      <c r="E53" s="161"/>
+      <c r="F53" s="161"/>
+      <c r="G53" s="161"/>
+      <c r="H53" s="161"/>
+      <c r="I53" s="161"/>
+      <c r="J53" s="161"/>
+      <c r="K53" s="161"/>
+      <c r="L53" s="121"/>
+      <c r="M53" s="143"/>
+      <c r="N53" s="143"/>
+      <c r="O53" s="143"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="26"/>
+      <c r="T53" s="26"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:20">
       <c r="B54" s="26"/>
-      <c r="C54" s="157" t="s">
+      <c r="C54" s="161" t="s">
         <v>155</v>
       </c>
-      <c r="D54" s="157"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
-      <c r="H54" s="157"/>
-      <c r="I54" s="157"/>
-      <c r="J54" s="157"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="161"/>
+      <c r="F54" s="161"/>
+      <c r="G54" s="161"/>
+      <c r="H54" s="161"/>
+      <c r="I54" s="161"/>
+      <c r="J54" s="161"/>
       <c r="K54" s="27"/>
       <c r="L54" s="27"/>
       <c r="M54" s="27"/>
       <c r="N54" s="27"/>
       <c r="O54" s="27"/>
-      <c r="P54" s="26"/>
-      <c r="Q54" s="26"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="26"/>
+      <c r="T54" s="26"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:20">
       <c r="B55" s="26"/>
       <c r="C55" s="26" t="s">
         <v>157</v>
@@ -18424,8 +20138,11 @@
       <c r="O55" s="26"/>
       <c r="P55" s="26"/>
       <c r="Q55" s="26"/>
+      <c r="R55" s="26"/>
+      <c r="S55" s="26"/>
+      <c r="T55" s="26"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:20">
       <c r="B56" s="26"/>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
@@ -18442,8 +20159,11 @@
       <c r="O56" s="26"/>
       <c r="P56" s="26"/>
       <c r="Q56" s="26"/>
+      <c r="R56" s="26"/>
+      <c r="S56" s="26"/>
+      <c r="T56" s="26"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:20">
       <c r="B57" s="26"/>
       <c r="C57" s="26"/>
       <c r="D57" s="26"/>
@@ -18460,19 +20180,22 @@
       <c r="O57" s="26"/>
       <c r="P57" s="26"/>
       <c r="Q57" s="26"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="26"/>
+      <c r="T57" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:R47"/>
     <mergeCell ref="C54:J54"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="G47:J47"/>
     <mergeCell ref="C53:K53"/>
-    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:R6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18481,52 +20204,55 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F425B10-5B6F-4D38-8EC8-85892A4FDDD6}">
-  <dimension ref="B2:P21"/>
+  <dimension ref="B2:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="52.109375" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="15" width="15.5546875" customWidth="1"/>
+    <col min="11" max="18" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C2" s="171"/>
-      <c r="D2" s="170"/>
+    <row r="2" spans="2:19">
+      <c r="C2" s="173"/>
+      <c r="D2" s="172"/>
       <c r="E2" s="85"/>
-      <c r="F2" s="170" t="s">
+      <c r="F2" s="172" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="176" t="s">
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177" t="s">
-        <v>166</v>
-      </c>
-      <c r="N2" s="177"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="26"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="175" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="26"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C3" s="171"/>
-      <c r="D3" s="170"/>
+    <row r="3" spans="2:19">
+      <c r="C3" s="173"/>
+      <c r="D3" s="172"/>
       <c r="E3" s="85"/>
       <c r="F3" s="39" t="s">
         <v>54</v>
@@ -18546,21 +20272,30 @@
       <c r="K3" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="172" t="s">
+      <c r="L3" s="148" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="172" t="s">
+      <c r="M3" s="148" t="s">
+        <v>160</v>
+      </c>
+      <c r="N3" s="148" t="s">
+        <v>164</v>
+      </c>
+      <c r="O3" s="148" t="s">
+        <v>165</v>
+      </c>
+      <c r="P3" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="N3" s="172" t="s">
+      <c r="Q3" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="O3" s="172" t="s">
+      <c r="R3" s="148" t="s">
         <v>135</v>
       </c>
-      <c r="P3" s="26"/>
+      <c r="S3" s="26"/>
     </row>
-    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" ht="15.75" thickBot="1">
       <c r="C4" s="52" t="s">
         <v>29</v>
       </c>
@@ -18588,25 +20323,37 @@
       <c r="K4" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="175">
+      <c r="L4" s="151">
         <f>Sheet4!L8</f>
         <v>4340</v>
       </c>
-      <c r="M4" s="178" t="str">
+      <c r="M4" s="153" t="str">
         <f>Sheet4!M8</f>
+        <v>WELDOX 460 E</v>
+      </c>
+      <c r="N4" s="153" t="str">
+        <f>Sheet4!N8</f>
+        <v>WELDOX 700 E</v>
+      </c>
+      <c r="O4" s="153" t="str">
+        <f>Sheet4!O8</f>
+        <v>WELDOX 900 E</v>
+      </c>
+      <c r="P4" s="153" t="str">
+        <f>Sheet4!P8</f>
         <v>VT6</v>
       </c>
-      <c r="N4" s="178" t="str">
-        <f>Sheet4!N8</f>
+      <c r="Q4" s="153" t="str">
+        <f>Sheet4!Q8</f>
         <v>OT4</v>
       </c>
-      <c r="O4" s="178" t="str">
-        <f>Sheet4!O8</f>
+      <c r="R4" s="153" t="str">
+        <f>Sheet4!R8</f>
         <v>OT4-O</v>
       </c>
-      <c r="P4" s="26"/>
+      <c r="S4" s="26"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19">
       <c r="B5" s="25" t="s">
         <v>34</v>
       </c>
@@ -18633,80 +20380,104 @@
       <c r="K5" s="51">
         <v>7.85</v>
       </c>
-      <c r="L5" s="173">
+      <c r="L5" s="149">
         <f>Sheet4!L9</f>
         <v>7.8500000000000008E-9</v>
       </c>
-      <c r="M5" s="173">
+      <c r="M5" s="149">
         <f>Sheet4!M9</f>
+        <v>7.8500000000000008E-9</v>
+      </c>
+      <c r="N5" s="149">
+        <f>Sheet4!N9</f>
+        <v>7.8500000000000008E-9</v>
+      </c>
+      <c r="O5" s="149">
+        <f>Sheet4!O9</f>
+        <v>7.8500000000000008E-9</v>
+      </c>
+      <c r="P5" s="149">
+        <f>Sheet4!P9</f>
         <v>4.4299999999999998E-9</v>
       </c>
-      <c r="N5" s="173">
-        <f>Sheet4!N9</f>
+      <c r="Q5" s="149">
+        <f>Sheet4!Q9</f>
         <v>4.5500000000000002E-9</v>
       </c>
-      <c r="O5" s="173">
-        <f>Sheet4!O9</f>
+      <c r="R5" s="149">
+        <f>Sheet4!R9</f>
         <v>4.5500000000000002E-9</v>
       </c>
-      <c r="P5" s="26"/>
+      <c r="S5" s="26"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19">
       <c r="B6" s="25"/>
       <c r="C6" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="92" t="str">
+        <v>127</v>
+      </c>
+      <c r="D6" s="90" t="str">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,2,FALSE)</f>
-        <v>Q1</v>
-      </c>
-      <c r="E6" s="92" t="str">
+        <v>A / sigma0</v>
+      </c>
+      <c r="E6" s="90" t="str">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,3,FALSE)</f>
         <v>MPa</v>
       </c>
-      <c r="F6" s="92">
+      <c r="F6" s="90">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,4,FALSE)</f>
-        <v>2.7</v>
-      </c>
-      <c r="G6" s="92">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$BB$33,5,FALSE)</f>
-        <v>79.5</v>
-      </c>
-      <c r="H6" s="92">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$BB$33,6,FALSE)</f>
-        <v>35.6</v>
-      </c>
-      <c r="I6" s="92">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$BB$33,7,FALSE)</f>
-        <v>30.1</v>
-      </c>
-      <c r="J6" s="92">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$BB$33,8,FALSE)</f>
-        <v>55.3</v>
-      </c>
-      <c r="K6" s="179">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$BB$33,9,FALSE)</f>
-        <v>234.8</v>
-      </c>
-      <c r="L6" s="179">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$BB$33,10,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="179">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$BB$33,11,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="179">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$BB$33,12,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="179">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$BB$33,13,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="26"/>
+        <v>292.60000000000002</v>
+      </c>
+      <c r="G6" s="90">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,5,FALSE)</f>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="H6" s="90">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,6,FALSE)</f>
+        <v>172.7</v>
+      </c>
+      <c r="I6" s="90">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,7,FALSE)</f>
+        <v>350</v>
+      </c>
+      <c r="J6" s="90">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,8,FALSE)</f>
+        <v>292.5</v>
+      </c>
+      <c r="K6" s="154">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,9,FALSE)</f>
+        <v>325.70001000000002</v>
+      </c>
+      <c r="L6" s="154">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,10,FALSE)</f>
+        <v>910</v>
+      </c>
+      <c r="M6" s="154">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,11,FALSE)</f>
+        <v>499</v>
+      </c>
+      <c r="N6" s="154">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,12,FALSE)</f>
+        <v>859</v>
+      </c>
+      <c r="O6" s="154">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,13,FALSE)</f>
+        <v>992</v>
+      </c>
+      <c r="P6" s="154">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,14,FALSE)</f>
+        <v>900</v>
+      </c>
+      <c r="Q6" s="154">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,15,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="R6" s="154">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,16,FALSE)</f>
+        <v>500</v>
+      </c>
+      <c r="S6" s="26"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" ht="15.75" thickBot="1">
       <c r="B7" s="5"/>
       <c r="C7" s="55"/>
       <c r="D7" s="55"/>
@@ -18717,13 +20488,16 @@
       <c r="I7" s="56"/>
       <c r="J7" s="56"/>
       <c r="K7" s="56"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="26"/>
+      <c r="L7" s="155"/>
+      <c r="M7" s="155"/>
+      <c r="N7" s="155"/>
+      <c r="O7" s="155"/>
+      <c r="P7" s="155"/>
+      <c r="Q7" s="155"/>
+      <c r="R7" s="155"/>
+      <c r="S7" s="26"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" ht="15.75" thickBot="1">
       <c r="B8" s="5"/>
       <c r="C8" s="47" t="s">
         <v>46</v>
@@ -18752,19 +20526,26 @@
       <c r="K8" s="50">
         <v>6.96</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="181">
+      <c r="L8" s="176">
+        <v>7.72</v>
+      </c>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="156">
         <f>AVERAGE(5.59878,5.63895,5.73598,5.559)</f>
         <v>5.6331774999999995</v>
       </c>
-      <c r="N8" s="181">
+      <c r="Q8" s="156">
         <f>AVERAGE(5.72896,5.85194,5.71406,5.82871)</f>
         <v>5.7809175000000002</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
+      <c r="R8" s="176">
+        <v>6.13</v>
+      </c>
+      <c r="S8" s="26"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" ht="15.75" thickBot="1">
       <c r="B9" s="25" t="s">
         <v>34</v>
       </c>
@@ -18798,25 +20579,26 @@
         <f>K8*2</f>
         <v>13.92</v>
       </c>
-      <c r="L9" s="43">
-        <f t="shared" ref="L9:O9" si="1">L8*2</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="88">
-        <f t="shared" si="1"/>
+      <c r="L9" s="176">
+        <v>15.44</v>
+      </c>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="88">
+        <f t="shared" ref="L9:R9" si="1">P8*2</f>
         <v>11.266354999999999</v>
       </c>
-      <c r="N9" s="88">
+      <c r="Q9" s="88">
         <f t="shared" si="1"/>
         <v>11.561835</v>
       </c>
-      <c r="O9" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="26"/>
+      <c r="R9" s="176">
+        <v>12.26</v>
+      </c>
+      <c r="S9" s="26"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" ht="15.75" thickBot="1">
       <c r="B10" s="25" t="s">
         <v>34</v>
       </c>
@@ -18846,19 +20628,26 @@
       <c r="K10" s="43">
         <v>90</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="181">
+      <c r="L10" s="176">
+        <v>98</v>
+      </c>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="156">
         <f>AVERAGE(75.681,72.9799,72.8709,75.8579,74.0277)</f>
         <v>74.283479999999997</v>
       </c>
-      <c r="N10" s="181">
+      <c r="Q10" s="156">
         <f>AVERAGE(73.0359,74.5732,73.0406)</f>
         <v>73.549899999999994</v>
       </c>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
+      <c r="R10" s="176">
+        <v>92.1</v>
+      </c>
+      <c r="S10" s="26"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" ht="15.75" thickBot="1">
       <c r="B11" s="25"/>
       <c r="C11" s="40" t="s">
         <v>27</v>
@@ -18882,21 +20671,24 @@
       <c r="K11" s="42">
         <v>1.22E-6</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="177">
         <v>1.22E-6</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="42">
         <v>1.22E-6</v>
       </c>
-      <c r="N11" s="42">
+      <c r="Q11" s="42">
         <v>1.22E-6</v>
       </c>
-      <c r="O11" s="42">
+      <c r="R11" s="177">
         <v>1.22E-6</v>
       </c>
-      <c r="P11" s="26"/>
+      <c r="S11" s="26"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" ht="15.75" thickBot="1">
       <c r="B12" s="25"/>
       <c r="C12" s="40" t="s">
         <v>28</v>
@@ -18920,17 +20712,24 @@
       <c r="K12" s="42">
         <v>7.0000000000000005E-8</v>
       </c>
-      <c r="L12" s="174"/>
-      <c r="M12" s="174">
+      <c r="L12" s="177">
+        <v>3.3600000000000003E-8</v>
+      </c>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="150">
         <v>9.6299999999999995E-8</v>
       </c>
-      <c r="N12" s="174">
+      <c r="Q12" s="150">
         <v>9.3499999999999997E-8</v>
       </c>
-      <c r="O12" s="174"/>
-      <c r="P12" s="26"/>
+      <c r="R12" s="177">
+        <v>7.1900000000000002E-8</v>
+      </c>
+      <c r="S12" s="26"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" ht="15.75" thickBot="1">
       <c r="B13" s="25" t="s">
         <v>34</v>
       </c>
@@ -18965,24 +20764,27 @@
         <v>5.7377049180327875</v>
       </c>
       <c r="L13" s="45">
-        <f t="shared" ref="L13:O13" si="3">(L12/L11)*100</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="45">
-        <f>(M12/M11)*100</f>
+        <f>(L12/L11)*100</f>
+        <v>2.7540983606557381</v>
+      </c>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45">
+        <f>(P12/P11)*100</f>
         <v>7.8934426229508192</v>
       </c>
-      <c r="N13" s="45">
+      <c r="Q13" s="45">
+        <f t="shared" ref="Q13:R13" si="3">(Q12/Q11)*100</f>
+        <v>7.6639344262295088</v>
+      </c>
+      <c r="R13" s="45">
         <f t="shared" si="3"/>
-        <v>7.6639344262295088</v>
-      </c>
-      <c r="O13" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="26"/>
+        <v>5.8934426229508201</v>
+      </c>
+      <c r="S13" s="26"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" ht="15.75" thickBot="1">
       <c r="B14" s="25" t="s">
         <v>34</v>
       </c>
@@ -19010,17 +20812,24 @@
       <c r="K14" s="42">
         <v>6070000</v>
       </c>
-      <c r="L14" s="174"/>
-      <c r="M14" s="174">
+      <c r="L14" s="177">
+        <v>5720000</v>
+      </c>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="150">
         <v>6050000</v>
       </c>
-      <c r="N14" s="174">
+      <c r="Q14" s="150">
         <v>6060000</v>
       </c>
-      <c r="O14" s="174"/>
-      <c r="P14" s="26"/>
+      <c r="R14" s="177">
+        <v>6040000</v>
+      </c>
+      <c r="S14" s="26"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" ht="15.75" thickBot="1">
       <c r="B15" s="25" t="s">
         <v>34</v>
       </c>
@@ -19048,17 +20857,24 @@
       <c r="K15" s="88">
         <v>4.96</v>
       </c>
-      <c r="L15" s="181"/>
-      <c r="M15" s="181">
+      <c r="L15" s="176">
+        <v>8.58</v>
+      </c>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="156">
         <v>11.2</v>
       </c>
-      <c r="N15" s="181">
+      <c r="Q15" s="156">
         <v>11.4</v>
       </c>
-      <c r="O15" s="181"/>
-      <c r="P15" s="26"/>
+      <c r="R15" s="176">
+        <v>5.07</v>
+      </c>
+      <c r="S15" s="26"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19">
       <c r="B16" s="25" t="s">
         <v>36</v>
       </c>
@@ -19074,13 +20890,16 @@
       <c r="I16" s="44"/>
       <c r="J16" s="43"/>
       <c r="K16" s="44"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="26"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="91"/>
+      <c r="S16" s="26"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19">
       <c r="B17" s="25" t="s">
         <v>36</v>
       </c>
@@ -19096,13 +20915,16 @@
       <c r="I17" s="44"/>
       <c r="J17" s="43"/>
       <c r="K17" s="44"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="26"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="26"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19">
       <c r="B18" s="5"/>
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
@@ -19113,12 +20935,15 @@
       <c r="I18" s="44"/>
       <c r="J18" s="43"/>
       <c r="K18" s="44"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="91"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19">
       <c r="B19" s="5"/>
       <c r="C19" s="40" t="s">
         <v>35</v>
@@ -19135,8 +20960,11 @@
       <c r="M19" s="40"/>
       <c r="N19" s="40"/>
       <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19">
       <c r="B20" s="5"/>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
@@ -19147,12 +20975,15 @@
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="91"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -19167,6 +20998,9 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -19174,7 +21008,7 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19197,18 +21031,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20CB03-FDC1-47B9-AF99-E205AFF1D2E2}">
   <dimension ref="C2:CB50"/>
   <sheetViews>
-    <sheetView topLeftCell="Y19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AY57" sqref="AY57"/>
+    <sheetView topLeftCell="X7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AZ28" sqref="AZ28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:67" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:67">
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
@@ -19220,7 +21054,7 @@
       <c r="BN2" s="5"/>
       <c r="BO2" s="5"/>
     </row>
-    <row r="3" spans="3:67" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:67">
       <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
@@ -19240,7 +21074,7 @@
       <c r="BN3" s="5"/>
       <c r="BO3" s="5"/>
     </row>
-    <row r="4" spans="3:67" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:67">
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
       <c r="AM4" s="5"/>
@@ -19252,53 +21086,53 @@
       <c r="BN4" s="5"/>
       <c r="BO4" s="5"/>
     </row>
-    <row r="7" spans="3:67" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:67">
       <c r="AP7" t="str">
         <f>Sheet2!C6&amp; " and debris cloud diamter"</f>
-        <v>Voice hardening parameter Q1 and debris cloud diamter</v>
+        <v>JC Yield stress A and debris cloud diamter</v>
       </c>
     </row>
-    <row r="8" spans="3:67" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:67">
       <c r="AD8" t="str">
         <f>Sheet2!C6&amp;" "&amp;Sheet2!D6</f>
-        <v>Voice hardening parameter Q1 Q1</v>
+        <v>JC Yield stress A A / sigma0</v>
       </c>
     </row>
-    <row r="10" spans="3:67" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:67">
       <c r="AD10" t="str">
         <f>Sheet2!C6&amp; " and target hole diameter"</f>
-        <v>Voice hardening parameter Q1 and target hole diameter</v>
+        <v>JC Yield stress A and target hole diameter</v>
       </c>
     </row>
-    <row r="24" spans="30:80" x14ac:dyDescent="0.3">
+    <row r="24" spans="30:80">
       <c r="AZ24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="30:80" x14ac:dyDescent="0.3">
+    <row r="26" spans="30:80">
       <c r="CB26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="30:80" x14ac:dyDescent="0.3">
+    <row r="29" spans="30:80">
       <c r="AD29" t="str">
         <f>Sheet2!C6&amp;" and percentage of solid material in debris cloud"</f>
-        <v>Voice hardening parameter Q1 and percentage of solid material in debris cloud</v>
+        <v>JC Yield stress A and percentage of solid material in debris cloud</v>
       </c>
       <c r="AP29" t="str">
         <f>Sheet2!C6&amp; " and residual velocity"</f>
-        <v>Voice hardening parameter Q1 and residual velocity</v>
+        <v>JC Yield stress A and residual velocity</v>
       </c>
     </row>
-    <row r="46" spans="58:58" x14ac:dyDescent="0.3">
+    <row r="46" spans="58:58">
       <c r="BF46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="50" spans="37:37">
       <c r="AK50" t="str">
         <f>Sheet2!C6&amp; " and percentage of converted particles due to temperature"</f>
-        <v>Voice hardening parameter Q1 and percentage of converted particles due to temperature</v>
+        <v>JC Yield stress A and percentage of converted particles due to temperature</v>
       </c>
     </row>
   </sheetData>
@@ -19313,7 +21147,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayleigh\Documents\HVI share\HVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45513231-847D-4A77-ACB5-D564D0489230}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E7BB49-5119-462D-87D3-4E2D74A7D155}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="-15480" windowWidth="20730" windowHeight="15600" activeTab="1" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
+    <workbookView xWindow="4440" yWindow="-15480" windowWidth="20730" windowHeight="15600" activeTab="3" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="175">
   <si>
     <t>Al 7005</t>
   </si>
@@ -572,6 +572,15 @@
   <si>
     <t>Voce hardening parameter C2</t>
   </si>
+  <si>
+    <t>running</t>
+  </si>
+  <si>
+    <t>***** On the influence of fracture criterion in projectile impact of steel platesS. Deya,*, T. Børvika,b, O.S. Hopperstada, M. Langseth</t>
+  </si>
+  <si>
+    <t>*****</t>
+  </si>
 </sst>
 </file>
 
@@ -701,7 +710,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1262,11 +1271,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1610,6 +1628,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1667,23 +1703,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2610,7 +2634,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>JC Yield stress A and percentage of converted particles due to temperature</c:v>
+              <c:v>JC hardening param n and percentage of converted particles due to temperature</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -2707,7 +2731,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>292.60000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2766,7 +2790,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>38.799999999999997</c:v>
+                  <c:v>0.21299999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2825,7 +2849,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>172.7</c:v>
+                  <c:v>0.16600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2884,7 +2908,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>350</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2943,7 +2967,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>292.5</c:v>
+                  <c:v>3.5999999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3002,7 +3026,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>325.70001000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3073,7 +3097,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>910</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3144,7 +3168,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>900</c:v>
+                  <c:v>0.50600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3239,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>600</c:v>
+                  <c:v>0.38600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3286,7 +3310,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>0.50800000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3363,7 +3387,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JC Yield stress A A / sigma0</c:v>
+                  <c:v>JC hardening param n n</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7307,7 +7331,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>JC Yield stress A and target hole diameter</c:v>
+              <c:v>JC hardening param n and target hole diameter</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -7390,7 +7414,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>292.60000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7449,7 +7473,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>38.799999999999997</c:v>
+                  <c:v>0.21299999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7508,7 +7532,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>172.7</c:v>
+                  <c:v>0.16600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7567,7 +7591,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>350</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7626,7 +7650,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>292.5</c:v>
+                  <c:v>3.5999999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7685,7 +7709,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>325.70001000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7756,7 +7780,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>910</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7827,7 +7851,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>0.50800000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7898,7 +7922,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>600</c:v>
+                  <c:v>0.38600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7969,7 +7993,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>900</c:v>
+                  <c:v>0.50600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8046,7 +8070,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JC Yield stress A A / sigma0</c:v>
+                  <c:v>JC hardening param n n</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8147,6 +8171,7 @@
         <c:axId val="1767837104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8378,7 +8403,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>JC Yield stress A and debris cloud diamter</c:v>
+              <c:v>JC hardening param n and debris cloud diamter</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -8461,7 +8486,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>292.60000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8520,7 +8545,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>38.799999999999997</c:v>
+                  <c:v>0.21299999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8579,7 +8604,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>172.7</c:v>
+                  <c:v>0.16600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8638,7 +8663,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>350</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8697,7 +8722,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>292.5</c:v>
+                  <c:v>3.5999999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8756,7 +8781,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>325.70001000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8827,7 +8852,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>910</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8898,7 +8923,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>900</c:v>
+                  <c:v>0.50600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8969,7 +8994,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>600</c:v>
+                  <c:v>0.38600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9040,7 +9065,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>0.50800000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9117,7 +9142,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JC Yield stress A A / sigma0</c:v>
+                  <c:v>JC hardening param n n</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9449,7 +9474,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>JC Yield stress A and percentage of solid material in debris cloud</c:v>
+              <c:v>JC hardening param n and percentage of solid material in debris cloud</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -9546,7 +9571,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>292.60000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9605,7 +9630,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>38.799999999999997</c:v>
+                  <c:v>0.21299999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9664,7 +9689,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>172.7</c:v>
+                  <c:v>0.16600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9723,7 +9748,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>350</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9782,7 +9807,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>292.5</c:v>
+                  <c:v>3.5999999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9841,7 +9866,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>325.70001000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9912,7 +9937,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>910</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9983,7 +10008,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>900</c:v>
+                  <c:v>0.50600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10054,7 +10079,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>600</c:v>
+                  <c:v>0.38600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10125,7 +10150,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>0.50800000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10202,7 +10227,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JC Yield stress A A / sigma0</c:v>
+                  <c:v>JC hardening param n n</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10534,7 +10559,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>JC Yield stress A and residual velocity</c:v>
+              <c:v>JC hardening param n and residual velocity</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -10617,7 +10642,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>292.60000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10676,7 +10701,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>38.799999999999997</c:v>
+                  <c:v>0.21299999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10735,7 +10760,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>172.7</c:v>
+                  <c:v>0.16600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10794,7 +10819,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>350</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10853,7 +10878,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>292.5</c:v>
+                  <c:v>3.5999999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10912,7 +10937,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>325.70001000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10983,7 +11008,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>910</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11054,7 +11079,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>900</c:v>
+                  <c:v>0.50600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11125,7 +11150,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>600</c:v>
+                  <c:v>0.38600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11196,7 +11221,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>0.50800000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11273,7 +11298,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JC Yield stress A A / sigma0</c:v>
+                  <c:v>JC hardening param n n</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18030,9 +18055,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20077FD7-1EC0-41E4-96B7-2075AF4FD95D}">
   <dimension ref="B3:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M25" sqref="M25"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18100,50 +18125,50 @@
       <c r="C5" s="106"/>
       <c r="D5" s="106"/>
       <c r="E5" s="106"/>
-      <c r="F5" s="157" t="s">
+      <c r="F5" s="163" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="158"/>
-      <c r="K5" s="158"/>
-      <c r="L5" s="158" t="s">
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="164" t="s">
         <v>152</v>
       </c>
-      <c r="M5" s="158"/>
-      <c r="N5" s="158"/>
-      <c r="O5" s="158"/>
-      <c r="P5" s="158"/>
-      <c r="Q5" s="158"/>
-      <c r="R5" s="158"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="164"/>
+      <c r="Q5" s="164"/>
+      <c r="R5" s="164"/>
       <c r="S5" s="91"/>
       <c r="T5" s="26"/>
     </row>
     <row r="6" spans="2:21">
       <c r="B6" s="26"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="164" t="s">
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="170" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="165"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="169" t="s">
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="175" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="170"/>
+      <c r="L6" s="176"/>
       <c r="M6" s="146"/>
       <c r="N6" s="147"/>
       <c r="O6" s="147"/>
-      <c r="P6" s="169" t="s">
+      <c r="P6" s="175" t="s">
         <v>132</v>
       </c>
-      <c r="Q6" s="170"/>
-      <c r="R6" s="171"/>
+      <c r="Q6" s="176"/>
+      <c r="R6" s="177"/>
       <c r="S6" s="92"/>
       <c r="T6" s="83"/>
       <c r="U6" s="5"/>
@@ -18225,16 +18250,16 @@
       <c r="K8" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="178">
+      <c r="L8" s="159">
         <v>4340</v>
       </c>
       <c r="M8" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="N8" s="178" t="s">
+      <c r="N8" s="159" t="s">
         <v>166</v>
       </c>
-      <c r="O8" s="178" t="s">
+      <c r="O8" s="159" t="s">
         <v>167</v>
       </c>
       <c r="P8" s="118" t="s">
@@ -18341,7 +18366,7 @@
         <v>205882.35294117648</v>
       </c>
       <c r="N10" s="28">
-        <f t="shared" ref="M10:O10" si="0">N13/(3*(1-2*N14))</f>
+        <f t="shared" ref="N10:O10" si="0">N13/(3*(1-2*N14))</f>
         <v>205882.35294117648</v>
       </c>
       <c r="O10" s="28">
@@ -19876,12 +19901,12 @@
       <c r="I45" s="127"/>
       <c r="J45" s="127"/>
       <c r="K45" s="139"/>
-      <c r="L45" s="179">
+      <c r="L45" s="160">
         <v>1.1599999999999999</v>
       </c>
-      <c r="M45" s="179"/>
-      <c r="N45" s="179"/>
-      <c r="O45" s="179"/>
+      <c r="M45" s="160"/>
+      <c r="N45" s="160"/>
+      <c r="O45" s="160"/>
       <c r="P45" s="128"/>
       <c r="Q45" s="129"/>
       <c r="R45" s="129"/>
@@ -19911,7 +19936,7 @@
         <v>118</v>
       </c>
       <c r="K46" s="140"/>
-      <c r="L46" s="180"/>
+      <c r="L46" s="161"/>
       <c r="M46" s="142"/>
       <c r="N46" s="142"/>
       <c r="O46" s="142"/>
@@ -19929,26 +19954,28 @@
       <c r="D47" s="31"/>
       <c r="E47" s="80"/>
       <c r="F47" s="82"/>
-      <c r="G47" s="167" t="s">
+      <c r="G47" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="167"/>
-      <c r="I47" s="167"/>
-      <c r="J47" s="168"/>
+      <c r="H47" s="173"/>
+      <c r="I47" s="173"/>
+      <c r="J47" s="174"/>
       <c r="K47" s="141" t="s">
         <v>124</v>
       </c>
       <c r="L47" s="142" t="s">
         <v>158</v>
       </c>
-      <c r="M47" s="142"/>
-      <c r="N47" s="142"/>
-      <c r="O47" s="142"/>
-      <c r="P47" s="159" t="s">
+      <c r="M47" s="166" t="s">
+        <v>174</v>
+      </c>
+      <c r="N47" s="166"/>
+      <c r="O47" s="182"/>
+      <c r="P47" s="165" t="s">
         <v>154</v>
       </c>
-      <c r="Q47" s="160"/>
-      <c r="R47" s="160"/>
+      <c r="Q47" s="166"/>
+      <c r="R47" s="166"/>
       <c r="S47" s="26"/>
       <c r="T47" s="26"/>
     </row>
@@ -19977,13 +20004,27 @@
       <c r="K48" s="141" t="s">
         <v>121</v>
       </c>
-      <c r="L48" s="181"/>
-      <c r="M48" s="142"/>
-      <c r="N48" s="142"/>
-      <c r="O48" s="142"/>
-      <c r="P48" s="117"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="27"/>
+      <c r="L48" s="162" t="s">
+        <v>121</v>
+      </c>
+      <c r="M48" s="142" t="s">
+        <v>172</v>
+      </c>
+      <c r="N48" s="142" t="s">
+        <v>172</v>
+      </c>
+      <c r="O48" s="142" t="s">
+        <v>172</v>
+      </c>
+      <c r="P48" s="117" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q48" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="R48" s="27" t="s">
+        <v>121</v>
+      </c>
       <c r="S48" s="26"/>
       <c r="T48" s="26"/>
     </row>
@@ -20075,17 +20116,17 @@
     </row>
     <row r="53" spans="2:20">
       <c r="B53" s="26"/>
-      <c r="C53" s="161" t="s">
+      <c r="C53" s="167" t="s">
         <v>125</v>
       </c>
-      <c r="D53" s="161"/>
-      <c r="E53" s="161"/>
-      <c r="F53" s="161"/>
-      <c r="G53" s="161"/>
-      <c r="H53" s="161"/>
-      <c r="I53" s="161"/>
-      <c r="J53" s="161"/>
-      <c r="K53" s="161"/>
+      <c r="D53" s="167"/>
+      <c r="E53" s="167"/>
+      <c r="F53" s="167"/>
+      <c r="G53" s="167"/>
+      <c r="H53" s="167"/>
+      <c r="I53" s="167"/>
+      <c r="J53" s="167"/>
+      <c r="K53" s="167"/>
       <c r="L53" s="121"/>
       <c r="M53" s="143"/>
       <c r="N53" s="143"/>
@@ -20098,16 +20139,16 @@
     </row>
     <row r="54" spans="2:20">
       <c r="B54" s="26"/>
-      <c r="C54" s="161" t="s">
+      <c r="C54" s="167" t="s">
         <v>155</v>
       </c>
-      <c r="D54" s="161"/>
-      <c r="E54" s="161"/>
-      <c r="F54" s="161"/>
-      <c r="G54" s="161"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="161"/>
-      <c r="J54" s="161"/>
+      <c r="D54" s="167"/>
+      <c r="E54" s="167"/>
+      <c r="F54" s="167"/>
+      <c r="G54" s="167"/>
+      <c r="H54" s="167"/>
+      <c r="I54" s="167"/>
+      <c r="J54" s="167"/>
       <c r="K54" s="27"/>
       <c r="L54" s="27"/>
       <c r="M54" s="27"/>
@@ -20144,16 +20185,18 @@
     </row>
     <row r="56" spans="2:20">
       <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
+      <c r="C56" s="183" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="183"/>
+      <c r="E56" s="183"/>
+      <c r="F56" s="183"/>
+      <c r="G56" s="183"/>
+      <c r="H56" s="183"/>
+      <c r="I56" s="183"/>
+      <c r="J56" s="183"/>
+      <c r="K56" s="183"/>
+      <c r="L56" s="183"/>
       <c r="M56" s="26"/>
       <c r="N56" s="26"/>
       <c r="O56" s="26"/>
@@ -20185,7 +20228,10 @@
       <c r="T57" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="C56:L56"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:R5"/>
     <mergeCell ref="P47:R47"/>
     <mergeCell ref="C54:J54"/>
     <mergeCell ref="C6:E6"/>
@@ -20194,8 +20240,7 @@
     <mergeCell ref="C53:K53"/>
     <mergeCell ref="P6:R6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="M47:O47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20206,16 +20251,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F425B10-5B6F-4D38-8EC8-85892A4FDDD6}">
   <dimension ref="B2:S21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E30" sqref="E30"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="52.140625" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.140625" customWidth="1"/>
@@ -20226,33 +20271,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19">
-      <c r="C2" s="173"/>
-      <c r="D2" s="172"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="178"/>
       <c r="E2" s="85"/>
-      <c r="F2" s="172" t="s">
+      <c r="F2" s="178" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="174" t="s">
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="180" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="175"/>
+      <c r="L2" s="181"/>
       <c r="M2" s="152"/>
       <c r="N2" s="152"/>
       <c r="O2" s="152"/>
-      <c r="P2" s="175" t="s">
+      <c r="P2" s="181" t="s">
         <v>162</v>
       </c>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="181"/>
       <c r="S2" s="26"/>
     </row>
     <row r="3" spans="2:19">
-      <c r="C3" s="173"/>
-      <c r="D3" s="172"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="178"/>
       <c r="E3" s="85"/>
       <c r="F3" s="39" t="s">
         <v>54</v>
@@ -20413,67 +20458,67 @@
     <row r="6" spans="2:19">
       <c r="B6" s="25"/>
       <c r="C6" s="40" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D6" s="90" t="str">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,2,FALSE)</f>
-        <v>A / sigma0</v>
+        <v>n</v>
       </c>
       <c r="E6" s="90" t="str">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,3,FALSE)</f>
-        <v>MPa</v>
+        <v>-</v>
       </c>
       <c r="F6" s="90">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,4,FALSE)</f>
-        <v>292.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="G6" s="90">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,5,FALSE)</f>
-        <v>38.799999999999997</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="H6" s="90">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,6,FALSE)</f>
-        <v>172.7</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="I6" s="90">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,7,FALSE)</f>
-        <v>350</v>
+        <v>0.05</v>
       </c>
       <c r="J6" s="90">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,8,FALSE)</f>
-        <v>292.5</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="K6" s="154">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,9,FALSE)</f>
-        <v>325.70001000000002</v>
+        <v>0</v>
       </c>
       <c r="L6" s="154">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,10,FALSE)</f>
-        <v>910</v>
+        <v>0.26</v>
       </c>
       <c r="M6" s="154">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,11,FALSE)</f>
-        <v>499</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="N6" s="154">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,12,FALSE)</f>
-        <v>859</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="O6" s="154">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,13,FALSE)</f>
-        <v>992</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="P6" s="154">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,14,FALSE)</f>
-        <v>900</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="Q6" s="154">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,15,FALSE)</f>
-        <v>600</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="R6" s="154">
         <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,16,FALSE)</f>
-        <v>500</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="S6" s="26"/>
     </row>
@@ -20526,7 +20571,7 @@
       <c r="K8" s="50">
         <v>6.96</v>
       </c>
-      <c r="L8" s="176">
+      <c r="L8" s="157">
         <v>7.72</v>
       </c>
       <c r="M8" s="29"/>
@@ -20540,7 +20585,7 @@
         <f>AVERAGE(5.72896,5.85194,5.71406,5.82871)</f>
         <v>5.7809175000000002</v>
       </c>
-      <c r="R8" s="176">
+      <c r="R8" s="157">
         <v>6.13</v>
       </c>
       <c r="S8" s="26"/>
@@ -20579,21 +20624,31 @@
         <f>K8*2</f>
         <v>13.92</v>
       </c>
-      <c r="L9" s="176">
+      <c r="L9" s="43">
+        <f t="shared" ref="L9:O9" si="1">L8*2</f>
         <v>15.44</v>
       </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
+      <c r="M9" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P9" s="88">
-        <f t="shared" ref="L9:R9" si="1">P8*2</f>
+        <f t="shared" ref="P9:Q9" si="2">P8*2</f>
         <v>11.266354999999999</v>
       </c>
       <c r="Q9" s="88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.561835</v>
       </c>
-      <c r="R9" s="176">
+      <c r="R9" s="157">
         <v>12.26</v>
       </c>
       <c r="S9" s="26"/>
@@ -20628,7 +20683,7 @@
       <c r="K10" s="43">
         <v>90</v>
       </c>
-      <c r="L10" s="176">
+      <c r="L10" s="157">
         <v>98</v>
       </c>
       <c r="M10" s="29"/>
@@ -20642,7 +20697,7 @@
         <f>AVERAGE(73.0359,74.5732,73.0406)</f>
         <v>73.549899999999994</v>
       </c>
-      <c r="R10" s="176">
+      <c r="R10" s="157">
         <v>92.1</v>
       </c>
       <c r="S10" s="26"/>
@@ -20671,19 +20726,25 @@
       <c r="K11" s="42">
         <v>1.22E-6</v>
       </c>
-      <c r="L11" s="177">
+      <c r="L11" s="158">
         <v>1.22E-6</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
+      <c r="M11" s="158">
+        <v>1.22E-6</v>
+      </c>
+      <c r="N11" s="158">
+        <v>1.22E-6</v>
+      </c>
+      <c r="O11" s="158">
+        <v>1.22E-6</v>
+      </c>
       <c r="P11" s="42">
         <v>1.22E-6</v>
       </c>
       <c r="Q11" s="42">
         <v>1.22E-6</v>
       </c>
-      <c r="R11" s="177">
+      <c r="R11" s="158">
         <v>1.22E-6</v>
       </c>
       <c r="S11" s="26"/>
@@ -20712,7 +20773,7 @@
       <c r="K12" s="42">
         <v>7.0000000000000005E-8</v>
       </c>
-      <c r="L12" s="177">
+      <c r="L12" s="158">
         <v>3.3600000000000003E-8</v>
       </c>
       <c r="M12" s="28"/>
@@ -20724,7 +20785,7 @@
       <c r="Q12" s="150">
         <v>9.3499999999999997E-8</v>
       </c>
-      <c r="R12" s="177">
+      <c r="R12" s="158">
         <v>7.1900000000000002E-8</v>
       </c>
       <c r="S12" s="26"/>
@@ -20744,19 +20805,19 @@
         <v>25.9016393442623</v>
       </c>
       <c r="G13" s="45">
-        <f t="shared" ref="G13:J13" si="2">(G12/G11)*100</f>
+        <f t="shared" ref="G13:J13" si="3">(G12/G11)*100</f>
         <v>14.262295081967213</v>
       </c>
       <c r="H13" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.3442622950819683</v>
       </c>
       <c r="I13" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.163934426229508</v>
       </c>
       <c r="J13" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28.442622950819676</v>
       </c>
       <c r="K13" s="45">
@@ -20767,19 +20828,28 @@
         <f>(L12/L11)*100</f>
         <v>2.7540983606557381</v>
       </c>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
+      <c r="M13" s="45">
+        <f t="shared" ref="M13:O13" si="4">(M12/M11)*100</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="P13" s="45">
         <f>(P12/P11)*100</f>
         <v>7.8934426229508192</v>
       </c>
       <c r="Q13" s="45">
-        <f t="shared" ref="Q13:R13" si="3">(Q12/Q11)*100</f>
+        <f t="shared" ref="Q13:R13" si="5">(Q12/Q11)*100</f>
         <v>7.6639344262295088</v>
       </c>
       <c r="R13" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.8934426229508201</v>
       </c>
       <c r="S13" s="26"/>
@@ -20812,7 +20882,7 @@
       <c r="K14" s="42">
         <v>6070000</v>
       </c>
-      <c r="L14" s="177">
+      <c r="L14" s="158">
         <v>5720000</v>
       </c>
       <c r="M14" s="28"/>
@@ -20824,7 +20894,7 @@
       <c r="Q14" s="150">
         <v>6060000</v>
       </c>
-      <c r="R14" s="177">
+      <c r="R14" s="158">
         <v>6040000</v>
       </c>
       <c r="S14" s="26"/>
@@ -20857,7 +20927,7 @@
       <c r="K15" s="88">
         <v>4.96</v>
       </c>
-      <c r="L15" s="176">
+      <c r="L15" s="157">
         <v>8.58</v>
       </c>
       <c r="M15" s="29"/>
@@ -20869,7 +20939,7 @@
       <c r="Q15" s="156">
         <v>11.4</v>
       </c>
-      <c r="R15" s="176">
+      <c r="R15" s="157">
         <v>5.07</v>
       </c>
       <c r="S15" s="26"/>
@@ -21031,8 +21101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20CB03-FDC1-47B9-AF99-E205AFF1D2E2}">
   <dimension ref="C2:CB50"/>
   <sheetViews>
-    <sheetView topLeftCell="X7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AZ28" sqref="AZ28"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21089,19 +21159,19 @@
     <row r="7" spans="3:67">
       <c r="AP7" t="str">
         <f>Sheet2!C6&amp; " and debris cloud diamter"</f>
-        <v>JC Yield stress A and debris cloud diamter</v>
+        <v>JC hardening param n and debris cloud diamter</v>
       </c>
     </row>
     <row r="8" spans="3:67">
       <c r="AD8" t="str">
         <f>Sheet2!C6&amp;" "&amp;Sheet2!D6</f>
-        <v>JC Yield stress A A / sigma0</v>
+        <v>JC hardening param n n</v>
       </c>
     </row>
     <row r="10" spans="3:67">
       <c r="AD10" t="str">
         <f>Sheet2!C6&amp; " and target hole diameter"</f>
-        <v>JC Yield stress A and target hole diameter</v>
+        <v>JC hardening param n and target hole diameter</v>
       </c>
     </row>
     <row r="24" spans="30:80">
@@ -21117,11 +21187,11 @@
     <row r="29" spans="30:80">
       <c r="AD29" t="str">
         <f>Sheet2!C6&amp;" and percentage of solid material in debris cloud"</f>
-        <v>JC Yield stress A and percentage of solid material in debris cloud</v>
+        <v>JC hardening param n and percentage of solid material in debris cloud</v>
       </c>
       <c r="AP29" t="str">
         <f>Sheet2!C6&amp; " and residual velocity"</f>
-        <v>JC Yield stress A and residual velocity</v>
+        <v>JC hardening param n and residual velocity</v>
       </c>
     </row>
     <row r="46" spans="58:58">
@@ -21132,7 +21202,7 @@
     <row r="50" spans="37:37">
       <c r="AK50" t="str">
         <f>Sheet2!C6&amp; " and percentage of converted particles due to temperature"</f>
-        <v>JC Yield stress A and percentage of converted particles due to temperature</v>
+        <v>JC hardening param n and percentage of converted particles due to temperature</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayleigh\Documents\HVI share\HVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E7BB49-5119-462D-87D3-4E2D74A7D155}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A872EA0A-D227-46D8-A7E1-FC415265AF0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="-15480" windowWidth="20730" windowHeight="15600" activeTab="3" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
+    <workbookView xWindow="4440" yWindow="-15480" windowWidth="20730" windowHeight="15600" activeTab="1" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="196">
   <si>
     <t>Al 7005</t>
   </si>
@@ -422,16 +422,7 @@
     <t>done</t>
   </si>
   <si>
-    <t>* Effects of heat treatment on the ballistic properties of AA6070 aluminium alloy J.K. Holmen a , J. Johnsen a , S. Jupp b , O.S. Hopperstad a , T. Børvik</t>
-  </si>
-  <si>
     <t>Rannveig</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>** On the dynamic response of blast-loaded steel plates with andwithout pre-formed holesTaggedPD1XXV. AuneD2XXa,b,*,D3XXG. ValsamosD4XXc,D5XXF. CasadeiD6XXc,1,D7XXM. LangsethD8XXa,b,D9XXT. BørvikD10XXa</t>
   </si>
   <si>
     <t>units</t>
@@ -518,20 +509,7 @@
     <t>Damage Paramenters</t>
   </si>
   <si>
-    <t>***</t>
-  </si>
-  <si>
-    <t>*** Determination and verification of Johnson–Cook model parameters at high-speed deformation of titanium alloys
-Author links open overlay panelA.E.BuzyurkinaI.L.GladkybE.I.Krausa</t>
-  </si>
-  <si>
     <t>S2</t>
-  </si>
-  <si>
-    <t>****Ballistic impact simulation of GT model vehicle door using finite element method</t>
-  </si>
-  <si>
-    <t>****</t>
   </si>
   <si>
     <t>Mie-Gruneisen EOS constants</t>
@@ -576,10 +554,344 @@
     <t>running</t>
   </si>
   <si>
-    <t>***** On the influence of fracture criterion in projectile impact of steel platesS. Deya,*, T. Børvika,b, O.S. Hopperstada, M. Langseth</t>
+    <t>T4</t>
   </si>
   <si>
-    <t>*****</t>
+    <t>Ti-</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>OFHC COPPER</t>
+  </si>
+  <si>
+    <t>Ti-6Al-4V</t>
+  </si>
+  <si>
+    <t>Failure Modeling of Titanium  6Al-4V and Aluminum 2024-T3 With the Johnson-Cook Material Model</t>
+  </si>
+  <si>
+    <t>On the influence of fracture criterion in projectile impact of steel platesS. Deya,*, T. Børvika,b, O.S. Hopperstada, M. Langseth</t>
+  </si>
+  <si>
+    <t>Ballistic impact simulation of GT model vehicle door using finite element method</t>
+  </si>
+  <si>
+    <t>Determination and verification of Johnson–Cook model parameters at high-speed deformation of titanium alloys
+Author links open overlay panelA.E.BuzyurkinaI.L.GladkybE.I.Krausa</t>
+  </si>
+  <si>
+    <t>On the dynamic response of blast-loaded steel plates with andwithout pre-formed holesTaggedPD1XXV. AuneD2XXa,b,*,D3XXG. ValsamosD4XXc,D5XXF. CasadeiD6XXc,1,D7XXM. LangsethD8XXa,b,D9XXT. BørvikD10XXa</t>
+  </si>
+  <si>
+    <t>Effects of heat treatment on the ballistic properties of AA6070 aluminium alloy J.K. Holmen a , J. Johnsen a , S. Jupp b , O.S. Hopperstad a , T. Børvik</t>
+  </si>
+  <si>
+    <t>ARMOC IRON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRACTURE CHARACTERISTICS OF THREE METALS SUBJECTED TO VARIOUS STRAINS, STRAIN RATES, TEMPERATURES AND PRESSURES </t>
+  </si>
+  <si>
+    <t>MILD STEEL</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>The characterization and ballistic evaluation of mild steel</t>
+  </si>
+  <si>
+    <t>Chip Fracture Behavior in theHigh Speed Machining ofTitanium Alloys</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>7075-T651</t>
+  </si>
+  <si>
+    <r>
+      <t>Study of the constitutive behavior of 7075-T651 aluminum alloy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>TaggedPD1XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>K. Senthil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>D2XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>D3XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>M.A. Iqbal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>D4XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a,*,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>D5XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>P.S. Chandel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>D6XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>b,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>D7XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N.K Gupta</t>
+    </r>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>MISC.</t>
+  </si>
+  <si>
+    <t>MJC</t>
+  </si>
+  <si>
+    <t>OJC</t>
+  </si>
+  <si>
+    <t>2024-O</t>
+  </si>
+  <si>
+    <r>
+      <t>Ballistic resistance of 2024 aluminium plates against hemispherical, sphereand blunt nose projectiles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>K. Senthil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>⁎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, M.A. Iqbal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, B. Arindam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, R. Mittal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, N.K. Gupta</t>
+    </r>
+  </si>
+  <si>
+    <t>7075-T6</t>
+  </si>
+  <si>
+    <r>
+      <t>Modeling the effect of laser heating on the strength and failure of7075-T6 aluminum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>J.N. Florando</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, J.D. Margraf, J.F. Reus, A.T. Anderson, R.C. McCallen, M.M. LeBlanc,J.R. Stanley, A.M. Rubenchik, S.S. Wu, W.H. Lowdermilk</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -589,7 +901,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +971,48 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -710,7 +1064,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1280,11 +1634,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1338,9 +1703,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="9" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1388,14 +1750,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1411,9 +1767,6 @@
     </xf>
     <xf numFmtId="11" fontId="9" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1448,8 +1801,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1459,15 +1810,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1530,23 +1872,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1577,9 +1904,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1600,18 +1924,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1634,9 +1946,6 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1646,14 +1955,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1667,28 +1982,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1703,11 +2000,125 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="9" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3026,7 +3437,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.39479999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3097,7 +3508,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.26</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3168,7 +3579,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.50600000000000001</c:v>
+                  <c:v>0.45800000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3239,7 +3650,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.38600000000000001</c:v>
+                  <c:v>0.57899999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3310,7 +3721,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.50800000000000001</c:v>
+                  <c:v>0.56799999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7709,7 +8120,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.39479999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7780,7 +8191,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.26</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7851,7 +8262,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.50800000000000001</c:v>
+                  <c:v>0.56799999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7922,7 +8333,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.38600000000000001</c:v>
+                  <c:v>0.57899999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7993,7 +8404,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.50600000000000001</c:v>
+                  <c:v>0.45800000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8781,7 +9192,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.39479999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8852,7 +9263,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.26</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8923,7 +9334,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.50600000000000001</c:v>
+                  <c:v>0.45800000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8994,7 +9405,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.38600000000000001</c:v>
+                  <c:v>0.57899999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9065,7 +9476,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.50800000000000001</c:v>
+                  <c:v>0.56799999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9866,7 +10277,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.39479999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9937,7 +10348,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.26</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10008,7 +10419,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.50600000000000001</c:v>
+                  <c:v>0.45800000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10079,7 +10490,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.38600000000000001</c:v>
+                  <c:v>0.57899999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10150,7 +10561,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.50800000000000001</c:v>
+                  <c:v>0.56799999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10937,7 +11348,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.39479999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11008,7 +11419,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.26</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11079,7 +11490,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.50600000000000001</c:v>
+                  <c:v>0.45800000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11150,7 +11561,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.38600000000000001</c:v>
+                  <c:v>0.57899999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11221,7 +11632,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.50800000000000001</c:v>
+                  <c:v>0.56799999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18053,11 +18464,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20077FD7-1EC0-41E4-96B7-2075AF4FD95D}">
-  <dimension ref="B3:U57"/>
+  <dimension ref="B3:AK63"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U27" sqref="U27"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18069,16 +18480,18 @@
     <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" customWidth="1"/>
-    <col min="13" max="15" width="16.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" customWidth="1"/>
-    <col min="19" max="19" width="18.85546875" customWidth="1"/>
+    <col min="10" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" customWidth="1"/>
+    <col min="16" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" customWidth="1"/>
+    <col min="23" max="23" width="18.85546875" customWidth="1"/>
+    <col min="24" max="24" width="17.42578125" customWidth="1"/>
+    <col min="25" max="25" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21">
+    <row r="3" spans="2:26">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -18098,8 +18511,12 @@
       <c r="R3" s="26"/>
       <c r="S3" s="26"/>
       <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:26">
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -18119,216 +18536,293 @@
       <c r="R4" s="26"/>
       <c r="S4" s="26"/>
       <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
     </row>
-    <row r="5" spans="2:21" ht="15" customHeight="1">
+    <row r="5" spans="2:26" ht="15" customHeight="1">
       <c r="B5" s="26"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="163" t="s">
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="159" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="160" t="s">
+        <v>191</v>
+      </c>
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="176" t="s">
+        <v>190</v>
+      </c>
+      <c r="O5" s="177" t="s">
+        <v>149</v>
+      </c>
+      <c r="P5" s="177"/>
+      <c r="Q5" s="177"/>
+      <c r="R5" s="177"/>
+      <c r="S5" s="177"/>
+      <c r="T5" s="177"/>
+      <c r="U5" s="177"/>
+      <c r="V5" s="177"/>
+      <c r="W5" s="177"/>
+      <c r="X5" s="177"/>
+      <c r="Y5" s="177"/>
+    </row>
+    <row r="6" spans="2:26">
+      <c r="B6" s="26"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="161" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="162"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="162"/>
+      <c r="K6" s="162"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="164"/>
+      <c r="N6" s="161" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="162"/>
+      <c r="P6" s="162"/>
+      <c r="Q6" s="162"/>
+      <c r="R6" s="162"/>
+      <c r="S6" s="195"/>
+      <c r="T6" s="162" t="s">
+        <v>129</v>
+      </c>
+      <c r="U6" s="162"/>
+      <c r="V6" s="162"/>
+      <c r="W6" s="162"/>
+      <c r="X6" s="202" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y6" s="203"/>
+      <c r="Z6" s="189"/>
+    </row>
+    <row r="7" spans="2:26">
+      <c r="B7" s="26"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="165" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="166" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="166" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="166" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="163" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="164" t="s">
+        <v>184</v>
+      </c>
+      <c r="L7" s="166" t="s">
+        <v>187</v>
+      </c>
+      <c r="M7" s="164" t="s">
+        <v>188</v>
+      </c>
+      <c r="N7" s="167" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="164" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
-      <c r="K5" s="164"/>
-      <c r="L5" s="164" t="s">
-        <v>152</v>
-      </c>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="164"/>
-      <c r="P5" s="164"/>
-      <c r="Q5" s="164"/>
-      <c r="R5" s="164"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="26"/>
+      <c r="P7" s="163" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q7" s="164" t="s">
+        <v>157</v>
+      </c>
+      <c r="R7" s="164" t="s">
+        <v>158</v>
+      </c>
+      <c r="S7" s="176" t="s">
+        <v>181</v>
+      </c>
+      <c r="T7" s="165" t="s">
+        <v>130</v>
+      </c>
+      <c r="U7" s="166" t="s">
+        <v>131</v>
+      </c>
+      <c r="V7" s="166" t="s">
+        <v>132</v>
+      </c>
+      <c r="W7" s="173" t="s">
+        <v>166</v>
+      </c>
+      <c r="X7" s="178" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y7" s="190" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z7" s="189"/>
     </row>
-    <row r="6" spans="2:21">
-      <c r="B6" s="26"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="170" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="172"/>
-      <c r="K6" s="175" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="176"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
-      <c r="P6" s="175" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q6" s="176"/>
-      <c r="R6" s="177"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="5"/>
+    <row r="8" spans="2:26" ht="19.5" customHeight="1" thickBot="1">
+      <c r="B8" s="26"/>
+      <c r="C8" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="168" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="169" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="169" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="170" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="172" t="s">
+        <v>185</v>
+      </c>
+      <c r="L8" s="169" t="s">
+        <v>192</v>
+      </c>
+      <c r="M8" s="172" t="s">
+        <v>194</v>
+      </c>
+      <c r="N8" s="171" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="172">
+        <v>4340</v>
+      </c>
+      <c r="P8" s="170" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q8" s="172" t="s">
+        <v>159</v>
+      </c>
+      <c r="R8" s="172" t="s">
+        <v>160</v>
+      </c>
+      <c r="S8" s="172" t="s">
+        <v>180</v>
+      </c>
+      <c r="T8" s="168" t="s">
+        <v>133</v>
+      </c>
+      <c r="U8" s="169" t="s">
+        <v>134</v>
+      </c>
+      <c r="V8" s="169" t="s">
+        <v>135</v>
+      </c>
+      <c r="W8" s="170" t="s">
+        <v>171</v>
+      </c>
+      <c r="X8" s="179" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y8" s="194" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z8" s="189"/>
     </row>
-    <row r="7" spans="2:21">
-      <c r="B7" s="26"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" s="122" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="147" t="s">
-        <v>156</v>
-      </c>
-      <c r="M7" s="146" t="s">
-        <v>160</v>
-      </c>
-      <c r="N7" s="147" t="s">
-        <v>164</v>
-      </c>
-      <c r="O7" s="147" t="s">
-        <v>165</v>
-      </c>
-      <c r="P7" s="144" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q7" s="145" t="s">
-        <v>134</v>
-      </c>
-      <c r="R7" s="145" t="s">
-        <v>135</v>
-      </c>
-      <c r="S7" s="93"/>
-      <c r="T7" s="83"/>
-      <c r="U7" s="5"/>
-    </row>
-    <row r="8" spans="2:21" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B8" s="26"/>
-      <c r="C8" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="118" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="119" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="120" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="136" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="159">
-        <v>4340</v>
-      </c>
-      <c r="M8" s="120" t="s">
-        <v>163</v>
-      </c>
-      <c r="N8" s="159" t="s">
-        <v>166</v>
-      </c>
-      <c r="O8" s="159" t="s">
-        <v>167</v>
-      </c>
-      <c r="P8" s="118" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q8" s="119" t="s">
-        <v>137</v>
-      </c>
-      <c r="R8" s="119" t="s">
-        <v>138</v>
-      </c>
-      <c r="S8" s="94"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="5"/>
-    </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="2:26" ht="16.5" customHeight="1">
       <c r="B9" s="26"/>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F9" s="68">
         <v>2.7000000000000002E-9</v>
       </c>
-      <c r="G9" s="58">
+      <c r="G9" s="57">
         <v>2.7000000000000002E-9</v>
       </c>
-      <c r="H9" s="58">
+      <c r="H9" s="57">
         <v>2.7000000000000002E-9</v>
       </c>
-      <c r="I9" s="58">
+      <c r="I9" s="57">
         <v>2.7000000000000002E-9</v>
       </c>
-      <c r="J9" s="67">
+      <c r="J9" s="64">
         <v>2.7000000000000002E-9</v>
       </c>
-      <c r="K9" s="137">
-        <v>7.8500000000000008E-9</v>
+      <c r="K9" s="28">
+        <v>2.7099999999999999E-9</v>
       </c>
       <c r="L9" s="28">
-        <v>7.8500000000000008E-9</v>
+        <v>2.7099999999999999E-9</v>
       </c>
       <c r="M9" s="28">
-        <v>7.8500000000000008E-9</v>
-      </c>
-      <c r="N9" s="28">
+        <v>2.81E-9</v>
+      </c>
+      <c r="N9" s="122">
         <v>7.8500000000000008E-9</v>
       </c>
       <c r="O9" s="28">
         <v>7.8500000000000008E-9</v>
       </c>
-      <c r="P9" s="109">
+      <c r="P9" s="28">
+        <v>7.8500000000000008E-9</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>7.8500000000000008E-9</v>
+      </c>
+      <c r="R9" s="28">
+        <v>7.8500000000000008E-9</v>
+      </c>
+      <c r="S9" s="28">
+        <v>7.8500000000000008E-9</v>
+      </c>
+      <c r="T9" s="100">
         <v>4.4299999999999998E-9</v>
       </c>
-      <c r="Q9" s="110">
+      <c r="U9" s="101">
         <v>4.5500000000000002E-9</v>
       </c>
-      <c r="R9" s="111">
+      <c r="V9" s="102">
         <v>4.5500000000000002E-9</v>
       </c>
-      <c r="S9" s="28"/>
-      <c r="T9" s="84"/>
+      <c r="W9" s="28">
+        <v>4.4299999999999998E-9</v>
+      </c>
+      <c r="X9" s="185">
+        <v>8.9600000000000005E-9</v>
+      </c>
+      <c r="Y9" s="184">
+        <v>7.8899999999999998E-9</v>
+      </c>
     </row>
-    <row r="10" spans="2:21">
+    <row r="10" spans="2:26">
       <c r="B10" s="26"/>
       <c r="C10" s="32" t="s">
         <v>70</v>
@@ -18336,56 +18830,82 @@
       <c r="D10" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="77" t="s">
+      <c r="E10" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="74">
+      <c r="F10" s="70">
         <v>58333.33</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="34">
         <v>58333.33</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="34">
         <v>58333.33</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="34">
         <v>58333.33</v>
       </c>
-      <c r="J10" s="68">
+      <c r="J10" s="65">
         <v>58333.33</v>
       </c>
-      <c r="K10" s="137">
-        <v>205880</v>
+      <c r="K10" s="28">
+        <f>K13/(3*(1-2*K14))</f>
+        <v>56140.350877192977</v>
       </c>
       <c r="L10" s="28">
         <f>L13/(3*(1-2*L14))</f>
-        <v>174999.99999999997</v>
+        <v>69607.843137254895</v>
       </c>
       <c r="M10" s="28">
         <f>M13/(3*(1-2*M14))</f>
+        <v>70294.117647058825</v>
+      </c>
+      <c r="N10" s="122">
+        <v>205880</v>
+      </c>
+      <c r="O10" s="28">
+        <f>O13/(3*(1-2*O14))</f>
+        <v>174999.99999999997</v>
+      </c>
+      <c r="P10" s="28">
+        <f>P13/(3*(1-2*P14))</f>
         <v>205882.35294117648</v>
       </c>
-      <c r="N10" s="28">
-        <f t="shared" ref="N10:O10" si="0">N13/(3*(1-2*N14))</f>
+      <c r="Q10" s="28">
+        <f t="shared" ref="Q10:Y10" si="0">Q13/(3*(1-2*Q14))</f>
         <v>205882.35294117648</v>
       </c>
-      <c r="O10" s="28">
+      <c r="R10" s="28">
         <f t="shared" si="0"/>
         <v>205882.35294117648</v>
       </c>
-      <c r="P10" s="109">
+      <c r="S10" s="28">
+        <f t="shared" si="0"/>
+        <v>199019.60784313726</v>
+      </c>
+      <c r="T10" s="100">
         <v>116</v>
       </c>
-      <c r="Q10" s="110">
+      <c r="U10" s="101">
         <v>116</v>
       </c>
-      <c r="R10" s="110">
+      <c r="V10" s="101">
         <v>116</v>
       </c>
-      <c r="S10" s="28"/>
-      <c r="T10" s="84"/>
+      <c r="W10" s="28">
+        <f>W13/(3*(1-2*W14))</f>
+        <v>117881.03958333335</v>
+      </c>
+      <c r="X10" s="191">
+        <f>X13/(3*(1-2*X14))</f>
+        <v>129166.66666666669</v>
+      </c>
+      <c r="Y10" s="28">
+        <f t="shared" si="0"/>
+        <v>164285.71428571426</v>
+      </c>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="2:26">
       <c r="B11" s="26"/>
       <c r="C11" s="32" t="s">
         <v>73</v>
@@ -18393,56 +18913,82 @@
       <c r="D11" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="77" t="s">
+      <c r="E11" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="74">
+      <c r="F11" s="70">
         <v>26923.08</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="34">
         <v>26923.08</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="34">
         <v>26923.08</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="34">
         <v>26923.08</v>
       </c>
-      <c r="J11" s="68">
+      <c r="J11" s="65">
         <v>26923.08</v>
       </c>
-      <c r="K11" s="137">
+      <c r="K11" s="28">
+        <f t="shared" ref="K10:M11" si="1">K13/(2*(1+K14))</f>
+        <v>24427.480916030534</v>
+      </c>
+      <c r="L11" s="28">
+        <f t="shared" si="1"/>
+        <v>26691.729323308271</v>
+      </c>
+      <c r="M11" s="28">
+        <f>M13/(2*(1+M14))</f>
+        <v>26954.887218045111</v>
+      </c>
+      <c r="N11" s="122">
         <v>78947</v>
       </c>
-      <c r="L11" s="28">
-        <f>L13/(2*(1+L14))</f>
+      <c r="O11" s="28">
+        <f>O13/(2*(1+O14))</f>
         <v>80769.230769230766</v>
       </c>
-      <c r="M11" s="28">
-        <f t="shared" ref="M11:O11" si="1">M13/(2*(1+M14))</f>
+      <c r="P11" s="28">
+        <f t="shared" ref="P11:S11" si="2">P13/(2*(1+P14))</f>
         <v>78947.368421052626</v>
       </c>
-      <c r="N11" s="28">
-        <f t="shared" si="1"/>
+      <c r="Q11" s="28">
+        <f t="shared" si="2"/>
         <v>78947.368421052626</v>
       </c>
-      <c r="O11" s="28">
-        <f t="shared" si="1"/>
+      <c r="R11" s="28">
+        <f t="shared" si="2"/>
         <v>78947.368421052626</v>
       </c>
-      <c r="P11" s="109">
+      <c r="S11" s="28">
+        <f t="shared" si="2"/>
+        <v>76315.789473684214</v>
+      </c>
+      <c r="T11" s="100">
         <v>38000</v>
       </c>
-      <c r="Q11" s="110">
+      <c r="U11" s="101">
         <v>38000</v>
       </c>
-      <c r="R11" s="110">
+      <c r="V11" s="101">
         <v>38000</v>
       </c>
-      <c r="S11" s="28"/>
-      <c r="T11" s="84"/>
+      <c r="W11" s="28">
+        <f t="shared" ref="W11:Y11" si="3">W13/(2*(1+W14))</f>
+        <v>42226.044029850746</v>
+      </c>
+      <c r="X11" s="122">
+        <f t="shared" si="3"/>
+        <v>46268.656716417907</v>
+      </c>
+      <c r="Y11" s="28">
+        <f t="shared" si="3"/>
+        <v>80232.558139534885</v>
+      </c>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="2:26">
       <c r="B12" s="26"/>
       <c r="C12" s="32" t="s">
         <v>75</v>
@@ -18450,52 +18996,71 @@
       <c r="D12" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="77" t="s">
+      <c r="E12" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="74">
+      <c r="F12" s="70">
         <v>47</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="34">
         <v>47</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="34">
         <v>47</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="34">
         <v>47</v>
       </c>
-      <c r="J12" s="68">
+      <c r="J12" s="65">
         <v>47</v>
       </c>
-      <c r="K12" s="115">
+      <c r="K12" s="65">
         <v>47</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="65">
         <v>47</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="65">
         <v>47</v>
       </c>
-      <c r="N12" s="29">
+      <c r="N12" s="106">
         <v>47</v>
       </c>
       <c r="O12" s="29">
         <v>47</v>
       </c>
-      <c r="P12" s="109">
+      <c r="P12" s="29">
         <v>47</v>
       </c>
-      <c r="Q12" s="110">
+      <c r="Q12" s="29">
         <v>47</v>
       </c>
-      <c r="R12" s="110">
+      <c r="R12" s="29">
         <v>47</v>
       </c>
-      <c r="S12" s="29"/>
-      <c r="T12" s="84"/>
+      <c r="S12" s="29">
+        <v>47</v>
+      </c>
+      <c r="T12" s="100">
+        <v>47</v>
+      </c>
+      <c r="U12" s="101">
+        <v>47</v>
+      </c>
+      <c r="V12" s="101">
+        <v>47</v>
+      </c>
+      <c r="W12" s="101">
+        <v>47</v>
+      </c>
+      <c r="X12" s="100">
+        <v>47</v>
+      </c>
+      <c r="Y12" s="101">
+        <v>47</v>
+      </c>
     </row>
-    <row r="13" spans="2:21">
+    <row r="13" spans="2:26">
       <c r="B13" s="26"/>
       <c r="C13" s="32" t="s">
         <v>77</v>
@@ -18503,52 +19068,71 @@
       <c r="D13" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="77" t="s">
+      <c r="E13" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="74">
+      <c r="F13" s="70">
         <v>70000</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="34">
         <v>70000</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="34">
         <v>70000</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="34">
         <v>70000</v>
       </c>
-      <c r="J13" s="68">
+      <c r="J13" s="65">
         <v>70000</v>
       </c>
-      <c r="K13" s="137">
-        <v>210000</v>
+      <c r="K13" s="28">
+        <v>64000</v>
       </c>
       <c r="L13" s="28">
-        <v>210000</v>
+        <v>71000</v>
       </c>
       <c r="M13" s="28">
-        <v>210000</v>
-      </c>
-      <c r="N13" s="28">
+        <v>71700</v>
+      </c>
+      <c r="N13" s="122">
         <v>210000</v>
       </c>
       <c r="O13" s="28">
         <v>210000</v>
       </c>
-      <c r="P13" s="109">
+      <c r="P13" s="28">
+        <v>210000</v>
+      </c>
+      <c r="Q13" s="28">
+        <v>210000</v>
+      </c>
+      <c r="R13" s="28">
+        <v>210000</v>
+      </c>
+      <c r="S13" s="28">
+        <v>203000</v>
+      </c>
+      <c r="T13" s="100">
         <v>114500</v>
       </c>
-      <c r="Q13" s="110">
+      <c r="U13" s="101">
         <v>114500</v>
       </c>
-      <c r="R13" s="110">
+      <c r="V13" s="101">
         <v>114500</v>
       </c>
-      <c r="S13" s="28"/>
-      <c r="T13" s="84"/>
+      <c r="W13" s="28">
+        <v>113165.798</v>
+      </c>
+      <c r="X13" s="183">
+        <v>124000</v>
+      </c>
+      <c r="Y13" s="184">
+        <v>207000</v>
+      </c>
     </row>
-    <row r="14" spans="2:21">
+    <row r="14" spans="2:26">
       <c r="B14" s="26"/>
       <c r="C14" s="32" t="s">
         <v>79</v>
@@ -18556,52 +19140,71 @@
       <c r="D14" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="77" t="s">
+      <c r="E14" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="74">
+      <c r="F14" s="70">
         <v>0.3</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="34">
         <v>0.3</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="34">
         <v>0.3</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="34">
         <v>0.3</v>
       </c>
-      <c r="J14" s="68">
+      <c r="J14" s="65">
         <v>0.3</v>
       </c>
-      <c r="K14" s="115">
+      <c r="K14" s="29">
+        <v>0.31</v>
+      </c>
+      <c r="L14" s="29">
         <v>0.33</v>
-      </c>
-      <c r="L14" s="29">
-        <v>0.3</v>
       </c>
       <c r="M14" s="29">
         <v>0.33</v>
       </c>
-      <c r="N14" s="29">
+      <c r="N14" s="106">
         <v>0.33</v>
       </c>
       <c r="O14" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="P14" s="29">
         <v>0.33</v>
       </c>
-      <c r="P14" s="109">
+      <c r="Q14" s="29">
+        <v>0.33</v>
+      </c>
+      <c r="R14" s="29">
+        <v>0.33</v>
+      </c>
+      <c r="S14" s="29">
+        <v>0.33</v>
+      </c>
+      <c r="T14" s="100">
         <v>0.34499999999999997</v>
       </c>
-      <c r="Q14" s="110">
+      <c r="U14" s="101">
         <v>0.34499999999999997</v>
       </c>
-      <c r="R14" s="110">
+      <c r="V14" s="101">
         <v>0.34499999999999997</v>
       </c>
-      <c r="S14" s="29"/>
-      <c r="T14" s="84"/>
+      <c r="W14" s="29">
+        <v>0.34</v>
+      </c>
+      <c r="X14" s="174">
+        <v>0.34</v>
+      </c>
+      <c r="Y14" s="180">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
-    <row r="15" spans="2:21">
+    <row r="15" spans="2:26">
       <c r="B15" s="26"/>
       <c r="C15" s="32" t="s">
         <v>81</v>
@@ -18609,44 +19212,48 @@
       <c r="D15" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="77" t="s">
+      <c r="E15" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="74">
+      <c r="F15" s="70">
         <v>0.9</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="34">
         <v>0.9</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="34">
         <v>0.9</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="34">
         <v>0.9</v>
       </c>
-      <c r="J15" s="68">
+      <c r="J15" s="65">
         <v>0.9</v>
       </c>
-      <c r="K15" s="115">
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="106">
         <v>0.9</v>
       </c>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29">
+      <c r="O15" s="29"/>
+      <c r="P15" s="29">
         <v>0.9</v>
       </c>
-      <c r="N15" s="29">
+      <c r="Q15" s="29">
         <v>0.9</v>
       </c>
-      <c r="O15" s="29">
+      <c r="R15" s="29">
         <v>0.9</v>
       </c>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="110"/>
-      <c r="R15" s="110"/>
       <c r="S15" s="29"/>
-      <c r="T15" s="84"/>
+      <c r="T15" s="100"/>
+      <c r="U15" s="101"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="174"/>
     </row>
-    <row r="16" spans="2:21">
+    <row r="16" spans="2:26">
       <c r="B16" s="26"/>
       <c r="C16" s="32" t="s">
         <v>83</v>
@@ -18654,10 +19261,10 @@
       <c r="D16" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="77" t="s">
+      <c r="E16" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="73">
+      <c r="F16" s="69">
         <v>910000000</v>
       </c>
       <c r="G16" s="33">
@@ -18669,17 +19276,15 @@
       <c r="I16" s="33">
         <v>910000000</v>
       </c>
-      <c r="J16" s="69">
+      <c r="J16" s="66">
         <v>910000000</v>
       </c>
-      <c r="K16" s="137">
-        <v>452000000</v>
-      </c>
-      <c r="L16" s="28">
-        <v>452000000</v>
-      </c>
-      <c r="M16" s="28">
-        <v>452000000</v>
+      <c r="K16" s="33">
+        <v>960000000</v>
+      </c>
+      <c r="L16" s="33"/>
+      <c r="M16" s="199">
+        <v>0</v>
       </c>
       <c r="N16" s="28">
         <v>452000000</v>
@@ -18687,19 +19292,38 @@
       <c r="O16" s="28">
         <v>452000000</v>
       </c>
-      <c r="P16" s="112">
+      <c r="P16" s="28">
+        <v>452000000</v>
+      </c>
+      <c r="Q16" s="28">
+        <v>452000000</v>
+      </c>
+      <c r="R16" s="28">
+        <v>452000000</v>
+      </c>
+      <c r="S16" s="28">
+        <v>452000000</v>
+      </c>
+      <c r="T16" s="103">
         <v>720000000</v>
       </c>
-      <c r="Q16" s="111">
+      <c r="U16" s="102">
         <v>720000000</v>
       </c>
-      <c r="R16" s="111">
+      <c r="V16" s="102">
         <v>720000000</v>
       </c>
-      <c r="S16" s="28"/>
-      <c r="T16" s="84"/>
+      <c r="W16" s="28">
+        <v>620750000</v>
+      </c>
+      <c r="X16" s="183">
+        <v>383000000</v>
+      </c>
+      <c r="Y16" s="186">
+        <v>452000000</v>
+      </c>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:25">
       <c r="B17" s="26"/>
       <c r="C17" s="32" t="s">
         <v>86</v>
@@ -18707,46 +19331,50 @@
       <c r="D17" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="77" t="s">
+      <c r="E17" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="73">
+      <c r="F17" s="69">
         <v>2.3200000000000001E-5</v>
       </c>
       <c r="G17" s="33">
         <v>2.3200000000000001E-5</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="35">
         <v>2.3200000000000001E-5</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="35">
         <v>2.3200000000000001E-5</v>
       </c>
-      <c r="J17" s="70">
+      <c r="J17" s="67">
         <v>2.3200000000000001E-5</v>
       </c>
-      <c r="K17" s="137">
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="200"/>
+      <c r="N17" s="28">
         <v>2.3200000000000001E-5</v>
       </c>
-      <c r="L17" s="28">
+      <c r="O17" s="28">
         <v>2.3200000000000001E-5</v>
       </c>
-      <c r="M17" s="28">
+      <c r="P17" s="28">
         <v>1.2E-5</v>
       </c>
-      <c r="N17" s="28">
+      <c r="Q17" s="28">
         <v>1.2E-5</v>
       </c>
-      <c r="O17" s="28">
+      <c r="R17" s="28">
         <v>1.2E-5</v>
       </c>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="110"/>
       <c r="S17" s="28"/>
-      <c r="T17" s="84"/>
+      <c r="T17" s="100"/>
+      <c r="U17" s="101"/>
+      <c r="V17" s="101"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="174"/>
     </row>
-    <row r="18" spans="2:20">
+    <row r="18" spans="2:25">
       <c r="B18" s="26"/>
       <c r="C18" s="32" t="s">
         <v>89</v>
@@ -18754,8 +19382,8 @@
       <c r="D18" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="77"/>
-      <c r="F18" s="73">
+      <c r="E18" s="73"/>
+      <c r="F18" s="69">
         <v>1E-4</v>
       </c>
       <c r="G18" s="33">
@@ -18767,44 +19395,48 @@
       <c r="I18" s="33">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J18" s="69">
+      <c r="J18" s="66">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K18" s="137">
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="199"/>
+      <c r="N18" s="28">
         <v>1E-4</v>
       </c>
-      <c r="L18" s="28">
+      <c r="O18" s="28">
         <v>1E-4</v>
       </c>
-      <c r="M18" s="28">
+      <c r="P18" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="N18" s="28">
+      <c r="Q18" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O18" s="28">
+      <c r="R18" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="P18" s="113">
+      <c r="S18" s="28"/>
+      <c r="T18" s="104">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="Q18" s="114">
+      <c r="U18" s="105">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="R18" s="114">
+      <c r="V18" s="105">
         <v>6.3499999999999997E-3</v>
       </c>
-      <c r="S18" s="26"/>
-      <c r="T18" s="84"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="174"/>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:25">
       <c r="B19" s="26"/>
       <c r="C19" s="32"/>
       <c r="D19" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="73">
+      <c r="E19" s="73"/>
+      <c r="F19" s="69">
         <v>2.4569999999999999</v>
       </c>
       <c r="G19" s="33">
@@ -18816,132 +19448,153 @@
       <c r="I19" s="33">
         <v>2.4569999999999999</v>
       </c>
-      <c r="J19" s="69">
+      <c r="J19" s="66">
         <v>2.4569999999999999</v>
       </c>
-      <c r="K19" s="137">
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="201"/>
+      <c r="N19" s="28">
         <v>3.548</v>
       </c>
-      <c r="L19" s="28">
-        <f>L16*L9</f>
+      <c r="O19" s="28">
+        <f>O16*O9</f>
         <v>3.5482000000000005</v>
       </c>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="112">
-        <f>P16*P9</f>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="103">
+        <f>T16*T9</f>
         <v>3.1896</v>
       </c>
-      <c r="Q19" s="110">
-        <f t="shared" ref="Q19:R19" si="2">Q16*Q9</f>
+      <c r="U19" s="101">
+        <f t="shared" ref="U19:V19" si="4">U16*U9</f>
         <v>3.2760000000000002</v>
       </c>
-      <c r="R19" s="110">
-        <f t="shared" si="2"/>
+      <c r="V19" s="101">
+        <f t="shared" si="4"/>
         <v>3.2760000000000002</v>
       </c>
-      <c r="S19" s="26"/>
-      <c r="T19" s="84"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="174"/>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:25">
       <c r="B20" s="26"/>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="78" t="s">
+      <c r="E20" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="74">
+      <c r="F20" s="70">
         <v>893</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="34">
         <v>893</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="34">
         <v>893</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="34">
         <v>893</v>
       </c>
-      <c r="J20" s="68">
+      <c r="J20" s="65">
         <v>893</v>
       </c>
-      <c r="K20" s="115">
-        <v>1800</v>
-      </c>
-      <c r="L20" s="29">
-        <v>1800</v>
+      <c r="K20" s="65">
+        <v>893</v>
+      </c>
+      <c r="L20" s="65">
+        <v>893</v>
       </c>
       <c r="M20" s="29">
-        <v>1800</v>
-      </c>
-      <c r="N20" s="29">
+        <v>750</v>
+      </c>
+      <c r="N20" s="106">
         <v>1800</v>
       </c>
       <c r="O20" s="29">
         <v>1800</v>
       </c>
-      <c r="P20" s="109">
+      <c r="P20" s="29">
+        <v>1800</v>
+      </c>
+      <c r="Q20" s="29">
+        <v>1800</v>
+      </c>
+      <c r="R20" s="29">
+        <v>1800</v>
+      </c>
+      <c r="S20" s="29">
+        <v>1800</v>
+      </c>
+      <c r="T20" s="100">
         <f>1668+273</f>
         <v>1941</v>
       </c>
-      <c r="Q20" s="110">
-        <f t="shared" ref="Q20:R20" si="3">1668+273</f>
+      <c r="U20" s="101">
+        <f t="shared" ref="U20:V20" si="5">1668+273</f>
         <v>1941</v>
       </c>
-      <c r="R20" s="110">
-        <f t="shared" si="3"/>
+      <c r="V20" s="101">
+        <f t="shared" si="5"/>
         <v>1941</v>
       </c>
-      <c r="S20" s="26"/>
-      <c r="T20" s="84"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="174">
+        <v>1356</v>
+      </c>
+      <c r="Y20">
+        <v>1811</v>
+      </c>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:25">
       <c r="B21" s="26"/>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="78" t="s">
+      <c r="E21" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="74">
+      <c r="F21" s="70">
         <v>293</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="34">
         <v>293</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="34">
         <v>293</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="34">
         <v>293</v>
       </c>
-      <c r="J21" s="68">
+      <c r="J21" s="65">
         <v>293</v>
       </c>
-      <c r="K21" s="115">
+      <c r="K21" s="65">
         <v>293</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="65">
         <v>293</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="65">
         <v>293</v>
       </c>
-      <c r="N21" s="29">
+      <c r="N21" s="106">
         <v>293</v>
       </c>
       <c r="O21" s="29">
         <v>293</v>
       </c>
-      <c r="P21" s="115">
+      <c r="P21" s="29">
         <v>293</v>
       </c>
       <c r="Q21" s="29">
@@ -18950,51 +19603,70 @@
       <c r="R21" s="29">
         <v>293</v>
       </c>
-      <c r="S21" s="26"/>
-      <c r="T21" s="84"/>
+      <c r="S21" s="29">
+        <v>293</v>
+      </c>
+      <c r="T21" s="106">
+        <v>293</v>
+      </c>
+      <c r="U21" s="29">
+        <v>293</v>
+      </c>
+      <c r="V21" s="29">
+        <v>293</v>
+      </c>
+      <c r="W21" s="29">
+        <v>293</v>
+      </c>
+      <c r="X21" s="192">
+        <v>293</v>
+      </c>
+      <c r="Y21" s="29">
+        <v>293</v>
+      </c>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:25">
       <c r="B22" s="26"/>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="78" t="s">
+      <c r="E22" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="74">
+      <c r="F22" s="70">
         <v>293</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="34">
         <v>293</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="34">
         <v>293</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22" s="34">
         <v>293</v>
       </c>
-      <c r="J22" s="68">
+      <c r="J22" s="65">
         <v>293</v>
       </c>
-      <c r="K22" s="115">
+      <c r="K22" s="65">
         <v>293</v>
       </c>
-      <c r="L22" s="29">
+      <c r="L22" s="65">
         <v>293</v>
       </c>
-      <c r="M22" s="29">
+      <c r="M22" s="65">
         <v>293</v>
       </c>
-      <c r="N22" s="29">
+      <c r="N22" s="106">
         <v>293</v>
       </c>
       <c r="O22" s="29">
         <v>293</v>
       </c>
-      <c r="P22" s="115">
+      <c r="P22" s="29">
         <v>293</v>
       </c>
       <c r="Q22" s="29">
@@ -19003,780 +19675,1021 @@
       <c r="R22" s="29">
         <v>293</v>
       </c>
-      <c r="S22" s="26"/>
-      <c r="T22" s="84"/>
+      <c r="S22" s="29">
+        <v>293</v>
+      </c>
+      <c r="T22" s="106">
+        <v>293</v>
+      </c>
+      <c r="U22" s="29">
+        <v>293</v>
+      </c>
+      <c r="V22" s="29">
+        <v>293</v>
+      </c>
+      <c r="W22" s="29">
+        <v>293</v>
+      </c>
+      <c r="X22" s="193">
+        <v>293</v>
+      </c>
+      <c r="Y22" s="29">
+        <v>293</v>
+      </c>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" spans="2:25">
       <c r="B23" s="26"/>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="78" t="s">
+      <c r="E23" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="74">
+      <c r="F23" s="70">
         <v>893</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="34">
         <v>893</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="34">
         <v>893</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="34">
         <v>893</v>
       </c>
-      <c r="J23" s="68">
+      <c r="J23" s="65">
         <v>893</v>
       </c>
-      <c r="K23" s="115">
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="106">
         <v>893</v>
       </c>
-      <c r="L23" s="29">
+      <c r="O23" s="29">
         <v>893</v>
       </c>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="109"/>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="110"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="84"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="100"/>
+      <c r="U23" s="101"/>
+      <c r="V23" s="101"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="174"/>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:25">
       <c r="B24" s="26"/>
       <c r="C24" s="32" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="77" t="s">
+      <c r="E24" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="74">
+      <c r="F24" s="70">
         <v>292.60000000000002</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="34">
         <v>38.799999999999997</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="34">
         <v>172.7</v>
       </c>
-      <c r="I24" s="35">
+      <c r="I24" s="34">
         <v>350</v>
       </c>
-      <c r="J24" s="68">
+      <c r="J24" s="65">
         <v>292.5</v>
       </c>
-      <c r="K24" s="115">
+      <c r="K24" s="29">
+        <v>448.45400000000001</v>
+      </c>
+      <c r="L24" s="29">
+        <v>265</v>
+      </c>
+      <c r="M24" s="29">
+        <v>480</v>
+      </c>
+      <c r="N24" s="106">
         <v>325.70001000000002</v>
       </c>
-      <c r="L24" s="29">
+      <c r="O24" s="29">
         <v>910</v>
       </c>
-      <c r="M24" s="29">
+      <c r="P24" s="29">
         <v>499</v>
       </c>
-      <c r="N24" s="29">
+      <c r="Q24" s="29">
         <v>859</v>
       </c>
-      <c r="O24" s="29">
+      <c r="R24" s="29">
         <v>992</v>
       </c>
-      <c r="P24" s="109">
+      <c r="S24" s="28">
+        <v>304.33</v>
+      </c>
+      <c r="T24" s="100">
         <v>900</v>
       </c>
-      <c r="Q24" s="110">
+      <c r="U24" s="101">
         <v>600</v>
       </c>
-      <c r="R24" s="110">
+      <c r="V24" s="101">
         <v>500</v>
       </c>
-      <c r="S24" s="26"/>
-      <c r="T24" s="84"/>
+      <c r="W24" s="180">
+        <v>1098</v>
+      </c>
+      <c r="X24" s="174">
+        <v>90</v>
+      </c>
+      <c r="Y24" s="180">
+        <v>175</v>
+      </c>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:25">
       <c r="B25" s="26"/>
       <c r="C25" s="32" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="77" t="s">
+      <c r="E25" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="74">
+      <c r="F25" s="70">
         <v>0</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="34">
         <v>3.63</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="34">
         <v>2.99</v>
       </c>
-      <c r="I25" s="35">
+      <c r="I25" s="34">
         <v>2.64</v>
       </c>
-      <c r="J25" s="68">
+      <c r="J25" s="65">
         <v>2.69</v>
       </c>
-      <c r="K25" s="115">
+      <c r="K25" s="29">
+        <v>475.80799999999999</v>
+      </c>
+      <c r="L25" s="29">
+        <v>426</v>
+      </c>
+      <c r="M25" s="29">
+        <v>370</v>
+      </c>
+      <c r="N25" s="106">
         <v>0</v>
       </c>
-      <c r="L25" s="29">
+      <c r="O25" s="29">
         <v>586</v>
       </c>
-      <c r="M25" s="29">
+      <c r="P25" s="29">
         <v>382</v>
       </c>
-      <c r="N25" s="29">
+      <c r="Q25" s="29">
         <v>329</v>
       </c>
-      <c r="O25" s="29">
+      <c r="R25" s="29">
         <v>364</v>
       </c>
-      <c r="P25" s="109">
+      <c r="S25" s="29">
+        <v>422.00700000000001</v>
+      </c>
+      <c r="T25" s="100">
         <v>509.75</v>
       </c>
-      <c r="Q25" s="110">
+      <c r="U25" s="101">
         <v>528</v>
       </c>
-      <c r="R25" s="110">
+      <c r="V25" s="101">
         <v>353.9</v>
       </c>
-      <c r="S25" s="26"/>
-      <c r="T25" s="84"/>
+      <c r="W25" s="180">
+        <v>1092</v>
+      </c>
+      <c r="X25" s="174">
+        <v>292</v>
+      </c>
+      <c r="Y25" s="180">
+        <v>380</v>
+      </c>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:25">
       <c r="B26" s="26"/>
       <c r="C26" s="32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="77" t="s">
+      <c r="E26" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="74">
+      <c r="F26" s="70">
         <v>0</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G26" s="34">
         <v>0.21299999999999999</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="34">
         <v>0.16600000000000001</v>
       </c>
-      <c r="I26" s="35">
+      <c r="I26" s="34">
         <v>0.05</v>
       </c>
-      <c r="J26" s="68">
+      <c r="J26" s="65">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="K26" s="115">
+      <c r="K26" s="29">
+        <v>0.39479999999999998</v>
+      </c>
+      <c r="L26" s="29">
+        <v>0.34</v>
+      </c>
+      <c r="M26" s="29">
+        <v>0.43</v>
+      </c>
+      <c r="N26" s="106">
         <v>0</v>
       </c>
-      <c r="L26" s="29">
+      <c r="O26" s="29">
         <v>0.26</v>
       </c>
-      <c r="M26" s="29">
+      <c r="P26" s="29">
         <v>0.45800000000000002</v>
       </c>
-      <c r="N26" s="29">
+      <c r="Q26" s="29">
         <v>0.57899999999999996</v>
       </c>
-      <c r="O26" s="29">
+      <c r="R26" s="29">
         <v>0.56799999999999995</v>
       </c>
-      <c r="P26" s="109">
+      <c r="S26" s="29">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="T26" s="100">
         <v>0.50600000000000001</v>
       </c>
-      <c r="Q26" s="110">
+      <c r="U26" s="101">
         <v>0.38600000000000001</v>
       </c>
-      <c r="R26" s="110">
+      <c r="V26" s="101">
         <v>0.50800000000000001</v>
       </c>
-      <c r="S26" s="26"/>
-      <c r="T26" s="84"/>
+      <c r="W26" s="180">
+        <v>0.93</v>
+      </c>
+      <c r="X26" s="174">
+        <v>0.31</v>
+      </c>
+      <c r="Y26" s="180">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="27" spans="2:20">
+    <row r="27" spans="2:25">
       <c r="B27" s="26"/>
       <c r="C27" s="32" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="77" t="s">
+      <c r="E27" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="74">
+      <c r="F27" s="70">
         <v>0.02</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="34">
         <v>0.14199999999999999</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="34">
         <v>0.11700000000000001</v>
       </c>
-      <c r="I27" s="35">
+      <c r="I27" s="34">
         <v>0.10299999999999999</v>
       </c>
-      <c r="J27" s="68">
+      <c r="J27" s="65">
         <v>0.105</v>
       </c>
-      <c r="K27" s="115">
+      <c r="K27" s="29">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="L27" s="29">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M27" s="29">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="N27" s="106">
         <v>0.01</v>
       </c>
-      <c r="L27" s="29">
+      <c r="O27" s="29">
         <v>1.4E-2</v>
       </c>
-      <c r="M27" s="29">
+      <c r="P27" s="29">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="N27" s="29">
+      <c r="Q27" s="29">
         <v>1.15E-2</v>
       </c>
-      <c r="O27" s="29">
+      <c r="R27" s="29">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="P27" s="109">
+      <c r="S27" s="29">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="T27" s="100">
         <v>0.03</v>
       </c>
-      <c r="Q27" s="110">
+      <c r="U27" s="101">
         <v>0.03</v>
       </c>
-      <c r="R27" s="110">
+      <c r="V27" s="101">
         <v>0.03</v>
       </c>
-      <c r="S27" s="26"/>
-      <c r="T27" s="84"/>
+      <c r="W27" s="180">
+        <v>1.4E-2</v>
+      </c>
+      <c r="X27" s="174">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Y27" s="180">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="28" spans="2:20">
+    <row r="28" spans="2:25">
       <c r="B28" s="26"/>
       <c r="C28" s="32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="77" t="s">
+      <c r="E28" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="74">
+      <c r="F28" s="70">
         <v>1</v>
       </c>
-      <c r="G28" s="35">
+      <c r="G28" s="34">
         <v>1</v>
       </c>
-      <c r="H28" s="35">
+      <c r="H28" s="34">
         <v>1</v>
       </c>
-      <c r="I28" s="35">
+      <c r="I28" s="34">
         <v>1</v>
       </c>
-      <c r="J28" s="68">
+      <c r="J28" s="65">
         <v>1</v>
       </c>
-      <c r="K28" s="115">
+      <c r="K28" s="29">
+        <v>1.29</v>
+      </c>
+      <c r="L28" s="29">
         <v>1</v>
       </c>
-      <c r="L28" s="29">
+      <c r="M28" s="29">
+        <v>0.74</v>
+      </c>
+      <c r="N28" s="106">
+        <v>1</v>
+      </c>
+      <c r="O28" s="29">
         <v>1.03</v>
       </c>
-      <c r="M28" s="29">
+      <c r="P28" s="29">
         <v>0.89300000000000002</v>
       </c>
-      <c r="N28" s="29">
+      <c r="Q28" s="29">
         <v>1.071</v>
       </c>
-      <c r="O28" s="29">
+      <c r="R28" s="29">
         <v>1.131</v>
       </c>
-      <c r="P28" s="109">
+      <c r="S28" s="29">
+        <v>0.87</v>
+      </c>
+      <c r="T28" s="100">
         <v>0</v>
       </c>
-      <c r="Q28" s="110">
+      <c r="U28" s="101">
         <v>0</v>
       </c>
-      <c r="R28" s="110">
+      <c r="V28" s="101">
         <v>0</v>
       </c>
-      <c r="S28" s="26"/>
-      <c r="T28" s="84"/>
+      <c r="W28" s="180">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X28" s="174">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Y28" s="180">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
-    <row r="29" spans="2:20">
+    <row r="29" spans="2:25">
       <c r="B29" s="26"/>
-      <c r="C29" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D29" s="37" t="s">
+      <c r="C29" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="78" t="s">
+      <c r="E29" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="74">
+      <c r="F29" s="70">
         <v>2.7</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G29" s="34">
         <v>79.5</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H29" s="34">
         <v>35.6</v>
       </c>
-      <c r="I29" s="35">
+      <c r="I29" s="34">
         <v>30.1</v>
       </c>
-      <c r="J29" s="68">
+      <c r="J29" s="65">
         <v>55.3</v>
       </c>
-      <c r="K29" s="115">
-        <v>234.8</v>
-      </c>
+      <c r="K29" s="29"/>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
+      <c r="N29" s="106">
+        <v>234.8</v>
+      </c>
       <c r="O29" s="29"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="110"/>
-      <c r="R29" s="110"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="84"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="100"/>
+      <c r="U29" s="101"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="174"/>
     </row>
-    <row r="30" spans="2:20">
+    <row r="30" spans="2:25">
       <c r="B30" s="26"/>
-      <c r="C30" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="D30" s="37" t="s">
+      <c r="C30" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="78" t="s">
+      <c r="E30" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="F30" s="74">
+      <c r="F30" s="70">
         <v>2160.6999999999998</v>
       </c>
-      <c r="G30" s="35">
+      <c r="G30" s="34">
         <v>56.9</v>
       </c>
-      <c r="H30" s="35">
+      <c r="H30" s="34">
         <v>80.599999999999994</v>
       </c>
-      <c r="I30" s="35">
+      <c r="I30" s="34">
         <v>185.9</v>
       </c>
-      <c r="J30" s="68">
+      <c r="J30" s="65">
         <v>317.2</v>
       </c>
-      <c r="K30" s="115">
-        <v>56.200001</v>
-      </c>
+      <c r="K30" s="29"/>
       <c r="L30" s="29"/>
       <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
+      <c r="N30" s="106">
+        <v>56.200001</v>
+      </c>
       <c r="O30" s="29"/>
-      <c r="P30" s="109"/>
-      <c r="Q30" s="110"/>
-      <c r="R30" s="110"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="84"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="100"/>
+      <c r="U30" s="101"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="174"/>
     </row>
-    <row r="31" spans="2:20">
+    <row r="31" spans="2:25">
       <c r="B31" s="26"/>
-      <c r="C31" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="D31" s="37" t="s">
+      <c r="C31" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="78" t="s">
+      <c r="E31" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="74">
+      <c r="F31" s="70">
         <v>707.6</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="34">
         <v>88.2</v>
       </c>
-      <c r="H31" s="35">
+      <c r="H31" s="34">
         <v>247.7</v>
       </c>
-      <c r="I31" s="35">
+      <c r="I31" s="34">
         <v>72.8</v>
       </c>
-      <c r="J31" s="68">
+      <c r="J31" s="65">
         <v>31.1</v>
       </c>
-      <c r="K31" s="115">
-        <v>445.70001000000002</v>
-      </c>
+      <c r="K31" s="29"/>
       <c r="L31" s="29"/>
       <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
+      <c r="N31" s="106">
+        <v>445.70001000000002</v>
+      </c>
       <c r="O31" s="29"/>
-      <c r="P31" s="109"/>
-      <c r="Q31" s="110"/>
-      <c r="R31" s="110"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="84"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="100"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="174"/>
     </row>
-    <row r="32" spans="2:20">
+    <row r="32" spans="2:25">
       <c r="B32" s="26"/>
-      <c r="C32" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="37" t="s">
+      <c r="C32" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="78" t="s">
+      <c r="E32" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="74">
+      <c r="F32" s="70">
         <v>8.94</v>
       </c>
-      <c r="G32" s="35">
+      <c r="G32" s="34">
         <v>4</v>
       </c>
-      <c r="H32" s="35">
+      <c r="H32" s="34">
         <v>6.5</v>
       </c>
-      <c r="I32" s="35">
+      <c r="I32" s="34">
         <v>7.7</v>
       </c>
-      <c r="J32" s="68">
+      <c r="J32" s="65">
         <v>10</v>
       </c>
-      <c r="K32" s="115">
-        <v>4.6999997999999996</v>
-      </c>
+      <c r="K32" s="29"/>
       <c r="L32" s="29"/>
       <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="N32" s="106">
+        <v>4.6999997999999996</v>
+      </c>
       <c r="O32" s="29"/>
-      <c r="P32" s="109"/>
-      <c r="Q32" s="110"/>
-      <c r="R32" s="110"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="84"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="100"/>
+      <c r="U32" s="101"/>
+      <c r="V32" s="101"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="174"/>
     </row>
-    <row r="33" spans="2:20">
+    <row r="33" spans="2:25">
       <c r="B33" s="26"/>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="78" t="s">
+      <c r="E33" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="74">
+      <c r="F33" s="70">
         <v>278</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G33" s="34">
         <v>151</v>
       </c>
-      <c r="H33" s="35">
+      <c r="H33" s="34">
         <v>211</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="34">
         <v>115</v>
       </c>
-      <c r="J33" s="68">
+      <c r="J33" s="65">
         <v>128</v>
       </c>
-      <c r="K33" s="115">
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="106">
         <v>555</v>
       </c>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29">
+      <c r="O33" s="29"/>
+      <c r="P33" s="29">
         <v>1292</v>
       </c>
-      <c r="N33" s="29">
+      <c r="Q33" s="29">
         <v>1424</v>
       </c>
-      <c r="O33" s="29">
+      <c r="R33" s="29">
         <v>1510</v>
       </c>
-      <c r="P33" s="109"/>
-      <c r="Q33" s="110"/>
-      <c r="R33" s="110"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="84"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="100"/>
+      <c r="U33" s="101"/>
+      <c r="V33" s="101"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="174"/>
     </row>
-    <row r="34" spans="2:20">
+    <row r="34" spans="2:25">
       <c r="B34" s="26"/>
       <c r="C34" s="32"/>
       <c r="D34" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="77" t="s">
+      <c r="E34" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="F34" s="74">
+      <c r="F34" s="70">
         <v>1E-3</v>
       </c>
-      <c r="G34" s="35">
+      <c r="G34" s="34">
         <v>1E-3</v>
       </c>
-      <c r="H34" s="35">
+      <c r="H34" s="34">
         <v>1E-3</v>
       </c>
-      <c r="I34" s="35">
+      <c r="I34" s="34">
         <v>1E-3</v>
       </c>
-      <c r="J34" s="68">
+      <c r="J34" s="65">
         <v>1E-3</v>
       </c>
-      <c r="K34" s="138"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="123"/>
       <c r="O34" s="27"/>
-      <c r="P34" s="109"/>
-      <c r="Q34" s="110"/>
-      <c r="R34" s="110"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="84"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="100"/>
+      <c r="U34" s="101"/>
+      <c r="V34" s="101"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="174"/>
     </row>
-    <row r="35" spans="2:20">
+    <row r="35" spans="2:25">
       <c r="B35" s="26"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95" t="s">
+      <c r="C35" s="86"/>
+      <c r="D35" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="96" t="s">
+      <c r="E35" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="97">
+      <c r="F35" s="88">
         <v>292.60000000000002</v>
       </c>
-      <c r="G35" s="98">
+      <c r="G35" s="89">
         <v>51</v>
       </c>
-      <c r="H35" s="98">
+      <c r="H35" s="89">
         <v>187</v>
       </c>
-      <c r="I35" s="98">
+      <c r="I35" s="89">
         <v>373</v>
       </c>
-      <c r="J35" s="99">
+      <c r="J35" s="90">
         <v>341</v>
       </c>
-      <c r="K35" s="138"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="123"/>
       <c r="O35" s="27"/>
-      <c r="P35" s="109"/>
-      <c r="Q35" s="110"/>
-      <c r="R35" s="110"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="84"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="100"/>
+      <c r="U35" s="101"/>
+      <c r="V35" s="101"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="174"/>
     </row>
-    <row r="36" spans="2:20">
+    <row r="36" spans="2:25">
       <c r="B36" s="26"/>
-      <c r="C36" s="132" t="s">
-        <v>153</v>
+      <c r="C36" s="118" t="s">
+        <v>150</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="104"/>
+        <v>136</v>
+      </c>
+      <c r="E36" s="95"/>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
-      <c r="K36" s="138"/>
-      <c r="L36" s="27">
+      <c r="K36" s="29">
+        <v>-0.42799999999999999</v>
+      </c>
+      <c r="L36" s="29">
+        <v>0.13</v>
+      </c>
+      <c r="M36" s="29">
+        <v>-6.8000000000000005E-2</v>
+      </c>
+      <c r="N36" s="123"/>
+      <c r="O36" s="27">
         <v>-0.8</v>
       </c>
-      <c r="M36" s="27">
+      <c r="P36" s="27">
         <v>0.63600000000000001</v>
       </c>
-      <c r="N36" s="27">
+      <c r="Q36" s="27">
         <v>0.36099999999999999</v>
       </c>
-      <c r="O36" s="27">
+      <c r="R36" s="27">
         <v>0.29399999999999998</v>
       </c>
-      <c r="P36" s="109" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q36" s="110">
+      <c r="S36" s="27">
+        <v>0.1152</v>
+      </c>
+      <c r="T36" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="U36" s="101">
         <v>-0.995</v>
       </c>
-      <c r="R36" s="110" t="s">
-        <v>145</v>
-      </c>
-      <c r="S36" s="26"/>
-      <c r="T36" s="84"/>
+      <c r="V36" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="W36" s="180">
+        <v>-0.09</v>
+      </c>
+      <c r="X36" s="174">
+        <v>0.54</v>
+      </c>
+      <c r="Y36" s="180">
+        <v>-2.2000000000000002</v>
+      </c>
     </row>
-    <row r="37" spans="2:20">
+    <row r="37" spans="2:25">
       <c r="B37" s="26"/>
-      <c r="C37" s="133"/>
+      <c r="C37" s="119"/>
       <c r="D37" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="95"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="29">
+        <v>0.75660000000000005</v>
+      </c>
+      <c r="L37" s="29">
+        <v>0.13</v>
+      </c>
+      <c r="M37" s="29">
+        <v>0.45</v>
+      </c>
+      <c r="N37" s="123"/>
+      <c r="O37" s="27">
+        <v>2.1</v>
+      </c>
+      <c r="P37" s="27">
+        <v>1.9359999999999999</v>
+      </c>
+      <c r="Q37" s="27">
+        <v>4.7679999999999998</v>
+      </c>
+      <c r="R37" s="27">
+        <v>5.149</v>
+      </c>
+      <c r="S37" s="27">
+        <v>1.0116000000000001</v>
+      </c>
+      <c r="T37" s="100">
+        <v>1.18</v>
+      </c>
+      <c r="U37" s="101">
+        <v>1.45</v>
+      </c>
+      <c r="V37" s="101">
+        <v>1.6850000000000001</v>
+      </c>
+      <c r="W37" s="180">
+        <v>0.27</v>
+      </c>
+      <c r="X37" s="174">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="Y37" s="180">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25">
+      <c r="B38" s="26"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="95"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="29">
+        <v>-3.4077999999999999</v>
+      </c>
+      <c r="L38" s="29">
+        <v>-1.5</v>
+      </c>
+      <c r="M38" s="29">
+        <v>-0.95</v>
+      </c>
+      <c r="N38" s="123"/>
+      <c r="O38" s="27">
+        <v>-0.5</v>
+      </c>
+      <c r="P38" s="27">
+        <v>-2.9689999999999999</v>
+      </c>
+      <c r="Q38" s="27">
+        <v>-5.1070000000000002</v>
+      </c>
+      <c r="R38" s="27">
+        <v>-5.5830000000000002</v>
+      </c>
+      <c r="S38" s="27">
+        <v>-1.7684</v>
+      </c>
+      <c r="T38" s="100" t="s">
+        <v>146</v>
+      </c>
+      <c r="U38" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="V38" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="W38" s="26">
+        <v>0.48</v>
+      </c>
+      <c r="X38" s="174">
+        <v>-3.03</v>
+      </c>
+      <c r="Y38">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25">
+      <c r="B39" s="26"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="95"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="29">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="L39" s="29">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="M39" s="29">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="N39" s="123"/>
+      <c r="O39" s="27">
+        <v>2E-3</v>
+      </c>
+      <c r="P39" s="27">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="Q39" s="27">
+        <v>-1.2999999999999999E-3</v>
+      </c>
+      <c r="R39" s="27">
+        <v>2.3E-3</v>
+      </c>
+      <c r="S39" s="27">
+        <v>-5.2789999999999997E-2</v>
+      </c>
+      <c r="T39" s="100" t="s">
+        <v>144</v>
+      </c>
+      <c r="U39" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="V39" s="101">
+        <v>2.4E-2</v>
+      </c>
+      <c r="W39" s="180">
+        <v>1.4E-2</v>
+      </c>
+      <c r="X39" s="174">
+        <v>1.4E-2</v>
+      </c>
+      <c r="Y39" s="180">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25">
+      <c r="B40" s="26"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="E37" s="104"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="138"/>
-      <c r="L37" s="27">
-        <v>2.1</v>
-      </c>
-      <c r="M37" s="27">
-        <v>1.9359999999999999</v>
-      </c>
-      <c r="N37" s="27">
-        <v>4.7679999999999998</v>
-      </c>
-      <c r="O37" s="27">
-        <v>5.149</v>
-      </c>
-      <c r="P37" s="109">
-        <v>1.18</v>
-      </c>
-      <c r="Q37" s="110">
-        <v>1.45</v>
-      </c>
-      <c r="R37" s="110">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="S37" s="26"/>
-      <c r="T37" s="84"/>
-    </row>
-    <row r="38" spans="2:20">
-      <c r="B38" s="26"/>
-      <c r="C38" s="133"/>
-      <c r="D38" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="E38" s="104"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="98"/>
-      <c r="H38" s="98"/>
-      <c r="I38" s="98"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="138"/>
-      <c r="L38" s="27">
-        <v>-0.5</v>
-      </c>
-      <c r="M38" s="27">
-        <v>-2.9689999999999999</v>
-      </c>
-      <c r="N38" s="27">
-        <v>-5.1070000000000002</v>
-      </c>
-      <c r="O38" s="27">
-        <v>-5.5830000000000002</v>
-      </c>
-      <c r="P38" s="109" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q38" s="110" t="s">
-        <v>144</v>
-      </c>
-      <c r="R38" s="110" t="s">
-        <v>146</v>
-      </c>
-      <c r="S38" s="26"/>
-      <c r="T38" s="84"/>
-    </row>
-    <row r="39" spans="2:20">
-      <c r="B39" s="26"/>
-      <c r="C39" s="133"/>
-      <c r="D39" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="E39" s="104"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="98"/>
-      <c r="I39" s="98"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="138"/>
-      <c r="L39" s="27">
-        <v>2E-3</v>
-      </c>
-      <c r="M39" s="27">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="N39" s="27">
-        <v>-1.2999999999999999E-3</v>
-      </c>
-      <c r="O39" s="27">
-        <v>2.3E-3</v>
-      </c>
-      <c r="P39" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q39" s="110" t="s">
-        <v>147</v>
-      </c>
-      <c r="R39" s="110">
-        <v>2.4E-2</v>
-      </c>
-      <c r="S39" s="26"/>
-      <c r="T39" s="84"/>
-    </row>
-    <row r="40" spans="2:20">
-      <c r="B40" s="26"/>
-      <c r="C40" s="133"/>
-      <c r="D40" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="E40" s="105"/>
+      <c r="E40" s="96"/>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
       <c r="I40" s="29"/>
       <c r="J40" s="29"/>
-      <c r="K40" s="138"/>
-      <c r="L40" s="27">
+      <c r="K40" s="29">
+        <v>24.93</v>
+      </c>
+      <c r="L40" s="29">
+        <v>0</v>
+      </c>
+      <c r="M40" s="29">
+        <v>6</v>
+      </c>
+      <c r="N40" s="123"/>
+      <c r="O40" s="27">
         <v>0.61</v>
       </c>
-      <c r="M40" s="27">
+      <c r="P40" s="27">
         <v>1.014</v>
       </c>
-      <c r="N40" s="27">
+      <c r="Q40" s="27">
         <v>1.333</v>
       </c>
-      <c r="O40" s="27">
+      <c r="R40" s="27">
         <v>0.95099999999999996</v>
       </c>
-      <c r="P40" s="109">
+      <c r="S40" s="27">
+        <v>0.5262</v>
+      </c>
+      <c r="T40" s="100">
         <v>0</v>
       </c>
-      <c r="Q40" s="110">
+      <c r="U40" s="101">
         <v>0</v>
       </c>
-      <c r="R40" s="110">
+      <c r="V40" s="101">
         <v>0</v>
       </c>
-      <c r="S40" s="26"/>
-      <c r="T40" s="84"/>
+      <c r="W40" s="180">
+        <v>3.87</v>
+      </c>
+      <c r="X40" s="174">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="Y40" s="180">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="41" spans="2:20" ht="14.25" customHeight="1">
+    <row r="41" spans="2:25" ht="14.25" customHeight="1">
       <c r="B41" s="26"/>
-      <c r="C41" s="130" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="131"/>
-      <c r="E41" s="131" t="s">
+      <c r="C41" s="116" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117" t="s">
         <v>72</v>
       </c>
       <c r="F41" s="26"/>
@@ -19784,34 +20697,38 @@
       <c r="H41" s="26"/>
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="138"/>
-      <c r="L41" s="27">
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="123"/>
+      <c r="O41" s="27">
         <v>745</v>
       </c>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="109">
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="100">
         <v>1000</v>
       </c>
-      <c r="Q41" s="110">
+      <c r="U41" s="101">
         <v>800</v>
       </c>
-      <c r="R41" s="110">
+      <c r="V41" s="101">
         <v>600</v>
       </c>
-      <c r="S41" s="26"/>
-      <c r="T41" s="84"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="174"/>
     </row>
-    <row r="42" spans="2:20" ht="14.25" customHeight="1">
+    <row r="42" spans="2:25" ht="14.25" customHeight="1">
       <c r="B42" s="26"/>
-      <c r="C42" s="134" t="s">
-        <v>159</v>
-      </c>
-      <c r="D42" s="131" t="s">
+      <c r="C42" s="120" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="131" t="s">
+      <c r="E42" s="117" t="s">
         <v>76</v>
       </c>
       <c r="F42" s="26"/>
@@ -19819,26 +20736,30 @@
       <c r="H42" s="26"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="138"/>
-      <c r="L42" s="27">
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="123"/>
+      <c r="O42" s="27">
         <v>164</v>
       </c>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="109"/>
-      <c r="Q42" s="110"/>
-      <c r="R42" s="110"/>
-      <c r="S42" s="26"/>
-      <c r="T42" s="26"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="101"/>
+      <c r="V42" s="101"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="175"/>
     </row>
-    <row r="43" spans="2:20" ht="14.25" customHeight="1">
+    <row r="43" spans="2:25" ht="14.25" customHeight="1">
       <c r="B43" s="26"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="131" t="s">
-        <v>156</v>
-      </c>
-      <c r="E43" s="131" t="s">
+      <c r="C43" s="109"/>
+      <c r="D43" s="117" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="117" t="s">
         <v>76</v>
       </c>
       <c r="F43" s="26"/>
@@ -19846,26 +20767,30 @@
       <c r="H43" s="26"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="138"/>
-      <c r="L43" s="27">
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="123"/>
+      <c r="O43" s="27">
         <v>294</v>
       </c>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="109"/>
-      <c r="Q43" s="110"/>
-      <c r="R43" s="110"/>
-      <c r="S43" s="26"/>
-      <c r="T43" s="26"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="100"/>
+      <c r="U43" s="101"/>
+      <c r="V43" s="101"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="175"/>
     </row>
-    <row r="44" spans="2:20" ht="14.25" customHeight="1">
+    <row r="44" spans="2:25" ht="14.25" customHeight="1">
       <c r="B44" s="26"/>
-      <c r="C44" s="123"/>
-      <c r="D44" s="131" t="s">
-        <v>160</v>
-      </c>
-      <c r="E44" s="131" t="s">
+      <c r="C44" s="109"/>
+      <c r="D44" s="117" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="117" t="s">
         <v>76</v>
       </c>
       <c r="F44" s="26"/>
@@ -19873,162 +20798,196 @@
       <c r="H44" s="26"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="138"/>
-      <c r="L44" s="27">
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="123"/>
+      <c r="O44" s="27">
         <v>500</v>
       </c>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="109"/>
-      <c r="Q44" s="110"/>
-      <c r="R44" s="110"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="26"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="100"/>
+      <c r="U44" s="101"/>
+      <c r="V44" s="101"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="175"/>
     </row>
-    <row r="45" spans="2:20" ht="14.25" customHeight="1">
+    <row r="45" spans="2:25" ht="14.25" customHeight="1">
       <c r="B45" s="26"/>
-      <c r="C45" s="135"/>
-      <c r="D45" s="124" t="s">
-        <v>161</v>
-      </c>
-      <c r="E45" s="125" t="s">
+      <c r="C45" s="121"/>
+      <c r="D45" s="110" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="F45" s="126"/>
-      <c r="G45" s="127"/>
-      <c r="H45" s="127"/>
-      <c r="I45" s="127"/>
-      <c r="J45" s="127"/>
-      <c r="K45" s="139"/>
-      <c r="L45" s="160">
+      <c r="F45" s="112"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="113"/>
+      <c r="L45" s="113"/>
+      <c r="M45" s="113"/>
+      <c r="N45" s="124"/>
+      <c r="O45" s="140">
         <v>1.1599999999999999</v>
       </c>
-      <c r="M45" s="160"/>
-      <c r="N45" s="160"/>
-      <c r="O45" s="160"/>
-      <c r="P45" s="128"/>
-      <c r="Q45" s="129"/>
-      <c r="R45" s="129"/>
-      <c r="S45" s="26"/>
-      <c r="T45" s="26"/>
+      <c r="P45" s="140"/>
+      <c r="Q45" s="140"/>
+      <c r="R45" s="140"/>
+      <c r="S45" s="140"/>
+      <c r="T45" s="114"/>
+      <c r="U45" s="115"/>
+      <c r="V45" s="115"/>
+      <c r="W45" s="113"/>
+      <c r="X45" s="112"/>
+      <c r="Y45" s="113"/>
     </row>
-    <row r="46" spans="2:20">
+    <row r="46" spans="2:25">
       <c r="B46" s="26"/>
-      <c r="C46" s="60" t="s">
+      <c r="C46" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="D46" s="60"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="G46" s="61" t="s">
+      <c r="D46" s="59"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="G46" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H46" s="61" t="s">
+      <c r="H46" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="I46" s="61" t="s">
+      <c r="I46" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="J46" s="107" t="s">
+      <c r="J46" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="K46" s="140"/>
-      <c r="L46" s="161"/>
-      <c r="M46" s="142"/>
-      <c r="N46" s="142"/>
-      <c r="O46" s="142"/>
-      <c r="P46" s="116"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="26"/>
-      <c r="T46" s="26"/>
+      <c r="K46" s="141"/>
+      <c r="L46" s="141"/>
+      <c r="M46" s="141"/>
+      <c r="N46" s="125"/>
+      <c r="O46" s="141"/>
+      <c r="P46" s="127"/>
+      <c r="Q46" s="127"/>
+      <c r="R46" s="127"/>
+      <c r="S46" s="143"/>
+      <c r="T46" s="107"/>
+      <c r="U46" s="58"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="26"/>
+      <c r="X46" s="175"/>
     </row>
-    <row r="47" spans="2:20">
+    <row r="47" spans="2:25">
       <c r="B47" s="26"/>
       <c r="C47" s="31" t="s">
         <v>119</v>
       </c>
       <c r="D47" s="31"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="173" t="s">
-        <v>34</v>
-      </c>
-      <c r="H47" s="173"/>
-      <c r="I47" s="173"/>
-      <c r="J47" s="174"/>
-      <c r="K47" s="141" t="s">
-        <v>124</v>
-      </c>
-      <c r="L47" s="142" t="s">
-        <v>158</v>
-      </c>
-      <c r="M47" s="166" t="s">
-        <v>174</v>
-      </c>
-      <c r="N47" s="166"/>
-      <c r="O47" s="182"/>
-      <c r="P47" s="165" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q47" s="166"/>
-      <c r="R47" s="166"/>
-      <c r="S47" s="26"/>
-      <c r="T47" s="26"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="152">
+        <v>1</v>
+      </c>
+      <c r="H47" s="152"/>
+      <c r="I47" s="152"/>
+      <c r="J47" s="153"/>
+      <c r="K47" s="142">
+        <v>9</v>
+      </c>
+      <c r="L47" s="142">
+        <v>10</v>
+      </c>
+      <c r="M47" s="142">
+        <v>11</v>
+      </c>
+      <c r="N47" s="126">
+        <v>2</v>
+      </c>
+      <c r="O47" s="127">
+        <v>4</v>
+      </c>
+      <c r="P47" s="148">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="148"/>
+      <c r="R47" s="148"/>
+      <c r="S47" s="146">
+        <v>8</v>
+      </c>
+      <c r="T47" s="148">
+        <v>3</v>
+      </c>
+      <c r="U47" s="148"/>
+      <c r="V47" s="148"/>
+      <c r="W47" s="158">
+        <v>6</v>
+      </c>
+      <c r="X47" s="188">
+        <v>7</v>
+      </c>
+      <c r="Y47" s="181"/>
     </row>
-    <row r="48" spans="2:20">
+    <row r="48" spans="2:25">
       <c r="B48" s="26"/>
       <c r="C48" s="31" t="s">
         <v>120</v>
       </c>
       <c r="D48" s="31"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="82" t="s">
+      <c r="E48" s="76"/>
+      <c r="F48" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="G48" s="38" t="s">
+      <c r="G48" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="H48" s="38" t="s">
+      <c r="H48" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="I48" s="38" t="s">
+      <c r="I48" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="J48" s="108" t="s">
+      <c r="J48" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="K48" s="141" t="s">
+      <c r="K48" s="142"/>
+      <c r="L48" s="142"/>
+      <c r="M48" s="142"/>
+      <c r="N48" s="126" t="s">
         <v>121</v>
       </c>
-      <c r="L48" s="162" t="s">
+      <c r="O48" s="142" t="s">
         <v>121</v>
       </c>
-      <c r="M48" s="142" t="s">
-        <v>172</v>
-      </c>
-      <c r="N48" s="142" t="s">
-        <v>172</v>
-      </c>
-      <c r="O48" s="142" t="s">
-        <v>172</v>
-      </c>
-      <c r="P48" s="117" t="s">
+      <c r="P48" s="127" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q48" s="127" t="s">
+        <v>165</v>
+      </c>
+      <c r="R48" s="127" t="s">
+        <v>165</v>
+      </c>
+      <c r="S48" s="143"/>
+      <c r="T48" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="Q48" s="34" t="s">
+      <c r="U48" s="145" t="s">
         <v>121</v>
       </c>
-      <c r="R48" s="27" t="s">
+      <c r="V48" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="S48" s="26"/>
-      <c r="T48" s="26"/>
+      <c r="W48" s="26"/>
+      <c r="X48" s="175"/>
     </row>
-    <row r="49" spans="2:20">
+    <row r="49" spans="2:37">
       <c r="B49" s="26"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -20046,10 +21005,14 @@
       <c r="P49" s="27"/>
       <c r="Q49" s="27"/>
       <c r="R49" s="27"/>
-      <c r="S49" s="26"/>
-      <c r="T49" s="26"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="26"/>
+      <c r="X49" s="26"/>
     </row>
-    <row r="50" spans="2:20">
+    <row r="50" spans="2:37">
       <c r="B50" s="26"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -20067,10 +21030,14 @@
       <c r="P50" s="27"/>
       <c r="Q50" s="27"/>
       <c r="R50" s="27"/>
-      <c r="S50" s="26"/>
-      <c r="T50" s="26"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="26"/>
+      <c r="X50" s="26"/>
     </row>
-    <row r="51" spans="2:20">
+    <row r="51" spans="2:37">
       <c r="B51" s="26"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
@@ -20088,13 +21055,19 @@
       <c r="P51" s="27"/>
       <c r="Q51" s="27"/>
       <c r="R51" s="27"/>
-      <c r="S51" s="26"/>
-      <c r="T51" s="26"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="27"/>
+      <c r="V51" s="27"/>
+      <c r="W51" s="26"/>
+      <c r="X51" s="26"/>
     </row>
-    <row r="52" spans="2:20">
-      <c r="B52" s="26"/>
+    <row r="52" spans="2:37">
+      <c r="B52" s="26">
+        <v>1</v>
+      </c>
       <c r="C52" s="30" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
@@ -20111,59 +21084,77 @@
       <c r="P52" s="27"/>
       <c r="Q52" s="27"/>
       <c r="R52" s="27"/>
-      <c r="S52" s="26"/>
-      <c r="T52" s="26"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="27"/>
+      <c r="V52" s="27"/>
+      <c r="W52" s="26"/>
+      <c r="X52" s="26"/>
     </row>
-    <row r="53" spans="2:20">
-      <c r="B53" s="26"/>
-      <c r="C53" s="167" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53" s="167"/>
-      <c r="E53" s="167"/>
-      <c r="F53" s="167"/>
-      <c r="G53" s="167"/>
-      <c r="H53" s="167"/>
-      <c r="I53" s="167"/>
-      <c r="J53" s="167"/>
-      <c r="K53" s="167"/>
-      <c r="L53" s="121"/>
-      <c r="M53" s="143"/>
-      <c r="N53" s="143"/>
-      <c r="O53" s="143"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="26"/>
-      <c r="T53" s="26"/>
+    <row r="53" spans="2:37">
+      <c r="B53" s="26">
+        <v>2</v>
+      </c>
+      <c r="C53" s="149" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="149"/>
+      <c r="E53" s="149"/>
+      <c r="F53" s="149"/>
+      <c r="G53" s="149"/>
+      <c r="H53" s="149"/>
+      <c r="I53" s="149"/>
+      <c r="J53" s="149"/>
+      <c r="K53" s="149"/>
+      <c r="L53" s="149"/>
+      <c r="M53" s="149"/>
+      <c r="N53" s="149"/>
+      <c r="O53" s="108"/>
+      <c r="P53" s="128"/>
+      <c r="Q53" s="128"/>
+      <c r="R53" s="128"/>
+      <c r="S53" s="144"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="27"/>
+      <c r="V53" s="27"/>
+      <c r="W53" s="26"/>
+      <c r="X53" s="26"/>
     </row>
-    <row r="54" spans="2:20">
-      <c r="B54" s="26"/>
-      <c r="C54" s="167" t="s">
-        <v>155</v>
-      </c>
-      <c r="D54" s="167"/>
-      <c r="E54" s="167"/>
-      <c r="F54" s="167"/>
-      <c r="G54" s="167"/>
-      <c r="H54" s="167"/>
-      <c r="I54" s="167"/>
-      <c r="J54" s="167"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
+    <row r="54" spans="2:37">
+      <c r="B54" s="26">
+        <v>3</v>
+      </c>
+      <c r="C54" s="149" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" s="149"/>
+      <c r="E54" s="149"/>
+      <c r="F54" s="149"/>
+      <c r="G54" s="149"/>
+      <c r="H54" s="149"/>
+      <c r="I54" s="149"/>
+      <c r="J54" s="149"/>
+      <c r="K54" s="144"/>
+      <c r="L54" s="144"/>
+      <c r="M54" s="144"/>
       <c r="N54" s="27"/>
       <c r="O54" s="27"/>
       <c r="P54" s="27"/>
       <c r="Q54" s="27"/>
       <c r="R54" s="27"/>
-      <c r="S54" s="26"/>
-      <c r="T54" s="26"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="27"/>
+      <c r="V54" s="27"/>
+      <c r="W54" s="26"/>
+      <c r="X54" s="26"/>
     </row>
-    <row r="55" spans="2:20">
-      <c r="B55" s="26"/>
+    <row r="55" spans="2:37">
+      <c r="B55" s="26">
+        <v>4</v>
+      </c>
       <c r="C55" s="26" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
@@ -20182,65 +21173,185 @@
       <c r="R55" s="26"/>
       <c r="S55" s="26"/>
       <c r="T55" s="26"/>
+      <c r="U55" s="26"/>
+      <c r="V55" s="26"/>
+      <c r="W55" s="26"/>
+      <c r="X55" s="26"/>
     </row>
-    <row r="56" spans="2:20">
-      <c r="B56" s="26"/>
-      <c r="C56" s="183" t="s">
+    <row r="56" spans="2:37">
+      <c r="B56" s="26">
+        <v>5</v>
+      </c>
+      <c r="C56" s="147" t="s">
         <v>173</v>
       </c>
-      <c r="D56" s="183"/>
-      <c r="E56" s="183"/>
-      <c r="F56" s="183"/>
-      <c r="G56" s="183"/>
-      <c r="H56" s="183"/>
-      <c r="I56" s="183"/>
-      <c r="J56" s="183"/>
-      <c r="K56" s="183"/>
-      <c r="L56" s="183"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26"/>
+      <c r="D56" s="147"/>
+      <c r="E56" s="147"/>
+      <c r="F56" s="147"/>
+      <c r="G56" s="147"/>
+      <c r="H56" s="147"/>
+      <c r="I56" s="147"/>
+      <c r="J56" s="147"/>
+      <c r="K56" s="147"/>
+      <c r="L56" s="147"/>
+      <c r="M56" s="147"/>
+      <c r="N56" s="147"/>
+      <c r="O56" s="147"/>
       <c r="P56" s="26"/>
       <c r="Q56" s="26"/>
       <c r="R56" s="26"/>
       <c r="S56" s="26"/>
       <c r="T56" s="26"/>
+      <c r="U56" s="26"/>
+      <c r="V56" s="26"/>
+      <c r="W56" s="26"/>
+      <c r="X56" s="26"/>
     </row>
-    <row r="57" spans="2:20">
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26"/>
+    <row r="57" spans="2:37">
+      <c r="B57" s="26">
+        <v>6</v>
+      </c>
+      <c r="C57" s="182" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" s="182"/>
+      <c r="E57" s="182"/>
+      <c r="F57" s="182"/>
+      <c r="G57" s="182"/>
+      <c r="H57" s="182"/>
+      <c r="I57" s="182"/>
+      <c r="J57" s="182"/>
+      <c r="K57" s="182"/>
+      <c r="L57" s="182"/>
+      <c r="M57" s="182"/>
+      <c r="N57" s="182"/>
+      <c r="O57" s="182"/>
       <c r="P57" s="26"/>
       <c r="Q57" s="26"/>
       <c r="R57" s="26"/>
       <c r="S57" s="26"/>
       <c r="T57" s="26"/>
+      <c r="U57" s="26"/>
+      <c r="V57" s="26"/>
+      <c r="W57" s="26"/>
+      <c r="X57" s="26"/>
+    </row>
+    <row r="58" spans="2:37">
+      <c r="B58" s="85">
+        <v>6</v>
+      </c>
+      <c r="C58" s="147" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="147"/>
+      <c r="E58" s="147"/>
+      <c r="F58" s="147"/>
+      <c r="G58" s="147"/>
+      <c r="H58" s="147"/>
+      <c r="I58" s="147"/>
+      <c r="J58" s="147"/>
+      <c r="K58" s="147"/>
+      <c r="L58" s="147"/>
+      <c r="M58" s="147"/>
+      <c r="N58" s="147"/>
+      <c r="O58" s="147"/>
+      <c r="P58" s="147"/>
+      <c r="Q58" s="147"/>
+      <c r="R58" s="147"/>
+      <c r="S58" s="26"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="26"/>
+      <c r="V58" s="26"/>
+      <c r="W58" s="26"/>
+      <c r="X58" s="26"/>
+    </row>
+    <row r="59" spans="2:37" ht="15.75">
+      <c r="B59" s="85">
+        <v>7</v>
+      </c>
+      <c r="C59" s="187" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="187"/>
+      <c r="E59" s="187"/>
+      <c r="F59" s="187"/>
+      <c r="G59" s="187"/>
+      <c r="H59" s="187"/>
+      <c r="I59" s="187"/>
+      <c r="J59" s="187"/>
+      <c r="K59" s="187"/>
+      <c r="L59" s="187"/>
+      <c r="M59" s="187"/>
+      <c r="N59" s="187"/>
+      <c r="O59" s="187"/>
+      <c r="P59" s="187"/>
+    </row>
+    <row r="60" spans="2:37" ht="16.5">
+      <c r="B60" s="85">
+        <v>8</v>
+      </c>
+      <c r="C60" s="197" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" s="197"/>
+      <c r="E60" s="197"/>
+      <c r="F60" s="197"/>
+      <c r="G60" s="197"/>
+      <c r="H60" s="197"/>
+      <c r="I60" s="197"/>
+      <c r="J60" s="197"/>
+      <c r="K60" s="197"/>
+      <c r="L60" s="197"/>
+      <c r="M60" s="197"/>
+      <c r="N60" s="197"/>
+      <c r="AK60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="2:37">
+      <c r="B61" s="85">
+        <v>9</v>
+      </c>
+      <c r="C61" s="198" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="2:37" ht="16.5">
+      <c r="B62" s="85">
+        <v>10</v>
+      </c>
+      <c r="C62" s="196" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" spans="2:37" ht="16.5">
+      <c r="B63" s="85">
+        <v>11</v>
+      </c>
+      <c r="C63" s="196" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C56:L56"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="P47:R47"/>
+  <mergeCells count="18">
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="C57:O57"/>
+    <mergeCell ref="C59:P59"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="C58:R58"/>
+    <mergeCell ref="C56:O56"/>
+    <mergeCell ref="T47:V47"/>
     <mergeCell ref="C54:J54"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:J6"/>
     <mergeCell ref="G47:J47"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="C53:N53"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="O5:Y5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20252,8 +21363,8 @@
   <dimension ref="B2:S21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B7" sqref="B7"/>
+      <pane xSplit="5" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20271,321 +21382,325 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19">
-      <c r="C2" s="179"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="178" t="s">
+      <c r="C2" s="155"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="180" t="s">
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="181"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="181" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="181"/>
-      <c r="S2" s="26"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="157" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
     </row>
     <row r="3" spans="2:19">
-      <c r="C3" s="179"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="39" t="s">
+      <c r="C3" s="155"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="148" t="s">
-        <v>156</v>
-      </c>
-      <c r="M3" s="148" t="s">
-        <v>160</v>
-      </c>
-      <c r="N3" s="148" t="s">
-        <v>164</v>
-      </c>
-      <c r="O3" s="148" t="s">
-        <v>165</v>
-      </c>
-      <c r="P3" s="148" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q3" s="148" t="s">
-        <v>134</v>
-      </c>
-      <c r="R3" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="S3" s="26"/>
+      <c r="L3" s="129" t="s">
+        <v>151</v>
+      </c>
+      <c r="M3" s="129" t="s">
+        <v>153</v>
+      </c>
+      <c r="N3" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="O3" s="129" t="s">
+        <v>158</v>
+      </c>
+      <c r="P3" s="129" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q3" s="129" t="s">
+        <v>131</v>
+      </c>
+      <c r="R3" s="129" t="s">
+        <v>132</v>
+      </c>
+      <c r="S3" s="129" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="4" spans="2:19" ht="15.75" thickBot="1">
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="53" t="s">
+      <c r="E4" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="151">
-        <f>Sheet4!L8</f>
+      <c r="L4" s="132">
+        <f>Sheet4!O8</f>
         <v>4340</v>
       </c>
-      <c r="M4" s="153" t="str">
-        <f>Sheet4!M8</f>
+      <c r="M4" s="134" t="str">
+        <f>Sheet4!P8</f>
         <v>WELDOX 460 E</v>
       </c>
-      <c r="N4" s="153" t="str">
-        <f>Sheet4!N8</f>
+      <c r="N4" s="134" t="str">
+        <f>Sheet4!Q8</f>
         <v>WELDOX 700 E</v>
       </c>
-      <c r="O4" s="153" t="str">
-        <f>Sheet4!O8</f>
+      <c r="O4" s="134" t="str">
+        <f>Sheet4!R8</f>
         <v>WELDOX 900 E</v>
       </c>
-      <c r="P4" s="153" t="str">
-        <f>Sheet4!P8</f>
+      <c r="P4" s="134" t="str">
+        <f>Sheet4!T8</f>
         <v>VT6</v>
       </c>
-      <c r="Q4" s="153" t="str">
-        <f>Sheet4!Q8</f>
+      <c r="Q4" s="134" t="str">
+        <f>Sheet4!U8</f>
         <v>OT4</v>
       </c>
-      <c r="R4" s="153" t="str">
-        <f>Sheet4!R8</f>
+      <c r="R4" s="134" t="str">
+        <f>Sheet4!V8</f>
         <v>OT4-O</v>
       </c>
-      <c r="S4" s="26"/>
+      <c r="S4" s="26" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="5" spans="2:19">
       <c r="B5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48">
         <v>2.7</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="48">
         <v>2.7</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="48">
         <v>2.7</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="48">
         <v>2.7</v>
       </c>
-      <c r="J5" s="49">
+      <c r="J5" s="48">
         <v>2.7</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="50">
         <v>7.85</v>
       </c>
-      <c r="L5" s="149">
-        <f>Sheet4!L9</f>
-        <v>7.8500000000000008E-9</v>
-      </c>
-      <c r="M5" s="149">
-        <f>Sheet4!M9</f>
-        <v>7.8500000000000008E-9</v>
-      </c>
-      <c r="N5" s="149">
-        <f>Sheet4!N9</f>
-        <v>7.8500000000000008E-9</v>
-      </c>
-      <c r="O5" s="149">
+      <c r="L5" s="130">
         <f>Sheet4!O9</f>
         <v>7.8500000000000008E-9</v>
       </c>
-      <c r="P5" s="149">
+      <c r="M5" s="130">
         <f>Sheet4!P9</f>
+        <v>7.8500000000000008E-9</v>
+      </c>
+      <c r="N5" s="130">
+        <f>Sheet4!Q9</f>
+        <v>7.8500000000000008E-9</v>
+      </c>
+      <c r="O5" s="130">
+        <f>Sheet4!R9</f>
+        <v>7.8500000000000008E-9</v>
+      </c>
+      <c r="P5" s="130">
+        <f>Sheet4!T9</f>
         <v>4.4299999999999998E-9</v>
       </c>
-      <c r="Q5" s="149">
-        <f>Sheet4!Q9</f>
+      <c r="Q5" s="130">
+        <f>Sheet4!U9</f>
         <v>4.5500000000000002E-9</v>
       </c>
-      <c r="R5" s="149">
-        <f>Sheet4!R9</f>
+      <c r="R5" s="130">
+        <f>Sheet4!V9</f>
         <v>4.5500000000000002E-9</v>
       </c>
       <c r="S5" s="26"/>
     </row>
     <row r="6" spans="2:19">
       <c r="B6" s="25"/>
-      <c r="C6" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="90" t="str">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,2,FALSE)</f>
+      <c r="C6" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="84" t="str">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$N$33,2,FALSE)</f>
         <v>n</v>
       </c>
-      <c r="E6" s="90" t="str">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,3,FALSE)</f>
+      <c r="E6" s="84" t="str">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$N$33,3,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="F6" s="90">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$K$33,4,FALSE)</f>
+      <c r="F6" s="84">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$N$33,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="90">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,5,FALSE)</f>
+      <c r="G6" s="84">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BI$33,5,FALSE)</f>
         <v>0.21299999999999999</v>
       </c>
-      <c r="H6" s="90">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,6,FALSE)</f>
+      <c r="H6" s="84">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BI$33,6,FALSE)</f>
         <v>0.16600000000000001</v>
       </c>
-      <c r="I6" s="90">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,7,FALSE)</f>
+      <c r="I6" s="84">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BI$33,7,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="J6" s="90">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,8,FALSE)</f>
+      <c r="J6" s="84">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BI$33,8,FALSE)</f>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="K6" s="154">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,9,FALSE)</f>
+      <c r="K6" s="135">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BI$33,9,FALSE)</f>
+        <v>0.39479999999999998</v>
+      </c>
+      <c r="L6" s="135">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BI$33,10,FALSE)</f>
+        <v>0.34</v>
+      </c>
+      <c r="M6" s="135">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BI$33,11,FALSE)</f>
+        <v>0.43</v>
+      </c>
+      <c r="N6" s="135">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BI$33,12,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="154">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,10,FALSE)</f>
+      <c r="O6" s="135">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BI$33,13,FALSE)</f>
         <v>0.26</v>
       </c>
-      <c r="M6" s="154">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,11,FALSE)</f>
+      <c r="P6" s="135">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BI$33,14,FALSE)</f>
         <v>0.45800000000000002</v>
       </c>
-      <c r="N6" s="154">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,12,FALSE)</f>
+      <c r="Q6" s="135">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BI$33,15,FALSE)</f>
         <v>0.57899999999999996</v>
       </c>
-      <c r="O6" s="154">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,13,FALSE)</f>
+      <c r="R6" s="135">
+        <f>VLOOKUP($C$6,Sheet4!$C$9:$BI$33,16,FALSE)</f>
         <v>0.56799999999999995</v>
-      </c>
-      <c r="P6" s="154">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,14,FALSE)</f>
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="Q6" s="154">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,15,FALSE)</f>
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="R6" s="154">
-        <f>VLOOKUP($C$6,Sheet4!$C$9:$BE$33,16,FALSE)</f>
-        <v>0.50800000000000001</v>
       </c>
       <c r="S6" s="26"/>
     </row>
     <row r="7" spans="2:19" ht="15.75" thickBot="1">
       <c r="B7" s="5"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="155"/>
-      <c r="M7" s="155"/>
-      <c r="N7" s="155"/>
-      <c r="O7" s="155"/>
-      <c r="P7" s="155"/>
-      <c r="Q7" s="155"/>
-      <c r="R7" s="155"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="136"/>
+      <c r="R7" s="136"/>
       <c r="S7" s="26"/>
     </row>
     <row r="8" spans="2:19" ht="15.75" thickBot="1">
       <c r="B8" s="5"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="49">
         <v>5.86</v>
       </c>
-      <c r="G8" s="86">
+      <c r="G8" s="80">
         <f>AVERAGE(5.70739,5.75573,5.71911,5.75623)</f>
         <v>5.7346149999999998</v>
       </c>
-      <c r="H8" s="87">
+      <c r="H8" s="81">
         <f>AVERAGE(5.5333,5.53117,5.50411,5.55659)</f>
         <v>5.5312925000000002</v>
       </c>
-      <c r="I8" s="87">
+      <c r="I8" s="81">
         <f>AVERAGE(5.66583,5.60073,5.61915,5.59391,5.59718)</f>
         <v>5.6153599999999999</v>
       </c>
-      <c r="J8" s="50">
+      <c r="J8" s="49">
         <v>5.42</v>
       </c>
-      <c r="K8" s="50">
+      <c r="K8" s="49">
         <v>6.96</v>
       </c>
-      <c r="L8" s="157">
+      <c r="L8" s="138">
         <v>7.72</v>
       </c>
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
       <c r="O8" s="29"/>
-      <c r="P8" s="156">
+      <c r="P8" s="137">
         <f>AVERAGE(5.59878,5.63895,5.73598,5.559)</f>
         <v>5.6331774999999995</v>
       </c>
-      <c r="Q8" s="156">
+      <c r="Q8" s="137">
         <f>AVERAGE(5.72896,5.85194,5.71406,5.82871)</f>
         <v>5.7809175000000002</v>
       </c>
-      <c r="R8" s="157">
+      <c r="R8" s="138">
         <v>6.13</v>
       </c>
       <c r="S8" s="26"/>
@@ -20594,61 +21709,61 @@
       <c r="B9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="42">
         <f>F8*2</f>
         <v>11.72</v>
       </c>
-      <c r="G9" s="88">
+      <c r="G9" s="82">
         <f t="shared" ref="G9:J9" si="0">G8*2</f>
         <v>11.46923</v>
       </c>
-      <c r="H9" s="88">
+      <c r="H9" s="82">
         <f t="shared" si="0"/>
         <v>11.062585</v>
       </c>
-      <c r="I9" s="88">
+      <c r="I9" s="82">
         <f t="shared" si="0"/>
         <v>11.23072</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="42">
         <f t="shared" si="0"/>
         <v>10.84</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="42">
         <f>K8*2</f>
         <v>13.92</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="42">
         <f t="shared" ref="L9:O9" si="1">L8*2</f>
         <v>15.44</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N9" s="43">
+      <c r="N9" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O9" s="43">
+      <c r="O9" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P9" s="88">
+      <c r="P9" s="82">
         <f t="shared" ref="P9:Q9" si="2">P8*2</f>
         <v>11.266354999999999</v>
       </c>
-      <c r="Q9" s="88">
+      <c r="Q9" s="82">
         <f t="shared" si="2"/>
         <v>11.561835</v>
       </c>
-      <c r="R9" s="157">
+      <c r="R9" s="138">
         <v>12.26</v>
       </c>
       <c r="S9" s="26"/>
@@ -20657,135 +21772,135 @@
       <c r="B10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="42">
         <v>62.2</v>
       </c>
-      <c r="G10" s="88">
+      <c r="G10" s="82">
         <f>AVERAGE(51.78,51.7122,49.6736,50.0039)</f>
         <v>50.792424999999994</v>
       </c>
-      <c r="H10" s="89">
+      <c r="H10" s="83">
         <v>54.277700000000003</v>
       </c>
-      <c r="I10" s="89">
+      <c r="I10" s="83">
         <f>AVERAGE(52.2685,51.7548)</f>
         <v>52.011650000000003</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="42">
         <v>52</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="42">
         <v>90</v>
       </c>
-      <c r="L10" s="157">
+      <c r="L10" s="138">
         <v>98</v>
       </c>
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
       <c r="O10" s="29"/>
-      <c r="P10" s="156">
+      <c r="P10" s="137">
         <f>AVERAGE(75.681,72.9799,72.8709,75.8579,74.0277)</f>
         <v>74.283479999999997</v>
       </c>
-      <c r="Q10" s="156">
+      <c r="Q10" s="137">
         <f>AVERAGE(73.0359,74.5732,73.0406)</f>
         <v>73.549899999999994</v>
       </c>
-      <c r="R10" s="157">
+      <c r="R10" s="138">
         <v>92.1</v>
       </c>
       <c r="S10" s="26"/>
     </row>
     <row r="11" spans="2:19" ht="15.75" thickBot="1">
       <c r="B11" s="25"/>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42">
+      <c r="E11" s="40"/>
+      <c r="F11" s="41">
         <v>1.22E-6</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="41">
         <v>1.22E-6</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="41">
         <v>1.22E-6</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="41">
         <v>1.22E-6</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="41">
         <v>1.22E-6</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="41">
         <v>1.22E-6</v>
       </c>
-      <c r="L11" s="158">
+      <c r="L11" s="139">
         <v>1.22E-6</v>
       </c>
-      <c r="M11" s="158">
+      <c r="M11" s="139">
         <v>1.22E-6</v>
       </c>
-      <c r="N11" s="158">
+      <c r="N11" s="139">
         <v>1.22E-6</v>
       </c>
-      <c r="O11" s="158">
+      <c r="O11" s="139">
         <v>1.22E-6</v>
       </c>
-      <c r="P11" s="42">
+      <c r="P11" s="41">
         <v>1.22E-6</v>
       </c>
-      <c r="Q11" s="42">
+      <c r="Q11" s="41">
         <v>1.22E-6</v>
       </c>
-      <c r="R11" s="158">
+      <c r="R11" s="139">
         <v>1.22E-6</v>
       </c>
       <c r="S11" s="26"/>
     </row>
     <row r="12" spans="2:19" ht="15.75" thickBot="1">
       <c r="B12" s="25"/>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42">
+      <c r="E12" s="40"/>
+      <c r="F12" s="41">
         <v>3.1600000000000002E-7</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="41">
         <v>1.74E-7</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="45">
         <v>1.14E-7</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="45">
         <v>1.85E-7</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="41">
         <v>3.4700000000000002E-7</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="41">
         <v>7.0000000000000005E-8</v>
       </c>
-      <c r="L12" s="158">
+      <c r="L12" s="139">
         <v>3.3600000000000003E-8</v>
       </c>
       <c r="M12" s="28"/>
       <c r="N12" s="28"/>
       <c r="O12" s="28"/>
-      <c r="P12" s="150">
+      <c r="P12" s="131">
         <v>9.6299999999999995E-8</v>
       </c>
-      <c r="Q12" s="150">
+      <c r="Q12" s="131">
         <v>9.3499999999999997E-8</v>
       </c>
-      <c r="R12" s="158">
+      <c r="R12" s="139">
         <v>7.1900000000000002E-8</v>
       </c>
       <c r="S12" s="26"/>
@@ -20794,61 +21909,61 @@
       <c r="B13" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="44">
         <f>(F12/F11)*100</f>
         <v>25.9016393442623</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="44">
         <f t="shared" ref="G13:J13" si="3">(G12/G11)*100</f>
         <v>14.262295081967213</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="44">
         <f t="shared" si="3"/>
         <v>9.3442622950819683</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="44">
         <f t="shared" si="3"/>
         <v>15.163934426229508</v>
       </c>
-      <c r="J13" s="45">
+      <c r="J13" s="44">
         <f t="shared" si="3"/>
         <v>28.442622950819676</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="44">
         <f>(K12/K11)*100</f>
         <v>5.7377049180327875</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="44">
         <f>(L12/L11)*100</f>
         <v>2.7540983606557381</v>
       </c>
-      <c r="M13" s="45">
+      <c r="M13" s="44">
         <f t="shared" ref="M13:O13" si="4">(M12/M11)*100</f>
         <v>0</v>
       </c>
-      <c r="N13" s="45">
+      <c r="N13" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O13" s="45">
+      <c r="O13" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P13" s="45">
+      <c r="P13" s="44">
         <f>(P12/P11)*100</f>
         <v>7.8934426229508192</v>
       </c>
-      <c r="Q13" s="45">
+      <c r="Q13" s="44">
         <f t="shared" ref="Q13:R13" si="5">(Q12/Q11)*100</f>
         <v>7.6639344262295088</v>
       </c>
-      <c r="R13" s="45">
+      <c r="R13" s="44">
         <f t="shared" si="5"/>
         <v>5.8934426229508201</v>
       </c>
@@ -20858,43 +21973,43 @@
       <c r="B14" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="41">
         <v>6470000</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="41">
         <v>6270000</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="45">
         <v>6250000</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="45">
         <v>6280000</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="41">
         <v>6450000</v>
       </c>
-      <c r="K14" s="42">
+      <c r="K14" s="41">
         <v>6070000</v>
       </c>
-      <c r="L14" s="158">
+      <c r="L14" s="139">
         <v>5720000</v>
       </c>
       <c r="M14" s="28"/>
       <c r="N14" s="28"/>
       <c r="O14" s="28"/>
-      <c r="P14" s="150">
+      <c r="P14" s="131">
         <v>6050000</v>
       </c>
-      <c r="Q14" s="150">
+      <c r="Q14" s="131">
         <v>6060000</v>
       </c>
-      <c r="R14" s="158">
+      <c r="R14" s="139">
         <v>6040000</v>
       </c>
       <c r="S14" s="26"/>
@@ -20903,43 +22018,43 @@
       <c r="B15" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="88">
+      <c r="F15" s="82">
         <v>1.35</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="42">
         <v>4.9400000000000004</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="43">
         <v>5.64</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="43">
         <v>5.03</v>
       </c>
-      <c r="J15" s="43">
+      <c r="J15" s="42">
         <v>3.08</v>
       </c>
-      <c r="K15" s="88">
+      <c r="K15" s="82">
         <v>4.96</v>
       </c>
-      <c r="L15" s="157">
+      <c r="L15" s="138">
         <v>8.58</v>
       </c>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
       <c r="O15" s="29"/>
-      <c r="P15" s="156">
+      <c r="P15" s="137">
         <v>11.2</v>
       </c>
-      <c r="Q15" s="156">
+      <c r="Q15" s="137">
         <v>11.4</v>
       </c>
-      <c r="R15" s="157">
+      <c r="R15" s="138">
         <v>5.07</v>
       </c>
       <c r="S15" s="26"/>
@@ -20948,110 +22063,110 @@
       <c r="B16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="91"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
       <c r="S16" s="26"/>
     </row>
     <row r="17" spans="2:19">
       <c r="B17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="91"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
       <c r="S17" s="26"/>
     </row>
     <row r="18" spans="2:19">
       <c r="B18" s="5"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="91"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
     </row>
     <row r="19" spans="2:19">
       <c r="B19" s="5"/>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
     </row>
     <row r="20" spans="2:19">
       <c r="B20" s="5"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="91"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
     </row>
     <row r="21" spans="2:19">
       <c r="B21" s="5"/>
@@ -21078,7 +22193,7 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21101,7 +22216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20CB03-FDC1-47B9-AF99-E205AFF1D2E2}">
   <dimension ref="C2:CB50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="X1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayleigh\Documents\HVI share\HVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A872EA0A-D227-46D8-A7E1-FC415265AF0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A07CA49-AB18-4BF5-8B75-7839575A3286}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="-15480" windowWidth="20730" windowHeight="15600" activeTab="1" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
   </bookViews>
@@ -1649,7 +1649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1967,53 +1967,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2053,9 +2008,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2065,23 +2017,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2114,12 +2054,76 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18467,8 +18471,8 @@
   <dimension ref="B3:AK63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC15" sqref="AC15"/>
+      <pane xSplit="5" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18546,136 +18550,136 @@
       <c r="C5" s="97"/>
       <c r="D5" s="97"/>
       <c r="E5" s="97"/>
-      <c r="F5" s="159" t="s">
+      <c r="F5" s="186" t="s">
         <v>148</v>
       </c>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160" t="s">
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="187"/>
+      <c r="K5" s="187" t="s">
         <v>191</v>
       </c>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="176" t="s">
+      <c r="L5" s="187"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="161" t="s">
         <v>190</v>
       </c>
-      <c r="O5" s="177" t="s">
+      <c r="O5" s="199" t="s">
         <v>149</v>
       </c>
-      <c r="P5" s="177"/>
-      <c r="Q5" s="177"/>
-      <c r="R5" s="177"/>
-      <c r="S5" s="177"/>
-      <c r="T5" s="177"/>
-      <c r="U5" s="177"/>
-      <c r="V5" s="177"/>
-      <c r="W5" s="177"/>
-      <c r="X5" s="177"/>
-      <c r="Y5" s="177"/>
+      <c r="P5" s="199"/>
+      <c r="Q5" s="199"/>
+      <c r="R5" s="199"/>
+      <c r="S5" s="199"/>
+      <c r="T5" s="199"/>
+      <c r="U5" s="199"/>
+      <c r="V5" s="199"/>
+      <c r="W5" s="199"/>
+      <c r="X5" s="199"/>
+      <c r="Y5" s="199"/>
     </row>
     <row r="6" spans="2:26">
       <c r="B6" s="26"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="161" t="s">
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="162"/>
-      <c r="K6" s="162"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="164"/>
-      <c r="N6" s="161" t="s">
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="182" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="162"/>
-      <c r="P6" s="162"/>
-      <c r="Q6" s="162"/>
-      <c r="R6" s="162"/>
-      <c r="S6" s="195"/>
-      <c r="T6" s="162" t="s">
+      <c r="O6" s="183"/>
+      <c r="P6" s="183"/>
+      <c r="Q6" s="183"/>
+      <c r="R6" s="183"/>
+      <c r="S6" s="175"/>
+      <c r="T6" s="183" t="s">
         <v>129</v>
       </c>
-      <c r="U6" s="162"/>
-      <c r="V6" s="162"/>
-      <c r="W6" s="162"/>
-      <c r="X6" s="202" t="s">
+      <c r="U6" s="183"/>
+      <c r="V6" s="183"/>
+      <c r="W6" s="183"/>
+      <c r="X6" s="184" t="s">
         <v>189</v>
       </c>
-      <c r="Y6" s="203"/>
-      <c r="Z6" s="189"/>
+      <c r="Y6" s="185"/>
+      <c r="Z6" s="169"/>
     </row>
     <row r="7" spans="2:26">
       <c r="B7" s="26"/>
       <c r="C7" s="61"/>
       <c r="D7" s="61"/>
       <c r="E7" s="71"/>
-      <c r="F7" s="165" t="s">
+      <c r="F7" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="166" t="s">
+      <c r="G7" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="166" t="s">
+      <c r="H7" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="166" t="s">
+      <c r="I7" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="163" t="s">
+      <c r="J7" s="148" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="164" t="s">
+      <c r="K7" s="149" t="s">
         <v>184</v>
       </c>
-      <c r="L7" s="166" t="s">
+      <c r="L7" s="151" t="s">
         <v>187</v>
       </c>
-      <c r="M7" s="164" t="s">
+      <c r="M7" s="149" t="s">
         <v>188</v>
       </c>
-      <c r="N7" s="167" t="s">
+      <c r="N7" s="152" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="164" t="s">
+      <c r="O7" s="149" t="s">
         <v>151</v>
       </c>
-      <c r="P7" s="163" t="s">
+      <c r="P7" s="148" t="s">
         <v>153</v>
       </c>
-      <c r="Q7" s="164" t="s">
+      <c r="Q7" s="149" t="s">
         <v>157</v>
       </c>
-      <c r="R7" s="164" t="s">
+      <c r="R7" s="149" t="s">
         <v>158</v>
       </c>
-      <c r="S7" s="176" t="s">
+      <c r="S7" s="161" t="s">
         <v>181</v>
       </c>
-      <c r="T7" s="165" t="s">
+      <c r="T7" s="150" t="s">
         <v>130</v>
       </c>
-      <c r="U7" s="166" t="s">
+      <c r="U7" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="V7" s="166" t="s">
+      <c r="V7" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="W7" s="173" t="s">
+      <c r="W7" s="158" t="s">
         <v>166</v>
       </c>
-      <c r="X7" s="178" t="s">
+      <c r="X7" s="162" t="s">
         <v>168</v>
       </c>
-      <c r="Y7" s="190" t="s">
+      <c r="Y7" s="170" t="s">
         <v>169</v>
       </c>
-      <c r="Z7" s="189"/>
+      <c r="Z7" s="169"/>
     </row>
     <row r="8" spans="2:26" ht="19.5" customHeight="1" thickBot="1">
       <c r="B8" s="26"/>
@@ -18688,67 +18692,67 @@
       <c r="E8" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="168" t="s">
+      <c r="F8" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="169" t="s">
+      <c r="G8" s="154" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="169" t="s">
+      <c r="H8" s="154" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="169" t="s">
+      <c r="I8" s="154" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="170" t="s">
+      <c r="J8" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="172" t="s">
+      <c r="K8" s="157" t="s">
         <v>185</v>
       </c>
-      <c r="L8" s="169" t="s">
+      <c r="L8" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="M8" s="172" t="s">
+      <c r="M8" s="157" t="s">
         <v>194</v>
       </c>
-      <c r="N8" s="171" t="s">
+      <c r="N8" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="172">
+      <c r="O8" s="157">
         <v>4340</v>
       </c>
-      <c r="P8" s="170" t="s">
+      <c r="P8" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="Q8" s="172" t="s">
+      <c r="Q8" s="157" t="s">
         <v>159</v>
       </c>
-      <c r="R8" s="172" t="s">
+      <c r="R8" s="157" t="s">
         <v>160</v>
       </c>
-      <c r="S8" s="172" t="s">
+      <c r="S8" s="157" t="s">
         <v>180</v>
       </c>
-      <c r="T8" s="168" t="s">
+      <c r="T8" s="153" t="s">
         <v>133</v>
       </c>
-      <c r="U8" s="169" t="s">
+      <c r="U8" s="154" t="s">
         <v>134</v>
       </c>
-      <c r="V8" s="169" t="s">
+      <c r="V8" s="154" t="s">
         <v>135</v>
       </c>
-      <c r="W8" s="170" t="s">
+      <c r="W8" s="155" t="s">
         <v>171</v>
       </c>
-      <c r="X8" s="179" t="s">
+      <c r="X8" s="163" t="s">
         <v>170</v>
       </c>
-      <c r="Y8" s="194" t="s">
+      <c r="Y8" s="174" t="s">
         <v>178</v>
       </c>
-      <c r="Z8" s="189"/>
+      <c r="Z8" s="169"/>
     </row>
     <row r="9" spans="2:26" ht="16.5" customHeight="1">
       <c r="B9" s="26"/>
@@ -18815,10 +18819,10 @@
       <c r="W9" s="28">
         <v>4.4299999999999998E-9</v>
       </c>
-      <c r="X9" s="185">
+      <c r="X9" s="167">
         <v>8.9600000000000005E-9</v>
       </c>
-      <c r="Y9" s="184">
+      <c r="Y9" s="166">
         <v>7.8899999999999998E-9</v>
       </c>
     </row>
@@ -18896,7 +18900,7 @@
         <f>W13/(3*(1-2*W14))</f>
         <v>117881.03958333335</v>
       </c>
-      <c r="X10" s="191">
+      <c r="X10" s="171">
         <f>X13/(3*(1-2*X14))</f>
         <v>129166.66666666669</v>
       </c>
@@ -18932,7 +18936,7 @@
         <v>26923.08</v>
       </c>
       <c r="K11" s="28">
-        <f t="shared" ref="K10:M11" si="1">K13/(2*(1+K14))</f>
+        <f t="shared" ref="K11:L11" si="1">K13/(2*(1+K14))</f>
         <v>24427.480916030534</v>
       </c>
       <c r="L11" s="28">
@@ -19125,10 +19129,10 @@
       <c r="W13" s="28">
         <v>113165.798</v>
       </c>
-      <c r="X13" s="183">
+      <c r="X13" s="165">
         <v>124000</v>
       </c>
-      <c r="Y13" s="184">
+      <c r="Y13" s="166">
         <v>207000</v>
       </c>
     </row>
@@ -19197,10 +19201,10 @@
       <c r="W14" s="29">
         <v>0.34</v>
       </c>
-      <c r="X14" s="174">
+      <c r="X14" s="159">
         <v>0.34</v>
       </c>
-      <c r="Y14" s="180">
+      <c r="Y14" s="164">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -19251,7 +19255,7 @@
       <c r="U15" s="101"/>
       <c r="V15" s="101"/>
       <c r="W15" s="29"/>
-      <c r="X15" s="174"/>
+      <c r="X15" s="159"/>
     </row>
     <row r="16" spans="2:26">
       <c r="B16" s="26"/>
@@ -19283,7 +19287,7 @@
         <v>960000000</v>
       </c>
       <c r="L16" s="33"/>
-      <c r="M16" s="199">
+      <c r="M16" s="179">
         <v>0</v>
       </c>
       <c r="N16" s="28">
@@ -19316,10 +19320,10 @@
       <c r="W16" s="28">
         <v>620750000</v>
       </c>
-      <c r="X16" s="183">
+      <c r="X16" s="165">
         <v>383000000</v>
       </c>
-      <c r="Y16" s="186">
+      <c r="Y16" s="168">
         <v>452000000</v>
       </c>
     </row>
@@ -19351,7 +19355,7 @@
       </c>
       <c r="K17" s="35"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="200"/>
+      <c r="M17" s="180"/>
       <c r="N17" s="28">
         <v>2.3200000000000001E-5</v>
       </c>
@@ -19372,7 +19376,7 @@
       <c r="U17" s="101"/>
       <c r="V17" s="101"/>
       <c r="W17" s="28"/>
-      <c r="X17" s="174"/>
+      <c r="X17" s="159"/>
     </row>
     <row r="18" spans="2:25">
       <c r="B18" s="26"/>
@@ -19398,9 +19402,15 @@
       <c r="J18" s="66">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="199"/>
+      <c r="K18" s="33">
+        <v>1E-4</v>
+      </c>
+      <c r="L18" s="33">
+        <v>1</v>
+      </c>
+      <c r="M18" s="179">
+        <v>1</v>
+      </c>
       <c r="N18" s="28">
         <v>1E-4</v>
       </c>
@@ -19416,7 +19426,9 @@
       <c r="R18" s="28">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="S18" s="28"/>
+      <c r="S18" s="28">
+        <v>1E-4</v>
+      </c>
       <c r="T18" s="104">
         <v>9.7999999999999997E-3</v>
       </c>
@@ -19426,8 +19438,15 @@
       <c r="V18" s="105">
         <v>6.3499999999999997E-3</v>
       </c>
-      <c r="W18" s="26"/>
-      <c r="X18" s="174"/>
+      <c r="W18" s="204">
+        <v>1</v>
+      </c>
+      <c r="X18" s="159">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="205">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="2:25">
       <c r="B19" s="26"/>
@@ -19453,7 +19472,7 @@
       </c>
       <c r="K19" s="28"/>
       <c r="L19" s="28"/>
-      <c r="M19" s="201"/>
+      <c r="M19" s="181"/>
       <c r="N19" s="28">
         <v>3.548</v>
       </c>
@@ -19478,7 +19497,7 @@
         <v>3.2760000000000002</v>
       </c>
       <c r="W19" s="26"/>
-      <c r="X19" s="174"/>
+      <c r="X19" s="159"/>
     </row>
     <row r="20" spans="2:25">
       <c r="B20" s="26"/>
@@ -19546,7 +19565,7 @@
         <v>1941</v>
       </c>
       <c r="W20" s="26"/>
-      <c r="X20" s="174">
+      <c r="X20" s="159">
         <v>1356</v>
       </c>
       <c r="Y20">
@@ -19618,7 +19637,7 @@
       <c r="W21" s="29">
         <v>293</v>
       </c>
-      <c r="X21" s="192">
+      <c r="X21" s="172">
         <v>293</v>
       </c>
       <c r="Y21" s="29">
@@ -19690,7 +19709,7 @@
       <c r="W22" s="29">
         <v>293</v>
       </c>
-      <c r="X22" s="193">
+      <c r="X22" s="173">
         <v>293</v>
       </c>
       <c r="Y22" s="29">
@@ -19740,7 +19759,7 @@
       <c r="U23" s="101"/>
       <c r="V23" s="101"/>
       <c r="W23" s="26"/>
-      <c r="X23" s="174"/>
+      <c r="X23" s="159"/>
     </row>
     <row r="24" spans="2:25">
       <c r="B24" s="26"/>
@@ -19804,13 +19823,13 @@
       <c r="V24" s="101">
         <v>500</v>
       </c>
-      <c r="W24" s="180">
+      <c r="W24" s="164">
         <v>1098</v>
       </c>
-      <c r="X24" s="174">
+      <c r="X24" s="159">
         <v>90</v>
       </c>
-      <c r="Y24" s="180">
+      <c r="Y24" s="164">
         <v>175</v>
       </c>
     </row>
@@ -19876,13 +19895,13 @@
       <c r="V25" s="101">
         <v>353.9</v>
       </c>
-      <c r="W25" s="180">
+      <c r="W25" s="164">
         <v>1092</v>
       </c>
-      <c r="X25" s="174">
+      <c r="X25" s="159">
         <v>292</v>
       </c>
-      <c r="Y25" s="180">
+      <c r="Y25" s="164">
         <v>380</v>
       </c>
     </row>
@@ -19948,13 +19967,13 @@
       <c r="V26" s="101">
         <v>0.50800000000000001</v>
       </c>
-      <c r="W26" s="180">
+      <c r="W26" s="164">
         <v>0.93</v>
       </c>
-      <c r="X26" s="174">
+      <c r="X26" s="159">
         <v>0.31</v>
       </c>
-      <c r="Y26" s="180">
+      <c r="Y26" s="164">
         <v>0.32</v>
       </c>
     </row>
@@ -20020,13 +20039,13 @@
       <c r="V27" s="101">
         <v>0.03</v>
       </c>
-      <c r="W27" s="180">
+      <c r="W27" s="164">
         <v>1.4E-2</v>
       </c>
-      <c r="X27" s="174">
+      <c r="X27" s="159">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Y27" s="180">
+      <c r="Y27" s="164">
         <v>0.06</v>
       </c>
     </row>
@@ -20092,13 +20111,13 @@
       <c r="V28" s="101">
         <v>0</v>
       </c>
-      <c r="W28" s="180">
+      <c r="W28" s="164">
         <v>1.1000000000000001</v>
       </c>
-      <c r="X28" s="174">
+      <c r="X28" s="159">
         <v>1.0900000000000001</v>
       </c>
-      <c r="Y28" s="180">
+      <c r="Y28" s="164">
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -20143,7 +20162,7 @@
       <c r="U29" s="101"/>
       <c r="V29" s="101"/>
       <c r="W29" s="26"/>
-      <c r="X29" s="174"/>
+      <c r="X29" s="159"/>
     </row>
     <row r="30" spans="2:25">
       <c r="B30" s="26"/>
@@ -20186,7 +20205,7 @@
       <c r="U30" s="101"/>
       <c r="V30" s="101"/>
       <c r="W30" s="26"/>
-      <c r="X30" s="174"/>
+      <c r="X30" s="159"/>
     </row>
     <row r="31" spans="2:25">
       <c r="B31" s="26"/>
@@ -20229,7 +20248,7 @@
       <c r="U31" s="101"/>
       <c r="V31" s="101"/>
       <c r="W31" s="26"/>
-      <c r="X31" s="174"/>
+      <c r="X31" s="159"/>
     </row>
     <row r="32" spans="2:25">
       <c r="B32" s="26"/>
@@ -20272,7 +20291,7 @@
       <c r="U32" s="101"/>
       <c r="V32" s="101"/>
       <c r="W32" s="26"/>
-      <c r="X32" s="174"/>
+      <c r="X32" s="159"/>
     </row>
     <row r="33" spans="2:25">
       <c r="B33" s="26"/>
@@ -20321,7 +20340,7 @@
       <c r="U33" s="101"/>
       <c r="V33" s="101"/>
       <c r="W33" s="26"/>
-      <c r="X33" s="174"/>
+      <c r="X33" s="159"/>
     </row>
     <row r="34" spans="2:25">
       <c r="B34" s="26"/>
@@ -20360,7 +20379,7 @@
       <c r="U34" s="101"/>
       <c r="V34" s="101"/>
       <c r="W34" s="26"/>
-      <c r="X34" s="174"/>
+      <c r="X34" s="159"/>
     </row>
     <row r="35" spans="2:25">
       <c r="B35" s="26"/>
@@ -20399,7 +20418,7 @@
       <c r="U35" s="101"/>
       <c r="V35" s="101"/>
       <c r="W35" s="26"/>
-      <c r="X35" s="174"/>
+      <c r="X35" s="159"/>
     </row>
     <row r="36" spans="2:25">
       <c r="B36" s="26"/>
@@ -20449,13 +20468,13 @@
       <c r="V36" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="W36" s="180">
+      <c r="W36" s="164">
         <v>-0.09</v>
       </c>
-      <c r="X36" s="174">
+      <c r="X36" s="159">
         <v>0.54</v>
       </c>
-      <c r="Y36" s="180">
+      <c r="Y36" s="164">
         <v>-2.2000000000000002</v>
       </c>
     </row>
@@ -20505,13 +20524,13 @@
       <c r="V37" s="101">
         <v>1.6850000000000001</v>
       </c>
-      <c r="W37" s="180">
+      <c r="W37" s="164">
         <v>0.27</v>
       </c>
-      <c r="X37" s="174">
+      <c r="X37" s="159">
         <v>4.8899999999999997</v>
       </c>
-      <c r="Y37" s="180">
+      <c r="Y37" s="164">
         <v>5.43</v>
       </c>
     </row>
@@ -20564,7 +20583,7 @@
       <c r="W38" s="26">
         <v>0.48</v>
       </c>
-      <c r="X38" s="174">
+      <c r="X38" s="159">
         <v>-3.03</v>
       </c>
       <c r="Y38">
@@ -20617,13 +20636,13 @@
       <c r="V39" s="101">
         <v>2.4E-2</v>
       </c>
-      <c r="W39" s="180">
+      <c r="W39" s="164">
         <v>1.4E-2</v>
       </c>
-      <c r="X39" s="174">
+      <c r="X39" s="159">
         <v>1.4E-2</v>
       </c>
-      <c r="Y39" s="180">
+      <c r="Y39" s="164">
         <v>1.6E-2</v>
       </c>
     </row>
@@ -20673,13 +20692,13 @@
       <c r="V40" s="101">
         <v>0</v>
       </c>
-      <c r="W40" s="180">
+      <c r="W40" s="164">
         <v>3.87</v>
       </c>
-      <c r="X40" s="174">
+      <c r="X40" s="159">
         <v>1.1200000000000001</v>
       </c>
-      <c r="Y40" s="180">
+      <c r="Y40" s="164">
         <v>0.63</v>
       </c>
     </row>
@@ -20718,7 +20737,7 @@
         <v>600</v>
       </c>
       <c r="W41" s="26"/>
-      <c r="X41" s="174"/>
+      <c r="X41" s="159"/>
     </row>
     <row r="42" spans="2:25" ht="14.25" customHeight="1">
       <c r="B42" s="26"/>
@@ -20751,7 +20770,7 @@
       <c r="U42" s="101"/>
       <c r="V42" s="101"/>
       <c r="W42" s="26"/>
-      <c r="X42" s="175"/>
+      <c r="X42" s="160"/>
     </row>
     <row r="43" spans="2:25" ht="14.25" customHeight="1">
       <c r="B43" s="26"/>
@@ -20782,7 +20801,7 @@
       <c r="U43" s="101"/>
       <c r="V43" s="101"/>
       <c r="W43" s="26"/>
-      <c r="X43" s="175"/>
+      <c r="X43" s="160"/>
     </row>
     <row r="44" spans="2:25" ht="14.25" customHeight="1">
       <c r="B44" s="26"/>
@@ -20813,7 +20832,7 @@
       <c r="U44" s="101"/>
       <c r="V44" s="101"/>
       <c r="W44" s="26"/>
-      <c r="X44" s="175"/>
+      <c r="X44" s="160"/>
     </row>
     <row r="45" spans="2:25" ht="14.25" customHeight="1">
       <c r="B45" s="26"/>
@@ -20882,7 +20901,7 @@
       <c r="U46" s="58"/>
       <c r="V46" s="27"/>
       <c r="W46" s="26"/>
-      <c r="X46" s="175"/>
+      <c r="X46" s="160"/>
     </row>
     <row r="47" spans="2:25">
       <c r="B47" s="26"/>
@@ -20892,12 +20911,12 @@
       <c r="D47" s="31"/>
       <c r="E47" s="76"/>
       <c r="F47" s="78"/>
-      <c r="G47" s="152">
+      <c r="G47" s="197">
         <v>1</v>
       </c>
-      <c r="H47" s="152"/>
-      <c r="I47" s="152"/>
-      <c r="J47" s="153"/>
+      <c r="H47" s="197"/>
+      <c r="I47" s="197"/>
+      <c r="J47" s="198"/>
       <c r="K47" s="142">
         <v>9</v>
       </c>
@@ -20913,26 +20932,26 @@
       <c r="O47" s="127">
         <v>4</v>
       </c>
-      <c r="P47" s="148">
+      <c r="P47" s="193">
         <v>5</v>
       </c>
-      <c r="Q47" s="148"/>
-      <c r="R47" s="148"/>
+      <c r="Q47" s="193"/>
+      <c r="R47" s="193"/>
       <c r="S47" s="146">
         <v>8</v>
       </c>
-      <c r="T47" s="148">
+      <c r="T47" s="193">
         <v>3</v>
       </c>
-      <c r="U47" s="148"/>
-      <c r="V47" s="148"/>
-      <c r="W47" s="158">
+      <c r="U47" s="193"/>
+      <c r="V47" s="193"/>
+      <c r="W47" s="147">
         <v>6</v>
       </c>
-      <c r="X47" s="188">
+      <c r="X47" s="190">
         <v>7</v>
       </c>
-      <c r="Y47" s="181"/>
+      <c r="Y47" s="191"/>
     </row>
     <row r="48" spans="2:25">
       <c r="B48" s="26"/>
@@ -20985,7 +21004,7 @@
         <v>121</v>
       </c>
       <c r="W48" s="26"/>
-      <c r="X48" s="175"/>
+      <c r="X48" s="160"/>
     </row>
     <row r="49" spans="2:37">
       <c r="B49" s="26"/>
@@ -21095,20 +21114,20 @@
       <c r="B53" s="26">
         <v>2</v>
       </c>
-      <c r="C53" s="149" t="s">
+      <c r="C53" s="194" t="s">
         <v>176</v>
       </c>
-      <c r="D53" s="149"/>
-      <c r="E53" s="149"/>
-      <c r="F53" s="149"/>
-      <c r="G53" s="149"/>
-      <c r="H53" s="149"/>
-      <c r="I53" s="149"/>
-      <c r="J53" s="149"/>
-      <c r="K53" s="149"/>
-      <c r="L53" s="149"/>
-      <c r="M53" s="149"/>
-      <c r="N53" s="149"/>
+      <c r="D53" s="194"/>
+      <c r="E53" s="194"/>
+      <c r="F53" s="194"/>
+      <c r="G53" s="194"/>
+      <c r="H53" s="194"/>
+      <c r="I53" s="194"/>
+      <c r="J53" s="194"/>
+      <c r="K53" s="194"/>
+      <c r="L53" s="194"/>
+      <c r="M53" s="194"/>
+      <c r="N53" s="194"/>
       <c r="O53" s="108"/>
       <c r="P53" s="128"/>
       <c r="Q53" s="128"/>
@@ -21124,16 +21143,16 @@
       <c r="B54" s="26">
         <v>3</v>
       </c>
-      <c r="C54" s="149" t="s">
+      <c r="C54" s="194" t="s">
         <v>175</v>
       </c>
-      <c r="D54" s="149"/>
-      <c r="E54" s="149"/>
-      <c r="F54" s="149"/>
-      <c r="G54" s="149"/>
-      <c r="H54" s="149"/>
-      <c r="I54" s="149"/>
-      <c r="J54" s="149"/>
+      <c r="D54" s="194"/>
+      <c r="E54" s="194"/>
+      <c r="F54" s="194"/>
+      <c r="G54" s="194"/>
+      <c r="H54" s="194"/>
+      <c r="I54" s="194"/>
+      <c r="J54" s="194"/>
       <c r="K54" s="144"/>
       <c r="L54" s="144"/>
       <c r="M54" s="144"/>
@@ -21182,21 +21201,21 @@
       <c r="B56" s="26">
         <v>5</v>
       </c>
-      <c r="C56" s="147" t="s">
+      <c r="C56" s="192" t="s">
         <v>173</v>
       </c>
-      <c r="D56" s="147"/>
-      <c r="E56" s="147"/>
-      <c r="F56" s="147"/>
-      <c r="G56" s="147"/>
-      <c r="H56" s="147"/>
-      <c r="I56" s="147"/>
-      <c r="J56" s="147"/>
-      <c r="K56" s="147"/>
-      <c r="L56" s="147"/>
-      <c r="M56" s="147"/>
-      <c r="N56" s="147"/>
-      <c r="O56" s="147"/>
+      <c r="D56" s="192"/>
+      <c r="E56" s="192"/>
+      <c r="F56" s="192"/>
+      <c r="G56" s="192"/>
+      <c r="H56" s="192"/>
+      <c r="I56" s="192"/>
+      <c r="J56" s="192"/>
+      <c r="K56" s="192"/>
+      <c r="L56" s="192"/>
+      <c r="M56" s="192"/>
+      <c r="N56" s="192"/>
+      <c r="O56" s="192"/>
       <c r="P56" s="26"/>
       <c r="Q56" s="26"/>
       <c r="R56" s="26"/>
@@ -21211,21 +21230,21 @@
       <c r="B57" s="26">
         <v>6</v>
       </c>
-      <c r="C57" s="182" t="s">
+      <c r="C57" s="188" t="s">
         <v>172</v>
       </c>
-      <c r="D57" s="182"/>
-      <c r="E57" s="182"/>
-      <c r="F57" s="182"/>
-      <c r="G57" s="182"/>
-      <c r="H57" s="182"/>
-      <c r="I57" s="182"/>
-      <c r="J57" s="182"/>
-      <c r="K57" s="182"/>
-      <c r="L57" s="182"/>
-      <c r="M57" s="182"/>
-      <c r="N57" s="182"/>
-      <c r="O57" s="182"/>
+      <c r="D57" s="188"/>
+      <c r="E57" s="188"/>
+      <c r="F57" s="188"/>
+      <c r="G57" s="188"/>
+      <c r="H57" s="188"/>
+      <c r="I57" s="188"/>
+      <c r="J57" s="188"/>
+      <c r="K57" s="188"/>
+      <c r="L57" s="188"/>
+      <c r="M57" s="188"/>
+      <c r="N57" s="188"/>
+      <c r="O57" s="188"/>
       <c r="P57" s="26"/>
       <c r="Q57" s="26"/>
       <c r="R57" s="26"/>
@@ -21240,24 +21259,24 @@
       <c r="B58" s="85">
         <v>6</v>
       </c>
-      <c r="C58" s="147" t="s">
+      <c r="C58" s="192" t="s">
         <v>183</v>
       </c>
-      <c r="D58" s="147"/>
-      <c r="E58" s="147"/>
-      <c r="F58" s="147"/>
-      <c r="G58" s="147"/>
-      <c r="H58" s="147"/>
-      <c r="I58" s="147"/>
-      <c r="J58" s="147"/>
-      <c r="K58" s="147"/>
-      <c r="L58" s="147"/>
-      <c r="M58" s="147"/>
-      <c r="N58" s="147"/>
-      <c r="O58" s="147"/>
-      <c r="P58" s="147"/>
-      <c r="Q58" s="147"/>
-      <c r="R58" s="147"/>
+      <c r="D58" s="192"/>
+      <c r="E58" s="192"/>
+      <c r="F58" s="192"/>
+      <c r="G58" s="192"/>
+      <c r="H58" s="192"/>
+      <c r="I58" s="192"/>
+      <c r="J58" s="192"/>
+      <c r="K58" s="192"/>
+      <c r="L58" s="192"/>
+      <c r="M58" s="192"/>
+      <c r="N58" s="192"/>
+      <c r="O58" s="192"/>
+      <c r="P58" s="192"/>
+      <c r="Q58" s="192"/>
+      <c r="R58" s="192"/>
       <c r="S58" s="26"/>
       <c r="T58" s="26"/>
       <c r="U58" s="26"/>
@@ -21269,41 +21288,41 @@
       <c r="B59" s="85">
         <v>7</v>
       </c>
-      <c r="C59" s="187" t="s">
+      <c r="C59" s="189" t="s">
         <v>179</v>
       </c>
-      <c r="D59" s="187"/>
-      <c r="E59" s="187"/>
-      <c r="F59" s="187"/>
-      <c r="G59" s="187"/>
-      <c r="H59" s="187"/>
-      <c r="I59" s="187"/>
-      <c r="J59" s="187"/>
-      <c r="K59" s="187"/>
-      <c r="L59" s="187"/>
-      <c r="M59" s="187"/>
-      <c r="N59" s="187"/>
-      <c r="O59" s="187"/>
-      <c r="P59" s="187"/>
+      <c r="D59" s="189"/>
+      <c r="E59" s="189"/>
+      <c r="F59" s="189"/>
+      <c r="G59" s="189"/>
+      <c r="H59" s="189"/>
+      <c r="I59" s="189"/>
+      <c r="J59" s="189"/>
+      <c r="K59" s="189"/>
+      <c r="L59" s="189"/>
+      <c r="M59" s="189"/>
+      <c r="N59" s="189"/>
+      <c r="O59" s="189"/>
+      <c r="P59" s="189"/>
     </row>
     <row r="60" spans="2:37" ht="16.5">
       <c r="B60" s="85">
         <v>8</v>
       </c>
-      <c r="C60" s="197" t="s">
+      <c r="C60" s="177" t="s">
         <v>182</v>
       </c>
-      <c r="D60" s="197"/>
-      <c r="E60" s="197"/>
-      <c r="F60" s="197"/>
-      <c r="G60" s="197"/>
-      <c r="H60" s="197"/>
-      <c r="I60" s="197"/>
-      <c r="J60" s="197"/>
-      <c r="K60" s="197"/>
-      <c r="L60" s="197"/>
-      <c r="M60" s="197"/>
-      <c r="N60" s="197"/>
+      <c r="D60" s="177"/>
+      <c r="E60" s="177"/>
+      <c r="F60" s="177"/>
+      <c r="G60" s="177"/>
+      <c r="H60" s="177"/>
+      <c r="I60" s="177"/>
+      <c r="J60" s="177"/>
+      <c r="K60" s="177"/>
+      <c r="L60" s="177"/>
+      <c r="M60" s="177"/>
+      <c r="N60" s="177"/>
       <c r="AK60" t="s">
         <v>49</v>
       </c>
@@ -21312,7 +21331,7 @@
       <c r="B61" s="85">
         <v>9</v>
       </c>
-      <c r="C61" s="198" t="s">
+      <c r="C61" s="178" t="s">
         <v>186</v>
       </c>
     </row>
@@ -21320,7 +21339,7 @@
       <c r="B62" s="85">
         <v>10</v>
       </c>
-      <c r="C62" s="196" t="s">
+      <c r="C62" s="176" t="s">
         <v>193</v>
       </c>
     </row>
@@ -21328,27 +21347,27 @@
       <c r="B63" s="85">
         <v>11</v>
       </c>
-      <c r="C63" s="196" t="s">
+      <c r="C63" s="176" t="s">
         <v>195</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="C57:O57"/>
     <mergeCell ref="C59:P59"/>
     <mergeCell ref="X47:Y47"/>
     <mergeCell ref="C58:R58"/>
     <mergeCell ref="C56:O56"/>
     <mergeCell ref="T47:V47"/>
     <mergeCell ref="C54:J54"/>
-    <mergeCell ref="C6:E6"/>
     <mergeCell ref="G47:J47"/>
     <mergeCell ref="C53:N53"/>
     <mergeCell ref="P47:R47"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="C57:O57"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="T6:W6"/>
     <mergeCell ref="N6:R6"/>
     <mergeCell ref="O5:Y5"/>
@@ -21382,33 +21401,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19">
-      <c r="C2" s="155"/>
-      <c r="D2" s="154"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="200"/>
       <c r="E2" s="79"/>
-      <c r="F2" s="154" t="s">
+      <c r="F2" s="200" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="156" t="s">
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="157"/>
+      <c r="L2" s="203"/>
       <c r="M2" s="133"/>
       <c r="N2" s="133"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="157" t="s">
+      <c r="P2" s="203" t="s">
         <v>155</v>
       </c>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="203"/>
     </row>
     <row r="3" spans="2:19">
-      <c r="C3" s="155"/>
-      <c r="D3" s="154"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="200"/>
       <c r="E3" s="79"/>
       <c r="F3" s="38" t="s">
         <v>54</v>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayleigh\Documents\HVI share\HVI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c4e1f6e80555f8e/Documenten/Internship/Project/Shared folder/HVI/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A07CA49-AB18-4BF5-8B75-7839575A3286}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7A07CA49-AB18-4BF5-8B75-7839575A3286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C26FA996-E403-4E95-A60E-FCA0349924DC}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="-15480" windowWidth="20730" windowHeight="15600" activeTab="1" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
+    <workbookView xWindow="420" yWindow="-108" windowWidth="22728" windowHeight="13176" activeTab="1" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -901,7 +910,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2054,6 +2063,34 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2075,35 +2112,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2120,10 +2133,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2214,7 +2223,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2769,7 +2778,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2807,7 +2816,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -2900,7 +2909,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2938,7 +2947,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -2980,7 +2989,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3017,7 +3026,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3101,7 +3110,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3846,7 +3855,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3884,7 +3893,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -3993,7 +4002,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4031,7 +4040,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -4073,7 +4082,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4110,7 +4119,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4194,7 +4203,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4744,7 +4753,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4782,7 +4791,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -4875,7 +4884,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4913,7 +4922,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -4955,7 +4964,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4992,7 +5001,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5110,7 +5119,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5660,7 +5669,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5698,7 +5707,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -5791,7 +5800,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5829,7 +5838,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -5871,7 +5880,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5908,7 +5917,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5992,7 +6001,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6534,7 +6543,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6572,7 +6581,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -6673,7 +6682,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6711,7 +6720,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -6753,7 +6762,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6790,7 +6799,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6908,7 +6917,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7450,7 +7459,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7488,7 +7497,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -7597,7 +7606,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-           